--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -128,6 +128,34 @@
             <charset val="1"/>
           </rPr>
           <t>bare Si</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vert = -3.15
+pitch = 2.7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vert = -9.5
+pitch = -3.5</t>
         </r>
       </text>
     </comment>
@@ -328,10 +356,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="3224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4075" uniqueCount="3224">
   <si>
     <r>
-      <t>in /home/bravel/commissioning/CRS, do </t>
+      <t>in /home/bravel/commissioning/CRS, do</t>
     </r>
     <r>
       <rPr>
@@ -384,7 +412,7 @@
     <t>Alias</t>
   </si>
   <si>
-    <t>Motor Description</t>
+    <t>Description</t>
   </si>
   <si>
     <t>RBV</t>
@@ -575,7 +603,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> enc.</t>
+      <t>enc.</t>
     </r>
   </si>
   <si>
@@ -605,7 +633,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> xtal pitch</t>
+      <t>xtal pitch</t>
     </r>
   </si>
   <si>
@@ -635,7 +663,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> xtal roll</t>
+      <t>xtal roll</t>
     </r>
   </si>
   <si>
@@ -665,7 +693,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> xtal perp.</t>
+      <t>xtal perp.</t>
     </r>
   </si>
   <si>
@@ -695,7 +723,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t> xtal parallel</t>
+      <t>xtal parallel</t>
     </r>
   </si>
   <si>
@@ -1026,18 +1054,21 @@
     <t>A</t>
   </si>
   <si>
+    <t>out of beam</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>Al</t>
   </si>
   <si>
-    <t>B</t>
+    <t>C</t>
   </si>
   <si>
     <t>Ni</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -1045,9 +1076,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>out of beam</t>
   </si>
   <si>
     <t>XF:06BM-BI{F460:1}Ana:Ai1</t>
@@ -10257,10 +10285,31 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -10274,13 +10323,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom/>
@@ -10417,7 +10459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10450,7 +10492,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10470,31 +10512,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10502,11 +10536,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10518,7 +10560,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10526,15 +10568,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10542,23 +10608,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10566,39 +10652,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10606,27 +10664,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10634,15 +10680,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10650,7 +10696,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10658,7 +10704,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10666,7 +10712,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10678,19 +10724,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10702,11 +10748,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10718,15 +10764,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10826,11 +10872,11 @@
   <dimension ref="1:57"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="O50" activeCellId="0" sqref="O50:P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11003,7 +11049,12 @@
       <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
       <c r="K5" s="25"/>
+      <c r="L5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
       <c r="R5" s="0" t="n">
         <v>1.1</v>
       </c>
@@ -11017,7 +11068,12 @@
       <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
       <c r="K6" s="25"/>
+      <c r="L6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
       <c r="R6" s="0" t="n">
         <v>0.6</v>
       </c>
@@ -11344,7 +11400,7 @@
       <c r="G17" s="25" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="38" t="n">
         <v>27327</v>
       </c>
       <c r="I17" s="26" t="n">
@@ -11356,7 +11412,7 @@
       <c r="K17" s="25" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="38" t="n">
         <v>27327</v>
       </c>
       <c r="M17" s="26" t="n">
@@ -11368,7 +11424,7 @@
       <c r="O17" s="25" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="38" t="n">
         <v>27327</v>
       </c>
     </row>
@@ -11392,7 +11448,7 @@
       <c r="G18" s="25" t="n">
         <v>0.5299</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="38" t="n">
         <v>24328</v>
       </c>
       <c r="I18" s="26" t="n">
@@ -11404,7 +11460,7 @@
       <c r="K18" s="25" t="n">
         <v>0.5298</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="38" t="n">
         <v>24327</v>
       </c>
       <c r="M18" s="26" t="n">
@@ -11416,7 +11472,7 @@
       <c r="O18" s="25" t="n">
         <v>0.5299</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="38" t="n">
         <v>24328</v>
       </c>
     </row>
@@ -11440,7 +11496,7 @@
       <c r="G19" s="25" t="n">
         <v>0.4831</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="38" t="n">
         <v>4831</v>
       </c>
       <c r="I19" s="26" t="n">
@@ -11452,7 +11508,7 @@
       <c r="K19" s="25" t="n">
         <v>0.4832</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="38" t="n">
         <v>4832</v>
       </c>
       <c r="M19" s="26" t="n">
@@ -11464,7 +11520,7 @@
       <c r="O19" s="25" t="n">
         <v>0.4832</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="38" t="n">
         <v>4832</v>
       </c>
     </row>
@@ -11488,7 +11544,7 @@
       <c r="G20" s="31" t="n">
         <v>2.1801</v>
       </c>
-      <c r="H20" s="38" t="n">
+      <c r="H20" s="39" t="n">
         <v>24800</v>
       </c>
       <c r="I20" s="30" t="n">
@@ -11500,7 +11556,7 @@
       <c r="K20" s="31" t="n">
         <v>2.1802</v>
       </c>
-      <c r="L20" s="38" t="n">
+      <c r="L20" s="39" t="n">
         <v>24801</v>
       </c>
       <c r="M20" s="30" t="n">
@@ -11512,7 +11568,7 @@
       <c r="O20" s="31" t="n">
         <v>2.1802</v>
       </c>
-      <c r="P20" s="38" t="n">
+      <c r="P20" s="39" t="n">
         <v>24801</v>
       </c>
       <c r="ALW20" s="0"/>
@@ -11531,7 +11587,7 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -11596,7 +11652,7 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="28" t="s">
         <v>59</v>
       </c>
@@ -11615,7 +11671,7 @@
       <c r="G22" s="31" t="n">
         <v>62.9999</v>
       </c>
-      <c r="H22" s="38" t="n">
+      <c r="H22" s="39" t="n">
         <v>629999</v>
       </c>
       <c r="I22" s="30" t="n">
@@ -11627,7 +11683,7 @@
       <c r="K22" s="31" t="n">
         <v>62.9996</v>
       </c>
-      <c r="L22" s="38" t="n">
+      <c r="L22" s="39" t="n">
         <v>629996</v>
       </c>
       <c r="M22" s="30" t="n">
@@ -11639,10 +11695,10 @@
       <c r="O22" s="31" t="n">
         <v>62.9996</v>
       </c>
-      <c r="P22" s="38" t="n">
+      <c r="P22" s="39" t="n">
         <v>629996</v>
       </c>
-      <c r="ALV22" s="40"/>
+      <c r="ALV22" s="41"/>
       <c r="ALW22" s="0"/>
       <c r="ALX22" s="0"/>
       <c r="ALY22" s="0"/>
@@ -11683,7 +11739,7 @@
       <c r="H23" s="20" t="n">
         <v>503230</v>
       </c>
-      <c r="I23" s="41" t="n">
+      <c r="I23" s="42" t="n">
         <v>5.67308</v>
       </c>
       <c r="J23" s="18" t="n">
@@ -11742,7 +11798,7 @@
       <c r="G24" s="25" t="n">
         <v>19.3487</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="38" t="n">
         <v>525198</v>
       </c>
       <c r="I24" s="26" t="n">
@@ -11754,7 +11810,7 @@
       <c r="K24" s="25" t="n">
         <v>13.7836</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="38" t="n">
         <v>-587827</v>
       </c>
       <c r="M24" s="26" t="n">
@@ -11766,7 +11822,7 @@
       <c r="O24" s="25" t="n">
         <v>19.3418</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="38" t="n">
         <v>523783</v>
       </c>
     </row>
@@ -11790,7 +11846,7 @@
       <c r="G25" s="25" t="n">
         <v>5.52818</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="38" t="n">
         <v>-1414</v>
       </c>
       <c r="I25" s="26" t="n">
@@ -11802,7 +11858,7 @@
       <c r="K25" s="25" t="n">
         <v>5.48518</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="38" t="n">
         <v>-1514</v>
       </c>
       <c r="M25" s="26" t="n">
@@ -11814,7 +11870,7 @@
       <c r="O25" s="25" t="n">
         <v>5.52861</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="38" t="n">
         <v>-1413</v>
       </c>
     </row>
@@ -11838,7 +11894,7 @@
       <c r="G26" s="25" t="n">
         <v>8.75154</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="38" t="n">
         <v>-2831</v>
       </c>
       <c r="I26" s="26" t="n">
@@ -11850,7 +11906,7 @@
       <c r="K26" s="25" t="n">
         <v>8.77716</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="38" t="n">
         <v>-2771</v>
       </c>
       <c r="M26" s="26" t="n">
@@ -11862,7 +11918,7 @@
       <c r="O26" s="25" t="n">
         <v>8.77128</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="38" t="n">
         <v>-2784</v>
       </c>
     </row>
@@ -11886,7 +11942,7 @@
       <c r="G27" s="25" t="n">
         <v>11.3071</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="38" t="n">
         <v>-93556</v>
       </c>
       <c r="I27" s="26" t="n">
@@ -11898,7 +11954,7 @@
       <c r="K27" s="25" t="n">
         <v>10.5717</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="38" t="n">
         <v>-100910</v>
       </c>
       <c r="M27" s="26" t="n">
@@ -11910,7 +11966,7 @@
       <c r="O27" s="25" t="n">
         <v>11.3071</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="38" t="n">
         <v>-93556</v>
       </c>
     </row>
@@ -11934,7 +11990,7 @@
       <c r="G28" s="25" t="n">
         <v>48.0221</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="38" t="n">
         <v>-183437</v>
       </c>
       <c r="I28" s="26" t="n">
@@ -11946,7 +12002,7 @@
       <c r="K28" s="25" t="n">
         <v>108.719</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="38" t="n">
         <v>423528</v>
       </c>
       <c r="M28" s="26" t="n">
@@ -11958,7 +12014,7 @@
       <c r="O28" s="25" t="n">
         <v>48.0221</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="38" t="n">
         <v>-183437</v>
       </c>
     </row>
@@ -11982,7 +12038,7 @@
       <c r="G29" s="25" t="n">
         <v>-33.0024</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="38" t="n">
         <v>-330024</v>
       </c>
       <c r="I29" s="26" t="n">
@@ -11994,7 +12050,7 @@
       <c r="K29" s="25" t="n">
         <v>-33.0026</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="38" t="n">
         <v>-330022</v>
       </c>
       <c r="M29" s="26" t="n">
@@ -12006,7 +12062,7 @@
       <c r="O29" s="25" t="n">
         <v>-33.0026</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="38" t="n">
         <v>-330022</v>
       </c>
     </row>
@@ -12030,7 +12086,7 @@
       <c r="G30" s="31" t="n">
         <v>0.0006</v>
       </c>
-      <c r="H30" s="38" t="n">
+      <c r="H30" s="39" t="n">
         <v>6</v>
       </c>
       <c r="I30" s="30" t="n">
@@ -12042,7 +12098,7 @@
       <c r="K30" s="31" t="n">
         <v>0.0006</v>
       </c>
-      <c r="L30" s="38" t="n">
+      <c r="L30" s="39" t="n">
         <v>6</v>
       </c>
       <c r="M30" s="30" t="n">
@@ -12054,7 +12110,7 @@
       <c r="O30" s="31" t="n">
         <v>0.0006</v>
       </c>
-      <c r="P30" s="38" t="n">
+      <c r="P30" s="39" t="n">
         <v>6</v>
       </c>
       <c r="ALW30" s="0"/>
@@ -12156,7 +12212,7 @@
       <c r="G32" s="25" t="n">
         <v>-7.3693</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="38" t="n">
         <v>-40044</v>
       </c>
       <c r="I32" s="26" t="n">
@@ -12168,7 +12224,7 @@
       <c r="K32" s="25" t="n">
         <v>-7.3691</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="38" t="n">
         <v>-40042</v>
       </c>
       <c r="M32" s="26" t="n">
@@ -12180,7 +12236,7 @@
       <c r="O32" s="25" t="n">
         <v>-7.3692</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="38" t="n">
         <v>-40043</v>
       </c>
     </row>
@@ -12204,7 +12260,7 @@
       <c r="G33" s="25" t="n">
         <v>7.2952</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="38" t="n">
         <v>37125</v>
       </c>
       <c r="I33" s="26" t="n">
@@ -12216,7 +12272,7 @@
       <c r="K33" s="25" t="n">
         <v>7.2954</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="38" t="n">
         <v>37127</v>
       </c>
       <c r="M33" s="26" t="n">
@@ -12228,7 +12284,7 @@
       <c r="O33" s="25" t="n">
         <v>7.2954</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="38" t="n">
         <v>37126</v>
       </c>
     </row>
@@ -12252,7 +12308,7 @@
       <c r="G34" s="31" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="H34" s="38" t="n">
+      <c r="H34" s="39" t="n">
         <v>-12509</v>
       </c>
       <c r="I34" s="30" t="n">
@@ -12264,7 +12320,7 @@
       <c r="K34" s="31" t="n">
         <v>-4.0011</v>
       </c>
-      <c r="L34" s="38" t="n">
+      <c r="L34" s="39" t="n">
         <v>-12510</v>
       </c>
       <c r="M34" s="30" t="n">
@@ -12276,7 +12332,7 @@
       <c r="O34" s="31" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="P34" s="38" t="n">
+      <c r="P34" s="39" t="n">
         <v>-12510</v>
       </c>
       <c r="ALW34" s="0"/>
@@ -12294,53 +12350,53 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="s">
+    <row r="35" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="45" t="n">
+      <c r="E35" s="46" t="n">
         <v>32.9997</v>
       </c>
-      <c r="F35" s="44" t="n">
+      <c r="F35" s="45" t="n">
         <v>-10573</v>
       </c>
-      <c r="G35" s="46" t="n">
+      <c r="G35" s="47" t="n">
         <v>32.9996</v>
       </c>
-      <c r="H35" s="47" t="n">
+      <c r="H35" s="48" t="n">
         <v>-10574</v>
       </c>
-      <c r="I35" s="45" t="n">
+      <c r="I35" s="46" t="n">
         <v>32.9997</v>
       </c>
-      <c r="J35" s="44" t="n">
+      <c r="J35" s="45" t="n">
         <v>-10573</v>
       </c>
-      <c r="K35" s="46" t="n">
+      <c r="K35" s="47" t="n">
         <v>73.0001</v>
       </c>
-      <c r="L35" s="47" t="n">
+      <c r="L35" s="48" t="n">
         <v>389431</v>
       </c>
-      <c r="M35" s="45" t="n">
+      <c r="M35" s="46" t="n">
         <v>73.0001</v>
       </c>
-      <c r="N35" s="44" t="n">
+      <c r="N35" s="45" t="n">
         <v>389431</v>
       </c>
-      <c r="O35" s="46" t="n">
+      <c r="O35" s="47" t="n">
         <v>73</v>
       </c>
-      <c r="P35" s="47" t="n">
+      <c r="P35" s="48" t="n">
         <v>389430</v>
       </c>
       <c r="ALW35" s="0"/>
@@ -12442,7 +12498,7 @@
       <c r="G37" s="25" t="n">
         <v>-1.4088</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="38" t="n">
         <v>-22988</v>
       </c>
       <c r="I37" s="26" t="n">
@@ -12454,7 +12510,7 @@
       <c r="K37" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="38" t="n">
         <v>71100</v>
       </c>
       <c r="M37" s="26" t="n">
@@ -12466,7 +12522,7 @@
       <c r="O37" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="38" t="n">
         <v>71100</v>
       </c>
     </row>
@@ -12490,7 +12546,7 @@
       <c r="G38" s="25" t="n">
         <v>-1.41</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="38" t="n">
         <v>-17100</v>
       </c>
       <c r="I38" s="26" t="n">
@@ -12502,7 +12558,7 @@
       <c r="K38" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="38" t="n">
         <v>76999</v>
       </c>
       <c r="M38" s="26" t="n">
@@ -12514,7 +12570,7 @@
       <c r="O38" s="25" t="n">
         <v>8.0001</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="38" t="n">
         <v>77001</v>
       </c>
     </row>
@@ -12538,7 +12594,7 @@
       <c r="G39" s="25" t="n">
         <v>0.4373</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="38" t="n">
         <v>-7817</v>
       </c>
       <c r="I39" s="26" t="n">
@@ -12550,7 +12606,7 @@
       <c r="K39" s="25" t="n">
         <v>-0.001</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="38" t="n">
         <v>-12200</v>
       </c>
       <c r="M39" s="26" t="n">
@@ -12562,7 +12618,7 @@
       <c r="O39" s="25" t="n">
         <v>-0.001</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="38" t="n">
         <v>-12200</v>
       </c>
     </row>
@@ -12586,7 +12642,7 @@
       <c r="G40" s="25" t="n">
         <v>0.5659</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="38" t="n">
         <v>-21841</v>
       </c>
       <c r="I40" s="26" t="n">
@@ -12598,7 +12654,7 @@
       <c r="K40" s="25" t="n">
         <v>-0.0025</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="38" t="n">
         <v>-27526</v>
       </c>
       <c r="M40" s="26" t="n">
@@ -12610,7 +12666,7 @@
       <c r="O40" s="25" t="n">
         <v>-0.0026</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="38" t="n">
         <v>-27526</v>
       </c>
     </row>
@@ -12634,7 +12690,7 @@
       <c r="G41" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="H41" s="38" t="n">
+      <c r="H41" s="39" t="n">
         <v>3</v>
       </c>
       <c r="I41" s="30" t="n">
@@ -12646,7 +12702,7 @@
       <c r="K41" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="38" t="n">
+      <c r="L41" s="39" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="30" t="n">
@@ -12658,7 +12714,7 @@
       <c r="O41" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P41" s="38" t="n">
+      <c r="P41" s="39" t="n">
         <v>0</v>
       </c>
       <c r="ALW41" s="0"/>
@@ -12701,8 +12757,8 @@
       <c r="H42" s="22" t="n">
         <v>-47880</v>
       </c>
-      <c r="I42" s="35" t="n">
-        <v>-8.2337</v>
+      <c r="I42" s="0" t="n">
+        <v>-8.333</v>
       </c>
       <c r="J42" s="17" t="n">
         <v>-64137</v>
@@ -12760,11 +12816,11 @@
       <c r="G43" s="25" t="n">
         <v>-9.943</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="38" t="n">
         <v>-95730</v>
       </c>
-      <c r="I43" s="26" t="n">
-        <v>-10.5686</v>
+      <c r="I43" s="0" t="n">
+        <v>-10.668</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>-101986</v>
@@ -12772,7 +12828,7 @@
       <c r="K43" s="25" t="n">
         <v>1.1673</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="38" t="n">
         <v>15373</v>
       </c>
       <c r="M43" s="26" t="n">
@@ -12784,7 +12840,7 @@
       <c r="O43" s="25" t="n">
         <v>0.6671</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="38" t="n">
         <v>10371</v>
       </c>
     </row>
@@ -12808,11 +12864,11 @@
       <c r="G44" s="25" t="n">
         <v>-9.943</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="38" t="n">
         <v>-97030</v>
       </c>
-      <c r="I44" s="26" t="n">
-        <v>-10.569</v>
+      <c r="I44" s="0" t="n">
+        <v>-10.668</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>-103290</v>
@@ -12820,7 +12876,7 @@
       <c r="K44" s="25" t="n">
         <v>1.1673</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="38" t="n">
         <v>14073</v>
       </c>
       <c r="M44" s="26" t="n">
@@ -12832,7 +12888,7 @@
       <c r="O44" s="25" t="n">
         <v>0.6669</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="38" t="n">
         <v>9069</v>
       </c>
     </row>
@@ -12854,33 +12910,33 @@
         <v>132223</v>
       </c>
       <c r="G45" s="25" t="n">
-        <v>-14.9985</v>
-      </c>
-      <c r="H45" s="2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="H45" s="38" t="n">
         <v>-167785</v>
       </c>
       <c r="I45" s="25" t="n">
-        <v>-14.9985</v>
+        <v>-15</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>132223</v>
       </c>
       <c r="K45" s="25" t="n">
-        <v>15.0024</v>
-      </c>
-      <c r="L45" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L45" s="38" t="n">
         <v>132224</v>
       </c>
       <c r="M45" s="26" t="n">
-        <v>-14.9979</v>
+        <v>-15</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>-167779</v>
       </c>
       <c r="O45" s="25" t="n">
-        <v>-14.9978</v>
-      </c>
-      <c r="P45" s="2" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P45" s="38" t="n">
         <v>-167778</v>
       </c>
     </row>
@@ -12896,7 +12952,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>14.9989</v>
+        <v>15</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>114409</v>
@@ -12904,11 +12960,11 @@
       <c r="G46" s="31" t="n">
         <v>-15.0018</v>
       </c>
-      <c r="H46" s="38" t="n">
+      <c r="H46" s="39" t="n">
         <v>-185598</v>
       </c>
       <c r="I46" s="30" t="n">
-        <v>14.9989</v>
+        <v>-15</v>
       </c>
       <c r="J46" s="29" t="n">
         <v>114409</v>
@@ -12916,11 +12972,11 @@
       <c r="K46" s="31" t="n">
         <v>15.0002</v>
       </c>
-      <c r="L46" s="38" t="n">
+      <c r="L46" s="39" t="n">
         <v>114422</v>
       </c>
       <c r="M46" s="30" t="n">
-        <v>-15.0006</v>
+        <v>-15</v>
       </c>
       <c r="N46" s="29" t="n">
         <v>-185586</v>
@@ -12928,7 +12984,7 @@
       <c r="O46" s="31" t="n">
         <v>-15.0006</v>
       </c>
-      <c r="P46" s="38" t="n">
+      <c r="P46" s="39" t="n">
         <v>-185586</v>
       </c>
       <c r="ALW46" s="0"/>
@@ -12946,53 +13002,53 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42" t="s">
+    <row r="47" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="45" t="n">
+      <c r="E47" s="46" t="n">
         <v>3.891</v>
       </c>
-      <c r="F47" s="44" t="n">
+      <c r="F47" s="45" t="n">
         <v>-2658</v>
       </c>
-      <c r="G47" s="46" t="n">
+      <c r="G47" s="47" t="n">
         <v>-59.0037</v>
       </c>
-      <c r="H47" s="47" t="n">
+      <c r="H47" s="48" t="n">
         <v>-631605</v>
       </c>
-      <c r="I47" s="45" t="n">
+      <c r="I47" s="46" t="n">
         <v>-36.9997</v>
       </c>
-      <c r="J47" s="44" t="n">
+      <c r="J47" s="45" t="n">
         <v>-411565</v>
       </c>
-      <c r="K47" s="46" t="n">
+      <c r="K47" s="47" t="n">
         <v>23.1</v>
       </c>
-      <c r="L47" s="47" t="n">
+      <c r="L47" s="48" t="n">
         <v>189372</v>
       </c>
-      <c r="M47" s="45" t="n">
+      <c r="M47" s="46" t="n">
         <v>23.1</v>
       </c>
-      <c r="N47" s="44" t="n">
+      <c r="N47" s="45" t="n">
         <v>189372</v>
       </c>
-      <c r="O47" s="46" t="n">
+      <c r="O47" s="47" t="n">
         <v>-1.2</v>
       </c>
-      <c r="P47" s="47" t="n">
+      <c r="P47" s="48" t="n">
         <v>-53715</v>
       </c>
       <c r="ALW47" s="0"/>
@@ -13094,7 +13150,7 @@
       <c r="G49" s="25" t="n">
         <v>-1.5991</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="38" t="n">
         <v>23761</v>
       </c>
       <c r="I49" s="26" t="n">
@@ -13106,7 +13162,7 @@
       <c r="K49" s="25" t="n">
         <v>-1.599</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="38" t="n">
         <v>23762</v>
       </c>
       <c r="M49" s="26" t="n">
@@ -13118,7 +13174,7 @@
       <c r="O49" s="25" t="n">
         <v>-1.5992</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="38" t="n">
         <v>23760</v>
       </c>
     </row>
@@ -13142,7 +13198,7 @@
       <c r="G50" s="25" t="n">
         <v>6.3026</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="38" t="n">
         <v>53486</v>
       </c>
       <c r="I50" s="26" t="n">
@@ -13151,23 +13207,23 @@
       <c r="J50" s="0" t="n">
         <v>53486</v>
       </c>
-      <c r="K50" s="25" t="n">
-        <v>2.3023</v>
-      </c>
-      <c r="L50" s="2" t="n">
+      <c r="K50" s="26" t="n">
+        <v>6.3026</v>
+      </c>
+      <c r="L50" s="38" t="n">
         <v>13483</v>
       </c>
       <c r="M50" s="26" t="n">
-        <v>2.3024</v>
+        <v>6.3026</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>13484</v>
-      </c>
-      <c r="O50" s="25" t="n">
-        <v>2.3022</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>13482</v>
+        <v>53486</v>
+      </c>
+      <c r="O50" s="26" t="n">
+        <v>6.3026</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>53486</v>
       </c>
     </row>
     <row r="51" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13190,7 +13246,7 @@
       <c r="G51" s="31" t="n">
         <v>-6.0998</v>
       </c>
-      <c r="H51" s="38" t="n">
+      <c r="H51" s="39" t="n">
         <v>-34831</v>
       </c>
       <c r="I51" s="30" t="n">
@@ -13199,23 +13255,23 @@
       <c r="J51" s="29" t="n">
         <v>-34831</v>
       </c>
-      <c r="K51" s="31" t="n">
-        <v>-2.0998</v>
-      </c>
-      <c r="L51" s="38" t="n">
+      <c r="K51" s="30" t="n">
+        <v>-6.0999</v>
+      </c>
+      <c r="L51" s="39" t="n">
         <v>5169</v>
       </c>
       <c r="M51" s="30" t="n">
-        <v>-2.0998</v>
+        <v>-6.0999</v>
       </c>
       <c r="N51" s="29" t="n">
-        <v>5169</v>
-      </c>
-      <c r="O51" s="31" t="n">
-        <v>-2.0999</v>
-      </c>
-      <c r="P51" s="38" t="n">
-        <v>5168</v>
+        <v>-34831</v>
+      </c>
+      <c r="O51" s="30" t="n">
+        <v>-6.0999</v>
+      </c>
+      <c r="P51" s="29" t="n">
+        <v>-34831</v>
       </c>
       <c r="ALW51" s="0"/>
       <c r="ALX51" s="0"/>
@@ -13307,40 +13363,40 @@
       <c r="D53" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="48" t="n">
+      <c r="E53" s="49" t="n">
         <v>25.5</v>
       </c>
       <c r="F53" s="24" t="n">
         <v>219158</v>
       </c>
-      <c r="G53" s="49" t="n">
+      <c r="G53" s="50" t="n">
         <v>-42.6</v>
       </c>
-      <c r="H53" s="50" t="n">
+      <c r="H53" s="51" t="n">
         <v>-461870</v>
       </c>
-      <c r="I53" s="48" t="n">
+      <c r="I53" s="49" t="n">
         <v>-17.25</v>
       </c>
       <c r="J53" s="24" t="n">
         <v>-208341</v>
       </c>
-      <c r="K53" s="49" t="n">
+      <c r="K53" s="50" t="n">
         <v>46.1092</v>
       </c>
-      <c r="L53" s="50" t="n">
+      <c r="L53" s="51" t="n">
         <v>425265</v>
       </c>
-      <c r="M53" s="48" t="n">
+      <c r="M53" s="49" t="n">
         <v>46.1094</v>
       </c>
       <c r="N53" s="24" t="n">
         <v>425267</v>
       </c>
-      <c r="O53" s="49" t="n">
+      <c r="O53" s="50" t="n">
         <v>19.5956</v>
       </c>
-      <c r="P53" s="50" t="n">
+      <c r="P53" s="51" t="n">
         <v>160131</v>
       </c>
       <c r="ALW53" s="0"/>
@@ -13378,7 +13434,7 @@
       <c r="G54" s="31" t="n">
         <v>-3.3653</v>
       </c>
-      <c r="H54" s="38" t="n">
+      <c r="H54" s="39" t="n">
         <v>-3</v>
       </c>
       <c r="I54" s="30" t="n">
@@ -13390,7 +13446,7 @@
       <c r="K54" s="31" t="n">
         <v>-3.3635</v>
       </c>
-      <c r="L54" s="38" t="n">
+      <c r="L54" s="39" t="n">
         <v>15</v>
       </c>
       <c r="M54" s="30" t="n">
@@ -13402,7 +13458,7 @@
       <c r="O54" s="31" t="n">
         <v>-3.3648</v>
       </c>
-      <c r="P54" s="38" t="n">
+      <c r="P54" s="39" t="n">
         <v>2</v>
       </c>
       <c r="ALW54" s="0"/>
@@ -13433,41 +13489,41 @@
       <c r="D55" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="51" t="n">
+      <c r="E55" s="52" t="n">
         <v>105.5</v>
       </c>
       <c r="F55" s="17" t="n">
-        <v>6790244</v>
-      </c>
-      <c r="G55" s="52" t="n">
+        <v>8819513</v>
+      </c>
+      <c r="G55" s="53" t="n">
         <v>30.5</v>
       </c>
       <c r="H55" s="20" t="n">
-        <v>2887805</v>
-      </c>
-      <c r="I55" s="51" t="n">
+        <v>4917073</v>
+      </c>
+      <c r="I55" s="52" t="n">
         <v>59.25</v>
       </c>
       <c r="J55" s="17" t="n">
-        <v>4383740</v>
-      </c>
-      <c r="K55" s="52" t="n">
+        <v>6432521</v>
+      </c>
+      <c r="K55" s="53" t="n">
         <v>126</v>
       </c>
       <c r="L55" s="20" t="n">
-        <v>7856911</v>
-      </c>
-      <c r="M55" s="51" t="n">
+        <v>9886179</v>
+      </c>
+      <c r="M55" s="52" t="n">
         <v>126</v>
       </c>
-      <c r="N55" s="17" t="n">
-        <v>7856911</v>
-      </c>
-      <c r="O55" s="52" t="n">
+      <c r="N55" s="20" t="n">
+        <v>9886179</v>
+      </c>
+      <c r="O55" s="53" t="n">
         <v>98</v>
       </c>
       <c r="P55" s="20" t="n">
-        <v>6400000</v>
+        <v>8429268</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13481,40 +13537,40 @@
       <c r="D56" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E56" s="53" t="n">
-        <v>96.75</v>
+      <c r="E56" s="54" t="n">
+        <v>104.75</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>6334959</v>
-      </c>
-      <c r="G56" s="54" t="n">
-        <v>13</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>1977236</v>
-      </c>
-      <c r="I56" s="53" t="n">
-        <v>43.5</v>
+        <v>5138211</v>
+      </c>
+      <c r="G56" s="55" t="n">
+        <v>21</v>
+      </c>
+      <c r="H56" s="38" t="n">
+        <v>780488</v>
+      </c>
+      <c r="I56" s="54" t="n">
+        <v>51.5</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>3564228</v>
-      </c>
-      <c r="K56" s="54" t="n">
-        <v>118</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>7440650</v>
-      </c>
-      <c r="M56" s="53" t="n">
-        <v>118</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>7440650</v>
-      </c>
-      <c r="O56" s="54" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="P56" s="2" t="n">
+        <v>2367480</v>
+      </c>
+      <c r="K56" s="55" t="n">
+        <v>126</v>
+      </c>
+      <c r="L56" s="38" t="n">
+        <v>6243902</v>
+      </c>
+      <c r="M56" s="54" t="n">
+        <v>126</v>
+      </c>
+      <c r="N56" s="38" t="n">
+        <v>6243902</v>
+      </c>
+      <c r="O56" s="55" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="P56" s="38" t="n">
         <v>5853659</v>
       </c>
     </row>
@@ -13529,40 +13585,40 @@
       <c r="D57" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="55" t="n">
-        <v>96.75</v>
+      <c r="E57" s="56" t="n">
+        <v>104.75</v>
       </c>
       <c r="F57" s="29" t="n">
-        <v>5138211</v>
-      </c>
-      <c r="G57" s="56" t="n">
-        <v>13</v>
-      </c>
-      <c r="H57" s="40" t="n">
-        <v>780488</v>
-      </c>
-      <c r="I57" s="55" t="n">
-        <v>43.5</v>
+        <v>6334959</v>
+      </c>
+      <c r="G57" s="57" t="n">
+        <v>21</v>
+      </c>
+      <c r="H57" s="41" t="n">
+        <v>1977236</v>
+      </c>
+      <c r="I57" s="56" t="n">
+        <v>51.5</v>
       </c>
       <c r="J57" s="29" t="n">
-        <v>2367480</v>
-      </c>
-      <c r="K57" s="56" t="n">
-        <v>118</v>
-      </c>
-      <c r="L57" s="40" t="n">
-        <v>6243902</v>
-      </c>
-      <c r="M57" s="55" t="n">
-        <v>118</v>
-      </c>
-      <c r="N57" s="29" t="n">
-        <v>6243902</v>
-      </c>
-      <c r="O57" s="56" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="P57" s="40" t="n">
+        <v>3564228</v>
+      </c>
+      <c r="K57" s="57" t="n">
+        <v>126</v>
+      </c>
+      <c r="L57" s="41" t="n">
+        <v>7440650</v>
+      </c>
+      <c r="M57" s="56" t="n">
+        <v>126</v>
+      </c>
+      <c r="N57" s="41" t="n">
+        <v>7440650</v>
+      </c>
+      <c r="O57" s="57" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="P57" s="41" t="n">
         <v>4656911</v>
       </c>
     </row>
@@ -13603,445 +13659,496 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="1" sqref="O50:P51 G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="57" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="57" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="58" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="58" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
+    <row r="1" s="60" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="AMI1" s="57"/>
-      <c r="AMJ1" s="57"/>
-    </row>
-    <row r="2" s="64" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="AMI1" s="58"/>
+      <c r="AMJ1" s="58"/>
+    </row>
+    <row r="2" s="65" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="AMI2" s="63"/>
-      <c r="AMJ2" s="63"/>
-    </row>
-    <row r="3" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="AMI2" s="64"/>
+      <c r="AMJ2" s="64"/>
+    </row>
+    <row r="3" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="AMI3" s="57"/>
-      <c r="AMJ3" s="57"/>
-    </row>
-    <row r="4" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="AMI3" s="58"/>
+      <c r="AMJ3" s="58"/>
+    </row>
+    <row r="4" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="57" t="n">
+      <c r="C4" s="58" t="n">
         <v>-46.5</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="AMI4" s="57"/>
-      <c r="AMJ4" s="57"/>
-    </row>
-    <row r="5" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="AMI4" s="58"/>
+      <c r="AMJ4" s="58"/>
+    </row>
+    <row r="5" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="57" t="n">
+      <c r="C5" s="58" t="n">
         <v>-20.5</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="AMI5" s="57"/>
-      <c r="AMJ5" s="57"/>
-    </row>
-    <row r="6" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="AMI5" s="58"/>
+      <c r="AMJ5" s="58"/>
+    </row>
+    <row r="6" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="57" t="n">
+      <c r="C6" s="58" t="n">
         <v>5.5</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="AMI6" s="57"/>
-      <c r="AMJ6" s="57"/>
-    </row>
-    <row r="7" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="AMI6" s="58"/>
+      <c r="AMJ6" s="58"/>
+    </row>
+    <row r="7" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="57" t="n">
+      <c r="C7" s="58" t="n">
         <v>31</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="AMI7" s="57"/>
-      <c r="AMJ7" s="57"/>
-    </row>
-    <row r="8" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="AMI7" s="58"/>
+      <c r="AMJ7" s="58"/>
+    </row>
+    <row r="8" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57" t="n">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="n">
         <v>-52.6</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="AMI8" s="57"/>
-      <c r="AMJ8" s="57"/>
-    </row>
-    <row r="9" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="66" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="AMI8" s="58"/>
+      <c r="AMJ8" s="58"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67" t="n">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68" t="n">
         <v>-52</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="AMI9" s="57"/>
-      <c r="AMJ9" s="57"/>
-    </row>
-    <row r="10" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="AMI10" s="57"/>
-      <c r="AMJ10" s="57"/>
-    </row>
-    <row r="11" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="AMI11" s="57"/>
-      <c r="AMJ11" s="57"/>
-    </row>
-    <row r="12" s="59" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="AMI12" s="57"/>
-      <c r="AMJ12" s="57"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="57" t="n">
+      <c r="B14" s="58" t="n">
         <v>67</v>
       </c>
-      <c r="D14" s="65"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="57" t="n">
+      <c r="B16" s="58" t="n">
         <v>33</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="67" t="n">
+      <c r="B17" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="69" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="76" t="s">
+      <c r="E21" s="70"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="H21" s="76"/>
+      <c r="H21" s="77"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="0"/>
+      <c r="D22" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="F22" s="0"/>
+      <c r="G22" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="78" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="57" t="n">
+      <c r="B23" s="58" t="n">
         <v>3.891</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="C23" s="0"/>
+      <c r="D23" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="57" t="n">
+      <c r="E23" s="58" t="n">
         <v>25.5</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="F23" s="0"/>
+      <c r="G23" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="H23" s="65"/>
+      <c r="H23" s="66" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="57" t="n">
+      <c r="B24" s="58" t="n">
         <v>-59.0037</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="C24" s="0"/>
+      <c r="D24" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="57" t="n">
+      <c r="E24" s="58" t="n">
         <v>-42.6</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="F24" s="0"/>
+      <c r="G24" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="66" t="n">
+        <v>-17.5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B25" s="57" t="n">
+      <c r="B25" s="58" t="n">
         <v>-36.9997</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="C25" s="0"/>
+      <c r="D25" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="57" t="n">
+      <c r="E25" s="58" t="n">
         <v>-17.25</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="57" t="n">
+      <c r="A26" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="58" t="n">
         <v>23.1</v>
       </c>
-      <c r="D26" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="57" t="n">
+      <c r="C26" s="0"/>
+      <c r="D26" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="58" t="n">
         <v>46.1092</v>
       </c>
-      <c r="H26" s="65"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="57" t="n">
+      <c r="A27" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="58" t="n">
         <v>23.1</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="57" t="n">
+      <c r="C27" s="0"/>
+      <c r="D27" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="58" t="n">
         <v>46.1092</v>
       </c>
-      <c r="H27" s="65"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="57" t="n">
+      <c r="A28" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="58" t="n">
         <v>-1.2</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="57" t="n">
+      <c r="C28" s="0"/>
+      <c r="D28" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="58" t="n">
         <v>19.5956</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="67" t="n">
+      <c r="A29" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="68" t="n">
         <v>55</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
@@ -14070,7 +14177,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O50:P51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14147,7 +14254,7 @@
       <c r="A9" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="78" t="n">
+      <c r="B9" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -14171,7 +14278,7 @@
       <c r="A12" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="78" t="n">
+      <c r="B12" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -14267,7 +14374,7 @@
       <c r="A24" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="78" t="n">
+      <c r="B24" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -14291,7 +14398,7 @@
       <c r="A27" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B27" s="78" t="n">
+      <c r="B27" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -14387,7 +14494,7 @@
       <c r="A39" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B39" s="78" t="n">
+      <c r="B39" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -14411,7 +14518,7 @@
       <c r="A42" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="78" t="n">
+      <c r="B42" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -14507,7 +14614,7 @@
       <c r="A54" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="78" t="n">
+      <c r="B54" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -14531,7 +14638,7 @@
       <c r="A57" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B57" s="78" t="n">
+      <c r="B57" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -14595,7 +14702,7 @@
       <c r="A65" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="78" t="n">
+      <c r="B65" s="79" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -14603,7 +14710,7 @@
       <c r="A66" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B66" s="78" t="n">
+      <c r="B66" s="79" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -14611,7 +14718,7 @@
       <c r="A67" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B67" s="78" t="n">
+      <c r="B67" s="79" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -14619,7 +14726,7 @@
       <c r="A68" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="78" t="n">
+      <c r="B68" s="79" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -14939,7 +15046,7 @@
       <c r="A108" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B108" s="78" t="n">
+      <c r="B108" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -14963,7 +15070,7 @@
       <c r="A111" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B111" s="78" t="n">
+      <c r="B111" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -15059,7 +15166,7 @@
       <c r="A123" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B123" s="78" t="n">
+      <c r="B123" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -15083,7 +15190,7 @@
       <c r="A126" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="78" t="n">
+      <c r="B126" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -15179,7 +15286,7 @@
       <c r="A138" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B138" s="78" t="n">
+      <c r="B138" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -15203,7 +15310,7 @@
       <c r="A141" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B141" s="78" t="n">
+      <c r="B141" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -15299,7 +15406,7 @@
       <c r="A153" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B153" s="78" t="n">
+      <c r="B153" s="79" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -15323,7 +15430,7 @@
       <c r="A156" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B156" s="78" t="n">
+      <c r="B156" s="79" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -15387,7 +15494,7 @@
       <c r="A164" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B164" s="78" t="n">
+      <c r="B164" s="79" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -15395,7 +15502,7 @@
       <c r="A165" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B165" s="78" t="n">
+      <c r="B165" s="79" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -15403,7 +15510,7 @@
       <c r="A166" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B166" s="78" t="n">
+      <c r="B166" s="79" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -15411,7 +15518,7 @@
       <c r="A167" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B167" s="78" t="n">
+      <c r="B167" s="79" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -15547,7 +15654,7 @@
       <c r="A184" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B184" s="78" t="n">
+      <c r="B184" s="79" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -15555,7 +15662,7 @@
       <c r="A185" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B185" s="78" t="n">
+      <c r="B185" s="79" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -15587,7 +15694,7 @@
       <c r="A189" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B189" s="78" t="n">
+      <c r="B189" s="79" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -15611,7 +15718,7 @@
       <c r="A192" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B192" s="78" t="n">
+      <c r="B192" s="79" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -15619,7 +15726,7 @@
       <c r="A193" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B193" s="78" t="n">
+      <c r="B193" s="79" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -15627,7 +15734,7 @@
       <c r="A194" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B194" s="78" t="n">
+      <c r="B194" s="79" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -15635,7 +15742,7 @@
       <c r="A195" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B195" s="78" t="n">
+      <c r="B195" s="79" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -17059,40 +17166,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="78" t="n">
+      <c r="C337" s="79" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="78" t="n">
+      <c r="D337" s="79" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="78" t="n">
+      <c r="E337" s="79" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="78" t="n">
+      <c r="F337" s="79" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="78" t="n">
+      <c r="G337" s="79" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="78" t="n">
+      <c r="H337" s="79" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="78" t="n">
+      <c r="I337" s="79" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="78" t="n">
+      <c r="J337" s="79" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="78" t="n">
+      <c r="K337" s="79" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="78" t="n">
+      <c r="L337" s="79" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="78" t="n">
+      <c r="M337" s="79" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="78" t="n">
+      <c r="N337" s="79" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -17103,40 +17210,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="78" t="n">
+      <c r="C338" s="79" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="78" t="n">
+      <c r="D338" s="79" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="78" t="n">
+      <c r="E338" s="79" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="78" t="n">
+      <c r="F338" s="79" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="78" t="n">
+      <c r="G338" s="79" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="78" t="n">
+      <c r="H338" s="79" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="78" t="n">
+      <c r="I338" s="79" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="78" t="n">
+      <c r="J338" s="79" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="78" t="n">
+      <c r="K338" s="79" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="78" t="n">
+      <c r="L338" s="79" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="78" t="n">
+      <c r="M338" s="79" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="78" t="n">
+      <c r="N338" s="79" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -17147,40 +17254,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="78" t="n">
+      <c r="C339" s="79" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="78" t="n">
+      <c r="D339" s="79" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="78" t="n">
+      <c r="E339" s="79" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="78" t="n">
+      <c r="F339" s="79" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="78" t="n">
+      <c r="G339" s="79" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="78" t="n">
+      <c r="H339" s="79" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="78" t="n">
+      <c r="I339" s="79" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="78" t="n">
+      <c r="J339" s="79" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="78" t="n">
+      <c r="K339" s="79" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="78" t="n">
+      <c r="L339" s="79" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="78" t="n">
+      <c r="M339" s="79" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="78" t="n">
+      <c r="N339" s="79" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -17191,40 +17298,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="78" t="n">
+      <c r="C340" s="79" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="78" t="n">
+      <c r="D340" s="79" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="78" t="n">
+      <c r="E340" s="79" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="78" t="n">
+      <c r="F340" s="79" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="78" t="n">
+      <c r="G340" s="79" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="78" t="n">
+      <c r="H340" s="79" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="78" t="n">
+      <c r="I340" s="79" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="78" t="n">
+      <c r="J340" s="79" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="78" t="n">
+      <c r="K340" s="79" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="78" t="n">
+      <c r="L340" s="79" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="78" t="n">
+      <c r="M340" s="79" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="78" t="n">
+      <c r="N340" s="79" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -17939,40 +18046,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="78" t="n">
+      <c r="C357" s="79" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="78" t="n">
+      <c r="D357" s="79" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="78" t="n">
+      <c r="E357" s="79" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="78" t="n">
+      <c r="F357" s="79" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="78" t="n">
+      <c r="G357" s="79" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="78" t="n">
+      <c r="H357" s="79" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="78" t="n">
+      <c r="I357" s="79" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="78" t="n">
+      <c r="J357" s="79" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="78" t="n">
+      <c r="K357" s="79" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="78" t="n">
+      <c r="L357" s="79" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="78" t="n">
+      <c r="M357" s="79" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="78" t="n">
+      <c r="N357" s="79" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -17983,40 +18090,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="78" t="n">
+      <c r="C358" s="79" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="78" t="n">
+      <c r="D358" s="79" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="78" t="n">
+      <c r="E358" s="79" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="78" t="n">
+      <c r="F358" s="79" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="78" t="n">
+      <c r="G358" s="79" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="78" t="n">
+      <c r="H358" s="79" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="78" t="n">
+      <c r="I358" s="79" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="78" t="n">
+      <c r="J358" s="79" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="78" t="n">
+      <c r="K358" s="79" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="78" t="n">
+      <c r="L358" s="79" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="78" t="n">
+      <c r="M358" s="79" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="78" t="n">
+      <c r="N358" s="79" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -18027,40 +18134,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="78" t="n">
+      <c r="C359" s="79" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="78" t="n">
+      <c r="D359" s="79" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="78" t="n">
+      <c r="E359" s="79" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="78" t="n">
+      <c r="F359" s="79" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="78" t="n">
+      <c r="G359" s="79" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="78" t="n">
+      <c r="H359" s="79" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="78" t="n">
+      <c r="I359" s="79" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="78" t="n">
+      <c r="J359" s="79" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="78" t="n">
+      <c r="K359" s="79" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="78" t="n">
+      <c r="L359" s="79" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="78" t="n">
+      <c r="M359" s="79" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="78" t="n">
+      <c r="N359" s="79" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -18071,40 +18178,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="78" t="n">
+      <c r="C360" s="79" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="78" t="n">
+      <c r="D360" s="79" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="78" t="n">
+      <c r="E360" s="79" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="78" t="n">
+      <c r="F360" s="79" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="78" t="n">
+      <c r="G360" s="79" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="78" t="n">
+      <c r="H360" s="79" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="78" t="n">
+      <c r="I360" s="79" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="78" t="n">
+      <c r="J360" s="79" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="78" t="n">
+      <c r="K360" s="79" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="78" t="n">
+      <c r="L360" s="79" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="78" t="n">
+      <c r="M360" s="79" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="78" t="n">
+      <c r="N360" s="79" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -18247,7 +18354,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="78" t="n">
+      <c r="C364" s="79" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -18291,7 +18398,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="78" t="n">
+      <c r="C365" s="79" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -18335,7 +18442,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="78" t="n">
+      <c r="C366" s="79" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -18379,7 +18486,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="78" t="n">
+      <c r="C367" s="79" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -20142,7 +20249,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="O50:P51 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20156,13 +20263,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="80" t="s">
         <v>729</v>
       </c>
-      <c r="C1" s="79" t="n">
+      <c r="C1" s="80" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>730</v>
       </c>
     </row>
@@ -20170,10 +20277,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>731</v>
       </c>
-      <c r="C2" s="79" t="n">
+      <c r="C2" s="80" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -20181,10 +20288,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>732</v>
       </c>
-      <c r="C3" s="79" t="n">
+      <c r="C3" s="80" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -20288,7 +20395,7 @@
       <c r="B16" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="C16" s="78" t="n">
+      <c r="C16" s="79" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -20296,7 +20403,7 @@
       <c r="B17" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="C17" s="78" t="n">
+      <c r="C17" s="79" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -20304,7 +20411,7 @@
       <c r="B18" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="C18" s="78" t="n">
+      <c r="C18" s="79" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -20312,7 +20419,7 @@
       <c r="B19" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="78" t="n">
+      <c r="C19" s="79" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -20800,7 +20907,7 @@
       <c r="B80" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="C80" s="78" t="n">
+      <c r="C80" s="79" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -20848,7 +20955,7 @@
       <c r="B86" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="C86" s="78" t="n">
+      <c r="C86" s="79" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -20880,7 +20987,7 @@
       <c r="B90" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="C90" s="78" t="n">
+      <c r="C90" s="79" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -20968,7 +21075,7 @@
       <c r="B101" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="C101" s="78" t="n">
+      <c r="C101" s="79" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -21144,7 +21251,7 @@
       <c r="B123" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="C123" s="78" t="n">
+      <c r="C123" s="79" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -21208,7 +21315,7 @@
       <c r="B131" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="C131" s="78" t="n">
+      <c r="C131" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -21224,7 +21331,7 @@
       <c r="B133" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="C133" s="78" t="n">
+      <c r="C133" s="79" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -21744,7 +21851,7 @@
       <c r="B198" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="C198" s="78" t="n">
+      <c r="C198" s="79" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -21792,7 +21899,7 @@
       <c r="B204" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="C204" s="78" t="n">
+      <c r="C204" s="79" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -21824,7 +21931,7 @@
       <c r="B208" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="C208" s="78" t="n">
+      <c r="C208" s="79" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -21912,7 +22019,7 @@
       <c r="B219" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="C219" s="78" t="n">
+      <c r="C219" s="79" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -22088,7 +22195,7 @@
       <c r="B241" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="C241" s="78" t="n">
+      <c r="C241" s="79" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -22152,7 +22259,7 @@
       <c r="B249" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="C249" s="78" t="n">
+      <c r="C249" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -22168,7 +22275,7 @@
       <c r="B251" s="0" t="s">
         <v>995</v>
       </c>
-      <c r="C251" s="78" t="n">
+      <c r="C251" s="79" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -22688,7 +22795,7 @@
       <c r="B316" s="0" t="s">
         <v>1060</v>
       </c>
-      <c r="C316" s="78" t="n">
+      <c r="C316" s="79" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -22736,7 +22843,7 @@
       <c r="B322" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="C322" s="78" t="n">
+      <c r="C322" s="79" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -22768,7 +22875,7 @@
       <c r="B326" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="C326" s="78" t="n">
+      <c r="C326" s="79" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -22856,7 +22963,7 @@
       <c r="B337" s="0" t="s">
         <v>1081</v>
       </c>
-      <c r="C337" s="78" t="n">
+      <c r="C337" s="79" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -23032,7 +23139,7 @@
       <c r="B359" s="0" t="s">
         <v>1104</v>
       </c>
-      <c r="C359" s="78" t="n">
+      <c r="C359" s="79" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -23096,7 +23203,7 @@
       <c r="B367" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="C367" s="78" t="n">
+      <c r="C367" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -23112,7 +23219,7 @@
       <c r="B369" s="0" t="s">
         <v>1114</v>
       </c>
-      <c r="C369" s="78" t="n">
+      <c r="C369" s="79" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -23632,7 +23739,7 @@
       <c r="B434" s="0" t="s">
         <v>1179</v>
       </c>
-      <c r="C434" s="78" t="n">
+      <c r="C434" s="79" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -23680,7 +23787,7 @@
       <c r="B440" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="C440" s="78" t="n">
+      <c r="C440" s="79" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -23712,7 +23819,7 @@
       <c r="B444" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="C444" s="78" t="n">
+      <c r="C444" s="79" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -23800,7 +23907,7 @@
       <c r="B455" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="C455" s="78" t="n">
+      <c r="C455" s="79" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -23976,7 +24083,7 @@
       <c r="B477" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="C477" s="78" t="n">
+      <c r="C477" s="79" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -24040,7 +24147,7 @@
       <c r="B485" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="C485" s="78" t="n">
+      <c r="C485" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24056,7 +24163,7 @@
       <c r="B487" s="0" t="s">
         <v>1233</v>
       </c>
-      <c r="C487" s="78" t="n">
+      <c r="C487" s="79" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -24144,7 +24251,7 @@
       <c r="B498" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="C498" s="78" t="n">
+      <c r="C498" s="79" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -24152,7 +24259,7 @@
       <c r="B499" s="0" t="s">
         <v>1245</v>
       </c>
-      <c r="C499" s="78" t="n">
+      <c r="C499" s="79" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -24160,7 +24267,7 @@
       <c r="B500" s="0" t="s">
         <v>1246</v>
       </c>
-      <c r="C500" s="78" t="n">
+      <c r="C500" s="79" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -24168,7 +24275,7 @@
       <c r="B501" s="0" t="s">
         <v>1247</v>
       </c>
-      <c r="C501" s="78" t="n">
+      <c r="C501" s="79" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -24736,7 +24843,7 @@
       <c r="B572" s="0" t="s">
         <v>1318</v>
       </c>
-      <c r="C572" s="78" t="n">
+      <c r="C572" s="79" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -24784,7 +24891,7 @@
       <c r="B578" s="0" t="s">
         <v>1324</v>
       </c>
-      <c r="C578" s="78" t="n">
+      <c r="C578" s="79" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -24816,7 +24923,7 @@
       <c r="B582" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C582" s="78" t="n">
+      <c r="C582" s="79" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -24904,7 +25011,7 @@
       <c r="B593" s="0" t="s">
         <v>1339</v>
       </c>
-      <c r="C593" s="78" t="n">
+      <c r="C593" s="79" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -25080,7 +25187,7 @@
       <c r="B615" s="0" t="s">
         <v>1362</v>
       </c>
-      <c r="C615" s="78" t="n">
+      <c r="C615" s="79" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -25144,7 +25251,7 @@
       <c r="B623" s="0" t="s">
         <v>1370</v>
       </c>
-      <c r="C623" s="78" t="n">
+      <c r="C623" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25160,7 +25267,7 @@
       <c r="B625" s="0" t="s">
         <v>1372</v>
       </c>
-      <c r="C625" s="78" t="n">
+      <c r="C625" s="79" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -25680,7 +25787,7 @@
       <c r="B690" s="0" t="s">
         <v>1437</v>
       </c>
-      <c r="C690" s="78" t="n">
+      <c r="C690" s="79" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -25728,7 +25835,7 @@
       <c r="B696" s="0" t="s">
         <v>1443</v>
       </c>
-      <c r="C696" s="78" t="n">
+      <c r="C696" s="79" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -25760,7 +25867,7 @@
       <c r="B700" s="0" t="s">
         <v>1447</v>
       </c>
-      <c r="C700" s="78" t="n">
+      <c r="C700" s="79" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -25848,7 +25955,7 @@
       <c r="B711" s="0" t="s">
         <v>1458</v>
       </c>
-      <c r="C711" s="78" t="n">
+      <c r="C711" s="79" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -26024,7 +26131,7 @@
       <c r="B733" s="0" t="s">
         <v>1481</v>
       </c>
-      <c r="C733" s="78" t="n">
+      <c r="C733" s="79" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -26088,7 +26195,7 @@
       <c r="B741" s="0" t="s">
         <v>1489</v>
       </c>
-      <c r="C741" s="78" t="n">
+      <c r="C741" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26104,7 +26211,7 @@
       <c r="B743" s="0" t="s">
         <v>1491</v>
       </c>
-      <c r="C743" s="78" t="n">
+      <c r="C743" s="79" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -26660,7 +26767,7 @@
       <c r="B811" s="0" t="s">
         <v>1567</v>
       </c>
-      <c r="C811" s="78" t="n">
+      <c r="C811" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -27176,7 +27283,7 @@
       <c r="B874" s="0" t="s">
         <v>1632</v>
       </c>
-      <c r="C874" s="78" t="n">
+      <c r="C874" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -27692,7 +27799,7 @@
       <c r="B937" s="0" t="s">
         <v>1697</v>
       </c>
-      <c r="C937" s="78" t="n">
+      <c r="C937" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -28208,7 +28315,7 @@
       <c r="B1000" s="0" t="s">
         <v>1762</v>
       </c>
-      <c r="C1000" s="78" t="n">
+      <c r="C1000" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -28724,7 +28831,7 @@
       <c r="B1063" s="0" t="s">
         <v>1827</v>
       </c>
-      <c r="C1063" s="78" t="n">
+      <c r="C1063" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -29240,7 +29347,7 @@
       <c r="B1126" s="0" t="s">
         <v>1892</v>
       </c>
-      <c r="C1126" s="78" t="n">
+      <c r="C1126" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -29756,7 +29863,7 @@
       <c r="B1189" s="0" t="s">
         <v>1957</v>
       </c>
-      <c r="C1189" s="78" t="n">
+      <c r="C1189" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30272,7 +30379,7 @@
       <c r="B1252" s="0" t="s">
         <v>2022</v>
       </c>
-      <c r="C1252" s="78" t="n">
+      <c r="C1252" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30788,7 +30895,7 @@
       <c r="B1315" s="0" t="s">
         <v>2087</v>
       </c>
-      <c r="C1315" s="78" t="n">
+      <c r="C1315" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31304,7 +31411,7 @@
       <c r="B1378" s="0" t="s">
         <v>2152</v>
       </c>
-      <c r="C1378" s="78" t="n">
+      <c r="C1378" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31820,7 +31927,7 @@
       <c r="B1441" s="0" t="s">
         <v>2217</v>
       </c>
-      <c r="C1441" s="78" t="n">
+      <c r="C1441" s="79" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32268,7 +32375,7 @@
       <c r="B1497" s="0" t="s">
         <v>2276</v>
       </c>
-      <c r="C1497" s="78" t="n">
+      <c r="C1497" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -32894,7 +33001,7 @@
       <c r="B1576" s="0" t="s">
         <v>2360</v>
       </c>
-      <c r="C1576" s="78" t="n">
+      <c r="C1576" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -33063,7 +33170,7 @@
       <c r="B1596" s="0" t="s">
         <v>2382</v>
       </c>
-      <c r="C1596" s="78" t="n">
+      <c r="C1596" s="79" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -33071,7 +33178,7 @@
       <c r="B1597" s="0" t="s">
         <v>2383</v>
       </c>
-      <c r="C1597" s="78" t="n">
+      <c r="C1597" s="79" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -33951,7 +34058,7 @@
       <c r="B1707" s="0" t="s">
         <v>2494</v>
       </c>
-      <c r="C1707" s="78" t="n">
+      <c r="C1707" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -33967,7 +34074,7 @@
       <c r="B1709" s="0" t="s">
         <v>2496</v>
       </c>
-      <c r="C1709" s="78" t="n">
+      <c r="C1709" s="79" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -34487,7 +34594,7 @@
       <c r="B1774" s="0" t="s">
         <v>2561</v>
       </c>
-      <c r="C1774" s="78" t="n">
+      <c r="C1774" s="79" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -34567,7 +34674,7 @@
       <c r="B1784" s="0" t="s">
         <v>2571</v>
       </c>
-      <c r="C1784" s="78" t="n">
+      <c r="C1784" s="79" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -34655,7 +34762,7 @@
       <c r="B1795" s="0" t="s">
         <v>2582</v>
       </c>
-      <c r="C1795" s="78" t="n">
+      <c r="C1795" s="79" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -34831,7 +34938,7 @@
       <c r="B1817" s="0" t="s">
         <v>2605</v>
       </c>
-      <c r="C1817" s="78" t="n">
+      <c r="C1817" s="79" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -34895,7 +35002,7 @@
       <c r="B1825" s="0" t="s">
         <v>2613</v>
       </c>
-      <c r="C1825" s="78" t="n">
+      <c r="C1825" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -34911,7 +35018,7 @@
       <c r="B1827" s="0" t="s">
         <v>2615</v>
       </c>
-      <c r="C1827" s="78" t="n">
+      <c r="C1827" s="79" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -35514,7 +35621,7 @@
       <c r="B1902" s="0" t="s">
         <v>2692</v>
       </c>
-      <c r="C1902" s="78" t="n">
+      <c r="C1902" s="79" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -35562,7 +35669,7 @@
       <c r="B1908" s="0" t="s">
         <v>2698</v>
       </c>
-      <c r="C1908" s="78" t="n">
+      <c r="C1908" s="79" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -35594,7 +35701,7 @@
       <c r="B1912" s="0" t="s">
         <v>2702</v>
       </c>
-      <c r="C1912" s="78" t="n">
+      <c r="C1912" s="79" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -35682,7 +35789,7 @@
       <c r="B1923" s="0" t="s">
         <v>2713</v>
       </c>
-      <c r="C1923" s="78" t="n">
+      <c r="C1923" s="79" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -35858,7 +35965,7 @@
       <c r="B1945" s="0" t="s">
         <v>2736</v>
       </c>
-      <c r="C1945" s="78" t="n">
+      <c r="C1945" s="79" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -35922,7 +36029,7 @@
       <c r="B1953" s="0" t="s">
         <v>2744</v>
       </c>
-      <c r="C1953" s="78" t="n">
+      <c r="C1953" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -35938,7 +36045,7 @@
       <c r="B1955" s="0" t="s">
         <v>2746</v>
       </c>
-      <c r="C1955" s="78" t="n">
+      <c r="C1955" s="79" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -36458,7 +36565,7 @@
       <c r="B2020" s="0" t="s">
         <v>2811</v>
       </c>
-      <c r="C2020" s="78" t="n">
+      <c r="C2020" s="79" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -36506,7 +36613,7 @@
       <c r="B2026" s="0" t="s">
         <v>2817</v>
       </c>
-      <c r="C2026" s="78" t="n">
+      <c r="C2026" s="79" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -36538,7 +36645,7 @@
       <c r="B2030" s="0" t="s">
         <v>2821</v>
       </c>
-      <c r="C2030" s="78" t="n">
+      <c r="C2030" s="79" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -36626,7 +36733,7 @@
       <c r="B2041" s="0" t="s">
         <v>2832</v>
       </c>
-      <c r="C2041" s="78" t="n">
+      <c r="C2041" s="79" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -36802,7 +36909,7 @@
       <c r="B2063" s="0" t="s">
         <v>2855</v>
       </c>
-      <c r="C2063" s="78" t="n">
+      <c r="C2063" s="79" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -36866,7 +36973,7 @@
       <c r="B2071" s="0" t="s">
         <v>2863</v>
       </c>
-      <c r="C2071" s="78" t="n">
+      <c r="C2071" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36882,7 +36989,7 @@
       <c r="B2073" s="0" t="s">
         <v>2865</v>
       </c>
-      <c r="C2073" s="78" t="n">
+      <c r="C2073" s="79" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -37402,7 +37509,7 @@
       <c r="B2138" s="0" t="s">
         <v>2930</v>
       </c>
-      <c r="C2138" s="78" t="n">
+      <c r="C2138" s="79" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -37450,7 +37557,7 @@
       <c r="B2144" s="0" t="s">
         <v>2936</v>
       </c>
-      <c r="C2144" s="78" t="n">
+      <c r="C2144" s="79" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -37482,7 +37589,7 @@
       <c r="B2148" s="0" t="s">
         <v>2940</v>
       </c>
-      <c r="C2148" s="78" t="n">
+      <c r="C2148" s="79" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -37570,7 +37677,7 @@
       <c r="B2159" s="0" t="s">
         <v>2951</v>
       </c>
-      <c r="C2159" s="78" t="n">
+      <c r="C2159" s="79" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -37746,7 +37853,7 @@
       <c r="B2181" s="0" t="s">
         <v>2974</v>
       </c>
-      <c r="C2181" s="78" t="n">
+      <c r="C2181" s="79" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -37810,7 +37917,7 @@
       <c r="B2189" s="0" t="s">
         <v>2982</v>
       </c>
-      <c r="C2189" s="78" t="n">
+      <c r="C2189" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37826,7 +37933,7 @@
       <c r="B2191" s="0" t="s">
         <v>2984</v>
       </c>
-      <c r="C2191" s="78" t="n">
+      <c r="C2191" s="79" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -38402,7 +38509,7 @@
       <c r="B2263" s="0" t="s">
         <v>3059</v>
       </c>
-      <c r="C2263" s="78" t="n">
+      <c r="C2263" s="79" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38689,7 +38796,7 @@
       <c r="F2297" s="0" t="s">
         <v>3104</v>
       </c>
-      <c r="G2297" s="80" t="n">
+      <c r="G2297" s="81" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -38781,7 +38888,7 @@
       <c r="B2307" s="0" t="s">
         <v>3118</v>
       </c>
-      <c r="C2307" s="78" t="n">
+      <c r="C2307" s="79" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -38867,7 +38974,7 @@
       <c r="B2317" s="0" t="s">
         <v>3134</v>
       </c>
-      <c r="C2317" s="78" t="n">
+      <c r="C2317" s="79" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -38875,7 +38982,7 @@
       <c r="B2318" s="0" t="s">
         <v>3135</v>
       </c>
-      <c r="C2318" s="78" t="n">
+      <c r="C2318" s="79" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -38891,7 +38998,7 @@
       <c r="B2320" s="0" t="s">
         <v>3137</v>
       </c>
-      <c r="C2320" s="78" t="n">
+      <c r="C2320" s="79" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -38939,7 +39046,7 @@
       <c r="C2326" s="0" t="s">
         <v>3145</v>
       </c>
-      <c r="D2326" s="81" t="n">
+      <c r="D2326" s="82" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -38990,7 +39097,7 @@
       <c r="C2332" s="0" t="s">
         <v>3153</v>
       </c>
-      <c r="D2332" s="81" t="n">
+      <c r="D2332" s="82" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -39009,7 +39116,7 @@
       <c r="D2334" s="0" t="s">
         <v>3156</v>
       </c>
-      <c r="E2334" s="81" t="n">
+      <c r="E2334" s="82" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -39067,7 +39174,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="81" t="n">
+      <c r="F2339" s="82" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -39539,7 +39646,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="81" t="n">
+      <c r="F2380" s="82" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -46,8 +46,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -3.15
-pitch = 2.3</t>
+          <t>vert = -4.15
+pitch = 3.5
+lateral = -1
+yaw = 0.150</t>
         </r>
       </text>
     </comment>
@@ -77,19 +79,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This is probably too shallow an angle for M2, FS might need to be higher...</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G37" authorId="0">
       <text>
         <r>
@@ -99,9 +88,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -3.15
-pitch = 2.7
-pitch is probably wrong, but this is close-ish</t>
+          <t>vert = -4.15
+pitch = 3.5
+lateral = -1
+yaw = 0.150</t>
         </r>
       </text>
     </comment>
@@ -141,8 +131,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -3.15
-pitch = 2.7</t>
+          <t>vert = -4.15
+pitch = 3.5
+lateral = -1
+yaw = 0.150</t>
         </r>
       </text>
     </comment>
@@ -155,7 +147,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -9.5
+          <t>vert = -7.25
 pitch = -3.5</t>
         </r>
       </text>
@@ -429,7 +421,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t> Xtal roll were using the encoder values</t>
+          <t>Xtal roll were using the encoder values</t>
         </r>
       </text>
     </comment>
@@ -11154,11 +11146,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="D59" activeCellId="0" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12772,22 +12764,22 @@
         <v>125</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>-4.6304</v>
+        <v>-6.4041</v>
       </c>
       <c r="F37" s="19" t="n">
-        <v>-39804</v>
-      </c>
-      <c r="G37" s="28" t="n">
-        <v>-4.888</v>
-      </c>
-      <c r="H37" s="24" t="n">
-        <v>-42380</v>
+        <v>-57542</v>
+      </c>
+      <c r="G37" s="39" t="n">
+        <v>-6.4041</v>
+      </c>
+      <c r="H37" s="19" t="n">
+        <v>-57542</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>-4.8881</v>
+        <v>-6.4041</v>
       </c>
       <c r="J37" s="19" t="n">
-        <v>-42381</v>
+        <v>-57542</v>
       </c>
       <c r="K37" s="40" t="n">
         <v>6</v>
@@ -12834,22 +12826,22 @@
         <v>128</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>-1.6664</v>
+        <v>-1.8946</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-25563</v>
-      </c>
-      <c r="G38" s="28" t="n">
-        <v>-1.4088</v>
-      </c>
-      <c r="H38" s="29" t="n">
-        <v>-22988</v>
+        <v>-27846</v>
+      </c>
+      <c r="G38" s="30" t="n">
+        <v>-1.8946</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>-27846</v>
       </c>
       <c r="I38" s="30" t="n">
-        <v>-1.4087</v>
+        <v>-1.8946</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>-22987</v>
+        <v>-27846</v>
       </c>
       <c r="K38" s="28" t="n">
         <v>6</v>
@@ -12882,22 +12874,22 @@
         <v>131</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>-1.6676</v>
+        <v>-1.8955</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-19674</v>
-      </c>
-      <c r="G39" s="28" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="H39" s="29" t="n">
-        <v>-17100</v>
+        <v>-21956</v>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>-1.8955</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>-21956</v>
       </c>
       <c r="I39" s="30" t="n">
-        <v>-1.41</v>
+        <v>-1.8955</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-17100</v>
+        <v>-21956</v>
       </c>
       <c r="K39" s="28" t="n">
         <v>6</v>
@@ -12930,22 +12922,22 @@
         <v>134</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>0.4373</v>
+        <v>-1.0963</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-7817</v>
-      </c>
-      <c r="G40" s="28" t="n">
-        <v>0.4373</v>
-      </c>
-      <c r="H40" s="29" t="n">
-        <v>-7817</v>
+        <v>-23154</v>
+      </c>
+      <c r="G40" s="30" t="n">
+        <v>-1.0963</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>-23154</v>
       </c>
       <c r="I40" s="30" t="n">
-        <v>0.4373</v>
+        <v>-1.0963</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-7817</v>
+        <v>-23154</v>
       </c>
       <c r="K40" s="28" t="n">
         <v>-0.001</v>
@@ -12978,22 +12970,22 @@
         <v>137</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>0.5659</v>
+        <v>-0.9035</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-21841</v>
-      </c>
-      <c r="G41" s="28" t="n">
-        <v>0.5659</v>
-      </c>
-      <c r="H41" s="29" t="n">
-        <v>-21841</v>
+        <v>-36537</v>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>-0.9035</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>-36537</v>
       </c>
       <c r="I41" s="30" t="n">
-        <v>0.5659</v>
+        <v>-0.9035</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-21841</v>
+        <v>-36537</v>
       </c>
       <c r="K41" s="28" t="n">
         <v>-0.0025</v>
@@ -13026,22 +13018,22 @@
         <v>140</v>
       </c>
       <c r="E42" s="34" t="n">
-        <v>3</v>
+        <v>150000</v>
       </c>
       <c r="F42" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="H42" s="42" t="n">
-        <v>3</v>
+        <v>150000</v>
+      </c>
+      <c r="G42" s="34" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H42" s="33" t="n">
+        <v>150000</v>
       </c>
       <c r="I42" s="34" t="n">
-        <v>3</v>
+        <v>150000</v>
       </c>
       <c r="J42" s="33" t="n">
-        <v>3</v>
+        <v>150000</v>
       </c>
       <c r="K42" s="35" t="n">
         <v>0</v>
@@ -13102,10 +13094,10 @@
         <v>-47880</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-8.333</v>
+        <v>-6.08242</v>
       </c>
       <c r="J43" s="19" t="n">
-        <v>-64137</v>
+        <v>-42624</v>
       </c>
       <c r="K43" s="40" t="n">
         <v>-1.1672</v>
@@ -13164,10 +13156,10 @@
         <v>-95730</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-10.668</v>
+        <v>-8.41762</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>-101986</v>
+        <v>-80476</v>
       </c>
       <c r="K44" s="28" t="n">
         <v>1.1673</v>
@@ -13212,10 +13204,10 @@
         <v>-97030</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-10.668</v>
+        <v>-8.41752</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>-103290</v>
+        <v>-81775</v>
       </c>
       <c r="K45" s="28" t="n">
         <v>1.1673</v>
@@ -13263,7 +13255,7 @@
         <v>-15</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>132223</v>
+        <v>-167858</v>
       </c>
       <c r="K46" s="28" t="n">
         <v>15</v>
@@ -13311,7 +13303,7 @@
         <v>-15</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>114409</v>
+        <v>-185624</v>
       </c>
       <c r="K47" s="35" t="n">
         <v>15.0002</v>
@@ -13360,10 +13352,10 @@
         <v>160</v>
       </c>
       <c r="E48" s="49" t="n">
-        <v>3.891</v>
+        <v>33</v>
       </c>
       <c r="F48" s="48" t="n">
-        <v>-2658</v>
+        <v>288431</v>
       </c>
       <c r="G48" s="50" t="n">
         <v>-59.0037</v>
@@ -13372,10 +13364,10 @@
         <v>-631605</v>
       </c>
       <c r="I48" s="49" t="n">
-        <v>-36.9997</v>
+        <v>-48.1824</v>
       </c>
       <c r="J48" s="48" t="n">
-        <v>-411565</v>
+        <v>-523391</v>
       </c>
       <c r="K48" s="50" t="n">
         <v>23.1</v>
@@ -13534,10 +13526,10 @@
         <v>170</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>4.1061</v>
+        <v>6.8</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>31521</v>
+        <v>58500</v>
       </c>
       <c r="G51" s="28" t="n">
         <v>0.7298</v>
@@ -13582,10 +13574,10 @@
         <v>173</v>
       </c>
       <c r="E52" s="34" t="n">
-        <v>-1.1</v>
+        <v>-6.1003</v>
       </c>
       <c r="F52" s="33" t="n">
-        <v>15167</v>
+        <v>-34835</v>
       </c>
       <c r="G52" s="35" t="n">
         <v>-4.1998</v>
@@ -13708,10 +13700,10 @@
         <v>180</v>
       </c>
       <c r="E54" s="52" t="n">
-        <v>25.5</v>
+        <v>49.5</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>219158</v>
+        <v>459199</v>
       </c>
       <c r="G54" s="53" t="n">
         <v>-42.6</v>
@@ -13834,10 +13826,10 @@
         <v>187</v>
       </c>
       <c r="E56" s="55" t="n">
-        <v>105.5</v>
+        <v>128</v>
       </c>
       <c r="F56" s="24" t="n">
-        <v>8819513</v>
+        <v>9990244</v>
       </c>
       <c r="G56" s="55" t="n">
         <v>30.5</v>
@@ -13882,10 +13874,10 @@
         <v>190</v>
       </c>
       <c r="E57" s="56" t="n">
-        <v>104.75</v>
+        <v>128</v>
       </c>
       <c r="F57" s="29" t="n">
-        <v>5138211</v>
+        <v>7544716</v>
       </c>
       <c r="G57" s="56" t="n">
         <v>21</v>
@@ -13930,10 +13922,10 @@
         <v>193</v>
       </c>
       <c r="E58" s="56" t="n">
-        <v>104.75</v>
+        <v>128</v>
       </c>
       <c r="F58" s="54" t="n">
-        <v>6334959</v>
+        <v>6347968</v>
       </c>
       <c r="G58" s="56" t="n">
         <v>21</v>
@@ -13966,7 +13958,7 @@
         <v>4656911</v>
       </c>
     </row>
-    <row r="59" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="25" t="s">
         <v>194</v>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -88,7 +88,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.15
+          <t>vert = -4.65
 pitch = 3.5
 lateral = -1
 yaw = 0.150</t>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -8.276
+          <t>vert = -6.583
 pitch = -5.0</t>
         </r>
       </text>
@@ -11146,11 +11146,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="J47" activeCellId="0" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12770,10 +12770,10 @@
         <v>-57542</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>-6.4041</v>
+        <v>-6.9038</v>
       </c>
       <c r="H37" s="19" t="n">
-        <v>-57542</v>
+        <v>-62538</v>
       </c>
       <c r="I37" s="39" t="n">
         <v>-6.4041</v>
@@ -12832,10 +12832,10 @@
         <v>-27846</v>
       </c>
       <c r="G38" s="30" t="n">
-        <v>-1.8946</v>
+        <v>-2.3945</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-27846</v>
+        <v>-32846</v>
       </c>
       <c r="I38" s="30" t="n">
         <v>-1.8946</v>
@@ -12880,10 +12880,10 @@
         <v>-21956</v>
       </c>
       <c r="G39" s="30" t="n">
-        <v>-1.8955</v>
+        <v>-2.3951</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-21956</v>
+        <v>-26950</v>
       </c>
       <c r="I39" s="30" t="n">
         <v>-1.8955</v>
@@ -13088,10 +13088,10 @@
         <v>3208</v>
       </c>
       <c r="G43" s="40" t="n">
-        <v>-6.608</v>
+        <v>-4.9154</v>
       </c>
       <c r="H43" s="24" t="n">
-        <v>-47880</v>
+        <v>-30953</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>-6.08242</v>
@@ -13150,10 +13150,10 @@
         <v>-11313</v>
       </c>
       <c r="G44" s="28" t="n">
-        <v>-9.943</v>
+        <v>-8.2511</v>
       </c>
       <c r="H44" s="29" t="n">
-        <v>-95730</v>
+        <v>-78810</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>-8.41762</v>
@@ -13198,10 +13198,10 @@
         <v>-12617</v>
       </c>
       <c r="G45" s="28" t="n">
-        <v>-9.943</v>
+        <v>-8.2512</v>
       </c>
       <c r="H45" s="29" t="n">
-        <v>-97030</v>
+        <v>-80111</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>-8.41752</v>
@@ -13358,10 +13358,10 @@
         <v>288431</v>
       </c>
       <c r="G48" s="50" t="n">
-        <v>-59.0037</v>
+        <v>-66.743</v>
       </c>
       <c r="H48" s="51" t="n">
-        <v>-631605</v>
+        <v>-708892</v>
       </c>
       <c r="I48" s="49" t="n">
         <v>-48.1824</v>
@@ -13706,10 +13706,10 @@
         <v>459199</v>
       </c>
       <c r="G54" s="53" t="n">
-        <v>-42.6</v>
+        <v>-59.5913</v>
       </c>
       <c r="H54" s="54" t="n">
-        <v>-461870</v>
+        <v>-631720</v>
       </c>
       <c r="I54" s="52" t="n">
         <v>-17.25</v>
@@ -13832,16 +13832,16 @@
         <v>9990244</v>
       </c>
       <c r="G56" s="55" t="n">
-        <v>30.5</v>
+        <v>24.4104</v>
       </c>
       <c r="H56" s="22" t="n">
-        <v>4917073</v>
+        <v>4600216</v>
       </c>
       <c r="I56" s="55" t="n">
-        <v>59.25</v>
+        <v>50.9301</v>
       </c>
       <c r="J56" s="24" t="n">
-        <v>6432521</v>
+        <v>5980102</v>
       </c>
       <c r="K56" s="55" t="n">
         <v>126</v>
@@ -13880,16 +13880,16 @@
         <v>7544716</v>
       </c>
       <c r="G57" s="56" t="n">
-        <v>21</v>
+        <v>12.81</v>
       </c>
       <c r="H57" s="29" t="n">
-        <v>780488</v>
+        <v>1551088</v>
       </c>
       <c r="I57" s="56" t="n">
-        <v>51.5</v>
+        <v>42.81</v>
       </c>
       <c r="J57" s="29" t="n">
-        <v>2367480</v>
+        <v>3112063</v>
       </c>
       <c r="K57" s="56" t="n">
         <v>126</v>
@@ -13928,16 +13928,16 @@
         <v>6347968</v>
       </c>
       <c r="G58" s="56" t="n">
-        <v>21</v>
+        <v>12.81</v>
       </c>
       <c r="H58" s="29" t="n">
-        <v>1977236</v>
+        <v>354340</v>
       </c>
       <c r="I58" s="56" t="n">
-        <v>51.5</v>
+        <v>42.81</v>
       </c>
       <c r="J58" s="54" t="n">
-        <v>3564228</v>
+        <v>1915315</v>
       </c>
       <c r="K58" s="56" t="n">
         <v>126</v>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -364,29 +364,6 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="C24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This is probably too shallow an angle for M2, FS might need to be higher...</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -1052,7 +1029,7 @@
     <t>XF:06BM-BI{Slt:02-Ax:O}Mtr</t>
   </si>
   <si>
-    <t>dm3-slits-o</t>
+    <t>dm3-slit-o</t>
   </si>
   <si>
     <t>dm3 outboard</t>
@@ -1061,7 +1038,7 @@
     <t>XF:06BM-BI{Slt:02-Ax:I}Mtr</t>
   </si>
   <si>
-    <t>dm3-slits-i</t>
+    <t>dm3-slit-i</t>
   </si>
   <si>
     <t>dm3 inboard</t>
@@ -1070,7 +1047,7 @@
     <t>XF:06BM-BI{Slt:02-Ax:T}Mtr</t>
   </si>
   <si>
-    <t>dm3-slits-t</t>
+    <t>dm3-slit-t</t>
   </si>
   <si>
     <t>dm3 top</t>
@@ -1079,7 +1056,7 @@
     <t>XF:06BM-BI{Slt:02-Ax:B}Mtr</t>
   </si>
   <si>
-    <t>dm3-slits-b</t>
+    <t>dm3-slit-b</t>
   </si>
   <si>
     <t>dm3 bottom</t>
@@ -11146,11 +11123,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="H58" activeCellId="0" sqref="H58"/>
+      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12210,7 +12187,7 @@
         <v>-1413</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="B27" s="41" t="s">
         <v>90</v>
@@ -12221,41 +12198,41 @@
       <c r="D27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="30" t="n">
-        <v>8.75364</v>
+      <c r="E27" s="0" t="n">
+        <v>-6.2601</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>-2826</v>
-      </c>
-      <c r="G27" s="28" t="n">
-        <v>8.75154</v>
-      </c>
-      <c r="H27" s="29" t="n">
-        <v>-2831</v>
-      </c>
-      <c r="I27" s="30" t="n">
-        <v>8.75364</v>
+        <v>-38573</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>-6.2601</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>-38573</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-6.2601</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>-2825</v>
-      </c>
-      <c r="K27" s="28" t="n">
-        <v>8.77716</v>
-      </c>
-      <c r="L27" s="29" t="n">
-        <v>-2771</v>
-      </c>
-      <c r="M27" s="30" t="n">
-        <v>8.77296</v>
+        <v>-38573</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>-6.2601</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>-38573</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>-6.2601</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>-2780</v>
-      </c>
-      <c r="O27" s="28" t="n">
-        <v>8.77128</v>
-      </c>
-      <c r="P27" s="29" t="n">
-        <v>-2784</v>
+        <v>-38573</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>-6.2601</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>-38573</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13370,7 +13347,7 @@
         <v>-523391</v>
       </c>
       <c r="K48" s="50" t="n">
-        <v>23.1</v>
+        <v>27.1</v>
       </c>
       <c r="L48" s="51" t="n">
         <v>189372</v>
@@ -14100,7 +14077,7 @@
   <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15488,8 +15465,8 @@
       <c r="B24" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="58" t="n">
-        <v>3.891</v>
+      <c r="C24" s="0" t="n">
+        <v>33</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="58" t="s">
@@ -15510,8 +15487,8 @@
       <c r="B25" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="58" t="n">
-        <v>-59.0037</v>
+      <c r="C25" s="0" t="n">
+        <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="58" t="s">
@@ -15532,8 +15509,8 @@
       <c r="B26" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="58" t="n">
-        <v>-36.9997</v>
+      <c r="C26" s="0" t="n">
+        <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="58" t="s">
@@ -15555,7 +15532,7 @@
         <v>233</v>
       </c>
       <c r="C27" s="58" t="n">
-        <v>23.1</v>
+        <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="58" t="s">
@@ -15573,7 +15550,7 @@
         <v>234</v>
       </c>
       <c r="C28" s="58" t="n">
-        <v>23.1</v>
+        <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="58" t="s">
@@ -15634,7 +15611,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15650,7 +15626,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -47,9 +47,9 @@
             <charset val="1"/>
           </rPr>
           <t>vert = -4.15
-pitch = 3.5
-lateral = -1
-yaw = 0.150</t>
+pitch = 3.225
+lateral = -0.4
+yaw = 0.124</t>
         </r>
       </text>
     </comment>
@@ -88,10 +88,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.65
-pitch = 3.5
-lateral = -1
-yaw = 0.150</t>
+          <t>vert = -4.15
+pitch = 3.225
+lateral = -0.4
+yaw = 0.124</t>
         </r>
       </text>
     </comment>
@@ -132,9 +132,9 @@
             <charset val="1"/>
           </rPr>
           <t>vert = -4.15
-pitch = 3.5
-lateral = -1
-yaw = 0.150</t>
+pitch = 3.225
+lateral = -0.4
+yaw = 0.124</t>
         </r>
       </text>
     </comment>
@@ -10477,7 +10477,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10498,6 +10498,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFF2DED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFF2DED5"/>
       </patternFill>
@@ -10505,7 +10511,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor rgb="FFF2DED5"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -10690,7 +10696,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10903,6 +10909,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10931,7 +10945,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10979,7 +10993,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11031,7 +11045,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11072,7 +11086,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF2DED5"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF330066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -11093,7 +11107,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF2DED5"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -11123,11 +11137,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="C52" activeCellId="0" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="G55" activeCellId="0" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12741,22 +12755,22 @@
         <v>125</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>-6.4041</v>
+        <v>-6.2262</v>
       </c>
       <c r="F37" s="19" t="n">
-        <v>-57542</v>
+        <v>-55761</v>
       </c>
       <c r="G37" s="39" t="n">
-        <v>-6.9038</v>
+        <v>-6.2262</v>
       </c>
       <c r="H37" s="19" t="n">
-        <v>-62538</v>
+        <v>-55761</v>
       </c>
       <c r="I37" s="39" t="n">
-        <v>-6.4041</v>
+        <v>-6.2262</v>
       </c>
       <c r="J37" s="19" t="n">
-        <v>-57542</v>
+        <v>-55761</v>
       </c>
       <c r="K37" s="40" t="n">
         <v>6</v>
@@ -12803,22 +12817,22 @@
         <v>128</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>-1.8946</v>
+        <v>-2.0722</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-27846</v>
+        <v>-29624</v>
       </c>
       <c r="G38" s="30" t="n">
-        <v>-2.3945</v>
+        <v>-2.0722</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-32846</v>
+        <v>-29624</v>
       </c>
       <c r="I38" s="30" t="n">
-        <v>-1.8946</v>
+        <v>-2.0722</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>-27846</v>
+        <v>-29624</v>
       </c>
       <c r="K38" s="28" t="n">
         <v>6</v>
@@ -12851,22 +12865,22 @@
         <v>131</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>-1.8955</v>
+        <v>-2.0722</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-21956</v>
+        <v>-23721</v>
       </c>
       <c r="G39" s="30" t="n">
-        <v>-2.3951</v>
+        <v>-2.0722</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-26950</v>
+        <v>-23721</v>
       </c>
       <c r="I39" s="30" t="n">
-        <v>-1.8955</v>
+        <v>-2.0722</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-21956</v>
+        <v>-23721</v>
       </c>
       <c r="K39" s="28" t="n">
         <v>6</v>
@@ -12899,40 +12913,40 @@
         <v>134</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>-1.0963</v>
+        <v>-0.4803</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-23154</v>
+        <v>-16994</v>
       </c>
       <c r="G40" s="30" t="n">
-        <v>-1.0963</v>
+        <v>-0.4803</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-23154</v>
+        <v>-16994</v>
       </c>
       <c r="I40" s="30" t="n">
-        <v>-1.0963</v>
+        <v>-0.4803</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-23154</v>
-      </c>
-      <c r="K40" s="28" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="L40" s="29" t="n">
-        <v>-12200</v>
+        <v>-16994</v>
+      </c>
+      <c r="K40" s="30" t="n">
+        <v>-0.4803</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>-16994</v>
       </c>
       <c r="M40" s="30" t="n">
-        <v>-0.001</v>
+        <v>-0.4803</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>-12200</v>
-      </c>
-      <c r="O40" s="28" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="P40" s="29" t="n">
-        <v>-12200</v>
+        <v>-16994</v>
+      </c>
+      <c r="O40" s="30" t="n">
+        <v>-0.4803</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>-16994</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12947,40 +12961,40 @@
         <v>137</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>-0.9035</v>
+        <v>-0.3204</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-36537</v>
+        <v>-30704</v>
       </c>
       <c r="G41" s="30" t="n">
-        <v>-0.9035</v>
+        <v>-0.3204</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-36537</v>
+        <v>-30704</v>
       </c>
       <c r="I41" s="30" t="n">
-        <v>-0.9035</v>
+        <v>-0.3204</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-36537</v>
-      </c>
-      <c r="K41" s="28" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="L41" s="29" t="n">
-        <v>-27526</v>
+        <v>-30704</v>
+      </c>
+      <c r="K41" s="30" t="n">
+        <v>-0.3204</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>-30704</v>
       </c>
       <c r="M41" s="30" t="n">
-        <v>-0.0026</v>
+        <v>-0.3204</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>-27526</v>
-      </c>
-      <c r="O41" s="28" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="P41" s="29" t="n">
-        <v>-27526</v>
+        <v>-30704</v>
+      </c>
+      <c r="O41" s="30" t="n">
+        <v>-0.3204</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>-30704</v>
       </c>
     </row>
     <row r="42" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12995,22 +13009,22 @@
         <v>140</v>
       </c>
       <c r="E42" s="34" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="F42" s="33" t="n">
-        <v>150000</v>
+        <v>110001</v>
       </c>
       <c r="G42" s="34" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="H42" s="33" t="n">
-        <v>150000</v>
+        <v>110001</v>
       </c>
       <c r="I42" s="34" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="J42" s="33" t="n">
-        <v>150000</v>
+        <v>110001</v>
       </c>
       <c r="K42" s="35" t="n">
         <v>0</v>
@@ -13067,14 +13081,14 @@
       <c r="G43" s="40" t="n">
         <v>-4.9154</v>
       </c>
-      <c r="H43" s="24" t="n">
-        <v>-30953</v>
+      <c r="H43" s="19" t="n">
+        <v>3208</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-6.08242</v>
+        <v>-6.3492</v>
       </c>
       <c r="J43" s="19" t="n">
-        <v>-42624</v>
+        <v>-45292</v>
       </c>
       <c r="K43" s="40" t="n">
         <v>-1.1672</v>
@@ -13129,14 +13143,14 @@
       <c r="G44" s="28" t="n">
         <v>-8.2511</v>
       </c>
-      <c r="H44" s="29" t="n">
-        <v>-78810</v>
+      <c r="H44" s="0" t="n">
+        <v>-11313</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-8.41762</v>
+        <v>-8.1509</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>-80476</v>
+        <v>-77809</v>
       </c>
       <c r="K44" s="28" t="n">
         <v>1.1673</v>
@@ -13177,14 +13191,14 @@
       <c r="G45" s="28" t="n">
         <v>-8.2512</v>
       </c>
-      <c r="H45" s="29" t="n">
-        <v>-80111</v>
+      <c r="H45" s="0" t="n">
+        <v>-12617</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-8.41752</v>
+        <v>-8.1507</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>-81775</v>
+        <v>-79107</v>
       </c>
       <c r="K45" s="28" t="n">
         <v>1.1673</v>
@@ -13508,17 +13522,17 @@
       <c r="F51" s="0" t="n">
         <v>58500</v>
       </c>
-      <c r="G51" s="28" t="n">
-        <v>0.7298</v>
-      </c>
-      <c r="H51" s="29" t="n">
-        <v>-2242</v>
+      <c r="G51" s="30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>58500</v>
       </c>
       <c r="I51" s="30" t="n">
-        <v>-1.0916</v>
+        <v>6.8</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>-20456</v>
+        <v>58500</v>
       </c>
       <c r="K51" s="30" t="n">
         <v>3.3045</v>
@@ -13556,17 +13570,17 @@
       <c r="F52" s="33" t="n">
         <v>-34835</v>
       </c>
-      <c r="G52" s="35" t="n">
-        <v>-4.1998</v>
-      </c>
-      <c r="H52" s="42" t="n">
-        <v>-15831</v>
+      <c r="G52" s="34" t="n">
+        <v>-6.1003</v>
+      </c>
+      <c r="H52" s="33" t="n">
+        <v>-34835</v>
       </c>
       <c r="I52" s="34" t="n">
-        <v>-5.7006</v>
+        <v>-6.1003</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-30839</v>
+        <v>-34835</v>
       </c>
       <c r="K52" s="34" t="n">
         <v>-2.5001</v>
@@ -13677,10 +13691,10 @@
         <v>180</v>
       </c>
       <c r="E54" s="52" t="n">
-        <v>49.5</v>
+        <v>43.7453</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>459199</v>
+        <v>401607</v>
       </c>
       <c r="G54" s="53" t="n">
         <v>-59.5913</v>
@@ -13689,15 +13703,12 @@
         <v>-631720</v>
       </c>
       <c r="I54" s="52" t="n">
-        <v>-17.25</v>
-      </c>
-      <c r="J54" s="26" t="n">
-        <v>-208341</v>
-      </c>
-      <c r="K54" s="53" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="K54" s="55" t="n">
         <v>46.1092</v>
       </c>
-      <c r="L54" s="54" t="n">
+      <c r="L54" s="56" t="n">
         <v>425265</v>
       </c>
       <c r="M54" s="52" t="n">
@@ -13706,10 +13717,10 @@
       <c r="N54" s="26" t="n">
         <v>425267</v>
       </c>
-      <c r="O54" s="53" t="n">
+      <c r="O54" s="55" t="n">
         <v>19.5956</v>
       </c>
-      <c r="P54" s="54" t="n">
+      <c r="P54" s="56" t="n">
         <v>160131</v>
       </c>
       <c r="ALW54" s="0"/>
@@ -13802,37 +13813,37 @@
       <c r="D56" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="55" t="n">
+      <c r="E56" s="57" t="n">
         <v>128</v>
       </c>
       <c r="F56" s="24" t="n">
         <v>9990244</v>
       </c>
-      <c r="G56" s="55" t="n">
+      <c r="G56" s="57" t="n">
         <v>24.4104</v>
       </c>
       <c r="H56" s="22" t="n">
         <v>4600216</v>
       </c>
-      <c r="I56" s="55" t="n">
+      <c r="I56" s="57" t="n">
         <v>50.9301</v>
       </c>
       <c r="J56" s="24" t="n">
         <v>5980102</v>
       </c>
-      <c r="K56" s="55" t="n">
+      <c r="K56" s="57" t="n">
         <v>126</v>
       </c>
       <c r="L56" s="22" t="n">
         <v>9886179</v>
       </c>
-      <c r="M56" s="55" t="n">
+      <c r="M56" s="57" t="n">
         <v>126</v>
       </c>
       <c r="N56" s="22" t="n">
         <v>9886179</v>
       </c>
-      <c r="O56" s="55" t="n">
+      <c r="O56" s="57" t="n">
         <v>98</v>
       </c>
       <c r="P56" s="22" t="n">
@@ -13850,37 +13861,37 @@
       <c r="D57" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="56" t="n">
+      <c r="E57" s="58" t="n">
         <v>128</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>7544716</v>
       </c>
-      <c r="G57" s="56" t="n">
+      <c r="G57" s="58" t="n">
         <v>12.81</v>
       </c>
       <c r="H57" s="29" t="n">
         <v>1551088</v>
       </c>
-      <c r="I57" s="56" t="n">
+      <c r="I57" s="58" t="n">
         <v>42.81</v>
       </c>
       <c r="J57" s="29" t="n">
         <v>3112063</v>
       </c>
-      <c r="K57" s="56" t="n">
+      <c r="K57" s="58" t="n">
         <v>126</v>
       </c>
       <c r="L57" s="29" t="n">
         <v>6243902</v>
       </c>
-      <c r="M57" s="56" t="n">
+      <c r="M57" s="58" t="n">
         <v>126</v>
       </c>
       <c r="N57" s="29" t="n">
         <v>6243902</v>
       </c>
-      <c r="O57" s="56" t="n">
+      <c r="O57" s="58" t="n">
         <v>95.5</v>
       </c>
       <c r="P57" s="29" t="n">
@@ -13898,37 +13909,37 @@
       <c r="D58" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="56" t="n">
+      <c r="E58" s="58" t="n">
         <v>128</v>
       </c>
-      <c r="F58" s="54" t="n">
+      <c r="F58" s="56" t="n">
         <v>6347968</v>
       </c>
-      <c r="G58" s="56" t="n">
+      <c r="G58" s="58" t="n">
         <v>12.81</v>
       </c>
       <c r="H58" s="29" t="n">
         <v>354340</v>
       </c>
-      <c r="I58" s="56" t="n">
+      <c r="I58" s="58" t="n">
         <v>42.81</v>
       </c>
-      <c r="J58" s="54" t="n">
+      <c r="J58" s="56" t="n">
         <v>1915315</v>
       </c>
-      <c r="K58" s="56" t="n">
+      <c r="K58" s="58" t="n">
         <v>126</v>
       </c>
       <c r="L58" s="29" t="n">
         <v>7440650</v>
       </c>
-      <c r="M58" s="56" t="n">
+      <c r="M58" s="58" t="n">
         <v>126</v>
       </c>
       <c r="N58" s="29" t="n">
         <v>7440650</v>
       </c>
-      <c r="O58" s="56" t="n">
+      <c r="O58" s="58" t="n">
         <v>95.5</v>
       </c>
       <c r="P58" s="29" t="n">
@@ -13946,40 +13957,40 @@
       <c r="D59" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="56" t="n">
+      <c r="E59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="F59" s="54" t="n">
+      <c r="F59" s="56" t="n">
         <v>-332000</v>
       </c>
-      <c r="G59" s="56" t="n">
+      <c r="G59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="H59" s="54" t="n">
+      <c r="H59" s="56" t="n">
         <v>-332000</v>
       </c>
-      <c r="I59" s="56" t="n">
+      <c r="I59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="J59" s="54" t="n">
+      <c r="J59" s="56" t="n">
         <v>-332000</v>
       </c>
-      <c r="K59" s="56" t="n">
+      <c r="K59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="L59" s="54" t="n">
+      <c r="L59" s="56" t="n">
         <v>-332000</v>
       </c>
-      <c r="M59" s="56" t="n">
+      <c r="M59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="N59" s="54" t="n">
+      <c r="N59" s="56" t="n">
         <v>-332000</v>
       </c>
-      <c r="O59" s="56" t="n">
+      <c r="O59" s="58" t="n">
         <v>-4.6</v>
       </c>
-      <c r="P59" s="54" t="n">
+      <c r="P59" s="56" t="n">
         <v>-332000</v>
       </c>
     </row>
@@ -13994,37 +14005,37 @@
       <c r="D60" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="57" t="n">
+      <c r="E60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="F60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="G60" s="57" t="n">
+      <c r="G60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="H60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="I60" s="57" t="n">
+      <c r="I60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="J60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="K60" s="57" t="n">
+      <c r="K60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="L60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="M60" s="57" t="n">
+      <c r="M60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="N60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="O60" s="57" t="n">
+      <c r="O60" s="59" t="n">
         <v>16.9</v>
       </c>
       <c r="P60" s="44" t="n">
@@ -14076,40 +14087,40 @@
   </sheetPr>
   <dimension ref="1:30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="58" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="60" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="60" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58"/>
+    <row r="1" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="AMJ1" s="58"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="AMJ1" s="60"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -15130,168 +15141,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="65" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+    <row r="3" s="67" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="AMJ3" s="61"/>
-    </row>
-    <row r="4" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58"/>
-      <c r="B4" s="62" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="AMJ3" s="63"/>
+    </row>
+    <row r="4" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60"/>
+      <c r="B4" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="n">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="66" t="n">
+      <c r="E4" s="68" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="AMJ4" s="58"/>
-    </row>
-    <row r="5" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58"/>
-      <c r="B5" s="62" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="AMJ4" s="60"/>
+    </row>
+    <row r="5" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60"/>
+      <c r="B5" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="58" t="n">
+      <c r="D5" s="60" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="AMJ5" s="58"/>
-    </row>
-    <row r="6" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58"/>
-      <c r="B6" s="62" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="AMJ5" s="60"/>
+    </row>
+    <row r="6" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60"/>
+      <c r="B6" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="58" t="n">
+      <c r="D6" s="60" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="AMJ6" s="58"/>
-    </row>
-    <row r="7" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58"/>
-      <c r="B7" s="62" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="AMJ6" s="60"/>
+    </row>
+    <row r="7" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60"/>
+      <c r="B7" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="58" t="n">
+      <c r="D7" s="60" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="AMJ7" s="58"/>
-    </row>
-    <row r="8" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58"/>
-      <c r="B8" s="62" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="AMJ7" s="60"/>
+    </row>
+    <row r="8" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60"/>
+      <c r="B8" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="58" t="n">
+      <c r="D8" s="60" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="AMJ8" s="58"/>
-    </row>
-    <row r="9" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58"/>
-      <c r="B9" s="62" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="AMJ8" s="60"/>
+    </row>
+    <row r="9" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60"/>
+      <c r="B9" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="n">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="AMJ9" s="58"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="AMJ9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68" t="n">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -15300,8 +15311,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -15310,82 +15321,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="76" t="s">
         <v>217</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="66"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="58" t="n">
+      <c r="C15" s="60" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="66"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="77" t="s">
         <v>219</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="66"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="58" t="n">
+      <c r="C17" s="60" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="66"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="68" t="n">
+      <c r="C18" s="70" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -15412,188 +15423,188 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="70" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="77" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="I22" s="77"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="76" t="s">
         <v>217</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="76" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="I23" s="78" t="s">
+      <c r="I23" s="80" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="F24" s="58" t="n">
+      <c r="F24" s="60" t="n">
         <v>25.5</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="I24" s="66" t="n">
+      <c r="I24" s="68" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="64" t="s">
         <v>229</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="58" t="n">
+      <c r="F25" s="60" t="n">
         <v>-42.6</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="66" t="n">
+      <c r="I25" s="68" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="64" t="s">
         <v>231</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="F26" s="58" t="n">
+      <c r="F26" s="60" t="n">
         <v>-17.25</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="I26" s="66" t="n">
+      <c r="I26" s="68" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="58" t="n">
+      <c r="C27" s="60" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="58" t="n">
+      <c r="F27" s="60" t="n">
         <v>46.1092</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="66"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="C28" s="58" t="n">
+      <c r="C28" s="60" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="58" t="n">
+      <c r="F28" s="60" t="n">
         <v>46.1092</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="66"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="58" t="n">
+      <c r="C29" s="60" t="n">
         <v>-1.2</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="58" t="n">
+      <c r="F29" s="60" t="n">
         <v>19.5956</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="66"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="68" t="n">
+      <c r="C30" s="70" t="n">
         <v>55</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15654,7 +15665,7 @@
       <c r="E1" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="81" t="s">
         <v>237</v>
       </c>
       <c r="H1" s="0"/>
@@ -15675,7 +15686,7 @@
       <c r="F2" s="0" t="n">
         <v>-1362</v>
       </c>
-      <c r="G2" s="79" t="n">
+      <c r="G2" s="81" t="n">
         <v>4.00454</v>
       </c>
       <c r="H2" s="29" t="n">
@@ -15683,25 +15694,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="81" t="n">
+      <c r="E3" s="83" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="81" t="n">
+      <c r="F3" s="83" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="82" t="n">
+      <c r="G3" s="84" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="83" t="n">
+      <c r="H3" s="85" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -15721,7 +15732,7 @@
       <c r="F4" s="0" t="n">
         <v>-38573</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15740,7 +15751,7 @@
       <c r="F5" s="0" t="n">
         <v>-354999</v>
       </c>
-      <c r="G5" s="79" t="n">
+      <c r="G5" s="81" t="n">
         <v>33</v>
       </c>
       <c r="H5" s="29" t="n">
@@ -15844,7 +15855,7 @@
       <c r="A9" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="84" t="n">
+      <c r="B9" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -15868,7 +15879,7 @@
       <c r="A12" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="84" t="n">
+      <c r="B12" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -15964,7 +15975,7 @@
       <c r="A24" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="84" t="n">
+      <c r="B24" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -15988,7 +15999,7 @@
       <c r="A27" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B27" s="84" t="n">
+      <c r="B27" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16084,7 +16095,7 @@
       <c r="A39" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B39" s="84" t="n">
+      <c r="B39" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16108,7 +16119,7 @@
       <c r="A42" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="84" t="n">
+      <c r="B42" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16204,7 +16215,7 @@
       <c r="A54" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B54" s="84" t="n">
+      <c r="B54" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16228,7 +16239,7 @@
       <c r="A57" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B57" s="84" t="n">
+      <c r="B57" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16292,7 +16303,7 @@
       <c r="A65" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B65" s="84" t="n">
+      <c r="B65" s="86" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -16300,7 +16311,7 @@
       <c r="A66" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B66" s="84" t="n">
+      <c r="B66" s="86" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -16308,7 +16319,7 @@
       <c r="A67" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B67" s="84" t="n">
+      <c r="B67" s="86" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -16316,7 +16327,7 @@
       <c r="A68" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B68" s="84" t="n">
+      <c r="B68" s="86" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -16636,7 +16647,7 @@
       <c r="A108" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B108" s="84" t="n">
+      <c r="B108" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16660,7 +16671,7 @@
       <c r="A111" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B111" s="84" t="n">
+      <c r="B111" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16756,7 +16767,7 @@
       <c r="A123" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B123" s="84" t="n">
+      <c r="B123" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16780,7 +16791,7 @@
       <c r="A126" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="84" t="n">
+      <c r="B126" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16876,7 +16887,7 @@
       <c r="A138" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B138" s="84" t="n">
+      <c r="B138" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16900,7 +16911,7 @@
       <c r="A141" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B141" s="84" t="n">
+      <c r="B141" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16996,7 +17007,7 @@
       <c r="A153" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B153" s="84" t="n">
+      <c r="B153" s="86" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17020,7 +17031,7 @@
       <c r="A156" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B156" s="84" t="n">
+      <c r="B156" s="86" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17084,7 +17095,7 @@
       <c r="A164" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B164" s="84" t="n">
+      <c r="B164" s="86" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -17092,7 +17103,7 @@
       <c r="A165" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B165" s="84" t="n">
+      <c r="B165" s="86" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -17100,7 +17111,7 @@
       <c r="A166" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B166" s="84" t="n">
+      <c r="B166" s="86" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -17108,7 +17119,7 @@
       <c r="A167" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B167" s="84" t="n">
+      <c r="B167" s="86" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -17244,7 +17255,7 @@
       <c r="A184" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B184" s="84" t="n">
+      <c r="B184" s="86" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -17252,7 +17263,7 @@
       <c r="A185" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B185" s="84" t="n">
+      <c r="B185" s="86" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -17284,7 +17295,7 @@
       <c r="A189" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B189" s="84" t="n">
+      <c r="B189" s="86" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -17308,7 +17319,7 @@
       <c r="A192" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B192" s="84" t="n">
+      <c r="B192" s="86" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -17316,7 +17327,7 @@
       <c r="A193" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B193" s="84" t="n">
+      <c r="B193" s="86" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -17324,7 +17335,7 @@
       <c r="A194" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B194" s="84" t="n">
+      <c r="B194" s="86" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -17332,7 +17343,7 @@
       <c r="A195" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B195" s="84" t="n">
+      <c r="B195" s="86" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -18756,40 +18767,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="84" t="n">
+      <c r="C337" s="86" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="84" t="n">
+      <c r="D337" s="86" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="84" t="n">
+      <c r="E337" s="86" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="84" t="n">
+      <c r="F337" s="86" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="84" t="n">
+      <c r="G337" s="86" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="84" t="n">
+      <c r="H337" s="86" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="84" t="n">
+      <c r="I337" s="86" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="84" t="n">
+      <c r="J337" s="86" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="84" t="n">
+      <c r="K337" s="86" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="84" t="n">
+      <c r="L337" s="86" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="84" t="n">
+      <c r="M337" s="86" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="84" t="n">
+      <c r="N337" s="86" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -18800,40 +18811,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="84" t="n">
+      <c r="C338" s="86" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="84" t="n">
+      <c r="D338" s="86" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="84" t="n">
+      <c r="E338" s="86" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="84" t="n">
+      <c r="F338" s="86" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="84" t="n">
+      <c r="G338" s="86" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="84" t="n">
+      <c r="H338" s="86" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="84" t="n">
+      <c r="I338" s="86" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="84" t="n">
+      <c r="J338" s="86" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="84" t="n">
+      <c r="K338" s="86" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="84" t="n">
+      <c r="L338" s="86" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="84" t="n">
+      <c r="M338" s="86" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="84" t="n">
+      <c r="N338" s="86" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -18844,40 +18855,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="84" t="n">
+      <c r="C339" s="86" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="84" t="n">
+      <c r="D339" s="86" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="84" t="n">
+      <c r="E339" s="86" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="84" t="n">
+      <c r="F339" s="86" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="84" t="n">
+      <c r="G339" s="86" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="84" t="n">
+      <c r="H339" s="86" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="84" t="n">
+      <c r="I339" s="86" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="84" t="n">
+      <c r="J339" s="86" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="84" t="n">
+      <c r="K339" s="86" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="84" t="n">
+      <c r="L339" s="86" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="84" t="n">
+      <c r="M339" s="86" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="84" t="n">
+      <c r="N339" s="86" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -18888,40 +18899,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="84" t="n">
+      <c r="C340" s="86" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="84" t="n">
+      <c r="D340" s="86" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="84" t="n">
+      <c r="E340" s="86" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="84" t="n">
+      <c r="F340" s="86" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="84" t="n">
+      <c r="G340" s="86" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="84" t="n">
+      <c r="H340" s="86" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="84" t="n">
+      <c r="I340" s="86" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="84" t="n">
+      <c r="J340" s="86" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="84" t="n">
+      <c r="K340" s="86" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="84" t="n">
+      <c r="L340" s="86" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="84" t="n">
+      <c r="M340" s="86" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="84" t="n">
+      <c r="N340" s="86" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -19636,40 +19647,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="84" t="n">
+      <c r="C357" s="86" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="84" t="n">
+      <c r="D357" s="86" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="84" t="n">
+      <c r="E357" s="86" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="84" t="n">
+      <c r="F357" s="86" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="84" t="n">
+      <c r="G357" s="86" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="84" t="n">
+      <c r="H357" s="86" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="84" t="n">
+      <c r="I357" s="86" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="84" t="n">
+      <c r="J357" s="86" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="84" t="n">
+      <c r="K357" s="86" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="84" t="n">
+      <c r="L357" s="86" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="84" t="n">
+      <c r="M357" s="86" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="84" t="n">
+      <c r="N357" s="86" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -19680,40 +19691,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="84" t="n">
+      <c r="C358" s="86" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="84" t="n">
+      <c r="D358" s="86" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="84" t="n">
+      <c r="E358" s="86" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="84" t="n">
+      <c r="F358" s="86" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="84" t="n">
+      <c r="G358" s="86" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="84" t="n">
+      <c r="H358" s="86" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="84" t="n">
+      <c r="I358" s="86" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="84" t="n">
+      <c r="J358" s="86" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="84" t="n">
+      <c r="K358" s="86" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="84" t="n">
+      <c r="L358" s="86" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="84" t="n">
+      <c r="M358" s="86" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="84" t="n">
+      <c r="N358" s="86" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -19724,40 +19735,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="84" t="n">
+      <c r="C359" s="86" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="84" t="n">
+      <c r="D359" s="86" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="84" t="n">
+      <c r="E359" s="86" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="84" t="n">
+      <c r="F359" s="86" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="84" t="n">
+      <c r="G359" s="86" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="84" t="n">
+      <c r="H359" s="86" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="84" t="n">
+      <c r="I359" s="86" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="84" t="n">
+      <c r="J359" s="86" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="84" t="n">
+      <c r="K359" s="86" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="84" t="n">
+      <c r="L359" s="86" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="84" t="n">
+      <c r="M359" s="86" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="84" t="n">
+      <c r="N359" s="86" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -19768,40 +19779,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="84" t="n">
+      <c r="C360" s="86" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="84" t="n">
+      <c r="D360" s="86" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="84" t="n">
+      <c r="E360" s="86" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="84" t="n">
+      <c r="F360" s="86" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="84" t="n">
+      <c r="G360" s="86" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="84" t="n">
+      <c r="H360" s="86" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="84" t="n">
+      <c r="I360" s="86" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="84" t="n">
+      <c r="J360" s="86" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="84" t="n">
+      <c r="K360" s="86" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="84" t="n">
+      <c r="L360" s="86" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="84" t="n">
+      <c r="M360" s="86" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="84" t="n">
+      <c r="N360" s="86" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -19944,7 +19955,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="84" t="n">
+      <c r="C364" s="86" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -19988,7 +19999,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="84" t="n">
+      <c r="C365" s="86" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -20032,7 +20043,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="84" t="n">
+      <c r="C366" s="86" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -20076,7 +20087,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="84" t="n">
+      <c r="C367" s="86" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -21853,13 +21864,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="87" t="s">
         <v>770</v>
       </c>
-      <c r="C1" s="85" t="n">
+      <c r="C1" s="87" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="87" t="s">
         <v>771</v>
       </c>
     </row>
@@ -21867,10 +21878,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="85" t="n">
+      <c r="C2" s="87" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -21878,10 +21889,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="87" t="s">
         <v>773</v>
       </c>
-      <c r="C3" s="85" t="n">
+      <c r="C3" s="87" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -21985,7 +21996,7 @@
       <c r="B16" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="C16" s="84" t="n">
+      <c r="C16" s="86" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -21993,7 +22004,7 @@
       <c r="B17" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="C17" s="84" t="n">
+      <c r="C17" s="86" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -22001,7 +22012,7 @@
       <c r="B18" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="C18" s="84" t="n">
+      <c r="C18" s="86" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -22009,7 +22020,7 @@
       <c r="B19" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="C19" s="84" t="n">
+      <c r="C19" s="86" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -22497,7 +22508,7 @@
       <c r="B80" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="C80" s="84" t="n">
+      <c r="C80" s="86" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -22545,7 +22556,7 @@
       <c r="B86" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="C86" s="84" t="n">
+      <c r="C86" s="86" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -22577,7 +22588,7 @@
       <c r="B90" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="C90" s="84" t="n">
+      <c r="C90" s="86" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -22665,7 +22676,7 @@
       <c r="B101" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="C101" s="84" t="n">
+      <c r="C101" s="86" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -22841,7 +22852,7 @@
       <c r="B123" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="C123" s="84" t="n">
+      <c r="C123" s="86" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -22905,7 +22916,7 @@
       <c r="B131" s="0" t="s">
         <v>913</v>
       </c>
-      <c r="C131" s="84" t="n">
+      <c r="C131" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -22921,7 +22932,7 @@
       <c r="B133" s="0" t="s">
         <v>915</v>
       </c>
-      <c r="C133" s="84" t="n">
+      <c r="C133" s="86" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -23441,7 +23452,7 @@
       <c r="B198" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="C198" s="84" t="n">
+      <c r="C198" s="86" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -23489,7 +23500,7 @@
       <c r="B204" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="C204" s="84" t="n">
+      <c r="C204" s="86" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -23521,7 +23532,7 @@
       <c r="B208" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="C208" s="84" t="n">
+      <c r="C208" s="86" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -23609,7 +23620,7 @@
       <c r="B219" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="C219" s="84" t="n">
+      <c r="C219" s="86" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -23785,7 +23796,7 @@
       <c r="B241" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="C241" s="84" t="n">
+      <c r="C241" s="86" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -23849,7 +23860,7 @@
       <c r="B249" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="C249" s="84" t="n">
+      <c r="C249" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -23865,7 +23876,7 @@
       <c r="B251" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="C251" s="84" t="n">
+      <c r="C251" s="86" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -24385,7 +24396,7 @@
       <c r="B316" s="0" t="s">
         <v>1101</v>
       </c>
-      <c r="C316" s="84" t="n">
+      <c r="C316" s="86" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -24433,7 +24444,7 @@
       <c r="B322" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="C322" s="84" t="n">
+      <c r="C322" s="86" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -24465,7 +24476,7 @@
       <c r="B326" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="C326" s="84" t="n">
+      <c r="C326" s="86" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -24553,7 +24564,7 @@
       <c r="B337" s="0" t="s">
         <v>1122</v>
       </c>
-      <c r="C337" s="84" t="n">
+      <c r="C337" s="86" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -24729,7 +24740,7 @@
       <c r="B359" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="C359" s="84" t="n">
+      <c r="C359" s="86" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -24793,7 +24804,7 @@
       <c r="B367" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="C367" s="84" t="n">
+      <c r="C367" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24809,7 +24820,7 @@
       <c r="B369" s="0" t="s">
         <v>1155</v>
       </c>
-      <c r="C369" s="84" t="n">
+      <c r="C369" s="86" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -25329,7 +25340,7 @@
       <c r="B434" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="C434" s="84" t="n">
+      <c r="C434" s="86" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -25377,7 +25388,7 @@
       <c r="B440" s="0" t="s">
         <v>1226</v>
       </c>
-      <c r="C440" s="84" t="n">
+      <c r="C440" s="86" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -25409,7 +25420,7 @@
       <c r="B444" s="0" t="s">
         <v>1230</v>
       </c>
-      <c r="C444" s="84" t="n">
+      <c r="C444" s="86" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -25497,7 +25508,7 @@
       <c r="B455" s="0" t="s">
         <v>1241</v>
       </c>
-      <c r="C455" s="84" t="n">
+      <c r="C455" s="86" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -25673,7 +25684,7 @@
       <c r="B477" s="0" t="s">
         <v>1264</v>
       </c>
-      <c r="C477" s="84" t="n">
+      <c r="C477" s="86" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -25737,7 +25748,7 @@
       <c r="B485" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="C485" s="84" t="n">
+      <c r="C485" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25753,7 +25764,7 @@
       <c r="B487" s="0" t="s">
         <v>1274</v>
       </c>
-      <c r="C487" s="84" t="n">
+      <c r="C487" s="86" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -25841,7 +25852,7 @@
       <c r="B498" s="0" t="s">
         <v>1285</v>
       </c>
-      <c r="C498" s="84" t="n">
+      <c r="C498" s="86" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -25849,7 +25860,7 @@
       <c r="B499" s="0" t="s">
         <v>1286</v>
       </c>
-      <c r="C499" s="84" t="n">
+      <c r="C499" s="86" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -25857,7 +25868,7 @@
       <c r="B500" s="0" t="s">
         <v>1287</v>
       </c>
-      <c r="C500" s="84" t="n">
+      <c r="C500" s="86" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -25865,7 +25876,7 @@
       <c r="B501" s="0" t="s">
         <v>1288</v>
       </c>
-      <c r="C501" s="84" t="n">
+      <c r="C501" s="86" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -26433,7 +26444,7 @@
       <c r="B572" s="0" t="s">
         <v>1359</v>
       </c>
-      <c r="C572" s="84" t="n">
+      <c r="C572" s="86" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -26481,7 +26492,7 @@
       <c r="B578" s="0" t="s">
         <v>1365</v>
       </c>
-      <c r="C578" s="84" t="n">
+      <c r="C578" s="86" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -26513,7 +26524,7 @@
       <c r="B582" s="0" t="s">
         <v>1369</v>
       </c>
-      <c r="C582" s="84" t="n">
+      <c r="C582" s="86" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -26601,7 +26612,7 @@
       <c r="B593" s="0" t="s">
         <v>1380</v>
       </c>
-      <c r="C593" s="84" t="n">
+      <c r="C593" s="86" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -26777,7 +26788,7 @@
       <c r="B615" s="0" t="s">
         <v>1403</v>
       </c>
-      <c r="C615" s="84" t="n">
+      <c r="C615" s="86" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -26841,7 +26852,7 @@
       <c r="B623" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="C623" s="84" t="n">
+      <c r="C623" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26857,7 +26868,7 @@
       <c r="B625" s="0" t="s">
         <v>1413</v>
       </c>
-      <c r="C625" s="84" t="n">
+      <c r="C625" s="86" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -27377,7 +27388,7 @@
       <c r="B690" s="0" t="s">
         <v>1478</v>
       </c>
-      <c r="C690" s="84" t="n">
+      <c r="C690" s="86" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -27425,7 +27436,7 @@
       <c r="B696" s="0" t="s">
         <v>1484</v>
       </c>
-      <c r="C696" s="84" t="n">
+      <c r="C696" s="86" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -27457,7 +27468,7 @@
       <c r="B700" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="C700" s="84" t="n">
+      <c r="C700" s="86" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -27545,7 +27556,7 @@
       <c r="B711" s="0" t="s">
         <v>1499</v>
       </c>
-      <c r="C711" s="84" t="n">
+      <c r="C711" s="86" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -27721,7 +27732,7 @@
       <c r="B733" s="0" t="s">
         <v>1522</v>
       </c>
-      <c r="C733" s="84" t="n">
+      <c r="C733" s="86" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -27785,7 +27796,7 @@
       <c r="B741" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="C741" s="84" t="n">
+      <c r="C741" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27801,7 +27812,7 @@
       <c r="B743" s="0" t="s">
         <v>1532</v>
       </c>
-      <c r="C743" s="84" t="n">
+      <c r="C743" s="86" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -28357,7 +28368,7 @@
       <c r="B811" s="0" t="s">
         <v>1608</v>
       </c>
-      <c r="C811" s="84" t="n">
+      <c r="C811" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -28873,7 +28884,7 @@
       <c r="B874" s="0" t="s">
         <v>1673</v>
       </c>
-      <c r="C874" s="84" t="n">
+      <c r="C874" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -29389,7 +29400,7 @@
       <c r="B937" s="0" t="s">
         <v>1738</v>
       </c>
-      <c r="C937" s="84" t="n">
+      <c r="C937" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -29905,7 +29916,7 @@
       <c r="B1000" s="0" t="s">
         <v>1803</v>
       </c>
-      <c r="C1000" s="84" t="n">
+      <c r="C1000" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30421,7 +30432,7 @@
       <c r="B1063" s="0" t="s">
         <v>1868</v>
       </c>
-      <c r="C1063" s="84" t="n">
+      <c r="C1063" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30937,7 +30948,7 @@
       <c r="B1126" s="0" t="s">
         <v>1933</v>
       </c>
-      <c r="C1126" s="84" t="n">
+      <c r="C1126" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31453,7 +31464,7 @@
       <c r="B1189" s="0" t="s">
         <v>1998</v>
       </c>
-      <c r="C1189" s="84" t="n">
+      <c r="C1189" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31969,7 +31980,7 @@
       <c r="B1252" s="0" t="s">
         <v>2063</v>
       </c>
-      <c r="C1252" s="84" t="n">
+      <c r="C1252" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32485,7 +32496,7 @@
       <c r="B1315" s="0" t="s">
         <v>2128</v>
       </c>
-      <c r="C1315" s="84" t="n">
+      <c r="C1315" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33001,7 +33012,7 @@
       <c r="B1378" s="0" t="s">
         <v>2193</v>
       </c>
-      <c r="C1378" s="84" t="n">
+      <c r="C1378" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33517,7 +33528,7 @@
       <c r="B1441" s="0" t="s">
         <v>2258</v>
       </c>
-      <c r="C1441" s="84" t="n">
+      <c r="C1441" s="86" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33965,7 +33976,7 @@
       <c r="B1497" s="0" t="s">
         <v>2317</v>
       </c>
-      <c r="C1497" s="84" t="n">
+      <c r="C1497" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -34591,7 +34602,7 @@
       <c r="B1576" s="0" t="s">
         <v>2401</v>
       </c>
-      <c r="C1576" s="84" t="n">
+      <c r="C1576" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -34760,7 +34771,7 @@
       <c r="B1596" s="0" t="s">
         <v>2423</v>
       </c>
-      <c r="C1596" s="84" t="n">
+      <c r="C1596" s="86" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -34768,7 +34779,7 @@
       <c r="B1597" s="0" t="s">
         <v>2424</v>
       </c>
-      <c r="C1597" s="84" t="n">
+      <c r="C1597" s="86" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -35648,7 +35659,7 @@
       <c r="B1707" s="0" t="s">
         <v>2535</v>
       </c>
-      <c r="C1707" s="84" t="n">
+      <c r="C1707" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -35664,7 +35675,7 @@
       <c r="B1709" s="0" t="s">
         <v>2537</v>
       </c>
-      <c r="C1709" s="84" t="n">
+      <c r="C1709" s="86" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -36184,7 +36195,7 @@
       <c r="B1774" s="0" t="s">
         <v>2602</v>
       </c>
-      <c r="C1774" s="84" t="n">
+      <c r="C1774" s="86" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -36264,7 +36275,7 @@
       <c r="B1784" s="0" t="s">
         <v>2612</v>
       </c>
-      <c r="C1784" s="84" t="n">
+      <c r="C1784" s="86" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -36352,7 +36363,7 @@
       <c r="B1795" s="0" t="s">
         <v>2623</v>
       </c>
-      <c r="C1795" s="84" t="n">
+      <c r="C1795" s="86" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -36528,7 +36539,7 @@
       <c r="B1817" s="0" t="s">
         <v>2646</v>
       </c>
-      <c r="C1817" s="84" t="n">
+      <c r="C1817" s="86" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -36592,7 +36603,7 @@
       <c r="B1825" s="0" t="s">
         <v>2654</v>
       </c>
-      <c r="C1825" s="84" t="n">
+      <c r="C1825" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36608,7 +36619,7 @@
       <c r="B1827" s="0" t="s">
         <v>2656</v>
       </c>
-      <c r="C1827" s="84" t="n">
+      <c r="C1827" s="86" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -37211,7 +37222,7 @@
       <c r="B1902" s="0" t="s">
         <v>2733</v>
       </c>
-      <c r="C1902" s="84" t="n">
+      <c r="C1902" s="86" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -37259,7 +37270,7 @@
       <c r="B1908" s="0" t="s">
         <v>2739</v>
       </c>
-      <c r="C1908" s="84" t="n">
+      <c r="C1908" s="86" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -37291,7 +37302,7 @@
       <c r="B1912" s="0" t="s">
         <v>2743</v>
       </c>
-      <c r="C1912" s="84" t="n">
+      <c r="C1912" s="86" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -37379,7 +37390,7 @@
       <c r="B1923" s="0" t="s">
         <v>2754</v>
       </c>
-      <c r="C1923" s="84" t="n">
+      <c r="C1923" s="86" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -37555,7 +37566,7 @@
       <c r="B1945" s="0" t="s">
         <v>2777</v>
       </c>
-      <c r="C1945" s="84" t="n">
+      <c r="C1945" s="86" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -37619,7 +37630,7 @@
       <c r="B1953" s="0" t="s">
         <v>2785</v>
       </c>
-      <c r="C1953" s="84" t="n">
+      <c r="C1953" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37635,7 +37646,7 @@
       <c r="B1955" s="0" t="s">
         <v>2787</v>
       </c>
-      <c r="C1955" s="84" t="n">
+      <c r="C1955" s="86" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -38155,7 +38166,7 @@
       <c r="B2020" s="0" t="s">
         <v>2852</v>
       </c>
-      <c r="C2020" s="84" t="n">
+      <c r="C2020" s="86" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -38203,7 +38214,7 @@
       <c r="B2026" s="0" t="s">
         <v>2858</v>
       </c>
-      <c r="C2026" s="84" t="n">
+      <c r="C2026" s="86" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -38235,7 +38246,7 @@
       <c r="B2030" s="0" t="s">
         <v>2862</v>
       </c>
-      <c r="C2030" s="84" t="n">
+      <c r="C2030" s="86" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -38323,7 +38334,7 @@
       <c r="B2041" s="0" t="s">
         <v>2873</v>
       </c>
-      <c r="C2041" s="84" t="n">
+      <c r="C2041" s="86" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -38499,7 +38510,7 @@
       <c r="B2063" s="0" t="s">
         <v>2896</v>
       </c>
-      <c r="C2063" s="84" t="n">
+      <c r="C2063" s="86" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -38563,7 +38574,7 @@
       <c r="B2071" s="0" t="s">
         <v>2904</v>
       </c>
-      <c r="C2071" s="84" t="n">
+      <c r="C2071" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38579,7 +38590,7 @@
       <c r="B2073" s="0" t="s">
         <v>2906</v>
       </c>
-      <c r="C2073" s="84" t="n">
+      <c r="C2073" s="86" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -39099,7 +39110,7 @@
       <c r="B2138" s="0" t="s">
         <v>2971</v>
       </c>
-      <c r="C2138" s="84" t="n">
+      <c r="C2138" s="86" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -39147,7 +39158,7 @@
       <c r="B2144" s="0" t="s">
         <v>2977</v>
       </c>
-      <c r="C2144" s="84" t="n">
+      <c r="C2144" s="86" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -39179,7 +39190,7 @@
       <c r="B2148" s="0" t="s">
         <v>2981</v>
       </c>
-      <c r="C2148" s="84" t="n">
+      <c r="C2148" s="86" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -39267,7 +39278,7 @@
       <c r="B2159" s="0" t="s">
         <v>2992</v>
       </c>
-      <c r="C2159" s="84" t="n">
+      <c r="C2159" s="86" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -39443,7 +39454,7 @@
       <c r="B2181" s="0" t="s">
         <v>3015</v>
       </c>
-      <c r="C2181" s="84" t="n">
+      <c r="C2181" s="86" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -39507,7 +39518,7 @@
       <c r="B2189" s="0" t="s">
         <v>3023</v>
       </c>
-      <c r="C2189" s="84" t="n">
+      <c r="C2189" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39523,7 +39534,7 @@
       <c r="B2191" s="0" t="s">
         <v>3025</v>
       </c>
-      <c r="C2191" s="84" t="n">
+      <c r="C2191" s="86" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -40099,7 +40110,7 @@
       <c r="B2263" s="0" t="s">
         <v>3100</v>
       </c>
-      <c r="C2263" s="84" t="n">
+      <c r="C2263" s="86" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40386,7 +40397,7 @@
       <c r="F2297" s="0" t="s">
         <v>3145</v>
       </c>
-      <c r="G2297" s="86" t="n">
+      <c r="G2297" s="88" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -40478,7 +40489,7 @@
       <c r="B2307" s="0" t="s">
         <v>3159</v>
       </c>
-      <c r="C2307" s="84" t="n">
+      <c r="C2307" s="86" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -40564,7 +40575,7 @@
       <c r="B2317" s="0" t="s">
         <v>3175</v>
       </c>
-      <c r="C2317" s="84" t="n">
+      <c r="C2317" s="86" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -40572,7 +40583,7 @@
       <c r="B2318" s="0" t="s">
         <v>3176</v>
       </c>
-      <c r="C2318" s="84" t="n">
+      <c r="C2318" s="86" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -40588,7 +40599,7 @@
       <c r="B2320" s="0" t="s">
         <v>3178</v>
       </c>
-      <c r="C2320" s="84" t="n">
+      <c r="C2320" s="86" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -40636,7 +40647,7 @@
       <c r="C2326" s="0" t="s">
         <v>3186</v>
       </c>
-      <c r="D2326" s="87" t="n">
+      <c r="D2326" s="89" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -40687,7 +40698,7 @@
       <c r="C2332" s="0" t="s">
         <v>3194</v>
       </c>
-      <c r="D2332" s="87" t="n">
+      <c r="D2332" s="89" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -40706,7 +40717,7 @@
       <c r="D2334" s="0" t="s">
         <v>3197</v>
       </c>
-      <c r="E2334" s="87" t="n">
+      <c r="E2334" s="89" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -40764,7 +40775,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="87" t="n">
+      <c r="F2339" s="89" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -41236,7 +41247,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="87" t="n">
+      <c r="F2380" s="89" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11137,11 +11137,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="G55" activeCellId="0" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14088,7 +14088,7 @@
   <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="B10:B16 C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15637,7 +15637,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="1" sqref="B10:B16 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15778,7 +15778,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B10:B16 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21850,7 +21850,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="B10:B16 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11146,11 +11146,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="I42" activeCellId="0" sqref="I42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12922,40 +12922,40 @@
         <v>134</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
       <c r="G40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
       <c r="I40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
       <c r="K40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
       <c r="M40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
       <c r="O40" s="30" t="n">
-        <v>-0.4803</v>
+        <v>-0.415799999</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>-16994</v>
+        <v>-16348</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12970,40 +12970,40 @@
         <v>137</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
       <c r="G41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
       <c r="I41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
       <c r="K41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
       <c r="M41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
       <c r="O41" s="30" t="n">
-        <v>-0.3204</v>
+        <v>-0.3847</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>-30704</v>
+        <v>-31347</v>
       </c>
     </row>
     <row r="42" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13018,22 +13018,22 @@
         <v>140</v>
       </c>
       <c r="E42" s="34" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="F42" s="32" t="n">
-        <v>110001</v>
+        <v>190000</v>
       </c>
       <c r="G42" s="34" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="H42" s="32" t="n">
-        <v>110001</v>
+        <v>190000</v>
       </c>
       <c r="I42" s="34" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="J42" s="32" t="n">
-        <v>110001</v>
+        <v>190000</v>
       </c>
       <c r="K42" s="35" t="n">
         <v>0</v>
@@ -14097,7 +14097,7 @@
   <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="I42:J42 C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15646,7 +15646,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="1" sqref="I42:J42 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15787,7 +15787,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I42:J42 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21859,7 +21859,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="I42:J42 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,8 +48,8 @@
           </rPr>
           <t>vert = -4.15
 pitch = 3.225
-lateral = -0.4
-yaw = 0.124</t>
+lateral = 0.0
+yaw = 0.053</t>
         </r>
       </text>
     </comment>
@@ -90,8 +90,8 @@
           </rPr>
           <t>vert = -4.15
 pitch = 3.225
-lateral = -0.4
-yaw = 0.124</t>
+lateral = 0.0
+yaw = 0.053</t>
         </r>
       </text>
     </comment>
@@ -133,8 +133,8 @@
           </rPr>
           <t>vert = -4.15
 pitch = 3.225
-lateral = -0.4
-yaw = 0.124</t>
+lateral = 0.0
+yaw = 0.053</t>
         </r>
       </text>
     </comment>
@@ -11142,12 +11142,12 @@
   </sheetPr>
   <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="I42" activeCellId="0" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="I37" activeCellId="0" sqref="I37:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -12919,22 +12919,22 @@
         <v>134</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>-0.415799999</v>
+        <v>-0.034</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-16348</v>
+        <v>-12534</v>
       </c>
       <c r="G40" s="30" t="n">
-        <v>-0.415799999</v>
+        <v>-0.034</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-16348</v>
+        <v>-12534</v>
       </c>
       <c r="I40" s="30" t="n">
-        <v>-0.415799999</v>
+        <v>-0.034</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-16348</v>
+        <v>-12534</v>
       </c>
       <c r="K40" s="30" t="n">
         <v>-0.415799999</v>
@@ -12967,22 +12967,22 @@
         <v>137</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>-0.3847</v>
+        <v>0.034</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-31347</v>
+        <v>-27156</v>
       </c>
       <c r="G41" s="30" t="n">
-        <v>-0.3847</v>
+        <v>0.034</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-31347</v>
+        <v>-27156</v>
       </c>
       <c r="I41" s="30" t="n">
-        <v>-0.3847</v>
+        <v>0.034</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-31347</v>
+        <v>-27156</v>
       </c>
       <c r="K41" s="30" t="n">
         <v>-0.3847</v>
@@ -14093,8 +14093,8 @@
   </sheetPr>
   <dimension ref="1:30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I37:J41 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15643,7 +15643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="1" sqref="I37:J41 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15784,7 +15784,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I37:J41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21856,7 +21856,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="I37:J41 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11143,11 +11143,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="I37" activeCellId="0" sqref="I37:J41"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="N52" activeCellId="0" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13431,16 +13431,16 @@
         <v>-86672</v>
       </c>
       <c r="K49" s="40" t="n">
-        <v>-2.6001</v>
+        <v>-4.6002</v>
       </c>
       <c r="L49" s="24" t="n">
-        <v>-34670</v>
+        <v>-54671</v>
       </c>
       <c r="M49" s="40" t="n">
-        <v>-2.6001</v>
+        <v>-4.6002</v>
       </c>
       <c r="N49" s="24" t="n">
-        <v>-34670</v>
+        <v>-54671</v>
       </c>
       <c r="O49" s="40" t="n">
         <v>-2.6001</v>
@@ -13493,16 +13493,16 @@
         <v>40742</v>
       </c>
       <c r="K50" s="28" t="n">
-        <v>-2.4001</v>
+        <v>-0.4001</v>
       </c>
       <c r="L50" s="29" t="n">
-        <v>15751</v>
+        <v>35751</v>
       </c>
       <c r="M50" s="28" t="n">
-        <v>-2.4001</v>
+        <v>-0.4001</v>
       </c>
       <c r="N50" s="29" t="n">
-        <v>15751</v>
+        <v>35751</v>
       </c>
       <c r="O50" s="28" t="n">
         <v>-2.4001</v>
@@ -13541,16 +13541,16 @@
         <v>58500</v>
       </c>
       <c r="K51" s="30" t="n">
-        <v>3.3045</v>
+        <v>4.4571</v>
       </c>
       <c r="L51" s="29" t="n">
-        <v>23505</v>
+        <v>35030</v>
       </c>
       <c r="M51" s="30" t="n">
-        <v>3.3045</v>
+        <v>4.4571</v>
       </c>
       <c r="N51" s="29" t="n">
-        <v>23505</v>
+        <v>35030</v>
       </c>
       <c r="O51" s="30" t="n">
         <v>3.3045</v>
@@ -13589,16 +13589,16 @@
         <v>-34835</v>
       </c>
       <c r="K52" s="34" t="n">
-        <v>-2.5001</v>
+        <v>0.6004</v>
       </c>
       <c r="L52" s="42" t="n">
-        <v>1166</v>
+        <v>32171</v>
       </c>
       <c r="M52" s="34" t="n">
-        <v>-2.5001</v>
+        <v>0.6004</v>
       </c>
       <c r="N52" s="42" t="n">
-        <v>1166</v>
+        <v>32171</v>
       </c>
       <c r="O52" s="34" t="n">
         <v>-1.7001</v>
@@ -14094,7 +14094,7 @@
   <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="I37:J41 C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15643,7 +15643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" activeCellId="1" sqref="I37:J41 E4"/>
+      <selection pane="bottomRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15784,7 +15784,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I37:J41 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -21856,7 +21856,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="I37:J41 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11143,11 +11143,11 @@
   <dimension ref="1:60"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="N52" activeCellId="0" sqref="N52"/>
+      <selection pane="bottomRight" activeCell="J49" activeCellId="0" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13413,40 +13413,40 @@
         <v>164</v>
       </c>
       <c r="E49" s="39" t="n">
-        <v>-8.2496</v>
+        <v>5</v>
       </c>
       <c r="F49" s="19" t="n">
-        <v>-91165</v>
+        <v>-49670</v>
       </c>
       <c r="G49" s="40" t="n">
-        <v>-7.7001</v>
+        <v>5</v>
       </c>
       <c r="H49" s="24" t="n">
-        <v>-85670</v>
+        <v>-49670</v>
       </c>
       <c r="I49" s="39" t="n">
-        <v>-7.8003</v>
+        <v>5</v>
       </c>
       <c r="J49" s="19" t="n">
-        <v>-86672</v>
+        <v>-49670</v>
       </c>
       <c r="K49" s="40" t="n">
-        <v>-4.6002</v>
+        <v>5</v>
       </c>
       <c r="L49" s="24" t="n">
-        <v>-54671</v>
+        <v>-49670</v>
       </c>
       <c r="M49" s="40" t="n">
-        <v>-4.6002</v>
+        <v>5</v>
       </c>
       <c r="N49" s="24" t="n">
-        <v>-54671</v>
+        <v>-49670</v>
       </c>
       <c r="O49" s="40" t="n">
-        <v>-2.6001</v>
+        <v>5</v>
       </c>
       <c r="P49" s="24" t="n">
-        <v>-34670</v>
+        <v>-49670</v>
       </c>
       <c r="ALW49" s="0"/>
       <c r="ALX49" s="0"/>
@@ -13475,40 +13475,40 @@
         <v>167</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>0.2395</v>
+        <v>-5</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>42146</v>
+        <v>30752</v>
       </c>
       <c r="G50" s="28" t="n">
-        <v>0.0908</v>
+        <v>-5</v>
       </c>
       <c r="H50" s="29" t="n">
-        <v>40660</v>
+        <v>30752</v>
       </c>
       <c r="I50" s="30" t="n">
-        <v>0.099</v>
+        <v>-5</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>40742</v>
+        <v>30752</v>
       </c>
       <c r="K50" s="28" t="n">
-        <v>-0.4001</v>
+        <v>-5</v>
       </c>
       <c r="L50" s="29" t="n">
-        <v>35751</v>
+        <v>30752</v>
       </c>
       <c r="M50" s="28" t="n">
-        <v>-0.4001</v>
+        <v>-5</v>
       </c>
       <c r="N50" s="29" t="n">
-        <v>35751</v>
+        <v>30752</v>
       </c>
       <c r="O50" s="28" t="n">
-        <v>-2.4001</v>
+        <v>-5</v>
       </c>
       <c r="P50" s="29" t="n">
-        <v>15751</v>
+        <v>30752</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13523,40 +13523,40 @@
         <v>170</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>58500</v>
+        <v>26041</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>58500</v>
+        <v>26041</v>
       </c>
       <c r="I51" s="30" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>58500</v>
+        <v>26041</v>
       </c>
       <c r="K51" s="30" t="n">
-        <v>4.4571</v>
+        <v>1</v>
       </c>
       <c r="L51" s="29" t="n">
-        <v>35030</v>
+        <v>26041</v>
       </c>
       <c r="M51" s="30" t="n">
-        <v>4.4571</v>
+        <v>1</v>
       </c>
       <c r="N51" s="29" t="n">
-        <v>35030</v>
+        <v>26041</v>
       </c>
       <c r="O51" s="30" t="n">
-        <v>3.3045</v>
+        <v>1</v>
       </c>
       <c r="P51" s="29" t="n">
-        <v>23505</v>
+        <v>26041</v>
       </c>
     </row>
     <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13571,40 +13571,40 @@
         <v>173</v>
       </c>
       <c r="E52" s="34" t="n">
-        <v>-6.1003</v>
+        <v>-1</v>
       </c>
       <c r="F52" s="32" t="n">
-        <v>-34835</v>
+        <v>-1342</v>
       </c>
       <c r="G52" s="34" t="n">
-        <v>-6.1003</v>
+        <v>-1</v>
       </c>
       <c r="H52" s="32" t="n">
-        <v>-34835</v>
+        <v>-1342</v>
       </c>
       <c r="I52" s="34" t="n">
-        <v>-6.1003</v>
+        <v>-1</v>
       </c>
       <c r="J52" s="32" t="n">
-        <v>-34835</v>
+        <v>-1342</v>
       </c>
       <c r="K52" s="34" t="n">
-        <v>0.6004</v>
+        <v>-1</v>
       </c>
       <c r="L52" s="42" t="n">
-        <v>32171</v>
+        <v>-1342</v>
       </c>
       <c r="M52" s="34" t="n">
-        <v>0.6004</v>
+        <v>-1</v>
       </c>
       <c r="N52" s="42" t="n">
-        <v>32171</v>
+        <v>-1342</v>
       </c>
       <c r="O52" s="34" t="n">
-        <v>-1.7001</v>
+        <v>-1</v>
       </c>
       <c r="P52" s="32" t="n">
-        <v>9165</v>
+        <v>-1342</v>
       </c>
       <c r="ALW52" s="0"/>
       <c r="ALX52" s="0"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -10438,7 +10438,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10564,11 +10564,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -10813,7 +10808,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11042,10 +11037,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11134,7 +11125,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11162,7 +11153,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11290,7 +11281,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11298,7 +11289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11397,12 +11388,12 @@
   </sheetPr>
   <dimension ref="1:60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="O55" activeCellId="0" sqref="O55"/>
+      <selection pane="bottomRight" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13016,10 +13007,10 @@
         <v>125</v>
       </c>
       <c r="E37" s="39" t="n">
-        <v>-6.2262</v>
+        <v>-6.60298</v>
       </c>
       <c r="F37" s="19" t="n">
-        <v>-55761</v>
+        <v>-59529</v>
       </c>
       <c r="G37" s="39" t="n">
         <v>-6.2262</v>
@@ -13078,10 +13069,10 @@
         <v>128</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>-2.0722</v>
+        <v>-2.09497</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-29624</v>
+        <v>-29850</v>
       </c>
       <c r="G38" s="30" t="n">
         <v>-2.0722</v>
@@ -13126,10 +13117,10 @@
         <v>131</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>-2.0722</v>
+        <v>-2.09497</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-23721</v>
+        <v>-23949</v>
       </c>
       <c r="G39" s="30" t="n">
         <v>-2.0722</v>
@@ -13952,10 +13943,10 @@
         <v>180</v>
       </c>
       <c r="E54" s="52" t="n">
-        <v>44.5433</v>
+        <v>51.32</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>409617</v>
+        <v>477354</v>
       </c>
       <c r="G54" s="53" t="n">
         <v>-52.1921</v>
@@ -14078,10 +14069,10 @@
         <v>187</v>
       </c>
       <c r="E56" s="55" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F56" s="24" t="n">
-        <v>9990244</v>
+        <v>10406504</v>
       </c>
       <c r="G56" s="55" t="n">
         <v>24.4104</v>
@@ -14126,10 +14117,10 @@
         <v>190</v>
       </c>
       <c r="E57" s="56" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F57" s="29" t="n">
-        <v>7544716</v>
+        <v>7960975</v>
       </c>
       <c r="G57" s="56" t="n">
         <v>12.81</v>
@@ -14174,10 +14165,10 @@
         <v>193</v>
       </c>
       <c r="E58" s="56" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F58" s="54" t="n">
-        <v>6347968</v>
+        <v>6764228</v>
       </c>
       <c r="G58" s="56" t="n">
         <v>12.81</v>
@@ -14206,7 +14197,7 @@
       <c r="O58" s="56" t="n">
         <v>100.43</v>
       </c>
-      <c r="P58" s="57" t="n">
+      <c r="P58" s="27" t="n">
         <v>4913439</v>
       </c>
     </row>
@@ -14269,37 +14260,37 @@
       <c r="D60" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="58" t="n">
+      <c r="E60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="F60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="G60" s="58" t="n">
+      <c r="G60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="H60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="I60" s="58" t="n">
+      <c r="I60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="J60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="K60" s="58" t="n">
+      <c r="K60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="L60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="M60" s="58" t="n">
+      <c r="M60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="N60" s="44" t="n">
         <v>130000</v>
       </c>
-      <c r="O60" s="58" t="n">
+      <c r="O60" s="57" t="n">
         <v>16.9</v>
       </c>
       <c r="P60" s="44" t="n">
@@ -14357,34 +14348,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="59" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="59" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="58" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="58" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="58" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59"/>
+    <row r="1" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="58"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="AMJ1" s="59"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="AMJ1" s="58"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -15405,168 +15396,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="66" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64" t="s">
+    <row r="3" s="65" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="AMJ3" s="62"/>
-    </row>
-    <row r="4" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59"/>
-      <c r="B4" s="63" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="AMJ3" s="61"/>
+    </row>
+    <row r="4" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="58"/>
+      <c r="B4" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="n">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="67" t="n">
+      <c r="E4" s="66" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="AMJ4" s="59"/>
-    </row>
-    <row r="5" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59"/>
-      <c r="B5" s="63" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="AMJ4" s="58"/>
+    </row>
+    <row r="5" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="58"/>
+      <c r="B5" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="59" t="n">
+      <c r="D5" s="58" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="AMJ5" s="59"/>
-    </row>
-    <row r="6" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59"/>
-      <c r="B6" s="63" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="AMJ5" s="58"/>
+    </row>
+    <row r="6" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="58"/>
+      <c r="B6" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="58" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="AMJ6" s="59"/>
-    </row>
-    <row r="7" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59"/>
-      <c r="B7" s="63" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="AMJ6" s="58"/>
+    </row>
+    <row r="7" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="58"/>
+      <c r="B7" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="58" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="AMJ7" s="59"/>
-    </row>
-    <row r="8" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
-      <c r="B8" s="63" t="s">
+      <c r="E7" s="66"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="AMJ7" s="58"/>
+    </row>
+    <row r="8" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="58"/>
+      <c r="B8" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="58" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="AMJ8" s="59"/>
-    </row>
-    <row r="9" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59"/>
-      <c r="B9" s="63" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="AMJ8" s="58"/>
+    </row>
+    <row r="9" s="59" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="58"/>
+      <c r="B9" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59" t="n">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="AMJ9" s="59"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="AMJ9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69" t="n">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="70"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -15575,8 +15566,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -15585,82 +15576,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="74" t="s">
         <v>217</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="67"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="58" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="67"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="76" t="n">
+      <c r="C16" s="75" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="67"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="59" t="n">
+      <c r="C17" s="58" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="67"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="69" t="n">
+      <c r="C18" s="68" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -15687,188 +15678,188 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="71" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="78" t="s">
+      <c r="F22" s="70"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="74" t="s">
         <v>217</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="74" t="s">
         <v>217</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="79" t="s">
+      <c r="I23" s="78" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="59" t="n">
+      <c r="F24" s="58" t="n">
         <v>25.5</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="67" t="n">
+      <c r="I24" s="66" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="59" t="n">
+      <c r="F25" s="58" t="n">
         <v>-42.6</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="I25" s="67" t="n">
+      <c r="I25" s="66" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>230</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="59" t="n">
+      <c r="F26" s="58" t="n">
         <v>-17.25</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="67" t="n">
+      <c r="I26" s="66" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="59" t="n">
+      <c r="C27" s="58" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="F27" s="59" t="n">
+      <c r="F27" s="58" t="n">
         <v>46.1092</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="67"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="59" t="n">
+      <c r="C28" s="58" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="F28" s="59" t="n">
+      <c r="F28" s="58" t="n">
         <v>46.1092</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="67"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="59" t="n">
+      <c r="C29" s="58" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="59" t="n">
+      <c r="F29" s="58" t="n">
         <v>19.5956</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="67"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="69" t="n">
+      <c r="C30" s="68" t="n">
         <v>55</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15926,14 +15917,14 @@
       <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="41" t="s">
@@ -15951,7 +15942,7 @@
       <c r="F2" s="0" t="n">
         <v>-5276</v>
       </c>
-      <c r="G2" s="82" t="n">
+      <c r="G2" s="81" t="n">
         <v>2.33113</v>
       </c>
       <c r="H2" s="29" t="n">
@@ -15959,25 +15950,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="84" t="n">
+      <c r="E3" s="83" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="84" t="n">
+      <c r="F3" s="83" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="85" t="n">
+      <c r="G3" s="84" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="86" t="n">
+      <c r="H3" s="85" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -15997,7 +15988,7 @@
       <c r="F4" s="0" t="n">
         <v>-38578</v>
       </c>
-      <c r="G4" s="82" t="n">
+      <c r="G4" s="81" t="n">
         <v>-23.8594</v>
       </c>
       <c r="H4" s="29" t="n">
@@ -16020,7 +16011,7 @@
       <c r="F5" s="0" t="n">
         <v>-354999</v>
       </c>
-      <c r="G5" s="82" t="n">
+      <c r="G5" s="81" t="n">
         <v>29</v>
       </c>
       <c r="H5" s="29" t="n">
@@ -16040,11 +16031,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -16056,9 +16047,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16084,8 +16075,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16100,26 +16091,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90" t="s">
+      <c r="A1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93"/>
-      <c r="D2" s="94" t="s">
+      <c r="A2" s="92"/>
+      <c r="D2" s="93" t="s">
         <v>245</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -16128,93 +16119,93 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="95" t="s">
         <v>246</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="97" t="n">
+      <c r="E3" s="96" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="98" t="n">
+      <c r="F3" s="97" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="99" t="n">
+      <c r="G3" s="98" t="n">
         <f aca="false">'Modes A-F'!O54</f>
         <v>19.89</v>
       </c>
-      <c r="H3" s="100" t="n">
+      <c r="H3" s="99" t="n">
         <f aca="false">G3-F3</f>
         <v>0.786881018291666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>248</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="98" t="n">
+      <c r="E4" s="97" t="n">
         <f aca="false">'Modes A-F'!K56</f>
         <v>132</v>
       </c>
-      <c r="F4" s="98" t="n">
+      <c r="F4" s="97" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
         <v>103.088913266688</v>
       </c>
-      <c r="G4" s="99" t="n">
+      <c r="G4" s="98" t="n">
         <f aca="false">'Modes A-F'!O56</f>
         <v>103.91</v>
       </c>
-      <c r="H4" s="100" t="n">
+      <c r="H4" s="99" t="n">
         <f aca="false">G4-F4</f>
         <v>0.821086733312242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="102" t="n">
+      <c r="B5" s="101" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="104" t="n">
+      <c r="E5" s="103" t="n">
         <f aca="false">'Modes A-F'!K57</f>
         <v>132</v>
       </c>
-      <c r="F5" s="104" t="n">
+      <c r="F5" s="103" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
         <v>99.6239028716503</v>
       </c>
-      <c r="G5" s="105" t="n">
+      <c r="G5" s="104" t="n">
         <f aca="false">'Modes A-F'!O57</f>
         <v>100.43</v>
       </c>
-      <c r="H5" s="100" t="n">
+      <c r="H5" s="99" t="n">
         <f aca="false">G5-F5</f>
         <v>0.806097128349677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="100" t="n">
+      <c r="H6" s="99" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
         <v>0.804688293317862</v>
       </c>
@@ -16223,416 +16214,419 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="107" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="108" t="n">
-        <v>0.275</v>
+      <c r="G8" s="107" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="93"/>
-      <c r="D9" s="94" t="s">
+      <c r="A9" s="92"/>
+      <c r="D9" s="93" t="s">
         <v>245</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3.225</v>
-      </c>
-      <c r="G9" s="95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" s="94" t="n">
         <f aca="false">E9+G8</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>254</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="52" t="n">
-        <v>44.5433</v>
-      </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="109" t="n">
+      <c r="E10" s="99" t="n">
+        <f aca="false">'Modes A-F'!E54</f>
+        <v>51.32</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="108" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>38.5444493951159</v>
+        <v>53.5014000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="95" t="s">
         <v>255</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>128</v>
-      </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="109" t="n">
+      <c r="E11" s="99" t="n">
+        <f aca="false">'Modes A-F'!E57</f>
+        <v>136</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="108" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>121.6518993599</v>
+        <v>138.308400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="102" t="n">
+      <c r="B12" s="101" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103" t="s">
+      <c r="C12" s="101"/>
+      <c r="D12" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="102" t="n">
-        <v>128</v>
-      </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111" t="n">
+      <c r="E12" s="109" t="n">
+        <f aca="false">'Modes A-F'!E58</f>
+        <v>136</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>121.016649295845</v>
+        <v>138.539400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="107" t="s">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="89" t="n">
+      <c r="G16" s="88" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="108"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="107"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="93"/>
-      <c r="D17" s="94" t="s">
+      <c r="A17" s="92"/>
+      <c r="D17" s="93" t="s">
         <v>245</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="112" t="n">
+      <c r="G17" s="111" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="113" t="s">
+      <c r="H17" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="95" t="n">
+      <c r="I17" s="94" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
-        <v>-1.04940010581451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="95" t="s">
         <v>258</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="93" t="s">
         <v>259</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="114" t="n">
+      <c r="G18" s="113" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="95"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="93"/>
-      <c r="D19" s="94" t="s">
+      <c r="A19" s="92"/>
+      <c r="D19" s="93" t="s">
         <v>260</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="112" t="n">
+      <c r="G19" s="111" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="95"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="G20" s="115" t="s">
+      <c r="A20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="G20" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="I20" s="95"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="93"/>
-      <c r="F21" s="116" t="s">
+      <c r="A21" s="92"/>
+      <c r="F21" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="95"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="95" t="s">
         <v>246</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="100" t="n">
+      <c r="E22" s="99" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-24.4724915287978</v>
-      </c>
-      <c r="F22" s="117" t="n">
+        <v>-16.6463914229833</v>
+      </c>
+      <c r="F22" s="116" t="n">
         <f aca="false">'Modes A-F'!I54</f>
         <v>-13.9982</v>
       </c>
-      <c r="G22" s="100" t="n">
+      <c r="G22" s="99" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-19.5211293546545</v>
-      </c>
-      <c r="I22" s="95"/>
+        <v>-11.69502924884</v>
+      </c>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="95" t="s">
         <v>248</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="100" t="n">
+      <c r="E23" s="99" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>54.1898673743799</v>
-      </c>
-      <c r="F23" s="117" t="n">
+        <v>63.2392674801944</v>
+      </c>
+      <c r="F23" s="116" t="n">
         <f aca="false">'Modes A-F'!I56</f>
         <v>50.9301</v>
       </c>
-      <c r="G23" s="100" t="n">
+      <c r="G23" s="99" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>59.4904980422559</v>
-      </c>
-      <c r="I23" s="95"/>
+        <v>68.5398981480704</v>
+      </c>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="102" t="n">
+      <c r="B24" s="101" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103" t="s">
+      <c r="C24" s="101"/>
+      <c r="D24" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="110" t="n">
+      <c r="E24" s="109" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>45.4694516785849</v>
-      </c>
-      <c r="F24" s="118" t="n">
+        <v>54.5188517843995</v>
+      </c>
+      <c r="F24" s="117" t="n">
         <f aca="false">'Modes A-F'!I57</f>
         <v>42.81</v>
       </c>
-      <c r="G24" s="119" t="n">
+      <c r="G24" s="118" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>51.4053659846675</v>
-      </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="120"/>
+        <v>60.454766090482</v>
+      </c>
+      <c r="H24" s="101"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="107" t="s">
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="89" t="n">
+      <c r="G28" s="88" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="108"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="107"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="93"/>
-      <c r="D29" s="94" t="s">
+      <c r="A29" s="92"/>
+      <c r="D29" s="93" t="s">
         <v>245</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="112" t="n">
+      <c r="G29" s="111" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="113" t="s">
+      <c r="H29" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="I29" s="95" t="n">
+      <c r="I29" s="94" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
-        <v>-1.04940010581451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="95" t="s">
         <v>258</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="93" t="s">
         <v>259</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="114" t="n">
+      <c r="G30" s="113" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="95"/>
+      <c r="I30" s="94"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="93"/>
-      <c r="D31" s="94" t="s">
+      <c r="A31" s="92"/>
+      <c r="D31" s="93" t="s">
         <v>260</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="112" t="n">
+      <c r="G31" s="111" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="95"/>
+      <c r="I31" s="94"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="G32" s="115" t="s">
+      <c r="A32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="G32" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="I32" s="95"/>
+      <c r="I32" s="94"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="93"/>
-      <c r="F33" s="116" t="s">
+      <c r="A33" s="92"/>
+      <c r="F33" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="I33" s="95"/>
+      <c r="I33" s="94"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="95" t="s">
         <v>246</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="100" t="n">
+      <c r="E34" s="99" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-50.4313236638297</v>
-      </c>
-      <c r="F34" s="117" t="n">
+        <v>-43.6546236638297</v>
+      </c>
+      <c r="F34" s="116" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-52.1921</v>
       </c>
-      <c r="G34" s="100" t="n">
+      <c r="G34" s="99" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-46.5291008925127</v>
-      </c>
-      <c r="I34" s="95"/>
+        <v>-38.7030007866982</v>
+      </c>
+      <c r="I34" s="94"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="95" t="s">
         <v>248</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E35" s="100" t="n">
+      <c r="E35" s="99" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>26.3258777773465</v>
-      </c>
-      <c r="F35" s="117" t="n">
+        <v>34.3258777773465</v>
+      </c>
+      <c r="F35" s="116" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="100" t="n">
+      <c r="G35" s="99" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>30.5773874323536</v>
-      </c>
-      <c r="I35" s="95"/>
+        <v>39.6267875381681</v>
+      </c>
+      <c r="I35" s="94"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="102" t="n">
+      <c r="B36" s="101" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="103" t="s">
+      <c r="C36" s="101"/>
+      <c r="D36" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="E36" s="110" t="n">
+      <c r="E36" s="109" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>14.140175674289</v>
-      </c>
-      <c r="F36" s="118" t="n">
+        <v>22.140175674289</v>
+      </c>
+      <c r="F36" s="117" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="110" t="n">
+      <c r="G36" s="109" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>19.027002416953</v>
-      </c>
-      <c r="H36" s="102"/>
-      <c r="I36" s="120"/>
+        <v>28.0764025227675</v>
+      </c>
+      <c r="H36" s="101"/>
+      <c r="I36" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16735,7 +16729,7 @@
       <c r="A9" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="122" t="n">
+      <c r="B9" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16759,7 +16753,7 @@
       <c r="A12" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="122" t="n">
+      <c r="B12" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16855,7 +16849,7 @@
       <c r="A24" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="122" t="n">
+      <c r="B24" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16879,7 +16873,7 @@
       <c r="A27" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="122" t="n">
+      <c r="B27" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -16975,7 +16969,7 @@
       <c r="A39" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B39" s="122" t="n">
+      <c r="B39" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -16999,7 +16993,7 @@
       <c r="A42" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="122" t="n">
+      <c r="B42" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17095,7 +17089,7 @@
       <c r="A54" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B54" s="122" t="n">
+      <c r="B54" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17119,7 +17113,7 @@
       <c r="A57" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="122" t="n">
+      <c r="B57" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17183,7 +17177,7 @@
       <c r="A65" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B65" s="122" t="n">
+      <c r="B65" s="121" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -17191,7 +17185,7 @@
       <c r="A66" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="122" t="n">
+      <c r="B66" s="121" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -17199,7 +17193,7 @@
       <c r="A67" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="122" t="n">
+      <c r="B67" s="121" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -17207,7 +17201,7 @@
       <c r="A68" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B68" s="122" t="n">
+      <c r="B68" s="121" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -17527,7 +17521,7 @@
       <c r="A108" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B108" s="122" t="n">
+      <c r="B108" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17551,7 +17545,7 @@
       <c r="A111" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B111" s="122" t="n">
+      <c r="B111" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17647,7 +17641,7 @@
       <c r="A123" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B123" s="122" t="n">
+      <c r="B123" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17671,7 +17665,7 @@
       <c r="A126" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B126" s="122" t="n">
+      <c r="B126" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17767,7 +17761,7 @@
       <c r="A138" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="B138" s="122" t="n">
+      <c r="B138" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17791,7 +17785,7 @@
       <c r="A141" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B141" s="122" t="n">
+      <c r="B141" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17887,7 +17881,7 @@
       <c r="A153" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B153" s="122" t="n">
+      <c r="B153" s="121" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17911,7 +17905,7 @@
       <c r="A156" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B156" s="122" t="n">
+      <c r="B156" s="121" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17975,7 +17969,7 @@
       <c r="A164" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B164" s="122" t="n">
+      <c r="B164" s="121" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -17983,7 +17977,7 @@
       <c r="A165" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="B165" s="122" t="n">
+      <c r="B165" s="121" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -17991,7 +17985,7 @@
       <c r="A166" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B166" s="122" t="n">
+      <c r="B166" s="121" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -17999,7 +17993,7 @@
       <c r="A167" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="B167" s="122" t="n">
+      <c r="B167" s="121" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -18135,7 +18129,7 @@
       <c r="A184" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B184" s="122" t="n">
+      <c r="B184" s="121" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -18143,7 +18137,7 @@
       <c r="A185" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B185" s="122" t="n">
+      <c r="B185" s="121" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -18175,7 +18169,7 @@
       <c r="A189" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B189" s="122" t="n">
+      <c r="B189" s="121" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -18199,7 +18193,7 @@
       <c r="A192" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B192" s="122" t="n">
+      <c r="B192" s="121" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -18207,7 +18201,7 @@
       <c r="A193" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B193" s="122" t="n">
+      <c r="B193" s="121" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -18215,7 +18209,7 @@
       <c r="A194" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="B194" s="122" t="n">
+      <c r="B194" s="121" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -18223,7 +18217,7 @@
       <c r="A195" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B195" s="122" t="n">
+      <c r="B195" s="121" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -19647,40 +19641,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="122" t="n">
+      <c r="C337" s="121" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="122" t="n">
+      <c r="D337" s="121" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="122" t="n">
+      <c r="E337" s="121" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="122" t="n">
+      <c r="F337" s="121" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="122" t="n">
+      <c r="G337" s="121" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="122" t="n">
+      <c r="H337" s="121" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="122" t="n">
+      <c r="I337" s="121" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="122" t="n">
+      <c r="J337" s="121" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="122" t="n">
+      <c r="K337" s="121" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="122" t="n">
+      <c r="L337" s="121" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="122" t="n">
+      <c r="M337" s="121" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="122" t="n">
+      <c r="N337" s="121" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -19691,40 +19685,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="122" t="n">
+      <c r="C338" s="121" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="122" t="n">
+      <c r="D338" s="121" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="122" t="n">
+      <c r="E338" s="121" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="122" t="n">
+      <c r="F338" s="121" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="122" t="n">
+      <c r="G338" s="121" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="122" t="n">
+      <c r="H338" s="121" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="122" t="n">
+      <c r="I338" s="121" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="122" t="n">
+      <c r="J338" s="121" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="122" t="n">
+      <c r="K338" s="121" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="122" t="n">
+      <c r="L338" s="121" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="122" t="n">
+      <c r="M338" s="121" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="122" t="n">
+      <c r="N338" s="121" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -19735,40 +19729,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="122" t="n">
+      <c r="C339" s="121" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="122" t="n">
+      <c r="D339" s="121" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="122" t="n">
+      <c r="E339" s="121" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="122" t="n">
+      <c r="F339" s="121" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="122" t="n">
+      <c r="G339" s="121" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="122" t="n">
+      <c r="H339" s="121" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="122" t="n">
+      <c r="I339" s="121" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="122" t="n">
+      <c r="J339" s="121" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="122" t="n">
+      <c r="K339" s="121" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="122" t="n">
+      <c r="L339" s="121" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="122" t="n">
+      <c r="M339" s="121" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="122" t="n">
+      <c r="N339" s="121" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -19779,40 +19773,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="122" t="n">
+      <c r="C340" s="121" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="122" t="n">
+      <c r="D340" s="121" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="122" t="n">
+      <c r="E340" s="121" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="122" t="n">
+      <c r="F340" s="121" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="122" t="n">
+      <c r="G340" s="121" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="122" t="n">
+      <c r="H340" s="121" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="122" t="n">
+      <c r="I340" s="121" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="122" t="n">
+      <c r="J340" s="121" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="122" t="n">
+      <c r="K340" s="121" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="122" t="n">
+      <c r="L340" s="121" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="122" t="n">
+      <c r="M340" s="121" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="122" t="n">
+      <c r="N340" s="121" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -20527,40 +20521,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="122" t="n">
+      <c r="C357" s="121" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="122" t="n">
+      <c r="D357" s="121" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="122" t="n">
+      <c r="E357" s="121" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="122" t="n">
+      <c r="F357" s="121" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="122" t="n">
+      <c r="G357" s="121" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="122" t="n">
+      <c r="H357" s="121" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="122" t="n">
+      <c r="I357" s="121" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="122" t="n">
+      <c r="J357" s="121" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="122" t="n">
+      <c r="K357" s="121" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="122" t="n">
+      <c r="L357" s="121" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="122" t="n">
+      <c r="M357" s="121" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="122" t="n">
+      <c r="N357" s="121" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -20571,40 +20565,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="122" t="n">
+      <c r="C358" s="121" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="122" t="n">
+      <c r="D358" s="121" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="122" t="n">
+      <c r="E358" s="121" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="122" t="n">
+      <c r="F358" s="121" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="122" t="n">
+      <c r="G358" s="121" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="122" t="n">
+      <c r="H358" s="121" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="122" t="n">
+      <c r="I358" s="121" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="122" t="n">
+      <c r="J358" s="121" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="122" t="n">
+      <c r="K358" s="121" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="122" t="n">
+      <c r="L358" s="121" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="122" t="n">
+      <c r="M358" s="121" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="122" t="n">
+      <c r="N358" s="121" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -20615,40 +20609,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="122" t="n">
+      <c r="C359" s="121" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="122" t="n">
+      <c r="D359" s="121" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="122" t="n">
+      <c r="E359" s="121" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="122" t="n">
+      <c r="F359" s="121" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="122" t="n">
+      <c r="G359" s="121" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="122" t="n">
+      <c r="H359" s="121" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="122" t="n">
+      <c r="I359" s="121" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="122" t="n">
+      <c r="J359" s="121" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="122" t="n">
+      <c r="K359" s="121" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="122" t="n">
+      <c r="L359" s="121" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="122" t="n">
+      <c r="M359" s="121" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="122" t="n">
+      <c r="N359" s="121" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -20659,40 +20653,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="122" t="n">
+      <c r="C360" s="121" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="122" t="n">
+      <c r="D360" s="121" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="122" t="n">
+      <c r="E360" s="121" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="122" t="n">
+      <c r="F360" s="121" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="122" t="n">
+      <c r="G360" s="121" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="122" t="n">
+      <c r="H360" s="121" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="122" t="n">
+      <c r="I360" s="121" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="122" t="n">
+      <c r="J360" s="121" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="122" t="n">
+      <c r="K360" s="121" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="122" t="n">
+      <c r="L360" s="121" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="122" t="n">
+      <c r="M360" s="121" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="122" t="n">
+      <c r="N360" s="121" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -20835,7 +20829,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="122" t="n">
+      <c r="C364" s="121" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -20879,7 +20873,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="122" t="n">
+      <c r="C365" s="121" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -20923,7 +20917,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="122" t="n">
+      <c r="C366" s="121" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -20967,7 +20961,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="122" t="n">
+      <c r="C367" s="121" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -22744,13 +22738,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>792</v>
       </c>
-      <c r="C1" s="123" t="n">
+      <c r="C1" s="122" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>793</v>
       </c>
     </row>
@@ -22758,10 +22752,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>794</v>
       </c>
-      <c r="C2" s="123" t="n">
+      <c r="C2" s="122" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -22769,10 +22763,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="122" t="s">
         <v>795</v>
       </c>
-      <c r="C3" s="123" t="n">
+      <c r="C3" s="122" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -22876,7 +22870,7 @@
       <c r="B16" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="C16" s="122" t="n">
+      <c r="C16" s="121" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -22884,7 +22878,7 @@
       <c r="B17" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="C17" s="122" t="n">
+      <c r="C17" s="121" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -22892,7 +22886,7 @@
       <c r="B18" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="C18" s="122" t="n">
+      <c r="C18" s="121" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -22900,7 +22894,7 @@
       <c r="B19" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="C19" s="122" t="n">
+      <c r="C19" s="121" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -23388,7 +23382,7 @@
       <c r="B80" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="C80" s="122" t="n">
+      <c r="C80" s="121" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -23436,7 +23430,7 @@
       <c r="B86" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="C86" s="122" t="n">
+      <c r="C86" s="121" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -23468,7 +23462,7 @@
       <c r="B90" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="C90" s="122" t="n">
+      <c r="C90" s="121" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -23556,7 +23550,7 @@
       <c r="B101" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="C101" s="122" t="n">
+      <c r="C101" s="121" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -23732,7 +23726,7 @@
       <c r="B123" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="C123" s="122" t="n">
+      <c r="C123" s="121" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -23796,7 +23790,7 @@
       <c r="B131" s="0" t="s">
         <v>935</v>
       </c>
-      <c r="C131" s="122" t="n">
+      <c r="C131" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -23812,7 +23806,7 @@
       <c r="B133" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="C133" s="122" t="n">
+      <c r="C133" s="121" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -24332,7 +24326,7 @@
       <c r="B198" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="C198" s="122" t="n">
+      <c r="C198" s="121" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -24380,7 +24374,7 @@
       <c r="B204" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="C204" s="122" t="n">
+      <c r="C204" s="121" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -24412,7 +24406,7 @@
       <c r="B208" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="C208" s="122" t="n">
+      <c r="C208" s="121" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -24500,7 +24494,7 @@
       <c r="B219" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="C219" s="122" t="n">
+      <c r="C219" s="121" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -24676,7 +24670,7 @@
       <c r="B241" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="C241" s="122" t="n">
+      <c r="C241" s="121" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -24740,7 +24734,7 @@
       <c r="B249" s="0" t="s">
         <v>1056</v>
       </c>
-      <c r="C249" s="122" t="n">
+      <c r="C249" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24756,7 +24750,7 @@
       <c r="B251" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="C251" s="122" t="n">
+      <c r="C251" s="121" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -25276,7 +25270,7 @@
       <c r="B316" s="0" t="s">
         <v>1123</v>
       </c>
-      <c r="C316" s="122" t="n">
+      <c r="C316" s="121" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -25324,7 +25318,7 @@
       <c r="B322" s="0" t="s">
         <v>1129</v>
       </c>
-      <c r="C322" s="122" t="n">
+      <c r="C322" s="121" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -25356,7 +25350,7 @@
       <c r="B326" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="C326" s="122" t="n">
+      <c r="C326" s="121" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -25444,7 +25438,7 @@
       <c r="B337" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C337" s="122" t="n">
+      <c r="C337" s="121" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -25620,7 +25614,7 @@
       <c r="B359" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="C359" s="122" t="n">
+      <c r="C359" s="121" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -25684,7 +25678,7 @@
       <c r="B367" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="C367" s="122" t="n">
+      <c r="C367" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25700,7 +25694,7 @@
       <c r="B369" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="C369" s="122" t="n">
+      <c r="C369" s="121" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -26220,7 +26214,7 @@
       <c r="B434" s="0" t="s">
         <v>1242</v>
       </c>
-      <c r="C434" s="122" t="n">
+      <c r="C434" s="121" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -26268,7 +26262,7 @@
       <c r="B440" s="0" t="s">
         <v>1248</v>
       </c>
-      <c r="C440" s="122" t="n">
+      <c r="C440" s="121" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -26300,7 +26294,7 @@
       <c r="B444" s="0" t="s">
         <v>1252</v>
       </c>
-      <c r="C444" s="122" t="n">
+      <c r="C444" s="121" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -26388,7 +26382,7 @@
       <c r="B455" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="C455" s="122" t="n">
+      <c r="C455" s="121" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -26564,7 +26558,7 @@
       <c r="B477" s="0" t="s">
         <v>1286</v>
       </c>
-      <c r="C477" s="122" t="n">
+      <c r="C477" s="121" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -26628,7 +26622,7 @@
       <c r="B485" s="0" t="s">
         <v>1294</v>
       </c>
-      <c r="C485" s="122" t="n">
+      <c r="C485" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26644,7 +26638,7 @@
       <c r="B487" s="0" t="s">
         <v>1296</v>
       </c>
-      <c r="C487" s="122" t="n">
+      <c r="C487" s="121" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -26732,7 +26726,7 @@
       <c r="B498" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="C498" s="122" t="n">
+      <c r="C498" s="121" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -26740,7 +26734,7 @@
       <c r="B499" s="0" t="s">
         <v>1308</v>
       </c>
-      <c r="C499" s="122" t="n">
+      <c r="C499" s="121" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -26748,7 +26742,7 @@
       <c r="B500" s="0" t="s">
         <v>1309</v>
       </c>
-      <c r="C500" s="122" t="n">
+      <c r="C500" s="121" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -26756,7 +26750,7 @@
       <c r="B501" s="0" t="s">
         <v>1310</v>
       </c>
-      <c r="C501" s="122" t="n">
+      <c r="C501" s="121" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -27324,7 +27318,7 @@
       <c r="B572" s="0" t="s">
         <v>1381</v>
       </c>
-      <c r="C572" s="122" t="n">
+      <c r="C572" s="121" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -27372,7 +27366,7 @@
       <c r="B578" s="0" t="s">
         <v>1387</v>
       </c>
-      <c r="C578" s="122" t="n">
+      <c r="C578" s="121" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -27404,7 +27398,7 @@
       <c r="B582" s="0" t="s">
         <v>1391</v>
       </c>
-      <c r="C582" s="122" t="n">
+      <c r="C582" s="121" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -27492,7 +27486,7 @@
       <c r="B593" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="C593" s="122" t="n">
+      <c r="C593" s="121" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -27668,7 +27662,7 @@
       <c r="B615" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="C615" s="122" t="n">
+      <c r="C615" s="121" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -27732,7 +27726,7 @@
       <c r="B623" s="0" t="s">
         <v>1433</v>
       </c>
-      <c r="C623" s="122" t="n">
+      <c r="C623" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27748,7 +27742,7 @@
       <c r="B625" s="0" t="s">
         <v>1435</v>
       </c>
-      <c r="C625" s="122" t="n">
+      <c r="C625" s="121" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -28268,7 +28262,7 @@
       <c r="B690" s="0" t="s">
         <v>1500</v>
       </c>
-      <c r="C690" s="122" t="n">
+      <c r="C690" s="121" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -28316,7 +28310,7 @@
       <c r="B696" s="0" t="s">
         <v>1506</v>
       </c>
-      <c r="C696" s="122" t="n">
+      <c r="C696" s="121" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -28348,7 +28342,7 @@
       <c r="B700" s="0" t="s">
         <v>1510</v>
       </c>
-      <c r="C700" s="122" t="n">
+      <c r="C700" s="121" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -28436,7 +28430,7 @@
       <c r="B711" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="C711" s="122" t="n">
+      <c r="C711" s="121" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -28612,7 +28606,7 @@
       <c r="B733" s="0" t="s">
         <v>1544</v>
       </c>
-      <c r="C733" s="122" t="n">
+      <c r="C733" s="121" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -28676,7 +28670,7 @@
       <c r="B741" s="0" t="s">
         <v>1552</v>
       </c>
-      <c r="C741" s="122" t="n">
+      <c r="C741" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28692,7 +28686,7 @@
       <c r="B743" s="0" t="s">
         <v>1554</v>
       </c>
-      <c r="C743" s="122" t="n">
+      <c r="C743" s="121" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -29248,7 +29242,7 @@
       <c r="B811" s="0" t="s">
         <v>1630</v>
       </c>
-      <c r="C811" s="122" t="n">
+      <c r="C811" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -29764,7 +29758,7 @@
       <c r="B874" s="0" t="s">
         <v>1695</v>
       </c>
-      <c r="C874" s="122" t="n">
+      <c r="C874" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30280,7 +30274,7 @@
       <c r="B937" s="0" t="s">
         <v>1760</v>
       </c>
-      <c r="C937" s="122" t="n">
+      <c r="C937" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30796,7 +30790,7 @@
       <c r="B1000" s="0" t="s">
         <v>1825</v>
       </c>
-      <c r="C1000" s="122" t="n">
+      <c r="C1000" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31312,7 +31306,7 @@
       <c r="B1063" s="0" t="s">
         <v>1890</v>
       </c>
-      <c r="C1063" s="122" t="n">
+      <c r="C1063" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31828,7 +31822,7 @@
       <c r="B1126" s="0" t="s">
         <v>1955</v>
       </c>
-      <c r="C1126" s="122" t="n">
+      <c r="C1126" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32344,7 +32338,7 @@
       <c r="B1189" s="0" t="s">
         <v>2020</v>
       </c>
-      <c r="C1189" s="122" t="n">
+      <c r="C1189" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32860,7 +32854,7 @@
       <c r="B1252" s="0" t="s">
         <v>2085</v>
       </c>
-      <c r="C1252" s="122" t="n">
+      <c r="C1252" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33376,7 +33370,7 @@
       <c r="B1315" s="0" t="s">
         <v>2150</v>
       </c>
-      <c r="C1315" s="122" t="n">
+      <c r="C1315" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33892,7 +33886,7 @@
       <c r="B1378" s="0" t="s">
         <v>2215</v>
       </c>
-      <c r="C1378" s="122" t="n">
+      <c r="C1378" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34408,7 +34402,7 @@
       <c r="B1441" s="0" t="s">
         <v>2280</v>
       </c>
-      <c r="C1441" s="122" t="n">
+      <c r="C1441" s="121" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34856,7 +34850,7 @@
       <c r="B1497" s="0" t="s">
         <v>2339</v>
       </c>
-      <c r="C1497" s="122" t="n">
+      <c r="C1497" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -35482,7 +35476,7 @@
       <c r="B1576" s="0" t="s">
         <v>2423</v>
       </c>
-      <c r="C1576" s="122" t="n">
+      <c r="C1576" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -35651,7 +35645,7 @@
       <c r="B1596" s="0" t="s">
         <v>2445</v>
       </c>
-      <c r="C1596" s="122" t="n">
+      <c r="C1596" s="121" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -35659,7 +35653,7 @@
       <c r="B1597" s="0" t="s">
         <v>2446</v>
       </c>
-      <c r="C1597" s="122" t="n">
+      <c r="C1597" s="121" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36539,7 +36533,7 @@
       <c r="B1707" s="0" t="s">
         <v>2557</v>
       </c>
-      <c r="C1707" s="122" t="n">
+      <c r="C1707" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36555,7 +36549,7 @@
       <c r="B1709" s="0" t="s">
         <v>2559</v>
       </c>
-      <c r="C1709" s="122" t="n">
+      <c r="C1709" s="121" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -37075,7 +37069,7 @@
       <c r="B1774" s="0" t="s">
         <v>2624</v>
       </c>
-      <c r="C1774" s="122" t="n">
+      <c r="C1774" s="121" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -37155,7 +37149,7 @@
       <c r="B1784" s="0" t="s">
         <v>2634</v>
       </c>
-      <c r="C1784" s="122" t="n">
+      <c r="C1784" s="121" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -37243,7 +37237,7 @@
       <c r="B1795" s="0" t="s">
         <v>2645</v>
       </c>
-      <c r="C1795" s="122" t="n">
+      <c r="C1795" s="121" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -37419,7 +37413,7 @@
       <c r="B1817" s="0" t="s">
         <v>2668</v>
       </c>
-      <c r="C1817" s="122" t="n">
+      <c r="C1817" s="121" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -37483,7 +37477,7 @@
       <c r="B1825" s="0" t="s">
         <v>2676</v>
       </c>
-      <c r="C1825" s="122" t="n">
+      <c r="C1825" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37499,7 +37493,7 @@
       <c r="B1827" s="0" t="s">
         <v>2678</v>
       </c>
-      <c r="C1827" s="122" t="n">
+      <c r="C1827" s="121" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -38102,7 +38096,7 @@
       <c r="B1902" s="0" t="s">
         <v>2755</v>
       </c>
-      <c r="C1902" s="122" t="n">
+      <c r="C1902" s="121" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -38150,7 +38144,7 @@
       <c r="B1908" s="0" t="s">
         <v>2761</v>
       </c>
-      <c r="C1908" s="122" t="n">
+      <c r="C1908" s="121" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -38182,7 +38176,7 @@
       <c r="B1912" s="0" t="s">
         <v>2765</v>
       </c>
-      <c r="C1912" s="122" t="n">
+      <c r="C1912" s="121" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -38270,7 +38264,7 @@
       <c r="B1923" s="0" t="s">
         <v>2776</v>
       </c>
-      <c r="C1923" s="122" t="n">
+      <c r="C1923" s="121" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -38446,7 +38440,7 @@
       <c r="B1945" s="0" t="s">
         <v>2799</v>
       </c>
-      <c r="C1945" s="122" t="n">
+      <c r="C1945" s="121" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -38510,7 +38504,7 @@
       <c r="B1953" s="0" t="s">
         <v>2807</v>
       </c>
-      <c r="C1953" s="122" t="n">
+      <c r="C1953" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38526,7 +38520,7 @@
       <c r="B1955" s="0" t="s">
         <v>2809</v>
       </c>
-      <c r="C1955" s="122" t="n">
+      <c r="C1955" s="121" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -39046,7 +39040,7 @@
       <c r="B2020" s="0" t="s">
         <v>2874</v>
       </c>
-      <c r="C2020" s="122" t="n">
+      <c r="C2020" s="121" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -39094,7 +39088,7 @@
       <c r="B2026" s="0" t="s">
         <v>2880</v>
       </c>
-      <c r="C2026" s="122" t="n">
+      <c r="C2026" s="121" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -39126,7 +39120,7 @@
       <c r="B2030" s="0" t="s">
         <v>2884</v>
       </c>
-      <c r="C2030" s="122" t="n">
+      <c r="C2030" s="121" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -39214,7 +39208,7 @@
       <c r="B2041" s="0" t="s">
         <v>2895</v>
       </c>
-      <c r="C2041" s="122" t="n">
+      <c r="C2041" s="121" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -39390,7 +39384,7 @@
       <c r="B2063" s="0" t="s">
         <v>2918</v>
       </c>
-      <c r="C2063" s="122" t="n">
+      <c r="C2063" s="121" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -39454,7 +39448,7 @@
       <c r="B2071" s="0" t="s">
         <v>2926</v>
       </c>
-      <c r="C2071" s="122" t="n">
+      <c r="C2071" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39470,7 +39464,7 @@
       <c r="B2073" s="0" t="s">
         <v>2928</v>
       </c>
-      <c r="C2073" s="122" t="n">
+      <c r="C2073" s="121" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -39990,7 +39984,7 @@
       <c r="B2138" s="0" t="s">
         <v>2993</v>
       </c>
-      <c r="C2138" s="122" t="n">
+      <c r="C2138" s="121" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -40038,7 +40032,7 @@
       <c r="B2144" s="0" t="s">
         <v>2999</v>
       </c>
-      <c r="C2144" s="122" t="n">
+      <c r="C2144" s="121" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -40070,7 +40064,7 @@
       <c r="B2148" s="0" t="s">
         <v>3003</v>
       </c>
-      <c r="C2148" s="122" t="n">
+      <c r="C2148" s="121" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -40158,7 +40152,7 @@
       <c r="B2159" s="0" t="s">
         <v>3014</v>
       </c>
-      <c r="C2159" s="122" t="n">
+      <c r="C2159" s="121" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -40334,7 +40328,7 @@
       <c r="B2181" s="0" t="s">
         <v>3037</v>
       </c>
-      <c r="C2181" s="122" t="n">
+      <c r="C2181" s="121" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -40398,7 +40392,7 @@
       <c r="B2189" s="0" t="s">
         <v>3045</v>
       </c>
-      <c r="C2189" s="122" t="n">
+      <c r="C2189" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40414,7 +40408,7 @@
       <c r="B2191" s="0" t="s">
         <v>3047</v>
       </c>
-      <c r="C2191" s="122" t="n">
+      <c r="C2191" s="121" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -40990,7 +40984,7 @@
       <c r="B2263" s="0" t="s">
         <v>3122</v>
       </c>
-      <c r="C2263" s="122" t="n">
+      <c r="C2263" s="121" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41277,7 +41271,7 @@
       <c r="F2297" s="0" t="s">
         <v>3167</v>
       </c>
-      <c r="G2297" s="124" t="n">
+      <c r="G2297" s="123" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -41369,7 +41363,7 @@
       <c r="B2307" s="0" t="s">
         <v>3181</v>
       </c>
-      <c r="C2307" s="122" t="n">
+      <c r="C2307" s="121" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -41455,7 +41449,7 @@
       <c r="B2317" s="0" t="s">
         <v>3197</v>
       </c>
-      <c r="C2317" s="122" t="n">
+      <c r="C2317" s="121" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -41463,7 +41457,7 @@
       <c r="B2318" s="0" t="s">
         <v>3198</v>
       </c>
-      <c r="C2318" s="122" t="n">
+      <c r="C2318" s="121" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -41479,7 +41473,7 @@
       <c r="B2320" s="0" t="s">
         <v>3200</v>
       </c>
-      <c r="C2320" s="122" t="n">
+      <c r="C2320" s="121" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -41527,7 +41521,7 @@
       <c r="C2326" s="0" t="s">
         <v>3208</v>
       </c>
-      <c r="D2326" s="125" t="n">
+      <c r="D2326" s="124" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -41578,7 +41572,7 @@
       <c r="C2332" s="0" t="s">
         <v>3216</v>
       </c>
-      <c r="D2332" s="125" t="n">
+      <c r="D2332" s="124" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -41597,7 +41591,7 @@
       <c r="D2334" s="0" t="s">
         <v>3219</v>
       </c>
-      <c r="E2334" s="125" t="n">
+      <c r="E2334" s="124" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -41655,7 +41649,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="125" t="n">
+      <c r="F2339" s="124" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -42127,7 +42121,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="125" t="n">
+      <c r="F2380" s="124" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -47,10 +47,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.15
-pitch = 3.225
+          <t>vert = -4.35
+pitch = 3.5
 lateral = 0.0
-yaw = 0.053</t>
+yaw = 0.2</t>
         </r>
       </text>
     </comment>
@@ -11393,7 +11393,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13165,10 +13165,10 @@
         <v>134</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>-0.034</v>
+        <v>-0.1287</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-12534</v>
+        <v>-13478</v>
       </c>
       <c r="G40" s="30" t="n">
         <v>-0.034</v>
@@ -13213,10 +13213,10 @@
         <v>137</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>0.034</v>
+        <v>0.1289</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-27156</v>
+        <v>-26210</v>
       </c>
       <c r="G41" s="30" t="n">
         <v>0.034</v>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -361,6 +361,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="T24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>6 keV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Si(111)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t> vertical = -4.349
+ pitch =   2.700
+ roll =   0.000
+ yaw  =  0.200
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rh/Pt stripe</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -408,30 +464,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="3306">
-  <si>
-    <r>
-      <t>in /home/bravel/commissioning/CRS, do</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF3333FF"/>
-        <rFont val="Courier 10 Pitch"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t>sh pvs.sh | xclip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, then paste into appropriate column</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4192" uniqueCount="3306">
+  <si>
+    <t>in /home/bravel/commissioning/CRS, dosh pvs.sh | xclip, then paste into appropriate column</t>
   </si>
   <si>
     <t>Mode A</t>
@@ -450,6 +485,9 @@
   </si>
   <si>
     <t>Mode F</t>
+  </si>
+  <si>
+    <t>Mode A, XRD</t>
   </si>
   <si>
     <t>M2 only, &gt;9 keV</t>
@@ -473,9 +511,6 @@
   <si>
     <t>M3 only, &lt; 7 keV
 bare Si</t>
-  </si>
-  <si>
-    <t>F.E. slit positions during commissioning</t>
   </si>
   <si>
     <t>Instrument</t>
@@ -1156,7 +1191,7 @@
     <t>XF:06BM-ES{SixC-Ax:Tbl_YUI}Mtr</t>
   </si>
   <si>
-    <t>6bm:sixc_tyui</t>
+    <t>6bm:sixc_tbl_yui</t>
   </si>
   <si>
     <t>XRD table Y us/ib</t>
@@ -10495,7 +10530,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10522,13 +10557,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3333FF"/>
-      <name val="Courier 10 Pitch"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -10663,7 +10691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -10690,6 +10718,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -10914,7 +10949,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10932,7 +10967,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -10943,59 +10978,59 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11007,15 +11042,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11023,11 +11058,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11035,23 +11074,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11063,23 +11106,71 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11087,79 +11178,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11167,19 +11218,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11187,99 +11238,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11287,15 +11342,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11303,19 +11354,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11323,19 +11374,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11347,7 +11398,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11355,19 +11406,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11375,23 +11422,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11399,7 +11446,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11411,11 +11458,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11423,19 +11470,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11520,7 +11567,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3333FF"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -11535,11 +11582,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="O61" activeCellId="0" sqref="O61:P66"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11557,7 +11604,10 @@
     <col collapsed="false" hidden="false" max="14" min="13" style="0" width="15.5612244897959"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.5612244897959"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.3418367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11581,6 +11631,8 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -11613,134 +11665,150 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
+      <c r="T2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="R3" s="10" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="P3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="T3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="R4" s="11"/>
+      <c r="T4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="24"/>
-      <c r="R5" s="19" t="n">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="ALW5" s="20"/>
-      <c r="ALX5" s="20"/>
-      <c r="ALY5" s="20"/>
-      <c r="ALZ5" s="20"/>
-      <c r="AMA5" s="20"/>
-      <c r="AMB5" s="20"/>
-      <c r="AMC5" s="20"/>
-      <c r="AMD5" s="20"/>
-      <c r="AME5" s="20"/>
-      <c r="AMF5" s="20"/>
-      <c r="AMG5" s="20"/>
-      <c r="AMH5" s="20"/>
-      <c r="AMI5" s="20"/>
-      <c r="AMJ5" s="20"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="ALW5" s="21"/>
+      <c r="ALX5" s="21"/>
+      <c r="ALY5" s="21"/>
+      <c r="ALZ5" s="21"/>
+      <c r="AMA5" s="21"/>
+      <c r="AMB5" s="21"/>
+      <c r="AMC5" s="21"/>
+      <c r="AMD5" s="21"/>
+      <c r="AME5" s="21"/>
+      <c r="AMF5" s="21"/>
+      <c r="AMG5" s="21"/>
+      <c r="AMH5" s="21"/>
+      <c r="AMI5" s="21"/>
+      <c r="AMJ5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -11749,21 +11817,23 @@
       <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="0"/>
-      <c r="I6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="0"/>
-      <c r="M6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
       <c r="R6" s="0" t="n">
         <v>1.1</v>
       </c>
+      <c r="T6" s="30"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -11772,21 +11842,23 @@
       <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="27"/>
-      <c r="K7" s="28"/>
+      <c r="I7" s="30"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="0"/>
-      <c r="M7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="32"/>
       <c r="R7" s="0" t="n">
         <v>0.6</v>
       </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -11795,25 +11867,27 @@
       <c r="D8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="34"/>
       <c r="R8" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -11822,25 +11896,27 @@
       <c r="D9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="31"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="34"/>
       <c r="R9" s="0" t="n">
         <v>2.0948</v>
       </c>
+      <c r="T9" s="30"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -11849,25 +11925,27 @@
       <c r="D10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="31"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="34"/>
       <c r="R10" s="0" t="n">
         <v>2.06708</v>
       </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -11876,25 +11954,27 @@
       <c r="D11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="34"/>
       <c r="R11" s="0" t="n">
         <v>4.1</v>
       </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -11903,25 +11983,27 @@
       <c r="D12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="34"/>
       <c r="R12" s="0" t="n">
         <v>0.50004</v>
       </c>
+      <c r="T12" s="30"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -11930,25 +12012,27 @@
       <c r="D13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="31"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="34"/>
       <c r="R13" s="0" t="n">
         <v>-1.49904</v>
       </c>
+      <c r="T13" s="30"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -11957,137 +12041,154 @@
       <c r="D14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="31"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="34"/>
       <c r="R14" s="0" t="n">
         <v>-0.413</v>
       </c>
+      <c r="T14" s="30"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="31"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="34"/>
       <c r="R15" s="0" t="n">
         <v>-1.9002</v>
       </c>
-    </row>
-    <row r="16" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="33" t="s">
+      <c r="T15" s="30"/>
+      <c r="U15" s="32"/>
+    </row>
+    <row r="16" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18"/>
+      <c r="B16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="36"/>
-      <c r="R16" s="32" t="n">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26" t="n">
         <v>-0.10008</v>
       </c>
-      <c r="ALW16" s="37"/>
-      <c r="ALX16" s="37"/>
-      <c r="ALY16" s="37"/>
-      <c r="ALZ16" s="37"/>
-      <c r="AMA16" s="37"/>
-      <c r="AMB16" s="37"/>
-      <c r="AMC16" s="37"/>
-      <c r="AMD16" s="37"/>
-      <c r="AME16" s="37"/>
-      <c r="AMF16" s="37"/>
-      <c r="AMG16" s="37"/>
-      <c r="AMH16" s="37"/>
-      <c r="AMI16" s="37"/>
-      <c r="AMJ16" s="37"/>
-    </row>
-    <row r="17" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="28"/>
+      <c r="ALW16" s="40"/>
+      <c r="ALX16" s="40"/>
+      <c r="ALY16" s="40"/>
+      <c r="ALZ16" s="40"/>
+      <c r="AMA16" s="40"/>
+      <c r="AMB16" s="40"/>
+      <c r="AMC16" s="40"/>
+      <c r="AMD16" s="40"/>
+      <c r="AME16" s="40"/>
+      <c r="AMF16" s="40"/>
+      <c r="AMG16" s="40"/>
+      <c r="AMH16" s="40"/>
+      <c r="AMI16" s="40"/>
+      <c r="AMJ16" s="40"/>
+    </row>
+    <row r="17" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="42" t="n">
         <v>-1.7334</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="20" t="n">
         <v>-9776</v>
       </c>
-      <c r="G17" s="40" t="n">
+      <c r="G17" s="43" t="n">
         <v>-1.7334</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="H17" s="25" t="n">
         <v>-9776</v>
       </c>
-      <c r="I17" s="39" t="n">
+      <c r="I17" s="42" t="n">
         <v>-1.7334</v>
       </c>
-      <c r="J17" s="19" t="n">
+      <c r="J17" s="20" t="n">
         <v>-9776</v>
       </c>
-      <c r="K17" s="40" t="n">
+      <c r="K17" s="43" t="n">
         <v>-1.7332</v>
       </c>
-      <c r="L17" s="24" t="n">
+      <c r="L17" s="25" t="n">
         <v>-9774</v>
       </c>
-      <c r="M17" s="39" t="n">
+      <c r="M17" s="42" t="n">
         <v>-1.7332</v>
       </c>
-      <c r="N17" s="19" t="n">
+      <c r="N17" s="20" t="n">
         <v>-9774</v>
       </c>
-      <c r="O17" s="40" t="n">
+      <c r="O17" s="43" t="n">
         <v>-1.7332</v>
       </c>
-      <c r="P17" s="24" t="n">
+      <c r="P17" s="25" t="n">
+        <v>-9774</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="43" t="n">
+        <v>-1.7332</v>
+      </c>
+      <c r="U17" s="25" t="n">
         <v>-9774</v>
       </c>
       <c r="ALW17" s="0"/>
@@ -12106,8 +12207,8 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -12116,46 +12217,52 @@
       <c r="D18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="30" t="n">
+      <c r="E18" s="33" t="n">
         <v>-0.1033</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>27327</v>
       </c>
-      <c r="G18" s="28" t="n">
+      <c r="G18" s="31" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="H18" s="29" t="n">
+      <c r="H18" s="32" t="n">
         <v>27327</v>
       </c>
-      <c r="I18" s="30" t="n">
+      <c r="I18" s="33" t="n">
         <v>-0.1033</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>27327</v>
       </c>
-      <c r="K18" s="28" t="n">
+      <c r="K18" s="31" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="L18" s="29" t="n">
+      <c r="L18" s="32" t="n">
         <v>27327</v>
       </c>
-      <c r="M18" s="30" t="n">
+      <c r="M18" s="33" t="n">
         <v>-0.1033</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>27327</v>
       </c>
-      <c r="O18" s="28" t="n">
+      <c r="O18" s="31" t="n">
         <v>-0.1033</v>
       </c>
-      <c r="P18" s="29" t="n">
+      <c r="P18" s="32" t="n">
         <v>27327</v>
       </c>
+      <c r="T18" s="31" t="n">
+        <v>-0.1033</v>
+      </c>
+      <c r="U18" s="32" t="n">
+        <v>27327</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -12164,46 +12271,52 @@
       <c r="D19" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="30" t="n">
+      <c r="E19" s="33" t="n">
         <v>0.5299</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>24328</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="31" t="n">
         <v>0.5299</v>
       </c>
-      <c r="H19" s="29" t="n">
+      <c r="H19" s="32" t="n">
         <v>24328</v>
       </c>
-      <c r="I19" s="30" t="n">
+      <c r="I19" s="33" t="n">
         <v>0.5299</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>24328</v>
       </c>
-      <c r="K19" s="28" t="n">
+      <c r="K19" s="31" t="n">
         <v>0.5298</v>
       </c>
-      <c r="L19" s="29" t="n">
+      <c r="L19" s="32" t="n">
         <v>24327</v>
       </c>
-      <c r="M19" s="30" t="n">
+      <c r="M19" s="33" t="n">
         <v>0.5299</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>24328</v>
       </c>
-      <c r="O19" s="28" t="n">
+      <c r="O19" s="31" t="n">
         <v>0.5299</v>
       </c>
-      <c r="P19" s="29" t="n">
+      <c r="P19" s="32" t="n">
         <v>24328</v>
       </c>
+      <c r="T19" s="31" t="n">
+        <v>0.5299</v>
+      </c>
+      <c r="U19" s="32" t="n">
+        <v>24328</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="44" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -12212,88 +12325,103 @@
       <c r="D20" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="30" t="n">
+      <c r="E20" s="33" t="n">
         <v>0.4831</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4831</v>
       </c>
-      <c r="G20" s="28" t="n">
+      <c r="G20" s="31" t="n">
         <v>0.4831</v>
       </c>
-      <c r="H20" s="29" t="n">
+      <c r="H20" s="32" t="n">
         <v>4831</v>
       </c>
-      <c r="I20" s="30" t="n">
+      <c r="I20" s="33" t="n">
         <v>0.4831</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>4831</v>
       </c>
-      <c r="K20" s="28" t="n">
+      <c r="K20" s="31" t="n">
         <v>0.4832</v>
       </c>
-      <c r="L20" s="29" t="n">
+      <c r="L20" s="32" t="n">
         <v>4832</v>
       </c>
-      <c r="M20" s="30" t="n">
+      <c r="M20" s="33" t="n">
         <v>0.4832</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>4832</v>
       </c>
-      <c r="O20" s="28" t="n">
+      <c r="O20" s="31" t="n">
         <v>0.4832</v>
       </c>
-      <c r="P20" s="29" t="n">
+      <c r="P20" s="32" t="n">
         <v>4832</v>
       </c>
-    </row>
-    <row r="21" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
-      <c r="B21" s="33" t="s">
+      <c r="T20" s="31" t="n">
+        <v>0.4832</v>
+      </c>
+      <c r="U20" s="32" t="n">
+        <v>4832</v>
+      </c>
+    </row>
+    <row r="21" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="37" t="n">
         <v>2.1801</v>
       </c>
-      <c r="F21" s="32" t="n">
+      <c r="F21" s="35" t="n">
         <v>24800</v>
       </c>
-      <c r="G21" s="35" t="n">
+      <c r="G21" s="38" t="n">
         <v>2.1801</v>
       </c>
-      <c r="H21" s="42" t="n">
+      <c r="H21" s="45" t="n">
         <v>24800</v>
       </c>
-      <c r="I21" s="34" t="n">
+      <c r="I21" s="37" t="n">
         <v>2.1801</v>
       </c>
-      <c r="J21" s="32" t="n">
+      <c r="J21" s="35" t="n">
         <v>24800</v>
       </c>
-      <c r="K21" s="35" t="n">
+      <c r="K21" s="38" t="n">
         <v>2.1802</v>
       </c>
-      <c r="L21" s="42" t="n">
+      <c r="L21" s="45" t="n">
         <v>24801</v>
       </c>
-      <c r="M21" s="34" t="n">
+      <c r="M21" s="37" t="n">
         <v>2.1802</v>
       </c>
-      <c r="N21" s="32" t="n">
+      <c r="N21" s="35" t="n">
         <v>24801</v>
       </c>
-      <c r="O21" s="35" t="n">
+      <c r="O21" s="38" t="n">
         <v>2.1802</v>
       </c>
-      <c r="P21" s="42" t="n">
+      <c r="P21" s="45" t="n">
+        <v>24801</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="38" t="n">
+        <v>2.1802</v>
+      </c>
+      <c r="U21" s="45" t="n">
         <v>24801</v>
       </c>
       <c r="ALW21" s="0"/>
@@ -12311,56 +12439,65 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
+    <row r="22" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="39" t="n">
+      <c r="E22" s="42" t="n">
         <v>55</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F22" s="20" t="n">
         <v>550001</v>
       </c>
-      <c r="G22" s="40" t="n">
+      <c r="G22" s="43" t="n">
         <v>55</v>
       </c>
-      <c r="H22" s="24" t="n">
+      <c r="H22" s="25" t="n">
         <v>550000</v>
       </c>
-      <c r="I22" s="39" t="n">
+      <c r="I22" s="42" t="n">
         <v>55</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="20" t="n">
         <v>550000</v>
       </c>
-      <c r="K22" s="40" t="n">
+      <c r="K22" s="43" t="n">
         <v>54.9999</v>
       </c>
-      <c r="L22" s="24" t="n">
+      <c r="L22" s="25" t="n">
         <v>549999</v>
       </c>
-      <c r="M22" s="39" t="n">
+      <c r="M22" s="42" t="n">
         <v>54.9999</v>
       </c>
-      <c r="N22" s="19" t="n">
+      <c r="N22" s="20" t="n">
         <v>549999</v>
       </c>
-      <c r="O22" s="40" t="n">
+      <c r="O22" s="43" t="n">
         <v>55</v>
       </c>
-      <c r="P22" s="24" t="n">
+      <c r="P22" s="25" t="n">
         <v>550000</v>
       </c>
-      <c r="ALV22" s="22"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="43" t="n">
+        <v>55</v>
+      </c>
+      <c r="U22" s="25" t="n">
+        <v>550000</v>
+      </c>
+      <c r="ALV22" s="23"/>
       <c r="ALW22" s="0"/>
       <c r="ALX22" s="0"/>
       <c r="ALY22" s="0"/>
@@ -12376,54 +12513,63 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43"/>
-      <c r="B23" s="33" t="s">
+    <row r="23" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="46"/>
+      <c r="B23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="35" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="34" t="n">
+      <c r="E23" s="37" t="n">
         <v>62.9999</v>
       </c>
-      <c r="F23" s="32" t="n">
+      <c r="F23" s="35" t="n">
         <v>629999</v>
       </c>
-      <c r="G23" s="35" t="n">
+      <c r="G23" s="38" t="n">
         <v>62.9999</v>
       </c>
-      <c r="H23" s="42" t="n">
+      <c r="H23" s="45" t="n">
         <v>629999</v>
       </c>
-      <c r="I23" s="34" t="n">
+      <c r="I23" s="37" t="n">
         <v>62.9999</v>
       </c>
-      <c r="J23" s="32" t="n">
+      <c r="J23" s="35" t="n">
         <v>629999</v>
       </c>
-      <c r="K23" s="35" t="n">
+      <c r="K23" s="38" t="n">
         <v>62.9996</v>
       </c>
-      <c r="L23" s="42" t="n">
+      <c r="L23" s="45" t="n">
         <v>629996</v>
       </c>
-      <c r="M23" s="34" t="n">
+      <c r="M23" s="37" t="n">
         <v>62.9996</v>
       </c>
-      <c r="N23" s="32" t="n">
+      <c r="N23" s="35" t="n">
         <v>629996</v>
       </c>
-      <c r="O23" s="35" t="n">
+      <c r="O23" s="38" t="n">
         <v>62.9996</v>
       </c>
-      <c r="P23" s="42" t="n">
+      <c r="P23" s="45" t="n">
         <v>629996</v>
       </c>
-      <c r="ALV23" s="44"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="38" t="n">
+        <v>62.9996</v>
+      </c>
+      <c r="U23" s="45" t="n">
+        <v>629996</v>
+      </c>
+      <c r="ALV23" s="47"/>
       <c r="ALW23" s="0"/>
       <c r="ALX23" s="0"/>
       <c r="ALY23" s="0"/>
@@ -12439,53 +12585,62 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+    <row r="24" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="39" t="n">
+      <c r="E24" s="42" t="n">
         <v>5.67307</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="20" t="n">
         <v>-2209925</v>
       </c>
-      <c r="G24" s="23" t="n">
+      <c r="G24" s="24" t="n">
         <v>19.2388</v>
       </c>
-      <c r="H24" s="22" t="n">
+      <c r="H24" s="23" t="n">
         <v>503230</v>
       </c>
-      <c r="I24" s="45" t="n">
+      <c r="I24" s="48" t="n">
         <v>5.67308</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="21" t="n">
         <v>-2209924</v>
       </c>
-      <c r="K24" s="23" t="n">
+      <c r="K24" s="24" t="n">
         <v>8.11829</v>
       </c>
-      <c r="L24" s="22" t="n">
+      <c r="L24" s="23" t="n">
         <v>-1720883</v>
       </c>
-      <c r="M24" s="39" t="n">
+      <c r="M24" s="42" t="n">
         <v>11.4027</v>
       </c>
-      <c r="N24" s="19" t="n">
+      <c r="N24" s="20" t="n">
         <v>-1063990</v>
       </c>
-      <c r="O24" s="40" t="n">
+      <c r="O24" s="43" t="n">
         <v>19.2389</v>
       </c>
-      <c r="P24" s="24" t="n">
+      <c r="P24" s="25" t="n">
+        <v>503233</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="43" t="n">
+        <v>19.2389</v>
+      </c>
+      <c r="U24" s="25" t="n">
         <v>503233</v>
       </c>
       <c r="ALW24" s="0"/>
@@ -12503,9 +12658,9 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="41" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18"/>
+      <c r="B25" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -12514,46 +12669,52 @@
       <c r="D25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="30" t="n">
+      <c r="E25" s="33" t="n">
         <v>12.4335</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>-857842</v>
       </c>
-      <c r="G25" s="28" t="n">
+      <c r="G25" s="31" t="n">
         <v>19.3487</v>
       </c>
-      <c r="H25" s="29" t="n">
+      <c r="H25" s="32" t="n">
         <v>525198</v>
       </c>
-      <c r="I25" s="30" t="n">
+      <c r="I25" s="33" t="n">
         <v>12.4337</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>-857799</v>
       </c>
-      <c r="K25" s="28" t="n">
+      <c r="K25" s="31" t="n">
         <v>13.7836</v>
       </c>
-      <c r="L25" s="29" t="n">
+      <c r="L25" s="32" t="n">
         <v>-587827</v>
       </c>
-      <c r="M25" s="30" t="n">
+      <c r="M25" s="33" t="n">
         <v>15.2804</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>-288743</v>
       </c>
-      <c r="O25" s="28" t="n">
+      <c r="O25" s="31" t="n">
         <v>19.3418</v>
       </c>
-      <c r="P25" s="29" t="n">
+      <c r="P25" s="32" t="n">
         <v>523783</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="41" t="s">
+      <c r="T25" s="31" t="n">
+        <v>19.3418</v>
+      </c>
+      <c r="U25" s="32" t="n">
+        <v>523783</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18"/>
+      <c r="B26" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -12562,46 +12723,52 @@
       <c r="D26" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="33" t="n">
         <v>5.47701</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>-1533</v>
       </c>
-      <c r="G26" s="28" t="n">
+      <c r="G26" s="31" t="n">
         <v>5.52818</v>
       </c>
-      <c r="H26" s="29" t="n">
+      <c r="H26" s="32" t="n">
         <v>-1414</v>
       </c>
-      <c r="I26" s="30" t="n">
+      <c r="I26" s="33" t="n">
         <v>5.47701</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>-1533</v>
       </c>
-      <c r="K26" s="28" t="n">
+      <c r="K26" s="31" t="n">
         <v>5.48518</v>
       </c>
-      <c r="L26" s="29" t="n">
+      <c r="L26" s="32" t="n">
         <v>-1514</v>
       </c>
-      <c r="M26" s="30" t="n">
+      <c r="M26" s="33" t="n">
         <v>5.52388</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>-1424</v>
       </c>
-      <c r="O26" s="28" t="n">
+      <c r="O26" s="31" t="n">
         <v>5.52861</v>
       </c>
-      <c r="P26" s="29" t="n">
+      <c r="P26" s="32" t="n">
         <v>-1413</v>
       </c>
+      <c r="T26" s="31" t="n">
+        <v>5.52861</v>
+      </c>
+      <c r="U26" s="32" t="n">
+        <v>-1413</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -12646,10 +12813,16 @@
       <c r="P27" s="0" t="n">
         <v>-38573</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="41" t="s">
+      <c r="T27" s="30" t="n">
+        <v>-6.2601</v>
+      </c>
+      <c r="U27" s="32" t="n">
+        <v>-38573</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
+      <c r="B28" s="44" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -12658,46 +12831,52 @@
       <c r="D28" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="30" t="n">
+      <c r="E28" s="33" t="n">
         <v>10.4937</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>-101690</v>
       </c>
-      <c r="G28" s="28" t="n">
+      <c r="G28" s="31" t="n">
         <v>11.3071</v>
       </c>
-      <c r="H28" s="29" t="n">
+      <c r="H28" s="32" t="n">
         <v>-93556</v>
       </c>
-      <c r="I28" s="30" t="n">
+      <c r="I28" s="33" t="n">
         <v>10.4937</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>-101690</v>
       </c>
-      <c r="K28" s="28" t="n">
+      <c r="K28" s="31" t="n">
         <v>10.5717</v>
       </c>
-      <c r="L28" s="29" t="n">
+      <c r="L28" s="32" t="n">
         <v>-100910</v>
       </c>
-      <c r="M28" s="30" t="n">
+      <c r="M28" s="33" t="n">
         <v>10.7221</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>-99406</v>
       </c>
-      <c r="O28" s="28" t="n">
+      <c r="O28" s="31" t="n">
         <v>11.3071</v>
       </c>
-      <c r="P28" s="29" t="n">
+      <c r="P28" s="32" t="n">
         <v>-93556</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="41" t="s">
+      <c r="T28" s="31" t="n">
+        <v>11.3071</v>
+      </c>
+      <c r="U28" s="32" t="n">
+        <v>-93556</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18"/>
+      <c r="B29" s="44" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -12706,46 +12885,52 @@
       <c r="D29" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="30" t="n">
+      <c r="E29" s="33" t="n">
         <v>154.242</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>878766</v>
       </c>
-      <c r="G29" s="28" t="n">
+      <c r="G29" s="31" t="n">
         <v>48.0221</v>
       </c>
-      <c r="H29" s="29" t="n">
+      <c r="H29" s="32" t="n">
         <v>-183437</v>
       </c>
-      <c r="I29" s="30" t="n">
+      <c r="I29" s="33" t="n">
         <v>154.242</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>878766</v>
       </c>
-      <c r="K29" s="28" t="n">
+      <c r="K29" s="31" t="n">
         <v>108.719</v>
       </c>
-      <c r="L29" s="29" t="n">
+      <c r="L29" s="32" t="n">
         <v>423528</v>
       </c>
-      <c r="M29" s="30" t="n">
+      <c r="M29" s="33" t="n">
         <v>78.3709</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>120052</v>
       </c>
-      <c r="O29" s="28" t="n">
+      <c r="O29" s="31" t="n">
         <v>48.0221</v>
       </c>
-      <c r="P29" s="29" t="n">
+      <c r="P29" s="32" t="n">
         <v>-183437</v>
       </c>
+      <c r="T29" s="31" t="n">
+        <v>48.0221</v>
+      </c>
+      <c r="U29" s="32" t="n">
+        <v>-183437</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -12754,88 +12939,103 @@
       <c r="D30" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="30" t="n">
+      <c r="E30" s="33" t="n">
         <v>-33.0025</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>-330025</v>
       </c>
-      <c r="G30" s="28" t="n">
+      <c r="G30" s="31" t="n">
         <v>-33.0024</v>
       </c>
-      <c r="H30" s="29" t="n">
+      <c r="H30" s="32" t="n">
         <v>-330024</v>
       </c>
-      <c r="I30" s="30" t="n">
+      <c r="I30" s="33" t="n">
         <v>-33.0025</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>-330025</v>
       </c>
-      <c r="K30" s="28" t="n">
+      <c r="K30" s="31" t="n">
         <v>-33.0026</v>
       </c>
-      <c r="L30" s="29" t="n">
+      <c r="L30" s="32" t="n">
         <v>-330022</v>
       </c>
-      <c r="M30" s="30" t="n">
+      <c r="M30" s="33" t="n">
         <v>-33.0026</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>-330022</v>
       </c>
-      <c r="O30" s="28" t="n">
+      <c r="O30" s="31" t="n">
         <v>-33.0026</v>
       </c>
-      <c r="P30" s="29" t="n">
+      <c r="P30" s="32" t="n">
         <v>-330022</v>
       </c>
-    </row>
-    <row r="31" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="33" t="s">
+      <c r="T30" s="31" t="n">
+        <v>-33.0026</v>
+      </c>
+      <c r="U30" s="32" t="n">
+        <v>-330022</v>
+      </c>
+    </row>
+    <row r="31" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18"/>
+      <c r="B31" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="34" t="n">
+      <c r="E31" s="37" t="n">
         <v>0.0006</v>
       </c>
-      <c r="F31" s="32" t="n">
+      <c r="F31" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="G31" s="35" t="n">
+      <c r="G31" s="38" t="n">
         <v>0.0006</v>
       </c>
-      <c r="H31" s="42" t="n">
+      <c r="H31" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="I31" s="34" t="n">
+      <c r="I31" s="37" t="n">
         <v>0.0006</v>
       </c>
-      <c r="J31" s="32" t="n">
+      <c r="J31" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="K31" s="35" t="n">
+      <c r="K31" s="38" t="n">
         <v>0.0006</v>
       </c>
-      <c r="L31" s="42" t="n">
+      <c r="L31" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="M31" s="34" t="n">
+      <c r="M31" s="37" t="n">
         <v>0.0006</v>
       </c>
-      <c r="N31" s="32" t="n">
+      <c r="N31" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="O31" s="35" t="n">
+      <c r="O31" s="38" t="n">
         <v>0.0006</v>
       </c>
-      <c r="P31" s="42" t="n">
+      <c r="P31" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="38" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="U31" s="45" t="n">
         <v>6</v>
       </c>
       <c r="ALW31" s="0"/>
@@ -12853,53 +13053,62 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
+    <row r="32" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="39" t="n">
+      <c r="E32" s="42" t="n">
         <v>10.6641</v>
       </c>
-      <c r="F32" s="19" t="n">
+      <c r="F32" s="20" t="n">
         <v>65071</v>
       </c>
-      <c r="G32" s="40" t="n">
+      <c r="G32" s="43" t="n">
         <v>10.6639</v>
       </c>
-      <c r="H32" s="24" t="n">
+      <c r="H32" s="25" t="n">
         <v>65071</v>
       </c>
-      <c r="I32" s="39" t="n">
+      <c r="I32" s="42" t="n">
         <v>10.6639</v>
       </c>
-      <c r="J32" s="19" t="n">
+      <c r="J32" s="20" t="n">
         <v>65072</v>
       </c>
-      <c r="K32" s="40" t="n">
+      <c r="K32" s="43" t="n">
         <v>10.6639</v>
       </c>
-      <c r="L32" s="24" t="n">
+      <c r="L32" s="25" t="n">
         <v>65071</v>
       </c>
-      <c r="M32" s="39" t="n">
+      <c r="M32" s="42" t="n">
         <v>10.6639</v>
       </c>
-      <c r="N32" s="19" t="n">
+      <c r="N32" s="20" t="n">
         <v>65072</v>
       </c>
-      <c r="O32" s="40" t="n">
+      <c r="O32" s="43" t="n">
         <v>10.6641</v>
       </c>
-      <c r="P32" s="24" t="n">
+      <c r="P32" s="25" t="n">
+        <v>65072</v>
+      </c>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="43" t="n">
+        <v>10.6641</v>
+      </c>
+      <c r="U32" s="25" t="n">
         <v>65072</v>
       </c>
       <c r="ALW32" s="0"/>
@@ -12918,8 +13127,8 @@
       <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="44" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -12928,46 +13137,52 @@
       <c r="D33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="30" t="n">
+      <c r="E33" s="33" t="n">
         <v>-7.3693</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>-40042</v>
       </c>
-      <c r="G33" s="28" t="n">
+      <c r="G33" s="31" t="n">
         <v>-7.3693</v>
       </c>
-      <c r="H33" s="29" t="n">
+      <c r="H33" s="32" t="n">
         <v>-40044</v>
       </c>
-      <c r="I33" s="30" t="n">
+      <c r="I33" s="33" t="n">
         <v>-7.3692</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>-40042</v>
       </c>
-      <c r="K33" s="28" t="n">
+      <c r="K33" s="31" t="n">
         <v>-7.3691</v>
       </c>
-      <c r="L33" s="29" t="n">
+      <c r="L33" s="32" t="n">
         <v>-40042</v>
       </c>
-      <c r="M33" s="30" t="n">
+      <c r="M33" s="33" t="n">
         <v>-7.3692</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>-40043</v>
       </c>
-      <c r="O33" s="28" t="n">
+      <c r="O33" s="31" t="n">
         <v>-7.3692</v>
       </c>
-      <c r="P33" s="29" t="n">
+      <c r="P33" s="32" t="n">
         <v>-40043</v>
       </c>
+      <c r="T33" s="31" t="n">
+        <v>-7.3692</v>
+      </c>
+      <c r="U33" s="32" t="n">
+        <v>-40043</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -12976,88 +13191,103 @@
       <c r="D34" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="30" t="n">
+      <c r="E34" s="33" t="n">
         <v>7.2953</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>37125</v>
       </c>
-      <c r="G34" s="28" t="n">
+      <c r="G34" s="31" t="n">
         <v>7.2952</v>
       </c>
-      <c r="H34" s="29" t="n">
+      <c r="H34" s="32" t="n">
         <v>37125</v>
       </c>
-      <c r="I34" s="30" t="n">
+      <c r="I34" s="33" t="n">
         <v>7.2953</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>37126</v>
       </c>
-      <c r="K34" s="28" t="n">
+      <c r="K34" s="31" t="n">
         <v>7.2954</v>
       </c>
-      <c r="L34" s="29" t="n">
+      <c r="L34" s="32" t="n">
         <v>37127</v>
       </c>
-      <c r="M34" s="30" t="n">
+      <c r="M34" s="33" t="n">
         <v>7.2953</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>37126</v>
       </c>
-      <c r="O34" s="28" t="n">
+      <c r="O34" s="31" t="n">
         <v>7.2954</v>
       </c>
-      <c r="P34" s="29" t="n">
+      <c r="P34" s="32" t="n">
         <v>37126</v>
       </c>
-    </row>
-    <row r="35" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="33" t="s">
+      <c r="T34" s="31" t="n">
+        <v>7.2954</v>
+      </c>
+      <c r="U34" s="32" t="n">
+        <v>37126</v>
+      </c>
+    </row>
+    <row r="35" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18"/>
+      <c r="B35" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="34" t="n">
+      <c r="E35" s="37" t="n">
         <v>-4.0011</v>
       </c>
-      <c r="F35" s="32" t="n">
+      <c r="F35" s="35" t="n">
         <v>-12509</v>
       </c>
-      <c r="G35" s="35" t="n">
+      <c r="G35" s="38" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="H35" s="42" t="n">
+      <c r="H35" s="45" t="n">
         <v>-12509</v>
       </c>
-      <c r="I35" s="34" t="n">
+      <c r="I35" s="37" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="J35" s="32" t="n">
+      <c r="J35" s="35" t="n">
         <v>-12510</v>
       </c>
-      <c r="K35" s="35" t="n">
+      <c r="K35" s="38" t="n">
         <v>-4.0011</v>
       </c>
-      <c r="L35" s="42" t="n">
+      <c r="L35" s="45" t="n">
         <v>-12510</v>
       </c>
-      <c r="M35" s="34" t="n">
+      <c r="M35" s="37" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="N35" s="32" t="n">
+      <c r="N35" s="35" t="n">
         <v>-12510</v>
       </c>
-      <c r="O35" s="35" t="n">
+      <c r="O35" s="38" t="n">
         <v>-4.0009</v>
       </c>
-      <c r="P35" s="42" t="n">
+      <c r="P35" s="45" t="n">
+        <v>-12510</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="38" t="n">
+        <v>-4.0009</v>
+      </c>
+      <c r="U35" s="45" t="n">
         <v>-12510</v>
       </c>
       <c r="ALW35" s="0"/>
@@ -13075,53 +13305,62 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
+    <row r="36" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="49" t="n">
+      <c r="E36" s="52" t="n">
         <v>32.9997</v>
       </c>
-      <c r="F36" s="48" t="n">
+      <c r="F36" s="51" t="n">
         <v>-10573</v>
       </c>
-      <c r="G36" s="50" t="n">
+      <c r="G36" s="53" t="n">
         <v>32.9996</v>
       </c>
-      <c r="H36" s="51" t="n">
+      <c r="H36" s="54" t="n">
         <v>-10574</v>
       </c>
-      <c r="I36" s="49" t="n">
+      <c r="I36" s="52" t="n">
         <v>32.9997</v>
       </c>
-      <c r="J36" s="48" t="n">
+      <c r="J36" s="51" t="n">
         <v>-10573</v>
       </c>
-      <c r="K36" s="50" t="n">
+      <c r="K36" s="53" t="n">
         <v>73.0001</v>
       </c>
-      <c r="L36" s="51" t="n">
+      <c r="L36" s="54" t="n">
         <v>389431</v>
       </c>
-      <c r="M36" s="49" t="n">
+      <c r="M36" s="52" t="n">
         <v>73.0001</v>
       </c>
-      <c r="N36" s="48" t="n">
+      <c r="N36" s="51" t="n">
         <v>389431</v>
       </c>
-      <c r="O36" s="50" t="n">
+      <c r="O36" s="53" t="n">
         <v>73</v>
       </c>
-      <c r="P36" s="51" t="n">
+      <c r="P36" s="54" t="n">
+        <v>389430</v>
+      </c>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="53" t="n">
+        <v>73</v>
+      </c>
+      <c r="U36" s="54" t="n">
         <v>389430</v>
       </c>
       <c r="ALW36" s="0"/>
@@ -13139,54 +13378,63 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+    <row r="37" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="39" t="n">
+      <c r="E37" s="42" t="n">
         <v>-6.60298</v>
       </c>
-      <c r="F37" s="19" t="n">
+      <c r="F37" s="20" t="n">
         <v>-59529</v>
       </c>
-      <c r="G37" s="39" t="n">
+      <c r="G37" s="42" t="n">
         <v>-6.2262</v>
       </c>
-      <c r="H37" s="19" t="n">
+      <c r="H37" s="20" t="n">
         <v>-55761</v>
       </c>
-      <c r="I37" s="39" t="n">
+      <c r="I37" s="42" t="n">
         <v>-6.2262</v>
       </c>
-      <c r="J37" s="19" t="n">
+      <c r="J37" s="20" t="n">
         <v>-55761</v>
       </c>
-      <c r="K37" s="40" t="n">
+      <c r="K37" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="L37" s="24" t="n">
+      <c r="L37" s="25" t="n">
         <v>66500</v>
       </c>
-      <c r="M37" s="40" t="n">
+      <c r="M37" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="N37" s="19" t="n">
+      <c r="N37" s="20" t="n">
         <v>66500</v>
       </c>
-      <c r="O37" s="40" t="n">
+      <c r="O37" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="P37" s="24" t="n">
+      <c r="P37" s="25" t="n">
         <v>66500</v>
+      </c>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="55" t="n">
+        <v>-6.08773</v>
+      </c>
+      <c r="U37" s="25" t="n">
+        <v>-54377</v>
       </c>
       <c r="ALW37" s="0"/>
       <c r="ALX37" s="0"/>
@@ -13204,8 +13452,8 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="44" t="s">
         <v>126</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -13214,46 +13462,52 @@
       <c r="D38" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="30" t="n">
+      <c r="E38" s="33" t="n">
         <v>-2.09497</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>-29850</v>
       </c>
-      <c r="G38" s="30" t="n">
+      <c r="G38" s="33" t="n">
         <v>-2.0722</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>-29624</v>
       </c>
-      <c r="I38" s="30" t="n">
+      <c r="I38" s="33" t="n">
         <v>-2.0722</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>-29624</v>
       </c>
-      <c r="K38" s="28" t="n">
+      <c r="K38" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="L38" s="29" t="n">
+      <c r="L38" s="32" t="n">
         <v>51098</v>
       </c>
-      <c r="M38" s="30" t="n">
+      <c r="M38" s="33" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>51098</v>
       </c>
-      <c r="O38" s="28" t="n">
+      <c r="O38" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="P38" s="29" t="n">
+      <c r="P38" s="32" t="n">
         <v>51098</v>
       </c>
+      <c r="T38" s="30" t="n">
+        <v>-2.61007</v>
+      </c>
+      <c r="U38" s="32" t="n">
+        <v>-35001</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="44" t="s">
         <v>129</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -13262,46 +13516,52 @@
       <c r="D39" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="33" t="n">
         <v>-2.09497</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>-23949</v>
       </c>
-      <c r="G39" s="30" t="n">
+      <c r="G39" s="33" t="n">
         <v>-2.0722</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>-23721</v>
       </c>
-      <c r="I39" s="30" t="n">
+      <c r="I39" s="33" t="n">
         <v>-2.0722</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>-23721</v>
       </c>
-      <c r="K39" s="28" t="n">
+      <c r="K39" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="L39" s="29" t="n">
+      <c r="L39" s="32" t="n">
         <v>56998</v>
       </c>
-      <c r="M39" s="30" t="n">
+      <c r="M39" s="33" t="n">
         <v>6</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>56998</v>
       </c>
-      <c r="O39" s="28" t="n">
+      <c r="O39" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="P39" s="29" t="n">
+      <c r="P39" s="32" t="n">
         <v>56998</v>
       </c>
+      <c r="T39" s="30" t="n">
+        <v>-2.61017</v>
+      </c>
+      <c r="U39" s="32" t="n">
+        <v>-29102</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="44" t="s">
         <v>132</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -13310,46 +13570,52 @@
       <c r="D40" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="30" t="n">
+      <c r="E40" s="33" t="n">
         <v>-0.1287</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>-13478</v>
       </c>
-      <c r="G40" s="30" t="n">
+      <c r="G40" s="33" t="n">
         <v>-0.034</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>-12534</v>
       </c>
-      <c r="I40" s="30" t="n">
+      <c r="I40" s="33" t="n">
         <v>-0.034</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>-12534</v>
       </c>
-      <c r="K40" s="30" t="n">
+      <c r="K40" s="33" t="n">
         <v>-0.415799999</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>-16348</v>
       </c>
-      <c r="M40" s="30" t="n">
+      <c r="M40" s="33" t="n">
         <v>-0.415799999</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>-16348</v>
       </c>
-      <c r="O40" s="30" t="n">
+      <c r="O40" s="33" t="n">
         <v>-0.415799999</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>-16348</v>
       </c>
+      <c r="T40" s="30" t="n">
+        <v>-0.1284</v>
+      </c>
+      <c r="U40" s="32" t="n">
+        <v>-13475</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="44" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -13358,89 +13624,104 @@
       <c r="D41" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="33" t="n">
         <v>0.1289</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>-26210</v>
       </c>
-      <c r="G41" s="30" t="n">
+      <c r="G41" s="33" t="n">
         <v>0.034</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>-27156</v>
       </c>
-      <c r="I41" s="30" t="n">
+      <c r="I41" s="33" t="n">
         <v>0.034</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>-27156</v>
       </c>
-      <c r="K41" s="30" t="n">
+      <c r="K41" s="33" t="n">
         <v>-0.3847</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>-31347</v>
       </c>
-      <c r="M41" s="30" t="n">
+      <c r="M41" s="33" t="n">
         <v>-0.3847</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>-31347</v>
       </c>
-      <c r="O41" s="30" t="n">
+      <c r="O41" s="33" t="n">
         <v>-0.3847</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>-31347</v>
       </c>
-    </row>
-    <row r="42" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="33" t="s">
+      <c r="T41" s="30" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="U41" s="32" t="n">
+        <v>-26212</v>
+      </c>
+    </row>
+    <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="18"/>
+      <c r="B42" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="35" t="s">
         <v>139</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="34" t="n">
+      <c r="E42" s="37" t="n">
         <v>190000</v>
       </c>
-      <c r="F42" s="32" t="n">
+      <c r="F42" s="35" t="n">
         <v>190000</v>
       </c>
-      <c r="G42" s="34" t="n">
+      <c r="G42" s="37" t="n">
         <v>190000</v>
       </c>
-      <c r="H42" s="32" t="n">
+      <c r="H42" s="35" t="n">
         <v>190000</v>
       </c>
-      <c r="I42" s="34" t="n">
+      <c r="I42" s="37" t="n">
         <v>190000</v>
       </c>
-      <c r="J42" s="32" t="n">
+      <c r="J42" s="35" t="n">
         <v>190000</v>
       </c>
-      <c r="K42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="42" t="n">
-        <v>0</v>
+      <c r="K42" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="56" t="n">
+        <v>163788</v>
+      </c>
+      <c r="U42" s="45" t="n">
+        <v>163789</v>
       </c>
       <c r="ALW42" s="0"/>
       <c r="ALX42" s="0"/>
@@ -13457,54 +13738,63 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
+    <row r="43" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="39" t="n">
+      <c r="E43" s="42" t="n">
         <v>-1.4992</v>
       </c>
-      <c r="F43" s="19" t="n">
+      <c r="F43" s="20" t="n">
         <v>3208</v>
       </c>
-      <c r="G43" s="40" t="n">
+      <c r="G43" s="43" t="n">
         <v>-4.9154</v>
       </c>
-      <c r="H43" s="19" t="n">
+      <c r="H43" s="20" t="n">
         <v>3208</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>-6.3492</v>
       </c>
-      <c r="J43" s="19" t="n">
+      <c r="J43" s="20" t="n">
         <v>-45292</v>
       </c>
-      <c r="K43" s="40" t="n">
+      <c r="K43" s="43" t="n">
         <v>-1.1672</v>
       </c>
-      <c r="L43" s="24" t="n">
+      <c r="L43" s="25" t="n">
         <v>6528</v>
       </c>
-      <c r="M43" s="39" t="n">
+      <c r="M43" s="42" t="n">
         <v>-1.1672</v>
       </c>
-      <c r="N43" s="19" t="n">
+      <c r="N43" s="20" t="n">
         <v>6528</v>
       </c>
-      <c r="O43" s="40" t="n">
+      <c r="O43" s="43" t="n">
         <v>-0.6669</v>
       </c>
-      <c r="P43" s="24" t="n">
+      <c r="P43" s="25" t="n">
         <v>11531</v>
+      </c>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="55" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="U43" s="25" t="n">
+        <v>3207</v>
       </c>
       <c r="ALW43" s="0"/>
       <c r="ALX43" s="0"/>
@@ -13522,8 +13812,8 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="44" t="s">
         <v>145</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -13532,13 +13822,13 @@
       <c r="D44" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="30" t="n">
+      <c r="E44" s="33" t="n">
         <v>-1.5013</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>-11313</v>
       </c>
-      <c r="G44" s="28" t="n">
+      <c r="G44" s="31" t="n">
         <v>-8.2511</v>
       </c>
       <c r="H44" s="0" t="n">
@@ -13550,28 +13840,34 @@
       <c r="J44" s="0" t="n">
         <v>-77809</v>
       </c>
-      <c r="K44" s="28" t="n">
+      <c r="K44" s="31" t="n">
         <v>1.1673</v>
       </c>
-      <c r="L44" s="29" t="n">
+      <c r="L44" s="32" t="n">
         <v>15373</v>
       </c>
-      <c r="M44" s="30" t="n">
+      <c r="M44" s="33" t="n">
         <v>1.1673</v>
       </c>
       <c r="N44" s="0" t="n">
         <v>15373</v>
       </c>
-      <c r="O44" s="28" t="n">
+      <c r="O44" s="31" t="n">
         <v>0.6671</v>
       </c>
-      <c r="P44" s="29" t="n">
+      <c r="P44" s="32" t="n">
         <v>10371</v>
       </c>
+      <c r="T44" s="30" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="U44" s="32" t="n">
+        <v>-11314</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -13580,13 +13876,13 @@
       <c r="D45" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="30" t="n">
+      <c r="E45" s="33" t="n">
         <v>-1.5017</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>-12617</v>
       </c>
-      <c r="G45" s="28" t="n">
+      <c r="G45" s="31" t="n">
         <v>-8.2512</v>
       </c>
       <c r="H45" s="0" t="n">
@@ -13598,28 +13894,34 @@
       <c r="J45" s="0" t="n">
         <v>-79107</v>
       </c>
-      <c r="K45" s="28" t="n">
+      <c r="K45" s="31" t="n">
         <v>1.1673</v>
       </c>
-      <c r="L45" s="29" t="n">
+      <c r="L45" s="32" t="n">
         <v>14073</v>
       </c>
-      <c r="M45" s="30" t="n">
+      <c r="M45" s="33" t="n">
         <v>1.1673</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>14073</v>
       </c>
-      <c r="O45" s="28" t="n">
+      <c r="O45" s="31" t="n">
         <v>0.6669</v>
       </c>
-      <c r="P45" s="29" t="n">
+      <c r="P45" s="32" t="n">
         <v>9069</v>
       </c>
+      <c r="T45" s="30" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="U45" s="32" t="n">
+        <v>-12618</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="44" t="s">
         <v>151</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -13628,89 +13930,104 @@
       <c r="D46" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="30" t="n">
+      <c r="E46" s="33" t="n">
         <v>15.0024</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>132223</v>
       </c>
-      <c r="G46" s="28" t="n">
+      <c r="G46" s="31" t="n">
         <v>-15</v>
       </c>
-      <c r="H46" s="29" t="n">
+      <c r="H46" s="32" t="n">
         <v>-167785</v>
       </c>
-      <c r="I46" s="28" t="n">
+      <c r="I46" s="31" t="n">
         <v>-15</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>-167858</v>
       </c>
-      <c r="K46" s="28" t="n">
+      <c r="K46" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="L46" s="29" t="n">
+      <c r="L46" s="32" t="n">
         <v>132224</v>
       </c>
-      <c r="M46" s="30" t="n">
+      <c r="M46" s="33" t="n">
         <v>-15</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>-167779</v>
       </c>
-      <c r="O46" s="28" t="n">
+      <c r="O46" s="31" t="n">
         <v>-15</v>
       </c>
-      <c r="P46" s="29" t="n">
+      <c r="P46" s="32" t="n">
         <v>-167778</v>
       </c>
-    </row>
-    <row r="47" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17"/>
-      <c r="B47" s="33" t="s">
+      <c r="T46" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="U46" s="32" t="n">
+        <v>132229</v>
+      </c>
+    </row>
+    <row r="47" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="18"/>
+      <c r="B47" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="34" t="n">
+      <c r="E47" s="37" t="n">
         <v>15</v>
       </c>
-      <c r="F47" s="32" t="n">
+      <c r="F47" s="35" t="n">
         <v>114409</v>
       </c>
-      <c r="G47" s="35" t="n">
+      <c r="G47" s="38" t="n">
         <v>-15.0018</v>
       </c>
-      <c r="H47" s="42" t="n">
+      <c r="H47" s="45" t="n">
         <v>-185598</v>
       </c>
-      <c r="I47" s="34" t="n">
+      <c r="I47" s="37" t="n">
         <v>-15</v>
       </c>
-      <c r="J47" s="32" t="n">
+      <c r="J47" s="35" t="n">
         <v>-185624</v>
       </c>
-      <c r="K47" s="35" t="n">
+      <c r="K47" s="38" t="n">
         <v>15.0002</v>
       </c>
-      <c r="L47" s="42" t="n">
+      <c r="L47" s="45" t="n">
         <v>114422</v>
       </c>
-      <c r="M47" s="34" t="n">
+      <c r="M47" s="37" t="n">
         <v>-15</v>
       </c>
-      <c r="N47" s="32" t="n">
+      <c r="N47" s="35" t="n">
         <v>-185586</v>
       </c>
-      <c r="O47" s="35" t="n">
+      <c r="O47" s="38" t="n">
         <v>-15.0006</v>
       </c>
-      <c r="P47" s="42" t="n">
+      <c r="P47" s="45" t="n">
         <v>-185586</v>
+      </c>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="38" t="n">
+        <v>15.0002</v>
+      </c>
+      <c r="U47" s="45" t="n">
+        <v>114420</v>
       </c>
       <c r="ALW47" s="0"/>
       <c r="ALX47" s="0"/>
@@ -13727,54 +14044,63 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46" t="s">
+    <row r="48" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="E48" s="49" t="n">
+      <c r="E48" s="52" t="n">
         <v>33</v>
       </c>
-      <c r="F48" s="48" t="n">
+      <c r="F48" s="51" t="n">
         <v>288431</v>
       </c>
-      <c r="G48" s="50" t="n">
+      <c r="G48" s="53" t="n">
         <v>-66.743</v>
       </c>
-      <c r="H48" s="51" t="n">
+      <c r="H48" s="54" t="n">
         <v>-708892</v>
       </c>
-      <c r="I48" s="49" t="n">
+      <c r="I48" s="52" t="n">
         <v>-48.1824</v>
       </c>
-      <c r="J48" s="48" t="n">
+      <c r="J48" s="51" t="n">
         <v>-523391</v>
       </c>
-      <c r="K48" s="50" t="n">
+      <c r="K48" s="53" t="n">
         <v>27.1</v>
       </c>
-      <c r="L48" s="51" t="n">
+      <c r="L48" s="54" t="n">
         <v>189372</v>
       </c>
-      <c r="M48" s="49" t="n">
+      <c r="M48" s="52" t="n">
         <v>23.1</v>
       </c>
-      <c r="N48" s="48" t="n">
+      <c r="N48" s="51" t="n">
         <v>189372</v>
       </c>
-      <c r="O48" s="50" t="n">
+      <c r="O48" s="53" t="n">
         <v>-1.2</v>
       </c>
-      <c r="P48" s="51" t="n">
+      <c r="P48" s="54" t="n">
         <v>-53715</v>
+      </c>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="53" t="n">
+        <v>33</v>
+      </c>
+      <c r="U48" s="54" t="n">
+        <v>288431</v>
       </c>
       <c r="ALW48" s="0"/>
       <c r="ALX48" s="0"/>
@@ -13791,53 +14117,62 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="s">
+    <row r="49" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="40" t="n">
+      <c r="E49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="F49" s="24" t="n">
+      <c r="F49" s="25" t="n">
         <v>-56174</v>
       </c>
-      <c r="G49" s="40" t="n">
+      <c r="G49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="H49" s="24" t="n">
+      <c r="H49" s="25" t="n">
         <v>-56174</v>
       </c>
-      <c r="I49" s="40" t="n">
+      <c r="I49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="J49" s="24" t="n">
+      <c r="J49" s="25" t="n">
         <v>-56174</v>
       </c>
-      <c r="K49" s="40" t="n">
+      <c r="K49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="L49" s="24" t="n">
+      <c r="L49" s="25" t="n">
         <v>-56174</v>
       </c>
-      <c r="M49" s="40" t="n">
+      <c r="M49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="N49" s="24" t="n">
+      <c r="N49" s="25" t="n">
         <v>-56174</v>
       </c>
-      <c r="O49" s="40" t="n">
+      <c r="O49" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="P49" s="24" t="n">
+      <c r="P49" s="25" t="n">
+        <v>-56174</v>
+      </c>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" s="25" t="n">
         <v>-56174</v>
       </c>
       <c r="ALW49" s="0"/>
@@ -13856,8 +14191,8 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="44" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -13866,46 +14201,52 @@
       <c r="D50" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="F50" s="29" t="n">
+      <c r="F50" s="32" t="n">
         <v>3881</v>
       </c>
-      <c r="G50" s="28" t="n">
+      <c r="G50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="H50" s="29" t="n">
+      <c r="H50" s="32" t="n">
         <v>3881</v>
       </c>
-      <c r="I50" s="28" t="n">
+      <c r="I50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="J50" s="29" t="n">
+      <c r="J50" s="32" t="n">
         <v>3881</v>
       </c>
-      <c r="K50" s="28" t="n">
+      <c r="K50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="L50" s="29" t="n">
+      <c r="L50" s="32" t="n">
         <v>3881</v>
       </c>
-      <c r="M50" s="28" t="n">
+      <c r="M50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="N50" s="29" t="n">
+      <c r="N50" s="32" t="n">
         <v>3881</v>
       </c>
-      <c r="O50" s="28" t="n">
+      <c r="O50" s="31" t="n">
         <v>-4</v>
       </c>
-      <c r="P50" s="29" t="n">
+      <c r="P50" s="32" t="n">
         <v>3881</v>
       </c>
+      <c r="T50" s="31" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U50" s="32" t="n">
+        <v>3881</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="44" t="s">
         <v>168</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -13914,88 +14255,103 @@
       <c r="D51" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="F51" s="29" t="n">
+      <c r="F51" s="32" t="n">
         <v>38245</v>
       </c>
-      <c r="G51" s="30" t="n">
+      <c r="G51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="H51" s="29" t="n">
+      <c r="H51" s="32" t="n">
         <v>38245</v>
       </c>
-      <c r="I51" s="30" t="n">
+      <c r="I51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="J51" s="29" t="n">
+      <c r="J51" s="32" t="n">
         <v>38245</v>
       </c>
-      <c r="K51" s="30" t="n">
+      <c r="K51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="L51" s="29" t="n">
+      <c r="L51" s="32" t="n">
         <v>38245</v>
       </c>
-      <c r="M51" s="30" t="n">
+      <c r="M51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="N51" s="29" t="n">
+      <c r="N51" s="32" t="n">
         <v>38245</v>
       </c>
-      <c r="O51" s="30" t="n">
+      <c r="O51" s="33" t="n">
         <v>0.675</v>
       </c>
-      <c r="P51" s="29" t="n">
+      <c r="P51" s="32" t="n">
         <v>38245</v>
       </c>
-    </row>
-    <row r="52" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="33" t="s">
+      <c r="T51" s="31" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="U51" s="32" t="n">
+        <v>38245</v>
+      </c>
+    </row>
+    <row r="52" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18"/>
+      <c r="B52" s="36" t="s">
         <v>171</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="34" t="n">
+      <c r="E52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="F52" s="42" t="n">
+      <c r="F52" s="45" t="n">
         <v>27858</v>
       </c>
-      <c r="G52" s="34" t="n">
+      <c r="G52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="H52" s="42" t="n">
+      <c r="H52" s="45" t="n">
         <v>27858</v>
       </c>
-      <c r="I52" s="34" t="n">
+      <c r="I52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="J52" s="42" t="n">
+      <c r="J52" s="45" t="n">
         <v>27858</v>
       </c>
-      <c r="K52" s="34" t="n">
+      <c r="K52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="L52" s="42" t="n">
+      <c r="L52" s="45" t="n">
         <v>27858</v>
       </c>
-      <c r="M52" s="34" t="n">
+      <c r="M52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="N52" s="42" t="n">
+      <c r="N52" s="45" t="n">
         <v>27858</v>
       </c>
-      <c r="O52" s="34" t="n">
+      <c r="O52" s="37" t="n">
         <v>-0.675</v>
       </c>
-      <c r="P52" s="42" t="n">
+      <c r="P52" s="45" t="n">
+        <v>27858</v>
+      </c>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="38" t="n">
+        <v>-0.675</v>
+      </c>
+      <c r="U52" s="45" t="n">
         <v>27858</v>
       </c>
       <c r="ALW52" s="0"/>
@@ -14013,54 +14369,63 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
+    <row r="53" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E53" s="39" t="n">
+      <c r="E53" s="42" t="n">
         <v>40.9998</v>
       </c>
-      <c r="F53" s="19" t="n">
+      <c r="F53" s="20" t="n">
         <v>437498</v>
       </c>
-      <c r="G53" s="40" t="n">
+      <c r="G53" s="43" t="n">
         <v>40.9998</v>
       </c>
-      <c r="H53" s="24" t="n">
+      <c r="H53" s="25" t="n">
         <v>437498</v>
       </c>
-      <c r="I53" s="39" t="n">
+      <c r="I53" s="42" t="n">
         <v>40.9998</v>
       </c>
-      <c r="J53" s="19" t="n">
+      <c r="J53" s="20" t="n">
         <v>437498</v>
       </c>
-      <c r="K53" s="40" t="n">
+      <c r="K53" s="43" t="n">
         <v>41.0001</v>
       </c>
-      <c r="L53" s="24" t="n">
+      <c r="L53" s="25" t="n">
         <v>437501</v>
       </c>
-      <c r="M53" s="39" t="n">
+      <c r="M53" s="42" t="n">
         <v>41.0001</v>
       </c>
-      <c r="N53" s="19" t="n">
+      <c r="N53" s="20" t="n">
         <v>437501</v>
       </c>
-      <c r="O53" s="40" t="n">
+      <c r="O53" s="43" t="n">
         <v>41.0001</v>
       </c>
-      <c r="P53" s="24" t="n">
+      <c r="P53" s="25" t="n">
         <v>437501</v>
+      </c>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="43" t="n">
+        <v>40.9998</v>
+      </c>
+      <c r="U53" s="25" t="n">
+        <v>437498</v>
       </c>
       <c r="ALW53" s="0"/>
       <c r="ALX53" s="0"/>
@@ -14078,8 +14443,8 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17"/>
-      <c r="B54" s="25" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="29" t="s">
         <v>178</v>
       </c>
       <c r="C54" s="26" t="s">
@@ -14088,41 +14453,47 @@
       <c r="D54" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="52" t="n">
+      <c r="E54" s="57" t="n">
         <v>51.32</v>
       </c>
       <c r="F54" s="26" t="n">
         <v>477354</v>
       </c>
-      <c r="G54" s="53" t="n">
+      <c r="G54" s="58" t="n">
         <v>-52.1921</v>
       </c>
-      <c r="H54" s="54" t="n">
+      <c r="H54" s="28" t="n">
         <v>-557773</v>
       </c>
-      <c r="I54" s="52" t="n">
+      <c r="I54" s="57" t="n">
         <v>-13.9982</v>
       </c>
       <c r="J54" s="26" t="n">
         <v>-175795</v>
       </c>
-      <c r="K54" s="53" t="n">
+      <c r="K54" s="58" t="n">
         <v>46.1092</v>
       </c>
-      <c r="L54" s="54" t="n">
+      <c r="L54" s="28" t="n">
         <v>425265</v>
       </c>
-      <c r="M54" s="52" t="n">
+      <c r="M54" s="57" t="n">
         <v>46.1094</v>
       </c>
       <c r="N54" s="26" t="n">
         <v>425267</v>
       </c>
-      <c r="O54" s="53" t="n">
+      <c r="O54" s="58" t="n">
         <v>19.89</v>
       </c>
-      <c r="P54" s="54" t="n">
+      <c r="P54" s="28" t="n">
         <v>160131</v>
+      </c>
+      <c r="T54" s="58" t="n">
+        <v>32.466</v>
+      </c>
+      <c r="U54" s="28" t="n">
+        <v>288827</v>
       </c>
       <c r="ALW54" s="0"/>
       <c r="ALX54" s="0"/>
@@ -14139,52 +14510,61 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17"/>
-      <c r="B55" s="33" t="s">
+    <row r="55" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18"/>
+      <c r="B55" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="34" t="n">
+      <c r="E55" s="37" t="n">
         <v>-3.3653</v>
       </c>
-      <c r="F55" s="32" t="n">
+      <c r="F55" s="35" t="n">
         <v>-3</v>
       </c>
-      <c r="G55" s="35" t="n">
+      <c r="G55" s="38" t="n">
         <v>-3.3653</v>
       </c>
-      <c r="H55" s="42" t="n">
+      <c r="H55" s="45" t="n">
         <v>-3</v>
       </c>
-      <c r="I55" s="34" t="n">
+      <c r="I55" s="37" t="n">
         <v>-3.3653</v>
       </c>
-      <c r="J55" s="32" t="n">
+      <c r="J55" s="35" t="n">
         <v>-3</v>
       </c>
-      <c r="K55" s="35" t="n">
+      <c r="K55" s="38" t="n">
         <v>-3.3635</v>
       </c>
-      <c r="L55" s="42" t="n">
+      <c r="L55" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="M55" s="34" t="n">
+      <c r="M55" s="37" t="n">
         <v>-3.3635</v>
       </c>
-      <c r="N55" s="32" t="n">
+      <c r="N55" s="35" t="n">
         <v>15</v>
       </c>
-      <c r="O55" s="35" t="n">
+      <c r="O55" s="38" t="n">
         <v>-3.3648</v>
       </c>
-      <c r="P55" s="42" t="n">
+      <c r="P55" s="45" t="n">
         <v>2</v>
+      </c>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="38" t="n">
+        <v>-3.3653</v>
+      </c>
+      <c r="U55" s="45" t="n">
+        <v>-3</v>
       </c>
       <c r="ALW55" s="0"/>
       <c r="ALX55" s="0"/>
@@ -14201,59 +14581,68 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
+    <row r="56" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="55" t="n">
+      <c r="E56" s="59" t="n">
         <v>136</v>
       </c>
-      <c r="F56" s="24" t="n">
+      <c r="F56" s="25" t="n">
         <v>10406504</v>
       </c>
-      <c r="G56" s="55" t="n">
+      <c r="G56" s="59" t="n">
         <v>24.4104</v>
       </c>
-      <c r="H56" s="22" t="n">
+      <c r="H56" s="23" t="n">
         <v>4600216</v>
       </c>
-      <c r="I56" s="55" t="n">
+      <c r="I56" s="59" t="n">
         <v>50.9301</v>
       </c>
-      <c r="J56" s="24" t="n">
+      <c r="J56" s="25" t="n">
         <v>5980102</v>
       </c>
-      <c r="K56" s="55" t="n">
+      <c r="K56" s="59" t="n">
         <v>132</v>
       </c>
-      <c r="L56" s="22" t="n">
+      <c r="L56" s="23" t="n">
         <v>10198376</v>
       </c>
-      <c r="M56" s="55" t="n">
+      <c r="M56" s="59" t="n">
         <v>132</v>
       </c>
-      <c r="N56" s="22" t="n">
+      <c r="N56" s="23" t="n">
         <v>10198376</v>
       </c>
-      <c r="O56" s="55" t="n">
+      <c r="O56" s="59" t="n">
         <v>103.91</v>
       </c>
-      <c r="P56" s="22" t="n">
+      <c r="P56" s="23" t="n">
         <v>8736787</v>
       </c>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="55" t="n">
+        <v>117.533</v>
+      </c>
+      <c r="U56" s="25" t="n">
+        <v>9445608</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="44" t="s">
         <v>188</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -14262,46 +14651,52 @@
       <c r="D57" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="56" t="n">
+      <c r="E57" s="60" t="n">
         <v>136</v>
       </c>
-      <c r="F57" s="29" t="n">
+      <c r="F57" s="32" t="n">
         <v>7960975</v>
       </c>
-      <c r="G57" s="56" t="n">
+      <c r="G57" s="60" t="n">
         <v>12.81</v>
       </c>
-      <c r="H57" s="29" t="n">
+      <c r="H57" s="32" t="n">
         <v>1551088</v>
       </c>
-      <c r="I57" s="56" t="n">
+      <c r="I57" s="60" t="n">
         <v>42.81</v>
       </c>
-      <c r="J57" s="29" t="n">
+      <c r="J57" s="32" t="n">
         <v>3112063</v>
       </c>
-      <c r="K57" s="55" t="n">
+      <c r="K57" s="60" t="n">
         <v>132</v>
       </c>
-      <c r="L57" s="29" t="n">
+      <c r="L57" s="32" t="n">
         <v>7752848</v>
       </c>
-      <c r="M57" s="55" t="n">
+      <c r="M57" s="60" t="n">
         <v>132</v>
       </c>
-      <c r="N57" s="29" t="n">
+      <c r="N57" s="32" t="n">
         <v>7752848</v>
       </c>
-      <c r="O57" s="56" t="n">
+      <c r="O57" s="60" t="n">
         <v>100.43</v>
       </c>
-      <c r="P57" s="29" t="n">
+      <c r="P57" s="32" t="n">
         <v>6110187</v>
       </c>
+      <c r="T57" s="30" t="n">
+        <v>115.685</v>
+      </c>
+      <c r="U57" s="32" t="n">
+        <v>6903924</v>
+      </c>
     </row>
     <row r="58" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="29" t="s">
         <v>191</v>
       </c>
       <c r="C58" s="26" t="s">
@@ -14310,46 +14705,52 @@
       <c r="D58" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="56" t="n">
+      <c r="E58" s="60" t="n">
         <v>136</v>
       </c>
-      <c r="F58" s="54" t="n">
+      <c r="F58" s="28" t="n">
         <v>6764228</v>
       </c>
-      <c r="G58" s="56" t="n">
+      <c r="G58" s="60" t="n">
         <v>12.81</v>
       </c>
-      <c r="H58" s="29" t="n">
+      <c r="H58" s="32" t="n">
         <v>354340</v>
       </c>
-      <c r="I58" s="56" t="n">
+      <c r="I58" s="60" t="n">
         <v>42.81</v>
       </c>
-      <c r="J58" s="54" t="n">
+      <c r="J58" s="28" t="n">
         <v>1915315</v>
       </c>
-      <c r="K58" s="55" t="n">
+      <c r="K58" s="60" t="n">
         <v>132</v>
       </c>
-      <c r="L58" s="29" t="n">
+      <c r="L58" s="32" t="n">
         <v>6556100</v>
       </c>
-      <c r="M58" s="55" t="n">
+      <c r="M58" s="60" t="n">
         <v>132</v>
       </c>
-      <c r="N58" s="29" t="n">
+      <c r="N58" s="32" t="n">
         <v>6556100</v>
       </c>
-      <c r="O58" s="56" t="n">
+      <c r="O58" s="60" t="n">
         <v>100.43</v>
       </c>
-      <c r="P58" s="27" t="n">
+      <c r="P58" s="30" t="n">
         <v>4913439</v>
       </c>
+      <c r="T58" s="27" t="n">
+        <v>115.685</v>
+      </c>
+      <c r="U58" s="28" t="n">
+        <v>5707176</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="29" t="s">
         <v>194</v>
       </c>
       <c r="C59" s="26" t="s">
@@ -14358,144 +14759,165 @@
       <c r="D59" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="56" t="n">
+      <c r="E59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="F59" s="54" t="n">
+      <c r="F59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="G59" s="56" t="n">
+      <c r="G59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="H59" s="54" t="n">
+      <c r="H59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="I59" s="56" t="n">
+      <c r="I59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="J59" s="54" t="n">
+      <c r="J59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="K59" s="56" t="n">
+      <c r="K59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="L59" s="54" t="n">
+      <c r="L59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="M59" s="56" t="n">
+      <c r="M59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="N59" s="54" t="n">
+      <c r="N59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="O59" s="56" t="n">
+      <c r="O59" s="60" t="n">
         <v>-4.6</v>
       </c>
-      <c r="P59" s="54" t="n">
+      <c r="P59" s="28" t="n">
         <v>-332000</v>
       </c>
-    </row>
-    <row r="60" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="33" t="s">
+      <c r="T59" s="60" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="U59" s="28" t="n">
+        <v>-332000</v>
+      </c>
+    </row>
+    <row r="60" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18"/>
+      <c r="B60" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="57" t="n">
+      <c r="E60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="F60" s="44" t="n">
+      <c r="F60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="G60" s="57" t="n">
+      <c r="G60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="H60" s="44" t="n">
+      <c r="H60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="I60" s="57" t="n">
+      <c r="I60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="J60" s="44" t="n">
+      <c r="J60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="K60" s="57" t="n">
+      <c r="K60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="L60" s="44" t="n">
+      <c r="L60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="M60" s="57" t="n">
+      <c r="M60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="N60" s="44" t="n">
+      <c r="N60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="O60" s="57" t="n">
+      <c r="O60" s="61" t="n">
         <v>16.9</v>
       </c>
-      <c r="P60" s="44" t="n">
+      <c r="P60" s="47" t="n">
         <v>130000</v>
       </c>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="61" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="U60" s="47" t="n">
+        <v>130000</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="62" t="n">
-        <v>0</v>
+      <c r="E61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="30" t="n">
+        <v>408.46</v>
+      </c>
+      <c r="U61" s="32" t="n">
+        <v>10291914</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="58"/>
-      <c r="B62" s="63" t="s">
+      <c r="A62" s="63"/>
+      <c r="B62" s="68" t="s">
         <v>204</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -14540,10 +14962,16 @@
       <c r="P62" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T62" s="30" t="n">
+        <v>407.74</v>
+      </c>
+      <c r="U62" s="32" t="n">
+        <v>10273772</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="58"/>
-      <c r="B63" s="63" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="68" t="s">
         <v>207</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -14588,10 +15016,16 @@
       <c r="P63" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T63" s="30" t="n">
+        <v>407.74</v>
+      </c>
+      <c r="U63" s="32" t="n">
+        <v>10273772</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="58"/>
-      <c r="B64" s="63" t="s">
+      <c r="A64" s="63"/>
+      <c r="B64" s="68" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -14636,10 +15070,16 @@
       <c r="P64" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T64" s="30" t="n">
+        <v>-2.11971</v>
+      </c>
+      <c r="U64" s="32" t="n">
+        <v>-5341</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="58"/>
-      <c r="B65" s="63" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="68" t="s">
         <v>213</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -14684,71 +15124,84 @@
       <c r="P65" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="T65" s="30" t="n">
+        <v>-2.11971</v>
+      </c>
+      <c r="U65" s="32" t="n">
+        <v>-5341</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="58"/>
-      <c r="B66" s="64" t="s">
+      <c r="A66" s="63"/>
+      <c r="B66" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D66" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="67" t="n">
+      <c r="E66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" s="47" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E1:S1"/>
+  <mergeCells count="26">
+    <mergeCell ref="E1:U1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -14780,39 +15233,39 @@
   <dimension ref="1:30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="O61:P66 C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="68" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="68" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="73" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="73" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="73" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68"/>
+    <row r="1" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="73"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="AMJ1" s="68"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="AMJ1" s="73"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -15833,168 +16286,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="75" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+    <row r="3" s="80" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="AMJ3" s="71"/>
-    </row>
-    <row r="4" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68"/>
-      <c r="B4" s="72" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="AMJ3" s="76"/>
+    </row>
+    <row r="4" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="73"/>
+      <c r="B4" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68" t="n">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="76" t="n">
+      <c r="E4" s="81" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="AMJ4" s="68"/>
-    </row>
-    <row r="5" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
-      <c r="B5" s="72" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="AMJ4" s="73"/>
+    </row>
+    <row r="5" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="73"/>
+      <c r="B5" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="68" t="n">
+      <c r="D5" s="73" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="AMJ5" s="68"/>
-    </row>
-    <row r="6" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="72" t="s">
+      <c r="E5" s="81"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="AMJ5" s="73"/>
+    </row>
+    <row r="6" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="73"/>
+      <c r="B6" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="68" t="n">
+      <c r="D6" s="73" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="AMJ6" s="68"/>
-    </row>
-    <row r="7" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="72" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="AMJ6" s="73"/>
+    </row>
+    <row r="7" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="73"/>
+      <c r="B7" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="68" t="n">
+      <c r="D7" s="73" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="AMJ7" s="68"/>
-    </row>
-    <row r="8" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="72" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="AMJ7" s="73"/>
+    </row>
+    <row r="8" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="73"/>
+      <c r="B8" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="68" t="n">
+      <c r="D8" s="73" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="AMJ8" s="68"/>
-    </row>
-    <row r="9" s="69" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="72" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="AMJ8" s="73"/>
+    </row>
+    <row r="9" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="73"/>
+      <c r="B9" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68" t="n">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="AMJ9" s="68"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="AMJ9" s="73"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="n">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="79"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -16003,8 +16456,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -16013,82 +16466,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="89" t="s">
         <v>236</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="76"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="68" t="n">
+      <c r="C15" s="73" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="76"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="85" t="n">
+      <c r="C16" s="90" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="68" t="n">
+      <c r="C17" s="73" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="76"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="78" t="n">
+      <c r="C18" s="83" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -16115,188 +16568,188 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="80" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="87" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="87"/>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="89" t="s">
         <v>236</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="89" t="s">
         <v>236</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="93" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="77" t="s">
         <v>245</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="68" t="n">
+      <c r="F24" s="73" t="n">
         <v>25.5</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="76" t="n">
+      <c r="I24" s="81" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="77" t="s">
         <v>247</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="68" t="n">
+      <c r="F25" s="73" t="n">
         <v>-42.6</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="76" t="n">
+      <c r="I25" s="81" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="77" t="s">
         <v>249</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="73" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="68" t="n">
+      <c r="F26" s="73" t="n">
         <v>-17.25</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="I26" s="76" t="n">
+      <c r="I26" s="81" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="77" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="68" t="n">
+      <c r="C27" s="73" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="68" t="n">
+      <c r="F27" s="73" t="n">
         <v>46.1092</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="76"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="77" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="68" t="n">
+      <c r="C28" s="73" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="68" t="n">
+      <c r="F28" s="73" t="n">
         <v>46.1092</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="76"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="68" t="n">
+      <c r="C29" s="73" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="68" t="n">
+      <c r="F29" s="73" t="n">
         <v>19.5956</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="76"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="78" t="n">
+      <c r="C30" s="83" t="n">
         <v>55</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="79"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16329,7 +16782,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="1" sqref="O61:P66 G11"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16345,26 +16798,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -16379,38 +16832,38 @@
       <c r="F2" s="0" t="n">
         <v>-5276</v>
       </c>
-      <c r="G2" s="91" t="n">
+      <c r="G2" s="27" t="n">
         <v>2.33113</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="32" t="n">
         <v>-8851</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="93" t="n">
+      <c r="E3" s="97" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="93" t="n">
+      <c r="F3" s="97" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="94" t="n">
+      <c r="G3" s="98" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="95" t="n">
+      <c r="H3" s="99" t="n">
         <v>-6620</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -16425,15 +16878,15 @@
       <c r="F4" s="0" t="n">
         <v>-38578</v>
       </c>
-      <c r="G4" s="91" t="n">
+      <c r="G4" s="27" t="n">
         <v>-23.8594</v>
       </c>
-      <c r="H4" s="29" t="n">
+      <c r="H4" s="32" t="n">
         <v>-80476</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -16448,15 +16901,15 @@
       <c r="F5" s="0" t="n">
         <v>-354999</v>
       </c>
-      <c r="G5" s="91" t="n">
+      <c r="G5" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="H5" s="29" t="n">
+      <c r="H5" s="32" t="n">
         <v>289994</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>257</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -16468,11 +16921,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -16484,9 +16937,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16513,7 +16966,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="O61:P66 G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -16528,26 +16981,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="105" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="102"/>
-      <c r="D2" s="103" t="s">
+      <c r="A2" s="106"/>
+      <c r="D2" s="107" t="s">
         <v>264</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -16556,93 +17009,93 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="104"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
         <v>265</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="106" t="n">
+      <c r="E3" s="110" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="107" t="n">
+      <c r="F3" s="111" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="108" t="n">
+      <c r="G3" s="112" t="n">
         <f aca="false">'Modes A-F'!O54</f>
         <v>19.89</v>
       </c>
-      <c r="H3" s="109" t="n">
+      <c r="H3" s="113" t="n">
         <f aca="false">G3-F3</f>
         <v>0.786881018291666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="109" t="s">
         <v>267</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="107" t="n">
+      <c r="E4" s="111" t="n">
         <f aca="false">'Modes A-F'!K56</f>
         <v>132</v>
       </c>
-      <c r="F4" s="107" t="n">
+      <c r="F4" s="111" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
         <v>103.088913266688</v>
       </c>
-      <c r="G4" s="108" t="n">
+      <c r="G4" s="112" t="n">
         <f aca="false">'Modes A-F'!O56</f>
         <v>103.91</v>
       </c>
-      <c r="H4" s="109" t="n">
+      <c r="H4" s="113" t="n">
         <f aca="false">G4-F4</f>
         <v>0.821086733312242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="111" t="n">
+      <c r="B5" s="115" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="113" t="n">
+      <c r="E5" s="117" t="n">
         <f aca="false">'Modes A-F'!K57</f>
         <v>132</v>
       </c>
-      <c r="F5" s="113" t="n">
+      <c r="F5" s="117" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
         <v>99.6239028716503</v>
       </c>
-      <c r="G5" s="114" t="n">
+      <c r="G5" s="118" t="n">
         <f aca="false">'Modes A-F'!O57</f>
         <v>100.43</v>
       </c>
-      <c r="H5" s="109" t="n">
+      <c r="H5" s="113" t="n">
         <f aca="false">G5-F5</f>
         <v>0.806097128349677</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="109" t="n">
+      <c r="H6" s="113" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
         <v>0.804688293317862</v>
       </c>
@@ -16651,419 +17104,419 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="116" t="s">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="117" t="n">
+      <c r="G8" s="121" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="102"/>
-      <c r="D9" s="103" t="s">
+      <c r="A9" s="106"/>
+      <c r="D9" s="107" t="s">
         <v>264</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="104" t="n">
+      <c r="G9" s="108" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="109" t="s">
         <v>273</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="109" t="n">
+      <c r="E10" s="113" t="n">
         <f aca="false">'Modes A-F'!E54</f>
         <v>51.32</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="118" t="n">
+      <c r="F10" s="113"/>
+      <c r="G10" s="122" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
         <v>53.5014000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="109" t="s">
         <v>274</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="109" t="n">
+      <c r="E11" s="113" t="n">
         <f aca="false">'Modes A-F'!E57</f>
         <v>136</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="118" t="n">
+      <c r="F11" s="113"/>
+      <c r="G11" s="122" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
         <v>138.308400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="114" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="111" t="n">
+      <c r="B12" s="115" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112" t="s">
+      <c r="C12" s="115"/>
+      <c r="D12" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="119" t="n">
+      <c r="E12" s="123" t="n">
         <f aca="false">'Modes A-F'!E58</f>
         <v>136</v>
       </c>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120" t="n">
+      <c r="F12" s="123"/>
+      <c r="G12" s="124" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
         <v>138.539400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="116" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="G16" s="98" t="n">
+      <c r="G16" s="102" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="117"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="102"/>
-      <c r="D17" s="103" t="s">
+      <c r="A17" s="106"/>
+      <c r="D17" s="107" t="s">
         <v>264</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="121" t="n">
+      <c r="G17" s="62" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="125" t="s">
         <v>276</v>
       </c>
-      <c r="I17" s="104" t="n">
+      <c r="I17" s="108" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="109" t="s">
         <v>277</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="107" t="s">
         <v>278</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="123" t="n">
+      <c r="G18" s="126" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="104"/>
+      <c r="I18" s="108"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="102"/>
-      <c r="D19" s="103" t="s">
+      <c r="A19" s="106"/>
+      <c r="D19" s="107" t="s">
         <v>279</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="121" t="n">
+      <c r="G19" s="62" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="104"/>
+      <c r="I19" s="108"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="G20" s="124" t="s">
+      <c r="A20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="G20" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="I20" s="104"/>
+      <c r="I20" s="108"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="102"/>
-      <c r="F21" s="125" t="s">
+      <c r="A21" s="106"/>
+      <c r="F21" s="128" t="s">
         <v>262</v>
       </c>
-      <c r="I21" s="104"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="109" t="s">
         <v>265</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="109" t="n">
+      <c r="E22" s="113" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
         <v>-16.6463914229833</v>
       </c>
-      <c r="F22" s="126" t="n">
+      <c r="F22" s="129" t="n">
         <f aca="false">'Modes A-F'!I54</f>
         <v>-13.9982</v>
       </c>
-      <c r="G22" s="109" t="n">
+      <c r="G22" s="113" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
         <v>-11.69502924884</v>
       </c>
-      <c r="I22" s="104"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="109" t="s">
         <v>267</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="109" t="n">
+      <c r="E23" s="113" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
         <v>63.2392674801944</v>
       </c>
-      <c r="F23" s="126" t="n">
+      <c r="F23" s="129" t="n">
         <f aca="false">'Modes A-F'!I56</f>
         <v>50.9301</v>
       </c>
-      <c r="G23" s="109" t="n">
+      <c r="G23" s="113" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
         <v>68.5398981480704</v>
       </c>
-      <c r="I23" s="104"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="111" t="n">
+      <c r="B24" s="115" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112" t="s">
+      <c r="C24" s="115"/>
+      <c r="D24" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="119" t="n">
+      <c r="E24" s="123" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
         <v>54.5188517843995</v>
       </c>
-      <c r="F24" s="127" t="n">
+      <c r="F24" s="130" t="n">
         <f aca="false">'Modes A-F'!I57</f>
         <v>42.81</v>
       </c>
-      <c r="G24" s="128" t="n">
+      <c r="G24" s="131" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
         <v>60.454766090482</v>
       </c>
-      <c r="H24" s="111"/>
-      <c r="I24" s="129"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="132"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="116" t="s">
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="120" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="98" t="n">
+      <c r="G28" s="102" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="98"/>
-      <c r="I28" s="117"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="121"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="102"/>
-      <c r="D29" s="103" t="s">
+      <c r="A29" s="106"/>
+      <c r="D29" s="107" t="s">
         <v>264</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="121" t="n">
+      <c r="G29" s="62" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="125" t="s">
         <v>276</v>
       </c>
-      <c r="I29" s="104" t="n">
+      <c r="I29" s="108" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="109" t="s">
         <v>277</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="107" t="s">
         <v>278</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="123" t="n">
+      <c r="G30" s="126" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="104"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="102"/>
-      <c r="D31" s="103" t="s">
+      <c r="A31" s="106"/>
+      <c r="D31" s="107" t="s">
         <v>279</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="121" t="n">
+      <c r="G31" s="62" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="104"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="G32" s="124" t="s">
+      <c r="A32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="G32" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="I32" s="104"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="102"/>
-      <c r="F33" s="125" t="s">
+      <c r="A33" s="106"/>
+      <c r="F33" s="128" t="s">
         <v>262</v>
       </c>
-      <c r="I33" s="104"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="109" t="s">
         <v>265</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="109" t="n">
+      <c r="E34" s="113" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
         <v>-43.6546236638297</v>
       </c>
-      <c r="F34" s="126" t="n">
+      <c r="F34" s="129" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-52.1921</v>
       </c>
-      <c r="G34" s="109" t="n">
+      <c r="G34" s="113" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
         <v>-38.7030007866982</v>
       </c>
-      <c r="I34" s="104"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="109" t="s">
         <v>267</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="103" t="s">
+      <c r="D35" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="109" t="n">
+      <c r="E35" s="113" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
         <v>34.3258777773465</v>
       </c>
-      <c r="F35" s="126" t="n">
+      <c r="F35" s="129" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="109" t="n">
+      <c r="G35" s="113" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
         <v>39.6267875381681</v>
       </c>
-      <c r="I35" s="104"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="111" t="n">
+      <c r="B36" s="115" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112" t="s">
+      <c r="C36" s="115"/>
+      <c r="D36" s="116" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="119" t="n">
+      <c r="E36" s="123" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
         <v>22.140175674289</v>
       </c>
-      <c r="F36" s="127" t="n">
+      <c r="F36" s="130" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="119" t="n">
+      <c r="G36" s="123" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
         <v>28.0764025227675</v>
       </c>
-      <c r="H36" s="111"/>
-      <c r="I36" s="129"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17089,7 +17542,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O61:P66 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17166,7 +17619,7 @@
       <c r="A9" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="131" t="n">
+      <c r="B9" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17190,7 +17643,7 @@
       <c r="A12" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="131" t="n">
+      <c r="B12" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17286,7 +17739,7 @@
       <c r="A24" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="131" t="n">
+      <c r="B24" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17310,7 +17763,7 @@
       <c r="A27" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="131" t="n">
+      <c r="B27" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17406,7 +17859,7 @@
       <c r="A39" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B39" s="131" t="n">
+      <c r="B39" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17430,7 +17883,7 @@
       <c r="A42" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B42" s="131" t="n">
+      <c r="B42" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17526,7 +17979,7 @@
       <c r="A54" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B54" s="131" t="n">
+      <c r="B54" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17550,7 +18003,7 @@
       <c r="A57" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B57" s="131" t="n">
+      <c r="B57" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17614,7 +18067,7 @@
       <c r="A65" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B65" s="131" t="n">
+      <c r="B65" s="134" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -17622,7 +18075,7 @@
       <c r="A66" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B66" s="131" t="n">
+      <c r="B66" s="134" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -17630,7 +18083,7 @@
       <c r="A67" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="131" t="n">
+      <c r="B67" s="134" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -17638,7 +18091,7 @@
       <c r="A68" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B68" s="131" t="n">
+      <c r="B68" s="134" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -17958,7 +18411,7 @@
       <c r="A108" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B108" s="131" t="n">
+      <c r="B108" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17982,7 +18435,7 @@
       <c r="A111" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B111" s="131" t="n">
+      <c r="B111" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18078,7 +18531,7 @@
       <c r="A123" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B123" s="131" t="n">
+      <c r="B123" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18102,7 +18555,7 @@
       <c r="A126" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B126" s="131" t="n">
+      <c r="B126" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18198,7 +18651,7 @@
       <c r="A138" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B138" s="131" t="n">
+      <c r="B138" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18222,7 +18675,7 @@
       <c r="A141" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B141" s="131" t="n">
+      <c r="B141" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18318,7 +18771,7 @@
       <c r="A153" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B153" s="131" t="n">
+      <c r="B153" s="134" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18342,7 +18795,7 @@
       <c r="A156" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B156" s="131" t="n">
+      <c r="B156" s="134" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18406,7 +18859,7 @@
       <c r="A164" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B164" s="131" t="n">
+      <c r="B164" s="134" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -18414,7 +18867,7 @@
       <c r="A165" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B165" s="131" t="n">
+      <c r="B165" s="134" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -18422,7 +18875,7 @@
       <c r="A166" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B166" s="131" t="n">
+      <c r="B166" s="134" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -18430,7 +18883,7 @@
       <c r="A167" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B167" s="131" t="n">
+      <c r="B167" s="134" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -18566,7 +19019,7 @@
       <c r="A184" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B184" s="131" t="n">
+      <c r="B184" s="134" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -18574,7 +19027,7 @@
       <c r="A185" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B185" s="131" t="n">
+      <c r="B185" s="134" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -18606,7 +19059,7 @@
       <c r="A189" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B189" s="131" t="n">
+      <c r="B189" s="134" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -18630,7 +19083,7 @@
       <c r="A192" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B192" s="131" t="n">
+      <c r="B192" s="134" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -18638,7 +19091,7 @@
       <c r="A193" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B193" s="131" t="n">
+      <c r="B193" s="134" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -18646,7 +19099,7 @@
       <c r="A194" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B194" s="131" t="n">
+      <c r="B194" s="134" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -18654,7 +19107,7 @@
       <c r="A195" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B195" s="131" t="n">
+      <c r="B195" s="134" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -20078,40 +20531,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="131" t="n">
+      <c r="C337" s="134" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="131" t="n">
+      <c r="D337" s="134" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="131" t="n">
+      <c r="E337" s="134" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="131" t="n">
+      <c r="F337" s="134" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="131" t="n">
+      <c r="G337" s="134" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="131" t="n">
+      <c r="H337" s="134" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="131" t="n">
+      <c r="I337" s="134" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="131" t="n">
+      <c r="J337" s="134" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="131" t="n">
+      <c r="K337" s="134" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="131" t="n">
+      <c r="L337" s="134" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="131" t="n">
+      <c r="M337" s="134" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="131" t="n">
+      <c r="N337" s="134" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -20122,40 +20575,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="131" t="n">
+      <c r="C338" s="134" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="131" t="n">
+      <c r="D338" s="134" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="131" t="n">
+      <c r="E338" s="134" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="131" t="n">
+      <c r="F338" s="134" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="131" t="n">
+      <c r="G338" s="134" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="131" t="n">
+      <c r="H338" s="134" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="131" t="n">
+      <c r="I338" s="134" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="131" t="n">
+      <c r="J338" s="134" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="131" t="n">
+      <c r="K338" s="134" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="131" t="n">
+      <c r="L338" s="134" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="131" t="n">
+      <c r="M338" s="134" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="131" t="n">
+      <c r="N338" s="134" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -20166,40 +20619,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="131" t="n">
+      <c r="C339" s="134" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="131" t="n">
+      <c r="D339" s="134" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="131" t="n">
+      <c r="E339" s="134" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="131" t="n">
+      <c r="F339" s="134" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="131" t="n">
+      <c r="G339" s="134" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="131" t="n">
+      <c r="H339" s="134" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="131" t="n">
+      <c r="I339" s="134" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="131" t="n">
+      <c r="J339" s="134" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="131" t="n">
+      <c r="K339" s="134" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="131" t="n">
+      <c r="L339" s="134" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="131" t="n">
+      <c r="M339" s="134" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="131" t="n">
+      <c r="N339" s="134" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -20210,40 +20663,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="131" t="n">
+      <c r="C340" s="134" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="131" t="n">
+      <c r="D340" s="134" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="131" t="n">
+      <c r="E340" s="134" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="131" t="n">
+      <c r="F340" s="134" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="131" t="n">
+      <c r="G340" s="134" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="131" t="n">
+      <c r="H340" s="134" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="131" t="n">
+      <c r="I340" s="134" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="131" t="n">
+      <c r="J340" s="134" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="131" t="n">
+      <c r="K340" s="134" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="131" t="n">
+      <c r="L340" s="134" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="131" t="n">
+      <c r="M340" s="134" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="131" t="n">
+      <c r="N340" s="134" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -20958,40 +21411,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="131" t="n">
+      <c r="C357" s="134" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="131" t="n">
+      <c r="D357" s="134" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="131" t="n">
+      <c r="E357" s="134" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="131" t="n">
+      <c r="F357" s="134" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="131" t="n">
+      <c r="G357" s="134" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="131" t="n">
+      <c r="H357" s="134" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="131" t="n">
+      <c r="I357" s="134" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="131" t="n">
+      <c r="J357" s="134" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="131" t="n">
+      <c r="K357" s="134" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="131" t="n">
+      <c r="L357" s="134" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="131" t="n">
+      <c r="M357" s="134" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="131" t="n">
+      <c r="N357" s="134" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -21002,40 +21455,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="131" t="n">
+      <c r="C358" s="134" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="131" t="n">
+      <c r="D358" s="134" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="131" t="n">
+      <c r="E358" s="134" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="131" t="n">
+      <c r="F358" s="134" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="131" t="n">
+      <c r="G358" s="134" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="131" t="n">
+      <c r="H358" s="134" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="131" t="n">
+      <c r="I358" s="134" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="131" t="n">
+      <c r="J358" s="134" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="131" t="n">
+      <c r="K358" s="134" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="131" t="n">
+      <c r="L358" s="134" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="131" t="n">
+      <c r="M358" s="134" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="131" t="n">
+      <c r="N358" s="134" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -21046,40 +21499,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="131" t="n">
+      <c r="C359" s="134" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="131" t="n">
+      <c r="D359" s="134" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="131" t="n">
+      <c r="E359" s="134" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="131" t="n">
+      <c r="F359" s="134" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="131" t="n">
+      <c r="G359" s="134" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="131" t="n">
+      <c r="H359" s="134" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="131" t="n">
+      <c r="I359" s="134" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="131" t="n">
+      <c r="J359" s="134" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="131" t="n">
+      <c r="K359" s="134" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="131" t="n">
+      <c r="L359" s="134" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="131" t="n">
+      <c r="M359" s="134" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="131" t="n">
+      <c r="N359" s="134" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -21090,40 +21543,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="131" t="n">
+      <c r="C360" s="134" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="131" t="n">
+      <c r="D360" s="134" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="131" t="n">
+      <c r="E360" s="134" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="131" t="n">
+      <c r="F360" s="134" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="131" t="n">
+      <c r="G360" s="134" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="131" t="n">
+      <c r="H360" s="134" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="131" t="n">
+      <c r="I360" s="134" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="131" t="n">
+      <c r="J360" s="134" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="131" t="n">
+      <c r="K360" s="134" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="131" t="n">
+      <c r="L360" s="134" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="131" t="n">
+      <c r="M360" s="134" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="131" t="n">
+      <c r="N360" s="134" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -21266,7 +21719,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="131" t="n">
+      <c r="C364" s="134" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -21310,7 +21763,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="131" t="n">
+      <c r="C365" s="134" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -21354,7 +21807,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="131" t="n">
+      <c r="C366" s="134" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -21398,7 +21851,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="131" t="n">
+      <c r="C367" s="134" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -23161,7 +23614,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="O61:P66 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23175,13 +23628,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="135" t="s">
         <v>811</v>
       </c>
-      <c r="C1" s="132" t="n">
+      <c r="C1" s="135" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="135" t="s">
         <v>812</v>
       </c>
     </row>
@@ -23189,10 +23642,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="135" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="132" t="n">
+      <c r="C2" s="135" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -23200,10 +23653,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="135" t="s">
         <v>814</v>
       </c>
-      <c r="C3" s="132" t="n">
+      <c r="C3" s="135" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -23307,7 +23760,7 @@
       <c r="B16" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="C16" s="131" t="n">
+      <c r="C16" s="134" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -23315,7 +23768,7 @@
       <c r="B17" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C17" s="131" t="n">
+      <c r="C17" s="134" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -23323,7 +23776,7 @@
       <c r="B18" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C18" s="131" t="n">
+      <c r="C18" s="134" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -23331,7 +23784,7 @@
       <c r="B19" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C19" s="131" t="n">
+      <c r="C19" s="134" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -23819,7 +24272,7 @@
       <c r="B80" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="C80" s="131" t="n">
+      <c r="C80" s="134" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -23867,7 +24320,7 @@
       <c r="B86" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="C86" s="131" t="n">
+      <c r="C86" s="134" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -23899,7 +24352,7 @@
       <c r="B90" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="C90" s="131" t="n">
+      <c r="C90" s="134" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -23987,7 +24440,7 @@
       <c r="B101" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="C101" s="131" t="n">
+      <c r="C101" s="134" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -24163,7 +24616,7 @@
       <c r="B123" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="C123" s="131" t="n">
+      <c r="C123" s="134" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -24227,7 +24680,7 @@
       <c r="B131" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="C131" s="131" t="n">
+      <c r="C131" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24243,7 +24696,7 @@
       <c r="B133" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="C133" s="131" t="n">
+      <c r="C133" s="134" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -24763,7 +25216,7 @@
       <c r="B198" s="0" t="s">
         <v>1023</v>
       </c>
-      <c r="C198" s="131" t="n">
+      <c r="C198" s="134" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -24811,7 +25264,7 @@
       <c r="B204" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="C204" s="131" t="n">
+      <c r="C204" s="134" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -24843,7 +25296,7 @@
       <c r="B208" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="C208" s="131" t="n">
+      <c r="C208" s="134" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -24931,7 +25384,7 @@
       <c r="B219" s="0" t="s">
         <v>1044</v>
       </c>
-      <c r="C219" s="131" t="n">
+      <c r="C219" s="134" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -25107,7 +25560,7 @@
       <c r="B241" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="C241" s="131" t="n">
+      <c r="C241" s="134" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -25171,7 +25624,7 @@
       <c r="B249" s="0" t="s">
         <v>1075</v>
       </c>
-      <c r="C249" s="131" t="n">
+      <c r="C249" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25187,7 +25640,7 @@
       <c r="B251" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="C251" s="131" t="n">
+      <c r="C251" s="134" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -25707,7 +26160,7 @@
       <c r="B316" s="0" t="s">
         <v>1142</v>
       </c>
-      <c r="C316" s="131" t="n">
+      <c r="C316" s="134" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -25755,7 +26208,7 @@
       <c r="B322" s="0" t="s">
         <v>1148</v>
       </c>
-      <c r="C322" s="131" t="n">
+      <c r="C322" s="134" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -25787,7 +26240,7 @@
       <c r="B326" s="0" t="s">
         <v>1152</v>
       </c>
-      <c r="C326" s="131" t="n">
+      <c r="C326" s="134" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -25875,7 +26328,7 @@
       <c r="B337" s="0" t="s">
         <v>1163</v>
       </c>
-      <c r="C337" s="131" t="n">
+      <c r="C337" s="134" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -26051,7 +26504,7 @@
       <c r="B359" s="0" t="s">
         <v>1186</v>
       </c>
-      <c r="C359" s="131" t="n">
+      <c r="C359" s="134" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -26115,7 +26568,7 @@
       <c r="B367" s="0" t="s">
         <v>1194</v>
       </c>
-      <c r="C367" s="131" t="n">
+      <c r="C367" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26131,7 +26584,7 @@
       <c r="B369" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="C369" s="131" t="n">
+      <c r="C369" s="134" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -26651,7 +27104,7 @@
       <c r="B434" s="0" t="s">
         <v>1261</v>
       </c>
-      <c r="C434" s="131" t="n">
+      <c r="C434" s="134" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -26699,7 +27152,7 @@
       <c r="B440" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="C440" s="131" t="n">
+      <c r="C440" s="134" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -26731,7 +27184,7 @@
       <c r="B444" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="C444" s="131" t="n">
+      <c r="C444" s="134" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -26819,7 +27272,7 @@
       <c r="B455" s="0" t="s">
         <v>1282</v>
       </c>
-      <c r="C455" s="131" t="n">
+      <c r="C455" s="134" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -26995,7 +27448,7 @@
       <c r="B477" s="0" t="s">
         <v>1305</v>
       </c>
-      <c r="C477" s="131" t="n">
+      <c r="C477" s="134" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -27059,7 +27512,7 @@
       <c r="B485" s="0" t="s">
         <v>1313</v>
       </c>
-      <c r="C485" s="131" t="n">
+      <c r="C485" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27075,7 +27528,7 @@
       <c r="B487" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="C487" s="131" t="n">
+      <c r="C487" s="134" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -27163,7 +27616,7 @@
       <c r="B498" s="0" t="s">
         <v>1326</v>
       </c>
-      <c r="C498" s="131" t="n">
+      <c r="C498" s="134" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -27171,7 +27624,7 @@
       <c r="B499" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="C499" s="131" t="n">
+      <c r="C499" s="134" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -27179,7 +27632,7 @@
       <c r="B500" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C500" s="131" t="n">
+      <c r="C500" s="134" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -27187,7 +27640,7 @@
       <c r="B501" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C501" s="131" t="n">
+      <c r="C501" s="134" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -27755,7 +28208,7 @@
       <c r="B572" s="0" t="s">
         <v>1400</v>
       </c>
-      <c r="C572" s="131" t="n">
+      <c r="C572" s="134" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -27803,7 +28256,7 @@
       <c r="B578" s="0" t="s">
         <v>1406</v>
       </c>
-      <c r="C578" s="131" t="n">
+      <c r="C578" s="134" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -27835,7 +28288,7 @@
       <c r="B582" s="0" t="s">
         <v>1410</v>
       </c>
-      <c r="C582" s="131" t="n">
+      <c r="C582" s="134" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -27923,7 +28376,7 @@
       <c r="B593" s="0" t="s">
         <v>1421</v>
       </c>
-      <c r="C593" s="131" t="n">
+      <c r="C593" s="134" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -28099,7 +28552,7 @@
       <c r="B615" s="0" t="s">
         <v>1444</v>
       </c>
-      <c r="C615" s="131" t="n">
+      <c r="C615" s="134" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -28163,7 +28616,7 @@
       <c r="B623" s="0" t="s">
         <v>1452</v>
       </c>
-      <c r="C623" s="131" t="n">
+      <c r="C623" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28179,7 +28632,7 @@
       <c r="B625" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="C625" s="131" t="n">
+      <c r="C625" s="134" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -28699,7 +29152,7 @@
       <c r="B690" s="0" t="s">
         <v>1519</v>
       </c>
-      <c r="C690" s="131" t="n">
+      <c r="C690" s="134" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -28747,7 +29200,7 @@
       <c r="B696" s="0" t="s">
         <v>1525</v>
       </c>
-      <c r="C696" s="131" t="n">
+      <c r="C696" s="134" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -28779,7 +29232,7 @@
       <c r="B700" s="0" t="s">
         <v>1529</v>
       </c>
-      <c r="C700" s="131" t="n">
+      <c r="C700" s="134" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -28867,7 +29320,7 @@
       <c r="B711" s="0" t="s">
         <v>1540</v>
       </c>
-      <c r="C711" s="131" t="n">
+      <c r="C711" s="134" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -29043,7 +29496,7 @@
       <c r="B733" s="0" t="s">
         <v>1563</v>
       </c>
-      <c r="C733" s="131" t="n">
+      <c r="C733" s="134" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -29107,7 +29560,7 @@
       <c r="B741" s="0" t="s">
         <v>1571</v>
       </c>
-      <c r="C741" s="131" t="n">
+      <c r="C741" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -29123,7 +29576,7 @@
       <c r="B743" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="C743" s="131" t="n">
+      <c r="C743" s="134" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -29679,7 +30132,7 @@
       <c r="B811" s="0" t="s">
         <v>1649</v>
       </c>
-      <c r="C811" s="131" t="n">
+      <c r="C811" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30195,7 +30648,7 @@
       <c r="B874" s="0" t="s">
         <v>1714</v>
       </c>
-      <c r="C874" s="131" t="n">
+      <c r="C874" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30711,7 +31164,7 @@
       <c r="B937" s="0" t="s">
         <v>1779</v>
       </c>
-      <c r="C937" s="131" t="n">
+      <c r="C937" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31227,7 +31680,7 @@
       <c r="B1000" s="0" t="s">
         <v>1844</v>
       </c>
-      <c r="C1000" s="131" t="n">
+      <c r="C1000" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31743,7 +32196,7 @@
       <c r="B1063" s="0" t="s">
         <v>1909</v>
       </c>
-      <c r="C1063" s="131" t="n">
+      <c r="C1063" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32259,7 +32712,7 @@
       <c r="B1126" s="0" t="s">
         <v>1974</v>
       </c>
-      <c r="C1126" s="131" t="n">
+      <c r="C1126" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32775,7 +33228,7 @@
       <c r="B1189" s="0" t="s">
         <v>2039</v>
       </c>
-      <c r="C1189" s="131" t="n">
+      <c r="C1189" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33291,7 +33744,7 @@
       <c r="B1252" s="0" t="s">
         <v>2104</v>
       </c>
-      <c r="C1252" s="131" t="n">
+      <c r="C1252" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33807,7 +34260,7 @@
       <c r="B1315" s="0" t="s">
         <v>2169</v>
       </c>
-      <c r="C1315" s="131" t="n">
+      <c r="C1315" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34323,7 +34776,7 @@
       <c r="B1378" s="0" t="s">
         <v>2234</v>
       </c>
-      <c r="C1378" s="131" t="n">
+      <c r="C1378" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34839,7 +35292,7 @@
       <c r="B1441" s="0" t="s">
         <v>2299</v>
       </c>
-      <c r="C1441" s="131" t="n">
+      <c r="C1441" s="134" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35287,7 +35740,7 @@
       <c r="B1497" s="0" t="s">
         <v>2358</v>
       </c>
-      <c r="C1497" s="131" t="n">
+      <c r="C1497" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -35913,7 +36366,7 @@
       <c r="B1576" s="0" t="s">
         <v>2442</v>
       </c>
-      <c r="C1576" s="131" t="n">
+      <c r="C1576" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36082,7 +36535,7 @@
       <c r="B1596" s="0" t="s">
         <v>2464</v>
       </c>
-      <c r="C1596" s="131" t="n">
+      <c r="C1596" s="134" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36090,7 +36543,7 @@
       <c r="B1597" s="0" t="s">
         <v>2465</v>
       </c>
-      <c r="C1597" s="131" t="n">
+      <c r="C1597" s="134" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36970,7 +37423,7 @@
       <c r="B1707" s="0" t="s">
         <v>2576</v>
       </c>
-      <c r="C1707" s="131" t="n">
+      <c r="C1707" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36986,7 +37439,7 @@
       <c r="B1709" s="0" t="s">
         <v>2578</v>
       </c>
-      <c r="C1709" s="131" t="n">
+      <c r="C1709" s="134" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -37506,7 +37959,7 @@
       <c r="B1774" s="0" t="s">
         <v>2643</v>
       </c>
-      <c r="C1774" s="131" t="n">
+      <c r="C1774" s="134" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -37586,7 +38039,7 @@
       <c r="B1784" s="0" t="s">
         <v>2653</v>
       </c>
-      <c r="C1784" s="131" t="n">
+      <c r="C1784" s="134" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -37674,7 +38127,7 @@
       <c r="B1795" s="0" t="s">
         <v>2664</v>
       </c>
-      <c r="C1795" s="131" t="n">
+      <c r="C1795" s="134" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -37850,7 +38303,7 @@
       <c r="B1817" s="0" t="s">
         <v>2687</v>
       </c>
-      <c r="C1817" s="131" t="n">
+      <c r="C1817" s="134" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -37914,7 +38367,7 @@
       <c r="B1825" s="0" t="s">
         <v>2695</v>
       </c>
-      <c r="C1825" s="131" t="n">
+      <c r="C1825" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37930,7 +38383,7 @@
       <c r="B1827" s="0" t="s">
         <v>2697</v>
       </c>
-      <c r="C1827" s="131" t="n">
+      <c r="C1827" s="134" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -38533,7 +38986,7 @@
       <c r="B1902" s="0" t="s">
         <v>2774</v>
       </c>
-      <c r="C1902" s="131" t="n">
+      <c r="C1902" s="134" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -38581,7 +39034,7 @@
       <c r="B1908" s="0" t="s">
         <v>2780</v>
       </c>
-      <c r="C1908" s="131" t="n">
+      <c r="C1908" s="134" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -38613,7 +39066,7 @@
       <c r="B1912" s="0" t="s">
         <v>2784</v>
       </c>
-      <c r="C1912" s="131" t="n">
+      <c r="C1912" s="134" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -38701,7 +39154,7 @@
       <c r="B1923" s="0" t="s">
         <v>2795</v>
       </c>
-      <c r="C1923" s="131" t="n">
+      <c r="C1923" s="134" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -38877,7 +39330,7 @@
       <c r="B1945" s="0" t="s">
         <v>2818</v>
       </c>
-      <c r="C1945" s="131" t="n">
+      <c r="C1945" s="134" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -38941,7 +39394,7 @@
       <c r="B1953" s="0" t="s">
         <v>2826</v>
       </c>
-      <c r="C1953" s="131" t="n">
+      <c r="C1953" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38957,7 +39410,7 @@
       <c r="B1955" s="0" t="s">
         <v>2828</v>
       </c>
-      <c r="C1955" s="131" t="n">
+      <c r="C1955" s="134" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -39477,7 +39930,7 @@
       <c r="B2020" s="0" t="s">
         <v>2893</v>
       </c>
-      <c r="C2020" s="131" t="n">
+      <c r="C2020" s="134" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -39525,7 +39978,7 @@
       <c r="B2026" s="0" t="s">
         <v>2899</v>
       </c>
-      <c r="C2026" s="131" t="n">
+      <c r="C2026" s="134" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -39557,7 +40010,7 @@
       <c r="B2030" s="0" t="s">
         <v>2903</v>
       </c>
-      <c r="C2030" s="131" t="n">
+      <c r="C2030" s="134" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -39645,7 +40098,7 @@
       <c r="B2041" s="0" t="s">
         <v>2914</v>
       </c>
-      <c r="C2041" s="131" t="n">
+      <c r="C2041" s="134" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -39821,7 +40274,7 @@
       <c r="B2063" s="0" t="s">
         <v>2937</v>
       </c>
-      <c r="C2063" s="131" t="n">
+      <c r="C2063" s="134" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -39885,7 +40338,7 @@
       <c r="B2071" s="0" t="s">
         <v>2945</v>
       </c>
-      <c r="C2071" s="131" t="n">
+      <c r="C2071" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39901,7 +40354,7 @@
       <c r="B2073" s="0" t="s">
         <v>2947</v>
       </c>
-      <c r="C2073" s="131" t="n">
+      <c r="C2073" s="134" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -40421,7 +40874,7 @@
       <c r="B2138" s="0" t="s">
         <v>3012</v>
       </c>
-      <c r="C2138" s="131" t="n">
+      <c r="C2138" s="134" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -40469,7 +40922,7 @@
       <c r="B2144" s="0" t="s">
         <v>3018</v>
       </c>
-      <c r="C2144" s="131" t="n">
+      <c r="C2144" s="134" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -40501,7 +40954,7 @@
       <c r="B2148" s="0" t="s">
         <v>3022</v>
       </c>
-      <c r="C2148" s="131" t="n">
+      <c r="C2148" s="134" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -40589,7 +41042,7 @@
       <c r="B2159" s="0" t="s">
         <v>3033</v>
       </c>
-      <c r="C2159" s="131" t="n">
+      <c r="C2159" s="134" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -40765,7 +41218,7 @@
       <c r="B2181" s="0" t="s">
         <v>3056</v>
       </c>
-      <c r="C2181" s="131" t="n">
+      <c r="C2181" s="134" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -40829,7 +41282,7 @@
       <c r="B2189" s="0" t="s">
         <v>3064</v>
       </c>
-      <c r="C2189" s="131" t="n">
+      <c r="C2189" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40845,7 +41298,7 @@
       <c r="B2191" s="0" t="s">
         <v>3066</v>
       </c>
-      <c r="C2191" s="131" t="n">
+      <c r="C2191" s="134" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -41421,7 +41874,7 @@
       <c r="B2263" s="0" t="s">
         <v>3141</v>
       </c>
-      <c r="C2263" s="131" t="n">
+      <c r="C2263" s="134" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41708,7 +42161,7 @@
       <c r="F2297" s="0" t="s">
         <v>3186</v>
       </c>
-      <c r="G2297" s="133" t="n">
+      <c r="G2297" s="136" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -41800,7 +42253,7 @@
       <c r="B2307" s="0" t="s">
         <v>3200</v>
       </c>
-      <c r="C2307" s="131" t="n">
+      <c r="C2307" s="134" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -41886,7 +42339,7 @@
       <c r="B2317" s="0" t="s">
         <v>3216</v>
       </c>
-      <c r="C2317" s="131" t="n">
+      <c r="C2317" s="134" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -41894,7 +42347,7 @@
       <c r="B2318" s="0" t="s">
         <v>3217</v>
       </c>
-      <c r="C2318" s="131" t="n">
+      <c r="C2318" s="134" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -41910,7 +42363,7 @@
       <c r="B2320" s="0" t="s">
         <v>3219</v>
       </c>
-      <c r="C2320" s="131" t="n">
+      <c r="C2320" s="134" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -41958,7 +42411,7 @@
       <c r="C2326" s="0" t="s">
         <v>3227</v>
       </c>
-      <c r="D2326" s="134" t="n">
+      <c r="D2326" s="137" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -42009,7 +42462,7 @@
       <c r="C2332" s="0" t="s">
         <v>3235</v>
       </c>
-      <c r="D2332" s="134" t="n">
+      <c r="D2332" s="137" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -42028,7 +42481,7 @@
       <c r="D2334" s="0" t="s">
         <v>3238</v>
       </c>
-      <c r="E2334" s="134" t="n">
+      <c r="E2334" s="137" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -42086,7 +42539,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="134" t="n">
+      <c r="F2339" s="137" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -42558,7 +43011,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="134" t="n">
+      <c r="F2380" s="137" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -399,7 +399,7 @@
             <charset val="1"/>
           </rPr>
           <t>vertical = -4.349
- pitch =   2.700
+ pitch =   2.736
  roll =   0.000
  yaw  =  0.200</t>
         </r>
@@ -11586,11 +11586,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="P45" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="I38" activeCellId="0" sqref="I38"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="T39" activeCellId="0" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13490,10 +13490,10 @@
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="55" t="n">
-        <v>-6.08773</v>
+        <v>-6.11104</v>
       </c>
       <c r="U37" s="25" t="n">
-        <v>-54377</v>
+        <v>-54610</v>
       </c>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
@@ -13563,10 +13563,10 @@
         <v>51098</v>
       </c>
       <c r="T38" s="30" t="n">
-        <v>-2.61007</v>
+        <v>-2.58686</v>
       </c>
       <c r="U38" s="32" t="n">
-        <v>-35001</v>
+        <v>-34768</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,10 +13617,10 @@
         <v>56998</v>
       </c>
       <c r="T39" s="30" t="n">
-        <v>-2.61017</v>
+        <v>-2.58696</v>
       </c>
       <c r="U39" s="32" t="n">
-        <v>-29102</v>
+        <v>-28869</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14575,10 +14575,10 @@
         <v>160131</v>
       </c>
       <c r="T54" s="58" t="n">
-        <v>32.466</v>
+        <v>33.3556</v>
       </c>
       <c r="U54" s="28" t="n">
-        <v>288827</v>
+        <v>297749</v>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -48,7 +48,7 @@
             <charset val="1"/>
           </rPr>
           <t>vert = -4.35
-pitch = 3.5
+Pitch = 2.8
 lateral = 0.0
 yaw = 0.2</t>
         </r>
@@ -89,11 +89,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.15
-pitch = 3.225
+          <t>vert = -4.35
+Pitch = 2.8
 lateral = 0.0
-yaw = 0.053
-Note: underfocused!</t>
+yaw = 0.2</t>
         </r>
       </text>
     </comment>
@@ -133,11 +132,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.15
-pitch = 3.225
+          <t>vert = -4.35
+Pitch = 2.8
 lateral = 0.0
-yaw = 0.053
-Note: underfocused!</t>
+yaw = 0.2</t>
         </r>
       </text>
     </comment>
@@ -11586,11 +11584,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="T39" activeCellId="0" sqref="T39"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13451,22 +13449,22 @@
         <v>125</v>
       </c>
       <c r="E37" s="42" t="n">
-        <v>-6.60298</v>
+        <v>-6.1522</v>
       </c>
       <c r="F37" s="20" t="n">
-        <v>-59529</v>
+        <v>-55022</v>
       </c>
       <c r="G37" s="42" t="n">
-        <v>-6.2262</v>
+        <v>-6.1522</v>
       </c>
       <c r="H37" s="20" t="n">
-        <v>-55761</v>
+        <v>-55022</v>
       </c>
       <c r="I37" s="42" t="n">
-        <v>-6.2262</v>
+        <v>-6.1522</v>
       </c>
       <c r="J37" s="20" t="n">
-        <v>-55761</v>
+        <v>-55022</v>
       </c>
       <c r="K37" s="43" t="n">
         <v>6</v>
@@ -13527,22 +13525,22 @@
         <v>128</v>
       </c>
       <c r="E38" s="33" t="n">
-        <v>-2.09497</v>
+        <v>-2.5456</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-29850</v>
+        <v>-34356</v>
       </c>
       <c r="G38" s="33" t="n">
-        <v>-2.0722</v>
+        <v>-2.5456</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-29624</v>
+        <v>-34356</v>
       </c>
       <c r="I38" s="33" t="n">
-        <v>-2.0722</v>
+        <v>-2.5456</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>-29624</v>
+        <v>-34356</v>
       </c>
       <c r="K38" s="31" t="n">
         <v>6</v>
@@ -13581,22 +13579,22 @@
         <v>131</v>
       </c>
       <c r="E39" s="33" t="n">
-        <v>-2.09497</v>
+        <v>-2.5459</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-23949</v>
+        <v>-28458</v>
       </c>
       <c r="G39" s="33" t="n">
-        <v>-2.0722</v>
+        <v>-2.5459</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-23721</v>
+        <v>-28458</v>
       </c>
       <c r="I39" s="33" t="n">
-        <v>-2.0722</v>
+        <v>-2.5459</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-23721</v>
+        <v>-28458</v>
       </c>
       <c r="K39" s="31" t="n">
         <v>6</v>
@@ -13635,17 +13633,22 @@
         <v>134</v>
       </c>
       <c r="E40" s="33" t="n">
-        <v>-0.1287</v>
+        <v>-0.1283</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-13478</v>
+        <v>-13473</v>
       </c>
       <c r="G40" s="33" t="n">
-        <v>-0.129</v>
-      </c>
-      <c r="H40" s="0"/>
+        <v>-0.1283</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>-13473</v>
+      </c>
       <c r="I40" s="33" t="n">
-        <v>-0.129</v>
+        <v>-0.1283</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>-13473</v>
       </c>
       <c r="K40" s="33" t="n">
         <v>-0.415799999</v>
@@ -13684,17 +13687,22 @@
         <v>137</v>
       </c>
       <c r="E41" s="33" t="n">
-        <v>0.1289</v>
+        <v>0.1291</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-26210</v>
+        <v>-26209</v>
       </c>
       <c r="G41" s="33" t="n">
-        <v>-0.129</v>
-      </c>
-      <c r="H41" s="0"/>
+        <v>0.1291</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>-26209</v>
+      </c>
       <c r="I41" s="33" t="n">
-        <v>-0.129</v>
+        <v>0.1291</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>-26209</v>
       </c>
       <c r="K41" s="33" t="n">
         <v>-0.3847</v>
@@ -13733,22 +13741,22 @@
         <v>140</v>
       </c>
       <c r="E42" s="37" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="F42" s="35" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="G42" s="37" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="H42" s="35" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="I42" s="37" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="J42" s="35" t="n">
-        <v>190000</v>
+        <v>298590</v>
       </c>
       <c r="K42" s="38" t="n">
         <v>0</v>
@@ -14543,10 +14551,10 @@
         <v>180</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>51.32</v>
+        <v>35.143</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>477354</v>
+        <v>315607</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
@@ -14557,10 +14565,10 @@
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="58" t="n">
-        <v>46.1092</v>
+        <v>44.962</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>425265</v>
+        <v>413776</v>
       </c>
       <c r="M54" s="57" t="n">
         <v>46.1094</v>
@@ -15342,8 +15350,8 @@
   </sheetPr>
   <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17271,12 +17279,12 @@
       </c>
       <c r="E10" s="113" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>51.32</v>
+        <v>35.143</v>
       </c>
       <c r="F10" s="113"/>
       <c r="G10" s="122" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>53.5014000290853</v>
+        <v>37.3244000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17420,7 +17428,7 @@
       </c>
       <c r="E22" s="113" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-16.6463914229833</v>
+        <v>-32.8233914229833</v>
       </c>
       <c r="F22" s="129" t="n">
         <f aca="false">'Modes A-F'!I54</f>
@@ -17428,7 +17436,7 @@
       </c>
       <c r="G22" s="113" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-11.69502924884</v>
+        <v>-27.8720292488399</v>
       </c>
       <c r="I22" s="108"/>
     </row>
@@ -17582,7 +17590,7 @@
       </c>
       <c r="E34" s="113" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-43.6546236638297</v>
+        <v>-59.8316236638297</v>
       </c>
       <c r="F34" s="129" t="n">
         <f aca="false">'Modes A-F'!G54</f>
@@ -17590,7 +17598,7 @@
       </c>
       <c r="G34" s="113" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-38.7030007866982</v>
+        <v>-54.8800007866982</v>
       </c>
       <c r="I34" s="108"/>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -47,7 +47,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.35
+          <t>vert = -4.248
 Pitch = 2.8
 lateral = 0.0
 yaw = 0.2</t>
@@ -80,6 +80,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="E56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Vertical = 119
+Pitch = -1.8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>These values obtained by seeing spot on phosphor screen at upstream end of I0 and downstream end of Ir</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G37" authorId="0">
       <text>
         <r>
@@ -89,7 +113,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.35
+          <t>vert = -4.248
 Pitch = 2.8
 lateral = 0.0
 yaw = 0.2</t>
@@ -132,7 +156,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.35
+          <t>vert = -4.248
 Pitch = 2.8
 lateral = 0.0
 yaw = 0.2</t>
@@ -11588,7 +11612,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="F54" activeCellId="0" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="L58" activeCellId="0" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13449,19 +13473,19 @@
         <v>125</v>
       </c>
       <c r="E37" s="42" t="n">
-        <v>-6.1522</v>
+        <v>-6.0513</v>
       </c>
       <c r="F37" s="20" t="n">
         <v>-55022</v>
       </c>
       <c r="G37" s="42" t="n">
-        <v>-6.1522</v>
+        <v>-6.0513</v>
       </c>
       <c r="H37" s="20" t="n">
         <v>-55022</v>
       </c>
       <c r="I37" s="42" t="n">
-        <v>-6.1522</v>
+        <v>-6.0513</v>
       </c>
       <c r="J37" s="20" t="n">
         <v>-55022</v>
@@ -13525,19 +13549,19 @@
         <v>128</v>
       </c>
       <c r="E38" s="33" t="n">
-        <v>-2.5456</v>
+        <v>-2.4449</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>-34356</v>
       </c>
       <c r="G38" s="33" t="n">
-        <v>-2.5456</v>
+        <v>-2.4449</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>-34356</v>
       </c>
       <c r="I38" s="33" t="n">
-        <v>-2.5456</v>
+        <v>-2.4449</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>-34356</v>
@@ -13579,22 +13603,22 @@
         <v>131</v>
       </c>
       <c r="E39" s="33" t="n">
-        <v>-2.5459</v>
+        <v>-2.4451</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-28458</v>
+        <v>-54012</v>
       </c>
       <c r="G39" s="33" t="n">
-        <v>-2.5459</v>
+        <v>-2.4451</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-28458</v>
+        <v>-54012</v>
       </c>
       <c r="I39" s="33" t="n">
-        <v>-2.5459</v>
+        <v>-2.4451</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-28458</v>
+        <v>-54012</v>
       </c>
       <c r="K39" s="31" t="n">
         <v>6</v>
@@ -13636,7 +13660,7 @@
         <v>-0.1283</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-13473</v>
+        <v>-33350</v>
       </c>
       <c r="G40" s="33" t="n">
         <v>-0.1283</v>
@@ -13690,7 +13714,7 @@
         <v>0.1291</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-26209</v>
+        <v>-27452</v>
       </c>
       <c r="G41" s="33" t="n">
         <v>0.1291</v>
@@ -14698,10 +14722,10 @@
         <v>187</v>
       </c>
       <c r="E56" s="59" t="n">
-        <v>136</v>
+        <v>120.044</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>10406504</v>
+        <v>9576273</v>
       </c>
       <c r="G56" s="59" t="n">
         <v>24.4104</v>
@@ -14716,10 +14740,10 @@
         <v>4600216</v>
       </c>
       <c r="K56" s="59" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L56" s="23" t="n">
-        <v>10198376</v>
+        <v>10042276</v>
       </c>
       <c r="M56" s="59" t="n">
         <v>132</v>
@@ -14760,10 +14784,10 @@
         <v>190</v>
       </c>
       <c r="E57" s="60" t="n">
-        <v>136</v>
+        <v>117.956</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>7960975</v>
+        <v>7022101</v>
       </c>
       <c r="G57" s="60" t="n">
         <v>12.81</v>
@@ -14778,10 +14802,10 @@
         <v>1551088</v>
       </c>
       <c r="K57" s="60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L57" s="32" t="n">
-        <v>7752848</v>
+        <v>7596748</v>
       </c>
       <c r="M57" s="60" t="n">
         <v>132</v>
@@ -14814,10 +14838,10 @@
         <v>193</v>
       </c>
       <c r="E58" s="60" t="n">
-        <v>136</v>
+        <v>117.956</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>6764228</v>
+        <v>5825353</v>
       </c>
       <c r="G58" s="60" t="n">
         <v>12.81</v>
@@ -14832,10 +14856,10 @@
         <v>354340</v>
       </c>
       <c r="K58" s="60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L58" s="32" t="n">
-        <v>6556100</v>
+        <v>6400000</v>
       </c>
       <c r="M58" s="60" t="n">
         <v>132</v>
@@ -17186,11 +17210,11 @@
       </c>
       <c r="E4" s="111" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4" s="111" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>103.088913266688</v>
+        <v>100.088913266688</v>
       </c>
       <c r="G4" s="112" t="n">
         <f aca="false">'Modes A-F'!O56</f>
@@ -17198,7 +17222,7 @@
       </c>
       <c r="H4" s="113" t="n">
         <f aca="false">G4-F4</f>
-        <v>0.821086733312242</v>
+        <v>3.82108673331224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17215,11 +17239,11 @@
       </c>
       <c r="E5" s="117" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="117" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>99.6239028716503</v>
+        <v>96.6239028716503</v>
       </c>
       <c r="G5" s="118" t="n">
         <f aca="false">'Modes A-F'!O57</f>
@@ -17227,13 +17251,13 @@
       </c>
       <c r="H5" s="113" t="n">
         <f aca="false">G5-F5</f>
-        <v>0.806097128349677</v>
+        <v>3.80609712834968</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="113" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>0.804688293317862</v>
+        <v>2.80468829331786</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>272</v>
@@ -17300,12 +17324,12 @@
       </c>
       <c r="E11" s="113" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>136</v>
+        <v>117.956</v>
       </c>
       <c r="F11" s="113"/>
       <c r="G11" s="122" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>138.308400030779</v>
+        <v>120.264400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17322,12 +17346,12 @@
       </c>
       <c r="E12" s="123" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>136</v>
+        <v>117.956</v>
       </c>
       <c r="F12" s="123"/>
       <c r="G12" s="124" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>138.539400033859</v>
+        <v>120.495400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17453,7 +17477,7 @@
       </c>
       <c r="E23" s="113" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>63.2392674801944</v>
+        <v>45.1952674801944</v>
       </c>
       <c r="F23" s="129" t="n">
         <f aca="false">'Modes A-F'!I56</f>
@@ -17461,7 +17485,7 @@
       </c>
       <c r="G23" s="113" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>68.5398981480704</v>
+        <v>50.4958981480704</v>
       </c>
       <c r="I23" s="108"/>
     </row>
@@ -17479,7 +17503,7 @@
       </c>
       <c r="E24" s="123" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>54.5188517843995</v>
+        <v>36.4748517843995</v>
       </c>
       <c r="F24" s="130" t="n">
         <f aca="false">'Modes A-F'!I57</f>
@@ -17487,7 +17511,7 @@
       </c>
       <c r="G24" s="131" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>60.454766090482</v>
+        <v>42.410766090482</v>
       </c>
       <c r="H24" s="115"/>
       <c r="I24" s="132"/>
@@ -17615,7 +17639,7 @@
       </c>
       <c r="E35" s="113" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>34.3258777773465</v>
+        <v>16.2818777773465</v>
       </c>
       <c r="F35" s="129" t="n">
         <f aca="false">'Modes A-F'!G56</f>
@@ -17623,7 +17647,7 @@
       </c>
       <c r="G35" s="113" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>39.6267875381681</v>
+        <v>21.5827875381681</v>
       </c>
       <c r="I35" s="108"/>
     </row>
@@ -17641,7 +17665,7 @@
       </c>
       <c r="E36" s="123" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>22.140175674289</v>
+        <v>4.09617567428903</v>
       </c>
       <c r="F36" s="130" t="n">
         <f aca="false">'Modes A-F'!G57</f>
@@ -17649,7 +17673,7 @@
       </c>
       <c r="G36" s="123" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>28.0764025227675</v>
+        <v>10.0324025227675</v>
       </c>
       <c r="H36" s="115"/>
       <c r="I36" s="132"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -90,8 +90,7 @@
             <charset val="1"/>
           </rPr>
           <t>Vertical = 119
-Pitch = -1.8
-</t>
+Pitch = -1.8</t>
         </r>
         <r>
           <rPr>
@@ -11608,11 +11607,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="L58" activeCellId="0" sqref="L58"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="P54" activeCellId="0" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14601,10 +14600,10 @@
         <v>425267</v>
       </c>
       <c r="O54" s="58" t="n">
-        <v>19.89</v>
+        <v>19.162</v>
       </c>
       <c r="P54" s="28" t="n">
-        <v>160131</v>
+        <v>155779</v>
       </c>
       <c r="T54" s="58" t="n">
         <v>33.3556</v>
@@ -17190,11 +17189,11 @@
       </c>
       <c r="G3" s="112" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>19.89</v>
+        <v>19.162</v>
       </c>
       <c r="H3" s="113" t="n">
         <f aca="false">G3-F3</f>
-        <v>0.786881018291666</v>
+        <v>0.0588810182917001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17257,7 +17256,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="113" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>2.80468829331786</v>
+        <v>2.56202162665121</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>272</v>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -25,6 +25,19 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blocks beam around 31.5</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B48" authorId="0">
       <text>
         <r>
@@ -420,9 +433,9 @@
             <charset val="1"/>
           </rPr>
           <t>vertical = -4.349
- pitch =   2.736
+ Pitch =   3.550
  roll =   0.000
- yaw  =  0.200</t>
+ yaw  =  0.250</t>
         </r>
       </text>
     </comment>
@@ -11607,11 +11620,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="P54" activeCellId="0" sqref="P54"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13511,10 +13524,10 @@
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="55" t="n">
-        <v>-6.11104</v>
+        <v>-6.63518</v>
       </c>
       <c r="U37" s="25" t="n">
-        <v>-54610</v>
+        <v>-59847</v>
       </c>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
@@ -13584,10 +13597,10 @@
         <v>51098</v>
       </c>
       <c r="T38" s="30" t="n">
-        <v>-2.58686</v>
+        <v>-2.06272</v>
       </c>
       <c r="U38" s="32" t="n">
-        <v>-34768</v>
+        <v>-29524</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13638,10 +13651,10 @@
         <v>56998</v>
       </c>
       <c r="T39" s="30" t="n">
-        <v>-2.58696</v>
+        <v>-2.06282</v>
       </c>
       <c r="U39" s="32" t="n">
-        <v>-28869</v>
+        <v>-23625</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13692,10 +13705,10 @@
         <v>-16348</v>
       </c>
       <c r="T40" s="30" t="n">
-        <v>-0.1284</v>
+        <v>-0.16105</v>
       </c>
       <c r="U40" s="32" t="n">
-        <v>-13475</v>
+        <v>-13803</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13746,10 +13759,10 @@
         <v>-31347</v>
       </c>
       <c r="T41" s="30" t="n">
-        <v>0.1289</v>
+        <v>0.16105</v>
       </c>
       <c r="U41" s="32" t="n">
-        <v>-26212</v>
+        <v>-25895</v>
       </c>
     </row>
     <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14197,10 +14210,10 @@
       <c r="R48" s="26"/>
       <c r="S48" s="26"/>
       <c r="T48" s="53" t="n">
-        <v>33</v>
+        <v>14.4756</v>
       </c>
       <c r="U48" s="54" t="n">
-        <v>288431</v>
+        <v>103188</v>
       </c>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
@@ -14593,11 +14606,11 @@
       <c r="L54" s="28" t="n">
         <v>413776</v>
       </c>
-      <c r="M54" s="57" t="n">
-        <v>46.1094</v>
-      </c>
-      <c r="N54" s="26" t="n">
-        <v>425267</v>
+      <c r="M54" s="58" t="n">
+        <v>44.962</v>
+      </c>
+      <c r="N54" s="28" t="n">
+        <v>413776</v>
       </c>
       <c r="O54" s="58" t="n">
         <v>19.162</v>
@@ -14606,10 +14619,10 @@
         <v>155779</v>
       </c>
       <c r="T54" s="58" t="n">
-        <v>33.3556</v>
+        <v>51.2907</v>
       </c>
       <c r="U54" s="28" t="n">
-        <v>297749</v>
+        <v>477063</v>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
@@ -14745,10 +14758,10 @@
         <v>10042276</v>
       </c>
       <c r="M56" s="59" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N56" s="23" t="n">
-        <v>10198376</v>
+        <v>10042276</v>
       </c>
       <c r="O56" s="59" t="n">
         <v>103.91</v>
@@ -14760,10 +14773,10 @@
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
       <c r="T56" s="55" t="n">
-        <v>117.533</v>
+        <v>136.324</v>
       </c>
       <c r="U56" s="25" t="n">
-        <v>9445608</v>
+        <v>10423373</v>
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
@@ -14807,10 +14820,10 @@
         <v>7596748</v>
       </c>
       <c r="M57" s="60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N57" s="32" t="n">
-        <v>7752848</v>
+        <v>7596748</v>
       </c>
       <c r="O57" s="60" t="n">
         <v>100.43</v>
@@ -14819,10 +14832,10 @@
         <v>6110187</v>
       </c>
       <c r="T57" s="30" t="n">
-        <v>115.685</v>
+        <v>136.35</v>
       </c>
       <c r="U57" s="32" t="n">
-        <v>6903924</v>
+        <v>7979171</v>
       </c>
     </row>
     <row r="58" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14861,10 +14874,10 @@
         <v>6400000</v>
       </c>
       <c r="M58" s="60" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N58" s="32" t="n">
-        <v>6556100</v>
+        <v>6400000</v>
       </c>
       <c r="O58" s="60" t="n">
         <v>100.43</v>
@@ -14873,10 +14886,10 @@
         <v>4913439</v>
       </c>
       <c r="T58" s="27" t="n">
-        <v>115.685</v>
+        <v>136.35</v>
       </c>
       <c r="U58" s="28" t="n">
-        <v>5707176</v>
+        <v>6782423</v>
       </c>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -60,10 +60,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.248
-Pitch = 2.8
-lateral = 0.0
-yaw = 0.2</t>
+          <t>vert = -4.148
+Pitch = 2.5
+lateral = 0.01
+yaw = 0.285</t>
         </r>
       </text>
     </comment>
@@ -102,8 +102,9 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Vertical = 119
-Pitch = -1.8</t>
+          <t>Vertical = 110.75
+Pitch = -1.465
+</t>
         </r>
         <r>
           <rPr>
@@ -125,10 +126,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.248
-Pitch = 2.8
-lateral = 0.0
-yaw = 0.2</t>
+          <t>vert = -4.148
+Pitch = 2.5
+lateral = 0.01
+yaw = 0.285</t>
         </r>
       </text>
     </comment>
@@ -168,10 +169,10 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -4.248
-Pitch = 2.8
-lateral = 0.0
-yaw = 0.2</t>
+          <t>vert = -4.148
+Pitch = 2.5
+lateral = 0.01
+yaw = 0.285</t>
         </r>
       </text>
     </comment>
@@ -184,7 +185,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>vert = -7.25
+          <t>Vert = -8.9
 pitch = -3.5</t>
         </r>
       </text>
@@ -198,7 +199,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Rh/Pt stripe</t>
+          <t>Bare Si stripe</t>
         </r>
       </text>
     </comment>
@@ -501,7 +502,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="3307">
   <si>
-    <t>in /home/bravel/commissioning/CRS, dosh pvs.sh | xclip, then paste into appropriate column</t>
+    <t>  in /home/bravel/commissioning/CRS, do sh pvs.sh | xclip, then paste into appropriate column</t>
   </si>
   <si>
     <t>Mode A</t>
@@ -10697,7 +10698,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10718,6 +10719,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFF2DED5"/>
       </patternFill>
@@ -10729,7 +10742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -10847,6 +10860,24 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -10987,7 +11018,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11005,7 +11036,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -11216,11 +11247,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11240,23 +11275,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11264,19 +11299,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11288,7 +11323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11296,7 +11331,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11304,7 +11339,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11312,19 +11347,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11336,11 +11371,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11352,15 +11387,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11392,19 +11427,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11412,7 +11447,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11420,11 +11455,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11436,7 +11471,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11444,39 +11479,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11484,7 +11515,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11508,19 +11543,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11528,7 +11563,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11553,7 +11588,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFCCFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000CC"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -11620,11 +11655,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="C61" activeCellId="0" sqref="C61"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13485,22 +13520,22 @@
         <v>125</v>
       </c>
       <c r="E37" s="42" t="n">
-        <v>-6.0513</v>
+        <v>-5.85828</v>
       </c>
       <c r="F37" s="20" t="n">
-        <v>-55022</v>
+        <v>-52086</v>
       </c>
       <c r="G37" s="42" t="n">
-        <v>-6.0513</v>
+        <v>-5.85828</v>
       </c>
       <c r="H37" s="20" t="n">
-        <v>-55022</v>
+        <v>-52086</v>
       </c>
       <c r="I37" s="42" t="n">
-        <v>-6.0513</v>
+        <v>-5.85828</v>
       </c>
       <c r="J37" s="20" t="n">
-        <v>-55022</v>
+        <v>-52086</v>
       </c>
       <c r="K37" s="43" t="n">
         <v>6</v>
@@ -13561,22 +13596,22 @@
         <v>128</v>
       </c>
       <c r="E38" s="33" t="n">
-        <v>-2.4449</v>
+        <v>-2.63817</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>-34356</v>
+        <v>-35283</v>
       </c>
       <c r="G38" s="33" t="n">
-        <v>-2.4449</v>
+        <v>-2.63817</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>-34356</v>
+        <v>-35283</v>
       </c>
       <c r="I38" s="33" t="n">
-        <v>-2.4449</v>
+        <v>-2.63817</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>-34356</v>
+        <v>-35283</v>
       </c>
       <c r="K38" s="31" t="n">
         <v>6</v>
@@ -13615,22 +13650,22 @@
         <v>131</v>
       </c>
       <c r="E39" s="33" t="n">
-        <v>-2.4451</v>
+        <v>-2.63837</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>-54012</v>
+        <v>-29385</v>
       </c>
       <c r="G39" s="33" t="n">
-        <v>-2.4451</v>
+        <v>-2.63837</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>-54012</v>
+        <v>-29385</v>
       </c>
       <c r="I39" s="33" t="n">
-        <v>-2.4451</v>
+        <v>-2.63837</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>-54012</v>
+        <v>-29385</v>
       </c>
       <c r="K39" s="31" t="n">
         <v>6</v>
@@ -13669,22 +13704,22 @@
         <v>134</v>
       </c>
       <c r="E40" s="33" t="n">
-        <v>-0.1283</v>
+        <v>-0.1735</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-33350</v>
+        <v>-13926</v>
       </c>
       <c r="G40" s="33" t="n">
-        <v>-0.1283</v>
+        <v>-0.1735</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-13473</v>
+        <v>-13926</v>
       </c>
       <c r="I40" s="33" t="n">
-        <v>-0.1283</v>
+        <v>-0.1735</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-13473</v>
+        <v>-13926</v>
       </c>
       <c r="K40" s="33" t="n">
         <v>-0.415799999</v>
@@ -13723,22 +13758,22 @@
         <v>137</v>
       </c>
       <c r="E41" s="33" t="n">
-        <v>0.1291</v>
+        <v>0.1936</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-27452</v>
+        <v>-25564</v>
       </c>
       <c r="G41" s="33" t="n">
-        <v>0.1291</v>
+        <v>0.1936</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-26209</v>
+        <v>-25564</v>
       </c>
       <c r="I41" s="33" t="n">
-        <v>0.1291</v>
+        <v>0.1936</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-26209</v>
+        <v>-25564</v>
       </c>
       <c r="K41" s="33" t="n">
         <v>-0.3847</v>
@@ -13777,22 +13812,22 @@
         <v>140</v>
       </c>
       <c r="E42" s="37" t="n">
-        <v>298590</v>
+        <v>209762</v>
       </c>
       <c r="F42" s="35" t="n">
-        <v>298590</v>
+        <v>209763</v>
       </c>
       <c r="G42" s="37" t="n">
-        <v>298590</v>
+        <v>209762</v>
       </c>
       <c r="H42" s="35" t="n">
-        <v>298590</v>
+        <v>209763</v>
       </c>
       <c r="I42" s="37" t="n">
-        <v>298590</v>
+        <v>209762</v>
       </c>
       <c r="J42" s="35" t="n">
-        <v>298590</v>
+        <v>209763</v>
       </c>
       <c r="K42" s="38" t="n">
         <v>0</v>
@@ -13816,10 +13851,10 @@
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="56" t="n">
-        <v>163788</v>
+        <v>119996</v>
       </c>
       <c r="U42" s="45" t="n">
-        <v>163789</v>
+        <v>119996</v>
       </c>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
@@ -13867,10 +13902,10 @@
         <v>3208</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>-6.3492</v>
+        <v>-9.33327</v>
       </c>
       <c r="J43" s="20" t="n">
-        <v>-45292</v>
+        <v>-75133</v>
       </c>
       <c r="K43" s="43" t="n">
         <v>-1.1672</v>
@@ -13943,10 +13978,10 @@
         <v>-11313</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>-8.1509</v>
+        <v>-11.6676</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>-77809</v>
+        <v>-112976</v>
       </c>
       <c r="K44" s="31" t="n">
         <v>1.1673</v>
@@ -13997,10 +14032,10 @@
         <v>-12617</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>-8.1507</v>
+        <v>-11.668</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>-79107</v>
+        <v>-114280</v>
       </c>
       <c r="K45" s="31" t="n">
         <v>1.1673</v>
@@ -14051,10 +14086,10 @@
         <v>-167785</v>
       </c>
       <c r="I46" s="33" t="n">
-        <v>15.0024</v>
+        <v>-15</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>132223</v>
+        <v>-167779</v>
       </c>
       <c r="K46" s="31" t="n">
         <v>15</v>
@@ -14105,10 +14140,10 @@
         <v>-185598</v>
       </c>
       <c r="I47" s="37" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="J47" s="35" t="n">
-        <v>114409</v>
+        <v>-185586</v>
       </c>
       <c r="K47" s="38" t="n">
         <v>15.0002</v>
@@ -14183,10 +14218,10 @@
         <v>-708892</v>
       </c>
       <c r="I48" s="52" t="n">
-        <v>-48.1824</v>
+        <v>-35.8205</v>
       </c>
       <c r="J48" s="51" t="n">
-        <v>-523391</v>
+        <v>-399880</v>
       </c>
       <c r="K48" s="53" t="n">
         <v>27.1</v>
@@ -14587,32 +14622,34 @@
         <v>180</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>35.143</v>
+        <v>28.1862</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>315607</v>
+        <v>246016</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="58" t="n">
-        <v>-55.188</v>
-      </c>
-      <c r="J54" s="28"/>
-      <c r="K54" s="58" t="n">
+      <c r="H54" s="59"/>
+      <c r="I54" s="57" t="n">
+        <v>-20.5991</v>
+      </c>
+      <c r="J54" s="28" t="n">
+        <v>-241810</v>
+      </c>
+      <c r="K54" s="57" t="n">
         <v>44.962</v>
       </c>
       <c r="L54" s="28" t="n">
         <v>413776</v>
       </c>
-      <c r="M54" s="58" t="n">
+      <c r="M54" s="57" t="n">
         <v>44.962</v>
       </c>
       <c r="N54" s="28" t="n">
         <v>413776</v>
       </c>
-      <c r="O54" s="58" t="n">
+      <c r="O54" s="57" t="n">
         <v>19.162</v>
       </c>
       <c r="P54" s="28" t="n">
@@ -14733,37 +14770,37 @@
       <c r="D56" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="59" t="n">
-        <v>120.044</v>
+      <c r="E56" s="60" t="n">
+        <v>111.596</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>9576273</v>
-      </c>
-      <c r="G56" s="59" t="n">
+        <v>9136682</v>
+      </c>
+      <c r="G56" s="60" t="n">
         <v>24.4104</v>
       </c>
       <c r="H56" s="23" t="n">
         <v>4600216</v>
       </c>
-      <c r="I56" s="59" t="n">
-        <v>24.4104</v>
+      <c r="I56" s="60" t="n">
+        <v>58.9099</v>
       </c>
       <c r="J56" s="23" t="n">
-        <v>4600216</v>
-      </c>
-      <c r="K56" s="59" t="n">
+        <v>6395313</v>
+      </c>
+      <c r="K56" s="60" t="n">
         <v>129</v>
       </c>
       <c r="L56" s="23" t="n">
         <v>10042276</v>
       </c>
-      <c r="M56" s="59" t="n">
+      <c r="M56" s="60" t="n">
         <v>129</v>
       </c>
       <c r="N56" s="23" t="n">
         <v>10042276</v>
       </c>
-      <c r="O56" s="59" t="n">
+      <c r="O56" s="60" t="n">
         <v>103.91</v>
       </c>
       <c r="P56" s="23" t="n">
@@ -14795,37 +14832,37 @@
       <c r="D57" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="60" t="n">
-        <v>117.956</v>
+      <c r="E57" s="61" t="n">
+        <v>109.896</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>7022101</v>
-      </c>
-      <c r="G57" s="60" t="n">
+        <v>6602717</v>
+      </c>
+      <c r="G57" s="61" t="n">
         <v>12.81</v>
       </c>
       <c r="H57" s="32" t="n">
         <v>1551088</v>
       </c>
-      <c r="I57" s="60" t="n">
-        <v>12.81</v>
+      <c r="I57" s="61" t="n">
+        <v>50.2501</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>1551088</v>
-      </c>
-      <c r="K57" s="60" t="n">
+        <v>3499194</v>
+      </c>
+      <c r="K57" s="61" t="n">
         <v>129</v>
       </c>
       <c r="L57" s="32" t="n">
         <v>7596748</v>
       </c>
-      <c r="M57" s="60" t="n">
+      <c r="M57" s="61" t="n">
         <v>129</v>
       </c>
       <c r="N57" s="32" t="n">
         <v>7596748</v>
       </c>
-      <c r="O57" s="60" t="n">
+      <c r="O57" s="61" t="n">
         <v>100.43</v>
       </c>
       <c r="P57" s="32" t="n">
@@ -14849,37 +14886,37 @@
       <c r="D58" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="60" t="n">
-        <v>117.956</v>
+      <c r="E58" s="61" t="n">
+        <v>109.896</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>5825353</v>
-      </c>
-      <c r="G58" s="60" t="n">
+        <v>5405969</v>
+      </c>
+      <c r="G58" s="61" t="n">
         <v>12.81</v>
       </c>
       <c r="H58" s="32" t="n">
         <v>354340</v>
       </c>
-      <c r="I58" s="60" t="n">
-        <v>12.81</v>
+      <c r="I58" s="61" t="n">
+        <v>50.2501</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>354340</v>
-      </c>
-      <c r="K58" s="60" t="n">
+        <v>2302446</v>
+      </c>
+      <c r="K58" s="61" t="n">
         <v>129</v>
       </c>
       <c r="L58" s="32" t="n">
         <v>6400000</v>
       </c>
-      <c r="M58" s="60" t="n">
+      <c r="M58" s="61" t="n">
         <v>129</v>
       </c>
       <c r="N58" s="32" t="n">
         <v>6400000</v>
       </c>
-      <c r="O58" s="60" t="n">
+      <c r="O58" s="61" t="n">
         <v>100.43</v>
       </c>
       <c r="P58" s="30" t="n">
@@ -14908,43 +14945,43 @@
       <c r="D59" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E59" s="60" t="n">
+      <c r="E59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="F59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="G59" s="60" t="n">
+      <c r="G59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="H59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="I59" s="60" t="n">
+      <c r="I59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="J59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="K59" s="60" t="n">
+      <c r="K59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="L59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="M59" s="60" t="n">
+      <c r="M59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="N59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="O59" s="60" t="n">
+      <c r="O59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="P59" s="28" t="n">
         <v>-332000</v>
       </c>
-      <c r="T59" s="60" t="n">
+      <c r="T59" s="61" t="n">
         <v>-4.6</v>
       </c>
       <c r="U59" s="28" t="n">
@@ -14962,46 +14999,46 @@
       <c r="D60" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="61" t="n">
+      <c r="E60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="F60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="G60" s="61" t="n">
+      <c r="G60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="H60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="I60" s="61" t="n">
+      <c r="I60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="J60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="K60" s="61" t="n">
+      <c r="K60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="L60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="M60" s="61" t="n">
+      <c r="M60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="N60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="O60" s="61" t="n">
+      <c r="O60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="P60" s="47" t="n">
         <v>130000</v>
       </c>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="61" t="n">
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="62" t="n">
         <v>16.9</v>
       </c>
       <c r="U60" s="47" t="n">
@@ -15014,52 +15051,52 @@
       <c r="Z60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C61" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="67" t="n">
+      <c r="E61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="68" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="30" t="n">
@@ -15070,8 +15107,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="63"/>
-      <c r="B62" s="68" t="s">
+      <c r="A62" s="64"/>
+      <c r="B62" s="69" t="s">
         <v>204</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -15124,8 +15161,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="63"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="64"/>
+      <c r="B63" s="69" t="s">
         <v>207</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -15178,8 +15215,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="63"/>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="64"/>
+      <c r="B64" s="69" t="s">
         <v>210</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -15232,8 +15269,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="63"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="64"/>
+      <c r="B65" s="69" t="s">
         <v>213</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -15286,53 +15323,53 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="63"/>
-      <c r="B66" s="69" t="s">
+      <c r="A66" s="64"/>
+      <c r="B66" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="61" t="n">
+      <c r="E66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="62" t="n">
         <v>0</v>
       </c>
       <c r="U66" s="47" t="n">
@@ -15392,34 +15429,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="73" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="73" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="73" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="74" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="74" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="74" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73"/>
+    <row r="1" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="74"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="AMJ1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="AMJ1" s="74"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -16440,168 +16477,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="80" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+    <row r="3" s="81" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="AMJ3" s="76"/>
-    </row>
-    <row r="4" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="73"/>
-      <c r="B4" s="77" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="AMJ3" s="77"/>
+    </row>
+    <row r="4" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="74"/>
+      <c r="B4" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73" t="n">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="81" t="n">
+      <c r="E4" s="82" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="AMJ4" s="73"/>
-    </row>
-    <row r="5" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="AMJ4" s="74"/>
+    </row>
+    <row r="5" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="74"/>
+      <c r="B5" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="73" t="n">
+      <c r="D5" s="74" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="AMJ5" s="73"/>
-    </row>
-    <row r="6" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73"/>
-      <c r="B6" s="77" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="AMJ5" s="74"/>
+    </row>
+    <row r="6" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="74"/>
+      <c r="B6" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="73" t="n">
+      <c r="D6" s="74" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="AMJ6" s="73"/>
-    </row>
-    <row r="7" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73"/>
-      <c r="B7" s="77" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="AMJ6" s="74"/>
+    </row>
+    <row r="7" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="73" t="n">
+      <c r="D7" s="74" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="AMJ7" s="73"/>
-    </row>
-    <row r="8" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73"/>
-      <c r="B8" s="77" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="AMJ7" s="74"/>
+    </row>
+    <row r="8" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="74"/>
+      <c r="B8" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="73" t="n">
+      <c r="D8" s="74" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="AMJ8" s="73"/>
-    </row>
-    <row r="9" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73"/>
-      <c r="B9" s="77" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="AMJ8" s="74"/>
+    </row>
+    <row r="9" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="74"/>
+      <c r="B9" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73" t="n">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="AMJ9" s="73"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="AMJ9" s="74"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83" t="n">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -16610,8 +16647,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -16620,82 +16657,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="90" t="s">
         <v>236</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="81"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="73" t="n">
+      <c r="C15" s="74" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="81"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="90" t="n">
+      <c r="C16" s="91" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="81"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="73" t="n">
+      <c r="C17" s="74" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="81"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="83" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="83" t="n">
+      <c r="C18" s="84" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -16722,206 +16759,206 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="85" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="92" t="s">
+      <c r="F22" s="86"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="I22" s="92"/>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="90" t="s">
         <v>236</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="90" t="s">
         <v>236</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="94" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="78" t="s">
         <v>245</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="73" t="n">
+      <c r="F24" s="74" t="n">
         <v>25.5</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="81" t="n">
+      <c r="I24" s="82" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="78" t="s">
         <v>247</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="73" t="n">
+      <c r="F25" s="74" t="n">
         <v>-42.6</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="81" t="n">
+      <c r="I25" s="82" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="78" t="s">
         <v>249</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="73" t="n">
+      <c r="F26" s="74" t="n">
         <v>-17.25</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="I26" s="81" t="n">
+      <c r="I26" s="82" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="73" t="n">
+      <c r="C27" s="74" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="73" t="n">
+      <c r="F27" s="74" t="n">
         <v>46.1092</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="81"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C28" s="73" t="n">
+      <c r="C28" s="74" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="73" t="s">
+      <c r="E28" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="73" t="n">
+      <c r="F28" s="74" t="n">
         <v>46.1092</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="81"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="73" t="n">
+      <c r="C29" s="74" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="73" t="n">
+      <c r="F29" s="74" t="n">
         <v>19.5956</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="81"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="73" t="n">
+      <c r="C30" s="74" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="73" t="n">
+      <c r="F30" s="74" t="n">
         <v>32.4638</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="81"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="83" t="n">
+      <c r="C31" s="84" t="n">
         <v>55</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16979,14 +17016,14 @@
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95" t="s">
+      <c r="F1" s="95"/>
+      <c r="G1" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="95"/>
+      <c r="H1" s="96"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
@@ -17012,25 +17049,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="97" t="n">
+      <c r="E3" s="98" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="97" t="n">
+      <c r="F3" s="98" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="98" t="n">
+      <c r="G3" s="99" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="99" t="n">
+      <c r="H3" s="100" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -17093,11 +17130,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="100" t="s">
+      <c r="I6" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -17109,9 +17146,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17153,26 +17190,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="101"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103" t="s">
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="106" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="106"/>
-      <c r="D2" s="107" t="s">
+      <c r="A2" s="107"/>
+      <c r="D2" s="108" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -17181,93 +17218,93 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="108"/>
+      <c r="G2" s="109"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>266</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="110" t="n">
+      <c r="E3" s="111" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="111" t="n">
+      <c r="F3" s="112" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="112" t="n">
+      <c r="G3" s="113" t="n">
         <f aca="false">'Modes A-F'!O54</f>
         <v>19.162</v>
       </c>
-      <c r="H3" s="113" t="n">
+      <c r="H3" s="114" t="n">
         <f aca="false">G3-F3</f>
         <v>0.0588810182917001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>268</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="111" t="n">
+      <c r="E4" s="112" t="n">
         <f aca="false">'Modes A-F'!K56</f>
         <v>129</v>
       </c>
-      <c r="F4" s="111" t="n">
+      <c r="F4" s="112" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
         <v>100.088913266688</v>
       </c>
-      <c r="G4" s="112" t="n">
+      <c r="G4" s="113" t="n">
         <f aca="false">'Modes A-F'!O56</f>
         <v>103.91</v>
       </c>
-      <c r="H4" s="113" t="n">
+      <c r="H4" s="114" t="n">
         <f aca="false">G4-F4</f>
         <v>3.82108673331224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="115" t="n">
+      <c r="B5" s="116" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="117" t="n">
+      <c r="E5" s="118" t="n">
         <f aca="false">'Modes A-F'!K57</f>
         <v>129</v>
       </c>
-      <c r="F5" s="117" t="n">
+      <c r="F5" s="118" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
         <v>96.6239028716503</v>
       </c>
-      <c r="G5" s="118" t="n">
+      <c r="G5" s="119" t="n">
         <f aca="false">'Modes A-F'!O57</f>
         <v>100.43</v>
       </c>
-      <c r="H5" s="113" t="n">
+      <c r="H5" s="114" t="n">
         <f aca="false">G5-F5</f>
         <v>3.80609712834968</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="113" t="n">
+      <c r="H6" s="114" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
         <v>2.56202162665121</v>
       </c>
@@ -17276,419 +17313,419 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="120" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="121" t="n">
+      <c r="G8" s="122" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="106"/>
-      <c r="D9" s="107" t="s">
+      <c r="A9" s="107"/>
+      <c r="D9" s="108" t="s">
         <v>265</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="108" t="n">
+      <c r="G9" s="109" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>274</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="113" t="n">
+      <c r="E10" s="114" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>35.143</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="122" t="n">
+        <v>28.1862</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="123" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>37.3244000290853</v>
+        <v>30.3676000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>275</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="E11" s="113" t="n">
+      <c r="E11" s="114" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>117.956</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="122" t="n">
+        <v>109.896</v>
+      </c>
+      <c r="F11" s="114"/>
+      <c r="G11" s="123" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>120.264400030779</v>
+        <v>112.204400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="115" t="n">
+      <c r="B12" s="116" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="123" t="n">
+      <c r="E12" s="124" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>117.956</v>
-      </c>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124" t="n">
+        <v>109.896</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>120.495400033859</v>
+        <v>112.435400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="120" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="102" t="n">
+      <c r="G16" s="103" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="121"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="106"/>
-      <c r="D17" s="107" t="s">
+      <c r="A17" s="107"/>
+      <c r="D17" s="108" t="s">
         <v>265</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="62" t="n">
+      <c r="G17" s="63" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="I17" s="108" t="n">
+      <c r="I17" s="109" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="110" t="s">
         <v>278</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="108" t="s">
         <v>279</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="126" t="n">
+      <c r="G18" s="127" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="108"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="106"/>
-      <c r="D19" s="107" t="s">
+      <c r="A19" s="107"/>
+      <c r="D19" s="108" t="s">
         <v>280</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="62" t="n">
+      <c r="G19" s="63" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="108"/>
+      <c r="I19" s="109"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="G20" s="127" t="s">
+      <c r="A20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="G20" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="I20" s="108"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="106"/>
-      <c r="F21" s="128" t="s">
+      <c r="A21" s="107"/>
+      <c r="F21" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="108"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="110" t="s">
         <v>266</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="E22" s="113" t="n">
+      <c r="E22" s="114" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-32.8233914229833</v>
-      </c>
-      <c r="F22" s="129" t="n">
+        <v>-39.7801914229833</v>
+      </c>
+      <c r="F22" s="130" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-55.188</v>
-      </c>
-      <c r="G22" s="113" t="n">
+        <v>-20.5991</v>
+      </c>
+      <c r="G22" s="114" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-27.8720292488399</v>
-      </c>
-      <c r="I22" s="108"/>
+        <v>-34.82882924884</v>
+      </c>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="110" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="E23" s="113" t="n">
+      <c r="E23" s="114" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>45.1952674801944</v>
-      </c>
-      <c r="F23" s="129" t="n">
+        <v>37.1352674801944</v>
+      </c>
+      <c r="F23" s="130" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>24.4104</v>
-      </c>
-      <c r="G23" s="113" t="n">
+        <v>58.9099</v>
+      </c>
+      <c r="G23" s="114" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>50.4958981480704</v>
-      </c>
-      <c r="I23" s="108"/>
+        <v>42.4358981480704</v>
+      </c>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B24" s="115" t="n">
+      <c r="B24" s="116" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116" t="s">
+      <c r="C24" s="116"/>
+      <c r="D24" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="123" t="n">
+      <c r="E24" s="124" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>36.4748517843995</v>
-      </c>
-      <c r="F24" s="130" t="n">
+        <v>28.4148517843995</v>
+      </c>
+      <c r="F24" s="131" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>12.81</v>
-      </c>
-      <c r="G24" s="131" t="n">
+        <v>50.2501</v>
+      </c>
+      <c r="G24" s="132" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>42.410766090482</v>
-      </c>
-      <c r="H24" s="115"/>
-      <c r="I24" s="132"/>
+        <v>34.350766090482</v>
+      </c>
+      <c r="H24" s="116"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="120" t="s">
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="102" t="n">
+      <c r="G28" s="103" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="121"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="122"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="106"/>
-      <c r="D29" s="107" t="s">
+      <c r="A29" s="107"/>
+      <c r="D29" s="108" t="s">
         <v>265</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="62" t="n">
+      <c r="G29" s="63" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="I29" s="108" t="n">
+      <c r="I29" s="109" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="110" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="108" t="s">
         <v>279</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="126" t="n">
+      <c r="G30" s="127" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="108"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="106"/>
-      <c r="D31" s="107" t="s">
+      <c r="A31" s="107"/>
+      <c r="D31" s="108" t="s">
         <v>280</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="62" t="n">
+      <c r="G31" s="63" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="108"/>
+      <c r="I31" s="109"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="G32" s="127" t="s">
+      <c r="A32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="G32" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="I32" s="108"/>
+      <c r="I32" s="109"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="106"/>
-      <c r="F33" s="128" t="s">
+      <c r="A33" s="107"/>
+      <c r="F33" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="I33" s="108"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="110" t="s">
         <v>266</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="113" t="n">
+      <c r="E34" s="114" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-59.8316236638297</v>
-      </c>
-      <c r="F34" s="129" t="n">
+        <v>-66.7884236638297</v>
+      </c>
+      <c r="F34" s="130" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
-      <c r="G34" s="113" t="n">
+      <c r="G34" s="114" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-54.8800007866982</v>
-      </c>
-      <c r="I34" s="108"/>
+        <v>-61.8368007866982</v>
+      </c>
+      <c r="I34" s="109"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="110" t="s">
         <v>268</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="108" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="113" t="n">
+      <c r="E35" s="114" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>16.2818777773465</v>
-      </c>
-      <c r="F35" s="129" t="n">
+        <v>8.22187777734649</v>
+      </c>
+      <c r="F35" s="130" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="113" t="n">
+      <c r="G35" s="114" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>21.5827875381681</v>
-      </c>
-      <c r="I35" s="108"/>
+        <v>13.5227875381681</v>
+      </c>
+      <c r="I35" s="109"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="B36" s="115" t="n">
+      <c r="B36" s="116" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116" t="s">
+      <c r="C36" s="116"/>
+      <c r="D36" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="E36" s="123" t="n">
+      <c r="E36" s="124" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>4.09617567428903</v>
-      </c>
-      <c r="F36" s="130" t="n">
+        <v>-3.96382432571097</v>
+      </c>
+      <c r="F36" s="131" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="123" t="n">
+      <c r="G36" s="124" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>10.0324025227675</v>
-      </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="132"/>
+        <v>1.9724025227675</v>
+      </c>
+      <c r="H36" s="116"/>
+      <c r="I36" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17791,7 +17828,7 @@
       <c r="A9" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="134" t="n">
+      <c r="B9" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17815,7 +17852,7 @@
       <c r="A12" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="134" t="n">
+      <c r="B12" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17911,7 +17948,7 @@
       <c r="A24" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="134" t="n">
+      <c r="B24" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17935,7 +17972,7 @@
       <c r="A27" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B27" s="134" t="n">
+      <c r="B27" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18031,7 +18068,7 @@
       <c r="A39" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B39" s="134" t="n">
+      <c r="B39" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18055,7 +18092,7 @@
       <c r="A42" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="134" t="n">
+      <c r="B42" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18151,7 +18188,7 @@
       <c r="A54" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B54" s="134" t="n">
+      <c r="B54" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18175,7 +18212,7 @@
       <c r="A57" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="134" t="n">
+      <c r="B57" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18239,7 +18276,7 @@
       <c r="A65" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B65" s="134" t="n">
+      <c r="B65" s="135" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -18247,7 +18284,7 @@
       <c r="A66" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B66" s="134" t="n">
+      <c r="B66" s="135" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -18255,7 +18292,7 @@
       <c r="A67" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B67" s="134" t="n">
+      <c r="B67" s="135" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -18263,7 +18300,7 @@
       <c r="A68" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B68" s="134" t="n">
+      <c r="B68" s="135" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -18583,7 +18620,7 @@
       <c r="A108" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B108" s="134" t="n">
+      <c r="B108" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18607,7 +18644,7 @@
       <c r="A111" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B111" s="134" t="n">
+      <c r="B111" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18703,7 +18740,7 @@
       <c r="A123" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B123" s="134" t="n">
+      <c r="B123" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18727,7 +18764,7 @@
       <c r="A126" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="134" t="n">
+      <c r="B126" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18823,7 +18860,7 @@
       <c r="A138" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B138" s="134" t="n">
+      <c r="B138" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18847,7 +18884,7 @@
       <c r="A141" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B141" s="134" t="n">
+      <c r="B141" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18943,7 +18980,7 @@
       <c r="A153" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B153" s="134" t="n">
+      <c r="B153" s="135" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18967,7 +19004,7 @@
       <c r="A156" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B156" s="134" t="n">
+      <c r="B156" s="135" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -19031,7 +19068,7 @@
       <c r="A164" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B164" s="134" t="n">
+      <c r="B164" s="135" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -19039,7 +19076,7 @@
       <c r="A165" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B165" s="134" t="n">
+      <c r="B165" s="135" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -19047,7 +19084,7 @@
       <c r="A166" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B166" s="134" t="n">
+      <c r="B166" s="135" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -19055,7 +19092,7 @@
       <c r="A167" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B167" s="134" t="n">
+      <c r="B167" s="135" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -19191,7 +19228,7 @@
       <c r="A184" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B184" s="134" t="n">
+      <c r="B184" s="135" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19199,7 +19236,7 @@
       <c r="A185" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B185" s="134" t="n">
+      <c r="B185" s="135" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19231,7 +19268,7 @@
       <c r="A189" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B189" s="134" t="n">
+      <c r="B189" s="135" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -19255,7 +19292,7 @@
       <c r="A192" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B192" s="134" t="n">
+      <c r="B192" s="135" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -19263,7 +19300,7 @@
       <c r="A193" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B193" s="134" t="n">
+      <c r="B193" s="135" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -19271,7 +19308,7 @@
       <c r="A194" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B194" s="134" t="n">
+      <c r="B194" s="135" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -19279,7 +19316,7 @@
       <c r="A195" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B195" s="134" t="n">
+      <c r="B195" s="135" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -20703,40 +20740,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="134" t="n">
+      <c r="C337" s="135" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="134" t="n">
+      <c r="D337" s="135" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="134" t="n">
+      <c r="E337" s="135" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="134" t="n">
+      <c r="F337" s="135" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="134" t="n">
+      <c r="G337" s="135" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="134" t="n">
+      <c r="H337" s="135" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="134" t="n">
+      <c r="I337" s="135" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="134" t="n">
+      <c r="J337" s="135" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="134" t="n">
+      <c r="K337" s="135" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="134" t="n">
+      <c r="L337" s="135" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="134" t="n">
+      <c r="M337" s="135" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="134" t="n">
+      <c r="N337" s="135" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -20747,40 +20784,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="134" t="n">
+      <c r="C338" s="135" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="134" t="n">
+      <c r="D338" s="135" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="134" t="n">
+      <c r="E338" s="135" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="134" t="n">
+      <c r="F338" s="135" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="134" t="n">
+      <c r="G338" s="135" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="134" t="n">
+      <c r="H338" s="135" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="134" t="n">
+      <c r="I338" s="135" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="134" t="n">
+      <c r="J338" s="135" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="134" t="n">
+      <c r="K338" s="135" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="134" t="n">
+      <c r="L338" s="135" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="134" t="n">
+      <c r="M338" s="135" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="134" t="n">
+      <c r="N338" s="135" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -20791,40 +20828,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="134" t="n">
+      <c r="C339" s="135" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="134" t="n">
+      <c r="D339" s="135" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="134" t="n">
+      <c r="E339" s="135" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="134" t="n">
+      <c r="F339" s="135" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="134" t="n">
+      <c r="G339" s="135" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="134" t="n">
+      <c r="H339" s="135" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="134" t="n">
+      <c r="I339" s="135" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="134" t="n">
+      <c r="J339" s="135" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="134" t="n">
+      <c r="K339" s="135" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="134" t="n">
+      <c r="L339" s="135" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="134" t="n">
+      <c r="M339" s="135" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="134" t="n">
+      <c r="N339" s="135" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -20835,40 +20872,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="134" t="n">
+      <c r="C340" s="135" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="134" t="n">
+      <c r="D340" s="135" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="134" t="n">
+      <c r="E340" s="135" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="134" t="n">
+      <c r="F340" s="135" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="134" t="n">
+      <c r="G340" s="135" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="134" t="n">
+      <c r="H340" s="135" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="134" t="n">
+      <c r="I340" s="135" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="134" t="n">
+      <c r="J340" s="135" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="134" t="n">
+      <c r="K340" s="135" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="134" t="n">
+      <c r="L340" s="135" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="134" t="n">
+      <c r="M340" s="135" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="134" t="n">
+      <c r="N340" s="135" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -21583,40 +21620,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="134" t="n">
+      <c r="C357" s="135" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="134" t="n">
+      <c r="D357" s="135" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="134" t="n">
+      <c r="E357" s="135" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="134" t="n">
+      <c r="F357" s="135" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="134" t="n">
+      <c r="G357" s="135" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="134" t="n">
+      <c r="H357" s="135" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="134" t="n">
+      <c r="I357" s="135" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="134" t="n">
+      <c r="J357" s="135" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="134" t="n">
+      <c r="K357" s="135" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="134" t="n">
+      <c r="L357" s="135" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="134" t="n">
+      <c r="M357" s="135" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="134" t="n">
+      <c r="N357" s="135" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -21627,40 +21664,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="134" t="n">
+      <c r="C358" s="135" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="134" t="n">
+      <c r="D358" s="135" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="134" t="n">
+      <c r="E358" s="135" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="134" t="n">
+      <c r="F358" s="135" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="134" t="n">
+      <c r="G358" s="135" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="134" t="n">
+      <c r="H358" s="135" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="134" t="n">
+      <c r="I358" s="135" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="134" t="n">
+      <c r="J358" s="135" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="134" t="n">
+      <c r="K358" s="135" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="134" t="n">
+      <c r="L358" s="135" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="134" t="n">
+      <c r="M358" s="135" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="134" t="n">
+      <c r="N358" s="135" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -21671,40 +21708,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="134" t="n">
+      <c r="C359" s="135" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="134" t="n">
+      <c r="D359" s="135" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="134" t="n">
+      <c r="E359" s="135" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="134" t="n">
+      <c r="F359" s="135" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="134" t="n">
+      <c r="G359" s="135" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="134" t="n">
+      <c r="H359" s="135" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="134" t="n">
+      <c r="I359" s="135" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="134" t="n">
+      <c r="J359" s="135" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="134" t="n">
+      <c r="K359" s="135" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="134" t="n">
+      <c r="L359" s="135" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="134" t="n">
+      <c r="M359" s="135" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="134" t="n">
+      <c r="N359" s="135" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -21715,40 +21752,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="134" t="n">
+      <c r="C360" s="135" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="134" t="n">
+      <c r="D360" s="135" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="134" t="n">
+      <c r="E360" s="135" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="134" t="n">
+      <c r="F360" s="135" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="134" t="n">
+      <c r="G360" s="135" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="134" t="n">
+      <c r="H360" s="135" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="134" t="n">
+      <c r="I360" s="135" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="134" t="n">
+      <c r="J360" s="135" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="134" t="n">
+      <c r="K360" s="135" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="134" t="n">
+      <c r="L360" s="135" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="134" t="n">
+      <c r="M360" s="135" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="134" t="n">
+      <c r="N360" s="135" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -21891,7 +21928,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="134" t="n">
+      <c r="C364" s="135" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -21935,7 +21972,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="134" t="n">
+      <c r="C365" s="135" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -21979,7 +22016,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="134" t="n">
+      <c r="C366" s="135" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -22023,7 +22060,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="134" t="n">
+      <c r="C367" s="135" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -23800,13 +23837,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="136" t="s">
         <v>812</v>
       </c>
-      <c r="C1" s="135" t="n">
+      <c r="C1" s="136" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="136" t="s">
         <v>813</v>
       </c>
     </row>
@@ -23814,10 +23851,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="136" t="s">
         <v>814</v>
       </c>
-      <c r="C2" s="135" t="n">
+      <c r="C2" s="136" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -23825,10 +23862,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="136" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="135" t="n">
+      <c r="C3" s="136" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -23932,7 +23969,7 @@
       <c r="B16" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="C16" s="134" t="n">
+      <c r="C16" s="135" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -23940,7 +23977,7 @@
       <c r="B17" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C17" s="134" t="n">
+      <c r="C17" s="135" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -23948,7 +23985,7 @@
       <c r="B18" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C18" s="134" t="n">
+      <c r="C18" s="135" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -23956,7 +23993,7 @@
       <c r="B19" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C19" s="134" t="n">
+      <c r="C19" s="135" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -24444,7 +24481,7 @@
       <c r="B80" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="C80" s="134" t="n">
+      <c r="C80" s="135" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -24492,7 +24529,7 @@
       <c r="B86" s="0" t="s">
         <v>907</v>
       </c>
-      <c r="C86" s="134" t="n">
+      <c r="C86" s="135" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -24524,7 +24561,7 @@
       <c r="B90" s="0" t="s">
         <v>911</v>
       </c>
-      <c r="C90" s="134" t="n">
+      <c r="C90" s="135" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -24612,7 +24649,7 @@
       <c r="B101" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="C101" s="134" t="n">
+      <c r="C101" s="135" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -24788,7 +24825,7 @@
       <c r="B123" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="C123" s="134" t="n">
+      <c r="C123" s="135" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -24852,7 +24889,7 @@
       <c r="B131" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="C131" s="134" t="n">
+      <c r="C131" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24868,7 +24905,7 @@
       <c r="B133" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="C133" s="134" t="n">
+      <c r="C133" s="135" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -25388,7 +25425,7 @@
       <c r="B198" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="C198" s="134" t="n">
+      <c r="C198" s="135" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -25436,7 +25473,7 @@
       <c r="B204" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="C204" s="134" t="n">
+      <c r="C204" s="135" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -25468,7 +25505,7 @@
       <c r="B208" s="0" t="s">
         <v>1034</v>
       </c>
-      <c r="C208" s="134" t="n">
+      <c r="C208" s="135" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -25556,7 +25593,7 @@
       <c r="B219" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="C219" s="134" t="n">
+      <c r="C219" s="135" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -25732,7 +25769,7 @@
       <c r="B241" s="0" t="s">
         <v>1068</v>
       </c>
-      <c r="C241" s="134" t="n">
+      <c r="C241" s="135" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -25796,7 +25833,7 @@
       <c r="B249" s="0" t="s">
         <v>1076</v>
       </c>
-      <c r="C249" s="134" t="n">
+      <c r="C249" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25812,7 +25849,7 @@
       <c r="B251" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="C251" s="134" t="n">
+      <c r="C251" s="135" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -26332,7 +26369,7 @@
       <c r="B316" s="0" t="s">
         <v>1143</v>
       </c>
-      <c r="C316" s="134" t="n">
+      <c r="C316" s="135" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -26380,7 +26417,7 @@
       <c r="B322" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="C322" s="134" t="n">
+      <c r="C322" s="135" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -26412,7 +26449,7 @@
       <c r="B326" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="C326" s="134" t="n">
+      <c r="C326" s="135" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -26500,7 +26537,7 @@
       <c r="B337" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="C337" s="134" t="n">
+      <c r="C337" s="135" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -26676,7 +26713,7 @@
       <c r="B359" s="0" t="s">
         <v>1187</v>
       </c>
-      <c r="C359" s="134" t="n">
+      <c r="C359" s="135" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -26740,7 +26777,7 @@
       <c r="B367" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="C367" s="134" t="n">
+      <c r="C367" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26756,7 +26793,7 @@
       <c r="B369" s="0" t="s">
         <v>1197</v>
       </c>
-      <c r="C369" s="134" t="n">
+      <c r="C369" s="135" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -27276,7 +27313,7 @@
       <c r="B434" s="0" t="s">
         <v>1262</v>
       </c>
-      <c r="C434" s="134" t="n">
+      <c r="C434" s="135" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -27324,7 +27361,7 @@
       <c r="B440" s="0" t="s">
         <v>1268</v>
       </c>
-      <c r="C440" s="134" t="n">
+      <c r="C440" s="135" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -27356,7 +27393,7 @@
       <c r="B444" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="C444" s="134" t="n">
+      <c r="C444" s="135" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -27444,7 +27481,7 @@
       <c r="B455" s="0" t="s">
         <v>1283</v>
       </c>
-      <c r="C455" s="134" t="n">
+      <c r="C455" s="135" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -27620,7 +27657,7 @@
       <c r="B477" s="0" t="s">
         <v>1306</v>
       </c>
-      <c r="C477" s="134" t="n">
+      <c r="C477" s="135" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -27684,7 +27721,7 @@
       <c r="B485" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="C485" s="134" t="n">
+      <c r="C485" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27700,7 +27737,7 @@
       <c r="B487" s="0" t="s">
         <v>1316</v>
       </c>
-      <c r="C487" s="134" t="n">
+      <c r="C487" s="135" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -27788,7 +27825,7 @@
       <c r="B498" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="C498" s="134" t="n">
+      <c r="C498" s="135" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -27796,7 +27833,7 @@
       <c r="B499" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C499" s="134" t="n">
+      <c r="C499" s="135" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -27804,7 +27841,7 @@
       <c r="B500" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C500" s="134" t="n">
+      <c r="C500" s="135" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -27812,7 +27849,7 @@
       <c r="B501" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C501" s="134" t="n">
+      <c r="C501" s="135" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -28380,7 +28417,7 @@
       <c r="B572" s="0" t="s">
         <v>1401</v>
       </c>
-      <c r="C572" s="134" t="n">
+      <c r="C572" s="135" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -28428,7 +28465,7 @@
       <c r="B578" s="0" t="s">
         <v>1407</v>
       </c>
-      <c r="C578" s="134" t="n">
+      <c r="C578" s="135" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -28460,7 +28497,7 @@
       <c r="B582" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="C582" s="134" t="n">
+      <c r="C582" s="135" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -28548,7 +28585,7 @@
       <c r="B593" s="0" t="s">
         <v>1422</v>
       </c>
-      <c r="C593" s="134" t="n">
+      <c r="C593" s="135" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -28724,7 +28761,7 @@
       <c r="B615" s="0" t="s">
         <v>1445</v>
       </c>
-      <c r="C615" s="134" t="n">
+      <c r="C615" s="135" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -28788,7 +28825,7 @@
       <c r="B623" s="0" t="s">
         <v>1453</v>
       </c>
-      <c r="C623" s="134" t="n">
+      <c r="C623" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28804,7 +28841,7 @@
       <c r="B625" s="0" t="s">
         <v>1455</v>
       </c>
-      <c r="C625" s="134" t="n">
+      <c r="C625" s="135" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -29324,7 +29361,7 @@
       <c r="B690" s="0" t="s">
         <v>1520</v>
       </c>
-      <c r="C690" s="134" t="n">
+      <c r="C690" s="135" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -29372,7 +29409,7 @@
       <c r="B696" s="0" t="s">
         <v>1526</v>
       </c>
-      <c r="C696" s="134" t="n">
+      <c r="C696" s="135" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -29404,7 +29441,7 @@
       <c r="B700" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="C700" s="134" t="n">
+      <c r="C700" s="135" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -29492,7 +29529,7 @@
       <c r="B711" s="0" t="s">
         <v>1541</v>
       </c>
-      <c r="C711" s="134" t="n">
+      <c r="C711" s="135" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -29668,7 +29705,7 @@
       <c r="B733" s="0" t="s">
         <v>1564</v>
       </c>
-      <c r="C733" s="134" t="n">
+      <c r="C733" s="135" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -29732,7 +29769,7 @@
       <c r="B741" s="0" t="s">
         <v>1572</v>
       </c>
-      <c r="C741" s="134" t="n">
+      <c r="C741" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -29748,7 +29785,7 @@
       <c r="B743" s="0" t="s">
         <v>1574</v>
       </c>
-      <c r="C743" s="134" t="n">
+      <c r="C743" s="135" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -30304,7 +30341,7 @@
       <c r="B811" s="0" t="s">
         <v>1650</v>
       </c>
-      <c r="C811" s="134" t="n">
+      <c r="C811" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30820,7 +30857,7 @@
       <c r="B874" s="0" t="s">
         <v>1715</v>
       </c>
-      <c r="C874" s="134" t="n">
+      <c r="C874" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31336,7 +31373,7 @@
       <c r="B937" s="0" t="s">
         <v>1780</v>
       </c>
-      <c r="C937" s="134" t="n">
+      <c r="C937" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31852,7 +31889,7 @@
       <c r="B1000" s="0" t="s">
         <v>1845</v>
       </c>
-      <c r="C1000" s="134" t="n">
+      <c r="C1000" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32368,7 +32405,7 @@
       <c r="B1063" s="0" t="s">
         <v>1910</v>
       </c>
-      <c r="C1063" s="134" t="n">
+      <c r="C1063" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32884,7 +32921,7 @@
       <c r="B1126" s="0" t="s">
         <v>1975</v>
       </c>
-      <c r="C1126" s="134" t="n">
+      <c r="C1126" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33400,7 +33437,7 @@
       <c r="B1189" s="0" t="s">
         <v>2040</v>
       </c>
-      <c r="C1189" s="134" t="n">
+      <c r="C1189" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33916,7 +33953,7 @@
       <c r="B1252" s="0" t="s">
         <v>2105</v>
       </c>
-      <c r="C1252" s="134" t="n">
+      <c r="C1252" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34432,7 +34469,7 @@
       <c r="B1315" s="0" t="s">
         <v>2170</v>
       </c>
-      <c r="C1315" s="134" t="n">
+      <c r="C1315" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34948,7 +34985,7 @@
       <c r="B1378" s="0" t="s">
         <v>2235</v>
       </c>
-      <c r="C1378" s="134" t="n">
+      <c r="C1378" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35464,7 +35501,7 @@
       <c r="B1441" s="0" t="s">
         <v>2300</v>
       </c>
-      <c r="C1441" s="134" t="n">
+      <c r="C1441" s="135" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35912,7 +35949,7 @@
       <c r="B1497" s="0" t="s">
         <v>2359</v>
       </c>
-      <c r="C1497" s="134" t="n">
+      <c r="C1497" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36538,7 +36575,7 @@
       <c r="B1576" s="0" t="s">
         <v>2443</v>
       </c>
-      <c r="C1576" s="134" t="n">
+      <c r="C1576" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36707,7 +36744,7 @@
       <c r="B1596" s="0" t="s">
         <v>2465</v>
       </c>
-      <c r="C1596" s="134" t="n">
+      <c r="C1596" s="135" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36715,7 +36752,7 @@
       <c r="B1597" s="0" t="s">
         <v>2466</v>
       </c>
-      <c r="C1597" s="134" t="n">
+      <c r="C1597" s="135" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -37595,7 +37632,7 @@
       <c r="B1707" s="0" t="s">
         <v>2577</v>
       </c>
-      <c r="C1707" s="134" t="n">
+      <c r="C1707" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37611,7 +37648,7 @@
       <c r="B1709" s="0" t="s">
         <v>2579</v>
       </c>
-      <c r="C1709" s="134" t="n">
+      <c r="C1709" s="135" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -38131,7 +38168,7 @@
       <c r="B1774" s="0" t="s">
         <v>2644</v>
       </c>
-      <c r="C1774" s="134" t="n">
+      <c r="C1774" s="135" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -38211,7 +38248,7 @@
       <c r="B1784" s="0" t="s">
         <v>2654</v>
       </c>
-      <c r="C1784" s="134" t="n">
+      <c r="C1784" s="135" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -38299,7 +38336,7 @@
       <c r="B1795" s="0" t="s">
         <v>2665</v>
       </c>
-      <c r="C1795" s="134" t="n">
+      <c r="C1795" s="135" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -38475,7 +38512,7 @@
       <c r="B1817" s="0" t="s">
         <v>2688</v>
       </c>
-      <c r="C1817" s="134" t="n">
+      <c r="C1817" s="135" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -38539,7 +38576,7 @@
       <c r="B1825" s="0" t="s">
         <v>2696</v>
       </c>
-      <c r="C1825" s="134" t="n">
+      <c r="C1825" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38555,7 +38592,7 @@
       <c r="B1827" s="0" t="s">
         <v>2698</v>
       </c>
-      <c r="C1827" s="134" t="n">
+      <c r="C1827" s="135" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -39158,7 +39195,7 @@
       <c r="B1902" s="0" t="s">
         <v>2775</v>
       </c>
-      <c r="C1902" s="134" t="n">
+      <c r="C1902" s="135" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -39206,7 +39243,7 @@
       <c r="B1908" s="0" t="s">
         <v>2781</v>
       </c>
-      <c r="C1908" s="134" t="n">
+      <c r="C1908" s="135" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -39238,7 +39275,7 @@
       <c r="B1912" s="0" t="s">
         <v>2785</v>
       </c>
-      <c r="C1912" s="134" t="n">
+      <c r="C1912" s="135" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -39326,7 +39363,7 @@
       <c r="B1923" s="0" t="s">
         <v>2796</v>
       </c>
-      <c r="C1923" s="134" t="n">
+      <c r="C1923" s="135" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -39502,7 +39539,7 @@
       <c r="B1945" s="0" t="s">
         <v>2819</v>
       </c>
-      <c r="C1945" s="134" t="n">
+      <c r="C1945" s="135" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -39566,7 +39603,7 @@
       <c r="B1953" s="0" t="s">
         <v>2827</v>
       </c>
-      <c r="C1953" s="134" t="n">
+      <c r="C1953" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39582,7 +39619,7 @@
       <c r="B1955" s="0" t="s">
         <v>2829</v>
       </c>
-      <c r="C1955" s="134" t="n">
+      <c r="C1955" s="135" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -40102,7 +40139,7 @@
       <c r="B2020" s="0" t="s">
         <v>2894</v>
       </c>
-      <c r="C2020" s="134" t="n">
+      <c r="C2020" s="135" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -40150,7 +40187,7 @@
       <c r="B2026" s="0" t="s">
         <v>2900</v>
       </c>
-      <c r="C2026" s="134" t="n">
+      <c r="C2026" s="135" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -40182,7 +40219,7 @@
       <c r="B2030" s="0" t="s">
         <v>2904</v>
       </c>
-      <c r="C2030" s="134" t="n">
+      <c r="C2030" s="135" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -40270,7 +40307,7 @@
       <c r="B2041" s="0" t="s">
         <v>2915</v>
       </c>
-      <c r="C2041" s="134" t="n">
+      <c r="C2041" s="135" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -40446,7 +40483,7 @@
       <c r="B2063" s="0" t="s">
         <v>2938</v>
       </c>
-      <c r="C2063" s="134" t="n">
+      <c r="C2063" s="135" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -40510,7 +40547,7 @@
       <c r="B2071" s="0" t="s">
         <v>2946</v>
       </c>
-      <c r="C2071" s="134" t="n">
+      <c r="C2071" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40526,7 +40563,7 @@
       <c r="B2073" s="0" t="s">
         <v>2948</v>
       </c>
-      <c r="C2073" s="134" t="n">
+      <c r="C2073" s="135" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -41046,7 +41083,7 @@
       <c r="B2138" s="0" t="s">
         <v>3013</v>
       </c>
-      <c r="C2138" s="134" t="n">
+      <c r="C2138" s="135" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -41094,7 +41131,7 @@
       <c r="B2144" s="0" t="s">
         <v>3019</v>
       </c>
-      <c r="C2144" s="134" t="n">
+      <c r="C2144" s="135" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -41126,7 +41163,7 @@
       <c r="B2148" s="0" t="s">
         <v>3023</v>
       </c>
-      <c r="C2148" s="134" t="n">
+      <c r="C2148" s="135" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -41214,7 +41251,7 @@
       <c r="B2159" s="0" t="s">
         <v>3034</v>
       </c>
-      <c r="C2159" s="134" t="n">
+      <c r="C2159" s="135" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -41390,7 +41427,7 @@
       <c r="B2181" s="0" t="s">
         <v>3057</v>
       </c>
-      <c r="C2181" s="134" t="n">
+      <c r="C2181" s="135" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -41454,7 +41491,7 @@
       <c r="B2189" s="0" t="s">
         <v>3065</v>
       </c>
-      <c r="C2189" s="134" t="n">
+      <c r="C2189" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41470,7 +41507,7 @@
       <c r="B2191" s="0" t="s">
         <v>3067</v>
       </c>
-      <c r="C2191" s="134" t="n">
+      <c r="C2191" s="135" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -42046,7 +42083,7 @@
       <c r="B2263" s="0" t="s">
         <v>3142</v>
       </c>
-      <c r="C2263" s="134" t="n">
+      <c r="C2263" s="135" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -42333,7 +42370,7 @@
       <c r="F2297" s="0" t="s">
         <v>3187</v>
       </c>
-      <c r="G2297" s="136" t="n">
+      <c r="G2297" s="137" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -42425,7 +42462,7 @@
       <c r="B2307" s="0" t="s">
         <v>3201</v>
       </c>
-      <c r="C2307" s="134" t="n">
+      <c r="C2307" s="135" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -42511,7 +42548,7 @@
       <c r="B2317" s="0" t="s">
         <v>3217</v>
       </c>
-      <c r="C2317" s="134" t="n">
+      <c r="C2317" s="135" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -42519,7 +42556,7 @@
       <c r="B2318" s="0" t="s">
         <v>3218</v>
       </c>
-      <c r="C2318" s="134" t="n">
+      <c r="C2318" s="135" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -42535,7 +42572,7 @@
       <c r="B2320" s="0" t="s">
         <v>3220</v>
       </c>
-      <c r="C2320" s="134" t="n">
+      <c r="C2320" s="135" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -42583,7 +42620,7 @@
       <c r="C2326" s="0" t="s">
         <v>3228</v>
       </c>
-      <c r="D2326" s="137" t="n">
+      <c r="D2326" s="138" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -42634,7 +42671,7 @@
       <c r="C2332" s="0" t="s">
         <v>3236</v>
       </c>
-      <c r="D2332" s="137" t="n">
+      <c r="D2332" s="138" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -42653,7 +42690,7 @@
       <c r="D2334" s="0" t="s">
         <v>3239</v>
       </c>
-      <c r="E2334" s="137" t="n">
+      <c r="E2334" s="138" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -42711,7 +42748,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="137" t="n">
+      <c r="F2339" s="138" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -43183,7 +43220,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="137" t="n">
+      <c r="F2380" s="138" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11655,11 +11655,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="G33" activeCellId="0" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="P54" activeCellId="0" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14414,46 +14414,46 @@
         <v>170</v>
       </c>
       <c r="E51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="F51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
       <c r="G51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="H51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
       <c r="I51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
       <c r="K51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="L51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
       <c r="M51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="N51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
       <c r="O51" s="33" t="n">
-        <v>0.675</v>
+        <v>0.5</v>
       </c>
       <c r="P51" s="32" t="n">
-        <v>38245</v>
-      </c>
-      <c r="T51" s="31" t="n">
-        <v>0.675</v>
+        <v>36496</v>
+      </c>
+      <c r="T51" s="33" t="n">
+        <v>0.5</v>
       </c>
       <c r="U51" s="32" t="n">
-        <v>38245</v>
+        <v>36496</v>
       </c>
     </row>
     <row r="52" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14468,49 +14468,49 @@
         <v>173</v>
       </c>
       <c r="E52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="F52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="G52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="H52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="I52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="J52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="K52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="L52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="M52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="N52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="O52" s="37" t="n">
-        <v>-0.675</v>
+        <v>-0.5</v>
       </c>
       <c r="P52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
-      <c r="T52" s="38" t="n">
-        <v>-0.675</v>
+      <c r="T52" s="37" t="n">
+        <v>-0.5</v>
       </c>
       <c r="U52" s="45" t="n">
-        <v>27858</v>
+        <v>29606</v>
       </c>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
@@ -14622,10 +14622,10 @@
         <v>180</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>28.1862</v>
+        <v>29.573</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>246016</v>
+        <v>259915</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
@@ -14638,10 +14638,10 @@
         <v>-241810</v>
       </c>
       <c r="K54" s="57" t="n">
-        <v>44.962</v>
+        <v>45.575</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>413776</v>
+        <v>419898</v>
       </c>
       <c r="M54" s="57" t="n">
         <v>44.962</v>
@@ -14650,10 +14650,10 @@
         <v>413776</v>
       </c>
       <c r="O54" s="57" t="n">
-        <v>19.162</v>
+        <v>19.847</v>
       </c>
       <c r="P54" s="28" t="n">
-        <v>155779</v>
+        <v>162643</v>
       </c>
       <c r="T54" s="58" t="n">
         <v>51.2907</v>
@@ -17239,11 +17239,11 @@
       </c>
       <c r="G3" s="113" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>19.162</v>
+        <v>19.847</v>
       </c>
       <c r="H3" s="114" t="n">
         <f aca="false">G3-F3</f>
-        <v>0.0588810182917001</v>
+        <v>0.743881018291702</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17306,7 +17306,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="114" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>2.56202162665121</v>
+        <v>2.79035495998454</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>272</v>
@@ -17352,12 +17352,12 @@
       </c>
       <c r="E10" s="114" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>28.1862</v>
+        <v>29.573</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="123" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>30.3676000290853</v>
+        <v>31.7544000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="E22" s="114" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-39.7801914229833</v>
+        <v>-38.3933914229833</v>
       </c>
       <c r="F22" s="130" t="n">
         <f aca="false">'Modes A-F'!I54</f>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="G22" s="114" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-34.82882924884</v>
+        <v>-33.44202924884</v>
       </c>
       <c r="I22" s="109"/>
     </row>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="E34" s="114" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-66.7884236638297</v>
+        <v>-65.4016236638297</v>
       </c>
       <c r="F34" s="130" t="n">
         <f aca="false">'Modes A-F'!G54</f>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="G34" s="114" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-61.8368007866982</v>
+        <v>-60.4500007866982</v>
       </c>
       <c r="I34" s="109"/>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -103,8 +103,7 @@
             <charset val="1"/>
           </rPr>
           <t>Vertical = 110.75
-Pitch = -1.465
-</t>
+Pitch = -1.465</t>
         </r>
         <r>
           <rPr>
@@ -502,7 +501,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="3307">
   <si>
-    <t>  in /home/bravel/commissioning/CRS, do sh pvs.sh | xclip, then paste into appropriate column</t>
+    <t>in /home/bravel/commissioning/CRS, do sh pvs.sh | xclip, then paste into appropriate column</t>
   </si>
   <si>
     <t>Mode A</t>
@@ -11399,6 +11398,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11464,10 +11467,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11654,12 +11653,12 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="P54" activeCellId="0" sqref="P54"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="J60" activeCellId="0" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15423,8 +15422,8 @@
   </sheetPr>
   <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16819,8 +16818,9 @@
       <c r="E24" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="74" t="n">
-        <v>25.5</v>
+      <c r="F24" s="95" t="n">
+        <f aca="false">'Modes A-F'!E54</f>
+        <v>29.573</v>
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="74" t="s">
@@ -16841,8 +16841,9 @@
       <c r="E25" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="F25" s="74" t="n">
-        <v>-42.6</v>
+      <c r="F25" s="95" t="n">
+        <f aca="false">'Modes A-F'!G54</f>
+        <v>-55.188</v>
       </c>
       <c r="G25" s="0"/>
       <c r="H25" s="74" t="s">
@@ -16863,8 +16864,9 @@
       <c r="E26" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="74" t="n">
-        <v>-17.25</v>
+      <c r="F26" s="95" t="n">
+        <f aca="false">'Modes A-F'!I54</f>
+        <v>-20.5991</v>
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="74" t="s">
@@ -16885,8 +16887,9 @@
       <c r="E27" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="74" t="n">
-        <v>46.1092</v>
+      <c r="F27" s="95" t="n">
+        <f aca="false">'Modes A-F'!K54</f>
+        <v>45.575</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -16903,8 +16906,9 @@
       <c r="E28" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="74" t="n">
-        <v>46.1092</v>
+      <c r="F28" s="95" t="n">
+        <f aca="false">'Modes A-F'!M54</f>
+        <v>44.962</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
@@ -16921,8 +16925,9 @@
       <c r="E29" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="74" t="n">
-        <v>19.5956</v>
+      <c r="F29" s="95" t="n">
+        <f aca="false">'Modes A-F'!O54</f>
+        <v>19.847</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
@@ -16939,8 +16944,9 @@
       <c r="E30" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="74" t="n">
-        <v>32.4638</v>
+      <c r="F30" s="95" t="n">
+        <f aca="false">'Modes A-F'!T54</f>
+        <v>51.2907</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
@@ -17016,14 +17022,14 @@
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
@@ -17049,25 +17055,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="98" t="n">
+      <c r="E3" s="99" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="98" t="n">
+      <c r="F3" s="99" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="99" t="n">
+      <c r="G3" s="100" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="100" t="n">
+      <c r="H3" s="101" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -17130,11 +17136,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="102" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -17146,9 +17152,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17175,7 +17181,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17190,26 +17196,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105" t="s">
         <v>262</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="107"/>
-      <c r="D2" s="108" t="s">
+      <c r="A2" s="108"/>
+      <c r="D2" s="109" t="s">
         <v>265</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -17218,22 +17224,22 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="109"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>266</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="111" t="n">
+      <c r="E3" s="112" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="112" t="n">
+      <c r="F3" s="95" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
@@ -17247,21 +17253,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>268</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="E4" s="112" t="n">
+      <c r="E4" s="95" t="n">
         <f aca="false">'Modes A-F'!K56</f>
         <v>129</v>
       </c>
-      <c r="F4" s="112" t="n">
+      <c r="F4" s="95" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
         <v>100.088913266688</v>
       </c>
@@ -17318,8 +17324,8 @@
       </c>
       <c r="B8" s="120"/>
       <c r="C8" s="120"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="121" t="s">
         <v>273</v>
       </c>
@@ -17328,26 +17334,26 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="107"/>
-      <c r="D9" s="108" t="s">
+      <c r="A9" s="108"/>
+      <c r="D9" s="109" t="s">
         <v>265</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="109" t="n">
+      <c r="G9" s="110" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>274</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="109" t="s">
         <v>267</v>
       </c>
       <c r="E10" s="114" t="n">
@@ -17361,14 +17367,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>275</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="109" t="s">
         <v>269</v>
       </c>
       <c r="E11" s="114" t="n">
@@ -17409,20 +17415,20 @@
       </c>
       <c r="B16" s="120"/>
       <c r="C16" s="120"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="103" t="n">
+      <c r="G16" s="104" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="103"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="122"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="107"/>
-      <c r="D17" s="108" t="s">
+      <c r="A17" s="108"/>
+      <c r="D17" s="109" t="s">
         <v>265</v>
       </c>
       <c r="E17" s="0" t="n">
@@ -17435,19 +17441,19 @@
       <c r="H17" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="I17" s="109" t="n">
+      <c r="I17" s="110" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="111" t="s">
         <v>278</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="109" t="s">
         <v>279</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -17457,11 +17463,11 @@
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="109"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="107"/>
-      <c r="D19" s="108" t="s">
+      <c r="A19" s="108"/>
+      <c r="D19" s="109" t="s">
         <v>280</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -17472,31 +17478,31 @@
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="109"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="A20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="G20" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="I20" s="109"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="107"/>
+      <c r="A21" s="108"/>
       <c r="F21" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="109"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="111" t="s">
         <v>266</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="109" t="s">
         <v>267</v>
       </c>
       <c r="E22" s="114" t="n">
@@ -17511,17 +17517,17 @@
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
         <v>-33.44202924884</v>
       </c>
-      <c r="I22" s="109"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="111" t="s">
         <v>268</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="109" t="s">
         <v>269</v>
       </c>
       <c r="E23" s="114" t="n">
@@ -17536,7 +17542,7 @@
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
         <v>42.4358981480704</v>
       </c>
-      <c r="I23" s="109"/>
+      <c r="I23" s="110"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="115" t="s">
@@ -17571,20 +17577,20 @@
       </c>
       <c r="B28" s="134"/>
       <c r="C28" s="134"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="103" t="n">
+      <c r="G28" s="104" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="103"/>
+      <c r="H28" s="104"/>
       <c r="I28" s="122"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="107"/>
-      <c r="D29" s="108" t="s">
+      <c r="A29" s="108"/>
+      <c r="D29" s="109" t="s">
         <v>265</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -17597,19 +17603,19 @@
       <c r="H29" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="I29" s="109" t="n">
+      <c r="I29" s="110" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="111" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="109" t="s">
         <v>279</v>
       </c>
       <c r="E30" s="0" t="n">
@@ -17619,11 +17625,11 @@
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="109"/>
+      <c r="I30" s="110"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="107"/>
-      <c r="D31" s="108" t="s">
+      <c r="A31" s="108"/>
+      <c r="D31" s="109" t="s">
         <v>280</v>
       </c>
       <c r="E31" s="0" t="n">
@@ -17634,31 +17640,31 @@
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="109"/>
+      <c r="I31" s="110"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="107"/>
-      <c r="D32" s="108"/>
+      <c r="A32" s="108"/>
+      <c r="D32" s="109"/>
       <c r="G32" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="I32" s="109"/>
+      <c r="I32" s="110"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="107"/>
+      <c r="A33" s="108"/>
       <c r="F33" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="I33" s="109"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="111" t="s">
         <v>266</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="109" t="s">
         <v>267</v>
       </c>
       <c r="E34" s="114" t="n">
@@ -17673,17 +17679,17 @@
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
         <v>-60.4500007866982</v>
       </c>
-      <c r="I34" s="109"/>
+      <c r="I34" s="110"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="111" t="s">
         <v>268</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="D35" s="109" t="s">
         <v>269</v>
       </c>
       <c r="E35" s="114" t="n">
@@ -17698,7 +17704,7 @@
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
         <v>13.5227875381681</v>
       </c>
-      <c r="I35" s="109"/>
+      <c r="I35" s="110"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="115" t="s">

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -11653,12 +11653,12 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="J60" activeCellId="0" sqref="J60"/>
+      <selection pane="bottomRight" activeCell="O58" activeCellId="0" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14637,10 +14637,10 @@
         <v>-241810</v>
       </c>
       <c r="K54" s="57" t="n">
-        <v>45.575</v>
+        <v>44.825</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>419898</v>
+        <v>412437</v>
       </c>
       <c r="M54" s="57" t="n">
         <v>44.962</v>
@@ -14800,7 +14800,7 @@
         <v>10042276</v>
       </c>
       <c r="O56" s="60" t="n">
-        <v>103.91</v>
+        <v>101.91</v>
       </c>
       <c r="P56" s="23" t="n">
         <v>8736787</v>
@@ -14862,7 +14862,7 @@
         <v>7596748</v>
       </c>
       <c r="O57" s="61" t="n">
-        <v>100.43</v>
+        <v>98.43</v>
       </c>
       <c r="P57" s="32" t="n">
         <v>6110187</v>
@@ -14916,7 +14916,7 @@
         <v>6400000</v>
       </c>
       <c r="O58" s="61" t="n">
-        <v>100.43</v>
+        <v>98.43</v>
       </c>
       <c r="P58" s="30" t="n">
         <v>4913439</v>
@@ -15422,8 +15422,8 @@
   </sheetPr>
   <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="O58 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="F27" s="95" t="n">
         <f aca="false">'Modes A-F'!K54</f>
-        <v>45.575</v>
+        <v>44.825</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -16997,7 +16997,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="1" sqref="O58 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17181,7 +17181,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="O58 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17273,11 +17273,11 @@
       </c>
       <c r="G4" s="113" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>103.91</v>
+        <v>101.91</v>
       </c>
       <c r="H4" s="114" t="n">
         <f aca="false">G4-F4</f>
-        <v>3.82108673331224</v>
+        <v>1.821086733312</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17302,17 +17302,17 @@
       </c>
       <c r="G5" s="119" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>100.43</v>
+        <v>98.43</v>
       </c>
       <c r="H5" s="114" t="n">
         <f aca="false">G5-F5</f>
-        <v>3.80609712834968</v>
+        <v>1.80609712834971</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="114" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>2.79035495998454</v>
+        <v>1.45702162665114</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>272</v>
@@ -17757,7 +17757,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O58 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23829,7 +23829,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="O58 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11657,11 +11657,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="O40" activeCellId="0" sqref="O40:P41"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="K42" activeCellId="0" sqref="K42:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11670,7 +11670,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.0408163265306"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.219387755102"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8622448979592"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.5612244897959"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="15.5612244897959"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="15.5612244897959"/>
@@ -13814,49 +13815,49 @@
         <v>141</v>
       </c>
       <c r="E42" s="37" t="n">
-        <v>209762</v>
+        <v>212225</v>
       </c>
       <c r="F42" s="35" t="n">
-        <v>209763</v>
+        <v>212225</v>
       </c>
       <c r="G42" s="37" t="n">
-        <v>209762</v>
+        <v>212225</v>
       </c>
       <c r="H42" s="35" t="n">
-        <v>209763</v>
+        <v>212225</v>
       </c>
       <c r="I42" s="37" t="n">
-        <v>209762</v>
+        <v>212225</v>
       </c>
       <c r="J42" s="35" t="n">
-        <v>209763</v>
-      </c>
-      <c r="K42" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="45" t="n">
-        <v>0</v>
+        <v>212225</v>
+      </c>
+      <c r="K42" s="37" t="n">
+        <v>212225</v>
+      </c>
+      <c r="L42" s="35" t="n">
+        <v>212225</v>
       </c>
       <c r="M42" s="37" t="n">
-        <v>0</v>
+        <v>212225</v>
       </c>
       <c r="N42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="45" t="n">
-        <v>0</v>
+        <v>212225</v>
+      </c>
+      <c r="O42" s="37" t="n">
+        <v>212225</v>
+      </c>
+      <c r="P42" s="35" t="n">
+        <v>212225</v>
       </c>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="T42" s="56" t="n">
-        <v>119996</v>
+        <v>112238</v>
       </c>
       <c r="U42" s="45" t="n">
-        <v>119996</v>
+        <v>112238</v>
       </c>
       <c r="V42" s="0"/>
       <c r="W42" s="0"/>
@@ -14451,7 +14452,7 @@
       <c r="P51" s="32" t="n">
         <v>36496</v>
       </c>
-      <c r="T51" s="33" t="n">
+      <c r="T51" s="31" t="n">
         <v>0.5</v>
       </c>
       <c r="U51" s="32" t="n">
@@ -14508,7 +14509,7 @@
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
-      <c r="T52" s="37" t="n">
+      <c r="T52" s="38" t="n">
         <v>-0.5</v>
       </c>
       <c r="U52" s="45" t="n">
@@ -14658,10 +14659,10 @@
         <v>145846</v>
       </c>
       <c r="T54" s="58" t="n">
-        <v>51.2907</v>
+        <v>52.606</v>
       </c>
       <c r="U54" s="28" t="n">
-        <v>477063</v>
+        <v>490252</v>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
@@ -15426,7 +15427,7 @@
   <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="O40:P41 C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="K42:P42 C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16949,7 +16950,7 @@
       </c>
       <c r="F30" s="95" t="n">
         <f aca="false">'Modes A-F'!T54</f>
-        <v>51.2907</v>
+        <v>52.606</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
@@ -17000,7 +17001,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="1" sqref="O40:P41 G11"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="1" sqref="K42:P42 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17184,7 +17185,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="O40:P41 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="K42:P42 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17760,7 +17761,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O40:P41 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K42:P42 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23832,7 +23833,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="O40:P41 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="K42:P42 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11020,7 +11020,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11266,6 +11266,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11657,11 +11661,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="K42" activeCellId="0" sqref="K42:P42"/>
+      <selection pane="bottomRight" activeCell="G62" activeCellId="0" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14625,20 +14629,20 @@
         <v>181</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>28.561</v>
+        <v>28.6621</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>249783</v>
+        <v>250802</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-21.2026</v>
+        <v>-21.286</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>-247889</v>
+        <v>-248676</v>
       </c>
       <c r="K54" s="57" t="n">
         <v>44.014</v>
@@ -14647,10 +14651,10 @@
         <v>404304</v>
       </c>
       <c r="M54" s="57" t="n">
-        <v>44.014</v>
+        <v>43.915</v>
       </c>
       <c r="N54" s="28" t="n">
-        <v>404304</v>
+        <v>404328</v>
       </c>
       <c r="O54" s="57" t="n">
         <v>18.169</v>
@@ -14659,10 +14663,10 @@
         <v>145846</v>
       </c>
       <c r="T54" s="58" t="n">
-        <v>52.606</v>
+        <v>52.6071</v>
       </c>
       <c r="U54" s="28" t="n">
-        <v>490252</v>
+        <v>490232</v>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
@@ -14774,10 +14778,10 @@
         <v>188</v>
       </c>
       <c r="E56" s="60" t="n">
-        <v>111.387</v>
+        <v>112.987</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>9125813</v>
+        <v>9209080</v>
       </c>
       <c r="G56" s="60" t="n">
         <v>24.4104</v>
@@ -14786,37 +14790,37 @@
         <v>4600216</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>57.109</v>
+        <v>58.859</v>
       </c>
       <c r="J56" s="23" t="n">
-        <v>6301581</v>
+        <v>6392661</v>
       </c>
       <c r="K56" s="60" t="n">
-        <v>126.429</v>
+        <v>128.679</v>
       </c>
       <c r="L56" s="23" t="n">
-        <v>9908496</v>
+        <v>10025575</v>
       </c>
       <c r="M56" s="60" t="n">
-        <v>126.429</v>
+        <v>128.526</v>
       </c>
       <c r="N56" s="23" t="n">
-        <v>9908496</v>
+        <v>10017600</v>
       </c>
       <c r="O56" s="60" t="n">
-        <v>98.873</v>
+        <v>100.534</v>
       </c>
       <c r="P56" s="23" t="n">
-        <v>8474698</v>
+        <v>8561136</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
       <c r="T56" s="55" t="n">
-        <v>136.324</v>
+        <v>138.374</v>
       </c>
       <c r="U56" s="25" t="n">
-        <v>10423373</v>
+        <v>10530029</v>
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
@@ -14836,10 +14840,10 @@
         <v>191</v>
       </c>
       <c r="E57" s="61" t="n">
-        <v>109.513</v>
+        <v>111.113</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>6582806</v>
+        <v>6666042</v>
       </c>
       <c r="G57" s="61" t="n">
         <v>12.81</v>
@@ -14848,34 +14852,34 @@
         <v>1551088</v>
       </c>
       <c r="I57" s="61" t="n">
-        <v>50.479</v>
+        <v>52.229</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>3511100</v>
-      </c>
-      <c r="K57" s="60" t="n">
-        <v>126.197</v>
+        <v>3602156</v>
+      </c>
+      <c r="K57" s="61" t="n">
+        <v>128.447</v>
       </c>
       <c r="L57" s="32" t="n">
-        <v>7450895</v>
-      </c>
-      <c r="M57" s="60" t="n">
-        <v>126.197</v>
+        <v>7567975</v>
+      </c>
+      <c r="M57" s="61" t="n">
+        <v>128.294</v>
       </c>
       <c r="N57" s="32" t="n">
-        <v>7450895</v>
+        <v>7560000</v>
       </c>
       <c r="O57" s="61" t="n">
-        <v>98.525</v>
+        <v>100.302</v>
       </c>
       <c r="P57" s="32" t="n">
-        <v>6011058</v>
+        <v>6103536</v>
       </c>
       <c r="T57" s="30" t="n">
-        <v>136.35</v>
+        <v>138.4</v>
       </c>
       <c r="U57" s="32" t="n">
-        <v>7979171</v>
+        <v>8085853</v>
       </c>
     </row>
     <row r="58" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14890,10 +14894,10 @@
         <v>194</v>
       </c>
       <c r="E58" s="61" t="n">
-        <v>109.513</v>
+        <v>111.113</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>5386058</v>
+        <v>5469294</v>
       </c>
       <c r="G58" s="61" t="n">
         <v>12.81</v>
@@ -14902,34 +14906,34 @@
         <v>354340</v>
       </c>
       <c r="I58" s="61" t="n">
-        <v>50.479</v>
+        <v>52.229</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>2314352</v>
-      </c>
-      <c r="K58" s="60" t="n">
-        <v>126.197</v>
+        <v>2405408</v>
+      </c>
+      <c r="K58" s="61" t="n">
+        <v>128.447</v>
       </c>
       <c r="L58" s="32" t="n">
-        <v>6254147</v>
-      </c>
-      <c r="M58" s="60" t="n">
-        <v>126.197</v>
+        <v>6371227</v>
+      </c>
+      <c r="M58" s="61" t="n">
+        <v>128.294</v>
       </c>
       <c r="N58" s="32" t="n">
-        <v>6254147</v>
+        <v>6363252</v>
       </c>
       <c r="O58" s="61" t="n">
-        <v>98.525</v>
-      </c>
-      <c r="P58" s="30" t="n">
-        <v>4814310</v>
+        <v>100.302</v>
+      </c>
+      <c r="P58" s="62" t="n">
+        <v>4906788</v>
       </c>
       <c r="T58" s="27" t="n">
-        <v>136.35</v>
+        <v>138.4</v>
       </c>
       <c r="U58" s="28" t="n">
-        <v>6782423</v>
+        <v>6889105</v>
       </c>
       <c r="V58" s="0"/>
       <c r="W58" s="0"/>
@@ -14949,46 +14953,46 @@
         <v>197</v>
       </c>
       <c r="E59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="G59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="H59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="I59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="J59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="K59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="L59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="M59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="N59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="O59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="P59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
       <c r="T59" s="61" t="n">
-        <v>-4.6</v>
+        <v>-0.6</v>
       </c>
       <c r="U59" s="28" t="n">
-        <v>-332000</v>
+        <v>-412000</v>
       </c>
     </row>
     <row r="60" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15002,50 +15006,50 @@
       <c r="D60" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="62" t="n">
-        <v>16.9</v>
+      <c r="E60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="F60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="G60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="H60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="I60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="I60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="J60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="K60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="K60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="L60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="M60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="M60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="N60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="O60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="O60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>130000</v>
-      </c>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="62" t="n">
-        <v>16.9</v>
+        <v>-199443</v>
+      </c>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="63" t="n">
+        <v>33.3721</v>
       </c>
       <c r="U60" s="47" t="n">
-        <v>130000</v>
+        <v>-199443</v>
       </c>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
@@ -15054,52 +15058,52 @@
       <c r="Z60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="68" t="n">
+      <c r="E61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="69" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="30" t="n">
@@ -15110,8 +15114,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="64"/>
-      <c r="B62" s="69" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="70" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -15164,8 +15168,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="64"/>
-      <c r="B63" s="69" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="70" t="s">
         <v>208</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -15218,8 +15222,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="64"/>
-      <c r="B64" s="69" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="70" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -15272,8 +15276,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="64"/>
-      <c r="B65" s="69" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="70" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -15326,53 +15330,53 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="64"/>
-      <c r="B66" s="70" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="C66" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="62" t="n">
+      <c r="E66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="63" t="n">
         <v>0</v>
       </c>
       <c r="U66" s="47" t="n">
@@ -15427,39 +15431,39 @@
   <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="K42:P42 C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="74" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="74" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="74" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="75" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="75" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="75" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="74"/>
+    <row r="1" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="75"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="AMJ1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="AMJ1" s="75"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -16480,168 +16484,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="81" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79" t="s">
+    <row r="3" s="82" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="AMJ3" s="77"/>
-    </row>
-    <row r="4" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="74"/>
-      <c r="B4" s="78" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="AMJ3" s="78"/>
+    </row>
+    <row r="4" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="75"/>
+      <c r="B4" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74" t="n">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="82" t="n">
+      <c r="E4" s="83" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="AMJ4" s="74"/>
-    </row>
-    <row r="5" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74"/>
-      <c r="B5" s="78" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="AMJ4" s="75"/>
+    </row>
+    <row r="5" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="75"/>
+      <c r="B5" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="74" t="n">
+      <c r="D5" s="75" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="AMJ5" s="74"/>
-    </row>
-    <row r="6" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="74"/>
-      <c r="B6" s="78" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="AMJ5" s="75"/>
+    </row>
+    <row r="6" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="75"/>
+      <c r="B6" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="74" t="n">
+      <c r="D6" s="75" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="AMJ6" s="74"/>
-    </row>
-    <row r="7" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="AMJ6" s="75"/>
+    </row>
+    <row r="7" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="75"/>
+      <c r="B7" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="74" t="n">
+      <c r="D7" s="75" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="AMJ7" s="74"/>
-    </row>
-    <row r="8" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="74"/>
-      <c r="B8" s="78" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="AMJ7" s="75"/>
+    </row>
+    <row r="8" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="75"/>
+      <c r="B8" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="74" t="n">
+      <c r="D8" s="75" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="AMJ8" s="74"/>
-    </row>
-    <row r="9" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="74"/>
-      <c r="B9" s="78" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="AMJ8" s="75"/>
+    </row>
+    <row r="9" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="75"/>
+      <c r="B9" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74" t="n">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="AMJ9" s="74"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="AMJ9" s="75"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84" t="n">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -16650,8 +16654,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -16660,82 +16664,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="90" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="91" t="s">
         <v>237</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="82"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="74" t="n">
+      <c r="C15" s="75" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="82"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="91" t="n">
+      <c r="C16" s="92" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="74" t="n">
+      <c r="C17" s="75" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="84" t="n">
+      <c r="C18" s="85" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -16762,213 +16766,213 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="86" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="93" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="93"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="91" t="s">
         <v>237</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="91" t="s">
         <v>237</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="95" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="79" t="s">
         <v>246</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="95" t="n">
+      <c r="F24" s="96" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>28.561</v>
+        <v>28.6621</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="82" t="n">
+      <c r="I24" s="83" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="79" t="s">
         <v>248</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="F25" s="95" t="n">
+      <c r="F25" s="96" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="82" t="n">
+      <c r="I25" s="83" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="79" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="F26" s="95" t="n">
+      <c r="F26" s="96" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-21.2026</v>
+        <v>-21.286</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="82" t="n">
+      <c r="I26" s="83" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="74" t="n">
+      <c r="C27" s="75" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="95" t="n">
+      <c r="F27" s="96" t="n">
         <f aca="false">'Modes A-F'!K54</f>
         <v>44.014</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="82"/>
+      <c r="I27" s="83"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="74" t="n">
+      <c r="C28" s="75" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="95" t="n">
+      <c r="F28" s="96" t="n">
         <f aca="false">'Modes A-F'!M54</f>
-        <v>44.014</v>
+        <v>43.915</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="82"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="74" t="n">
+      <c r="C29" s="75" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="95" t="n">
+      <c r="F29" s="96" t="n">
         <f aca="false">'Modes A-F'!O54</f>
         <v>18.169</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="82"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="74" t="n">
+      <c r="C30" s="75" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="95" t="n">
+      <c r="F30" s="96" t="n">
         <f aca="false">'Modes A-F'!T54</f>
-        <v>52.606</v>
+        <v>52.6071</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="82"/>
+      <c r="I30" s="83"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="84" t="n">
+      <c r="C31" s="85" t="n">
         <v>55</v>
       </c>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17001,7 +17005,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" activeCellId="1" sqref="K42:P42 G11"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17026,14 +17030,14 @@
       <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97" t="s">
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="97"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
@@ -17059,25 +17063,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="99" t="n">
+      <c r="E3" s="100" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="99" t="n">
+      <c r="F3" s="100" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="100" t="n">
+      <c r="G3" s="101" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="101" t="n">
+      <c r="H3" s="102" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -17140,11 +17144,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="102" t="s">
+      <c r="I6" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -17156,9 +17160,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17185,7 +17189,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="K42:P42 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17200,26 +17204,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="108"/>
-      <c r="D2" s="109" t="s">
+      <c r="A2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>266</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -17228,514 +17232,514 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="110"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="112" t="s">
         <v>267</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="112" t="n">
+      <c r="E3" s="113" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="95" t="n">
+      <c r="F3" s="96" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="113" t="n">
+      <c r="G3" s="114" t="n">
         <f aca="false">'Modes A-F'!O54</f>
         <v>18.169</v>
       </c>
-      <c r="H3" s="114" t="n">
+      <c r="H3" s="115" t="n">
         <f aca="false">G3-F3</f>
         <v>-0.934118981708298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="112" t="s">
         <v>269</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="95" t="n">
+      <c r="E4" s="96" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>126.429</v>
-      </c>
-      <c r="F4" s="95" t="n">
+        <v>128.679</v>
+      </c>
+      <c r="F4" s="96" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>97.5179132666878</v>
-      </c>
-      <c r="G4" s="113" t="n">
+        <v>99.7679132666878</v>
+      </c>
+      <c r="G4" s="114" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>98.873</v>
-      </c>
-      <c r="H4" s="114" t="n">
+        <v>100.534</v>
+      </c>
+      <c r="H4" s="115" t="n">
         <f aca="false">G4-F4</f>
-        <v>1.35508673331225</v>
+        <v>0.76608673331225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="116" t="n">
+      <c r="B5" s="117" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="118" t="n">
+      <c r="E5" s="119" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>126.197</v>
-      </c>
-      <c r="F5" s="118" t="n">
+        <v>128.447</v>
+      </c>
+      <c r="F5" s="119" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>93.8209028716503</v>
-      </c>
-      <c r="G5" s="119" t="n">
+        <v>96.0709028716503</v>
+      </c>
+      <c r="G5" s="120" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>98.525</v>
-      </c>
-      <c r="H5" s="114" t="n">
+        <v>100.302</v>
+      </c>
+      <c r="H5" s="115" t="n">
         <f aca="false">G5-F5</f>
-        <v>4.70409712834967</v>
+        <v>4.23109712834967</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="114" t="n">
+      <c r="H6" s="115" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>1.70835495998454</v>
+        <v>1.35435495998454</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="121" t="s">
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="122" t="n">
+      <c r="G8" s="123" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="108"/>
-      <c r="D9" s="109" t="s">
+      <c r="A9" s="109"/>
+      <c r="D9" s="110" t="s">
         <v>266</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="110" t="n">
+      <c r="G9" s="111" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="112" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="114" t="n">
+      <c r="E10" s="115" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>28.561</v>
-      </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="123" t="n">
+        <v>28.6621</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="124" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>30.7424000290853</v>
+        <v>30.8435000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="112" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="114" t="n">
+      <c r="E11" s="115" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>109.513</v>
-      </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="123" t="n">
+        <v>111.113</v>
+      </c>
+      <c r="F11" s="115"/>
+      <c r="G11" s="124" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>111.821400030779</v>
+        <v>113.421400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="116" t="n">
+      <c r="B12" s="117" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117" t="s">
+      <c r="C12" s="117"/>
+      <c r="D12" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="124" t="n">
+      <c r="E12" s="125" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>109.513</v>
-      </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125" t="n">
+        <v>111.113</v>
+      </c>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>112.052400033859</v>
+        <v>113.652400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="121" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="104" t="n">
+      <c r="G16" s="105" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="122"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="123"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="108"/>
-      <c r="D17" s="109" t="s">
+      <c r="A17" s="109"/>
+      <c r="D17" s="110" t="s">
         <v>266</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="63" t="n">
+      <c r="G17" s="64" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="110" t="n">
+      <c r="I17" s="111" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="112" t="s">
         <v>279</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="110" t="s">
         <v>280</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="127" t="n">
+      <c r="G18" s="128" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="110"/>
+      <c r="I18" s="111"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="108"/>
-      <c r="D19" s="109" t="s">
+      <c r="A19" s="109"/>
+      <c r="D19" s="110" t="s">
         <v>281</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="63" t="n">
+      <c r="G19" s="64" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="110"/>
+      <c r="I19" s="111"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108"/>
-      <c r="D20" s="109"/>
-      <c r="G20" s="128" t="s">
+      <c r="A20" s="109"/>
+      <c r="D20" s="110"/>
+      <c r="G20" s="129" t="s">
         <v>282</v>
       </c>
-      <c r="I20" s="110"/>
+      <c r="I20" s="111"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="108"/>
-      <c r="F21" s="129" t="s">
+      <c r="A21" s="109"/>
+      <c r="F21" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="110"/>
+      <c r="I21" s="111"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="112" t="s">
         <v>267</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D22" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="114" t="n">
+      <c r="E22" s="115" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-39.4053914229833</v>
-      </c>
-      <c r="F22" s="130" t="n">
+        <v>-39.3042914229833</v>
+      </c>
+      <c r="F22" s="131" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-21.2026</v>
-      </c>
-      <c r="G22" s="114" t="n">
+        <v>-21.286</v>
+      </c>
+      <c r="G22" s="115" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-34.45402924884</v>
-      </c>
-      <c r="I22" s="110"/>
+        <v>-34.35292924884</v>
+      </c>
+      <c r="I22" s="111"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="112" t="s">
         <v>269</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="114" t="n">
+      <c r="E23" s="115" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>36.7522674801944</v>
-      </c>
-      <c r="F23" s="130" t="n">
+        <v>38.3522674801944</v>
+      </c>
+      <c r="F23" s="131" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>57.109</v>
-      </c>
-      <c r="G23" s="114" t="n">
+        <v>58.859</v>
+      </c>
+      <c r="G23" s="115" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>42.0528981480704</v>
-      </c>
-      <c r="I23" s="110"/>
+        <v>43.6528981480704</v>
+      </c>
+      <c r="I23" s="111"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="116" t="n">
+      <c r="B24" s="117" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="124" t="n">
+      <c r="E24" s="125" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>28.0318517843995</v>
-      </c>
-      <c r="F24" s="131" t="n">
+        <v>29.6318517843995</v>
+      </c>
+      <c r="F24" s="132" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>50.479</v>
-      </c>
-      <c r="G24" s="132" t="n">
+        <v>52.229</v>
+      </c>
+      <c r="G24" s="133" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>33.967766090482</v>
-      </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="133"/>
+        <v>35.567766090482</v>
+      </c>
+      <c r="H24" s="117"/>
+      <c r="I24" s="134"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="121" t="s">
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="G28" s="104" t="n">
+      <c r="G28" s="105" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="122"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="123"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="108"/>
-      <c r="D29" s="109" t="s">
+      <c r="A29" s="109"/>
+      <c r="D29" s="110" t="s">
         <v>266</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="63" t="n">
+      <c r="G29" s="64" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="126" t="s">
+      <c r="H29" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="I29" s="110" t="n">
+      <c r="I29" s="111" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="112" t="s">
         <v>279</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="110" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="127" t="n">
+      <c r="G30" s="128" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="110"/>
+      <c r="I30" s="111"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="108"/>
-      <c r="D31" s="109" t="s">
+      <c r="A31" s="109"/>
+      <c r="D31" s="110" t="s">
         <v>281</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="63" t="n">
+      <c r="G31" s="64" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="110"/>
+      <c r="I31" s="111"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="G32" s="128" t="s">
+      <c r="A32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="G32" s="129" t="s">
         <v>282</v>
       </c>
-      <c r="I32" s="110"/>
+      <c r="I32" s="111"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="108"/>
-      <c r="F33" s="129" t="s">
+      <c r="A33" s="109"/>
+      <c r="F33" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="I33" s="110"/>
+      <c r="I33" s="111"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="112" t="s">
         <v>267</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="114" t="n">
+      <c r="E34" s="115" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-66.4136236638297</v>
-      </c>
-      <c r="F34" s="130" t="n">
+        <v>-66.3125236638297</v>
+      </c>
+      <c r="F34" s="131" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
-      <c r="G34" s="114" t="n">
+      <c r="G34" s="115" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-61.4620007866982</v>
-      </c>
-      <c r="I34" s="110"/>
+        <v>-61.3609007866982</v>
+      </c>
+      <c r="I34" s="111"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="112" t="s">
         <v>269</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="110" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="114" t="n">
+      <c r="E35" s="115" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>7.8388777773465</v>
-      </c>
-      <c r="F35" s="130" t="n">
+        <v>9.43887777734649</v>
+      </c>
+      <c r="F35" s="131" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="114" t="n">
+      <c r="G35" s="115" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>13.1397875381681</v>
-      </c>
-      <c r="I35" s="110"/>
+        <v>14.7397875381681</v>
+      </c>
+      <c r="I35" s="111"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="116" t="n">
+      <c r="B36" s="117" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="117" t="s">
+      <c r="C36" s="117"/>
+      <c r="D36" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="E36" s="124" t="n">
+      <c r="E36" s="125" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>-4.34682432571097</v>
-      </c>
-      <c r="F36" s="131" t="n">
+        <v>-2.74682432571097</v>
+      </c>
+      <c r="F36" s="132" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="124" t="n">
+      <c r="G36" s="125" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>1.5894025227675</v>
-      </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="133"/>
+        <v>3.18940252276749</v>
+      </c>
+      <c r="H36" s="117"/>
+      <c r="I36" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17761,7 +17765,7 @@
   <dimension ref="A1:CX484"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K42:P42 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17838,7 +17842,7 @@
       <c r="A9" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="135" t="n">
+      <c r="B9" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17862,7 +17866,7 @@
       <c r="A12" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="135" t="n">
+      <c r="B12" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17958,7 +17962,7 @@
       <c r="A24" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="135" t="n">
+      <c r="B24" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17982,7 +17986,7 @@
       <c r="A27" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="135" t="n">
+      <c r="B27" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18078,7 +18082,7 @@
       <c r="A39" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B39" s="135" t="n">
+      <c r="B39" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18102,7 +18106,7 @@
       <c r="A42" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="135" t="n">
+      <c r="B42" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18198,7 +18202,7 @@
       <c r="A54" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B54" s="135" t="n">
+      <c r="B54" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18222,7 +18226,7 @@
       <c r="A57" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B57" s="135" t="n">
+      <c r="B57" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18286,7 +18290,7 @@
       <c r="A65" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B65" s="135" t="n">
+      <c r="B65" s="136" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -18294,7 +18298,7 @@
       <c r="A66" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B66" s="135" t="n">
+      <c r="B66" s="136" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -18302,7 +18306,7 @@
       <c r="A67" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B67" s="135" t="n">
+      <c r="B67" s="136" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -18310,7 +18314,7 @@
       <c r="A68" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B68" s="135" t="n">
+      <c r="B68" s="136" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -18630,7 +18634,7 @@
       <c r="A108" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="135" t="n">
+      <c r="B108" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18654,7 +18658,7 @@
       <c r="A111" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="135" t="n">
+      <c r="B111" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18750,7 +18754,7 @@
       <c r="A123" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="135" t="n">
+      <c r="B123" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18774,7 +18778,7 @@
       <c r="A126" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B126" s="135" t="n">
+      <c r="B126" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18870,7 +18874,7 @@
       <c r="A138" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B138" s="135" t="n">
+      <c r="B138" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18894,7 +18898,7 @@
       <c r="A141" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B141" s="135" t="n">
+      <c r="B141" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18990,7 +18994,7 @@
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B153" s="135" t="n">
+      <c r="B153" s="136" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -19014,7 +19018,7 @@
       <c r="A156" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B156" s="135" t="n">
+      <c r="B156" s="136" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -19078,7 +19082,7 @@
       <c r="A164" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B164" s="135" t="n">
+      <c r="B164" s="136" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -19086,7 +19090,7 @@
       <c r="A165" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B165" s="135" t="n">
+      <c r="B165" s="136" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -19094,7 +19098,7 @@
       <c r="A166" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B166" s="135" t="n">
+      <c r="B166" s="136" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -19102,7 +19106,7 @@
       <c r="A167" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B167" s="135" t="n">
+      <c r="B167" s="136" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -19238,7 +19242,7 @@
       <c r="A184" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B184" s="135" t="n">
+      <c r="B184" s="136" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19246,7 +19250,7 @@
       <c r="A185" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B185" s="135" t="n">
+      <c r="B185" s="136" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19278,7 +19282,7 @@
       <c r="A189" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="135" t="n">
+      <c r="B189" s="136" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -19302,7 +19306,7 @@
       <c r="A192" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B192" s="135" t="n">
+      <c r="B192" s="136" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -19310,7 +19314,7 @@
       <c r="A193" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B193" s="135" t="n">
+      <c r="B193" s="136" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -19318,7 +19322,7 @@
       <c r="A194" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B194" s="135" t="n">
+      <c r="B194" s="136" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -19326,7 +19330,7 @@
       <c r="A195" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="135" t="n">
+      <c r="B195" s="136" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -20750,40 +20754,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="135" t="n">
+      <c r="C337" s="136" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="135" t="n">
+      <c r="D337" s="136" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="135" t="n">
+      <c r="E337" s="136" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="135" t="n">
+      <c r="F337" s="136" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="135" t="n">
+      <c r="G337" s="136" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="135" t="n">
+      <c r="H337" s="136" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="135" t="n">
+      <c r="I337" s="136" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="135" t="n">
+      <c r="J337" s="136" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="135" t="n">
+      <c r="K337" s="136" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="135" t="n">
+      <c r="L337" s="136" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="135" t="n">
+      <c r="M337" s="136" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="135" t="n">
+      <c r="N337" s="136" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -20794,40 +20798,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="135" t="n">
+      <c r="C338" s="136" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="135" t="n">
+      <c r="D338" s="136" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="135" t="n">
+      <c r="E338" s="136" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="135" t="n">
+      <c r="F338" s="136" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="135" t="n">
+      <c r="G338" s="136" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="135" t="n">
+      <c r="H338" s="136" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="135" t="n">
+      <c r="I338" s="136" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="135" t="n">
+      <c r="J338" s="136" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="135" t="n">
+      <c r="K338" s="136" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="135" t="n">
+      <c r="L338" s="136" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="135" t="n">
+      <c r="M338" s="136" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="135" t="n">
+      <c r="N338" s="136" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -20838,40 +20842,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="135" t="n">
+      <c r="C339" s="136" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="135" t="n">
+      <c r="D339" s="136" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="135" t="n">
+      <c r="E339" s="136" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="135" t="n">
+      <c r="F339" s="136" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="135" t="n">
+      <c r="G339" s="136" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="135" t="n">
+      <c r="H339" s="136" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="135" t="n">
+      <c r="I339" s="136" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="135" t="n">
+      <c r="J339" s="136" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="135" t="n">
+      <c r="K339" s="136" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="135" t="n">
+      <c r="L339" s="136" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="135" t="n">
+      <c r="M339" s="136" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="135" t="n">
+      <c r="N339" s="136" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -20882,40 +20886,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="135" t="n">
+      <c r="C340" s="136" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="135" t="n">
+      <c r="D340" s="136" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="135" t="n">
+      <c r="E340" s="136" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="135" t="n">
+      <c r="F340" s="136" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="135" t="n">
+      <c r="G340" s="136" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="135" t="n">
+      <c r="H340" s="136" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="135" t="n">
+      <c r="I340" s="136" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="135" t="n">
+      <c r="J340" s="136" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="135" t="n">
+      <c r="K340" s="136" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="135" t="n">
+      <c r="L340" s="136" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="135" t="n">
+      <c r="M340" s="136" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="135" t="n">
+      <c r="N340" s="136" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -21630,40 +21634,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="135" t="n">
+      <c r="C357" s="136" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="135" t="n">
+      <c r="D357" s="136" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="135" t="n">
+      <c r="E357" s="136" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="135" t="n">
+      <c r="F357" s="136" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="135" t="n">
+      <c r="G357" s="136" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="135" t="n">
+      <c r="H357" s="136" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="135" t="n">
+      <c r="I357" s="136" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="135" t="n">
+      <c r="J357" s="136" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="135" t="n">
+      <c r="K357" s="136" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="135" t="n">
+      <c r="L357" s="136" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="135" t="n">
+      <c r="M357" s="136" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="135" t="n">
+      <c r="N357" s="136" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -21674,40 +21678,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="135" t="n">
+      <c r="C358" s="136" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="135" t="n">
+      <c r="D358" s="136" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="135" t="n">
+      <c r="E358" s="136" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="135" t="n">
+      <c r="F358" s="136" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="135" t="n">
+      <c r="G358" s="136" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="135" t="n">
+      <c r="H358" s="136" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="135" t="n">
+      <c r="I358" s="136" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="135" t="n">
+      <c r="J358" s="136" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="135" t="n">
+      <c r="K358" s="136" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="135" t="n">
+      <c r="L358" s="136" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="135" t="n">
+      <c r="M358" s="136" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="135" t="n">
+      <c r="N358" s="136" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -21718,40 +21722,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="135" t="n">
+      <c r="C359" s="136" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="135" t="n">
+      <c r="D359" s="136" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="135" t="n">
+      <c r="E359" s="136" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="135" t="n">
+      <c r="F359" s="136" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="135" t="n">
+      <c r="G359" s="136" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="135" t="n">
+      <c r="H359" s="136" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="135" t="n">
+      <c r="I359" s="136" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="135" t="n">
+      <c r="J359" s="136" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="135" t="n">
+      <c r="K359" s="136" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="135" t="n">
+      <c r="L359" s="136" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="135" t="n">
+      <c r="M359" s="136" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="135" t="n">
+      <c r="N359" s="136" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -21762,40 +21766,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="135" t="n">
+      <c r="C360" s="136" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="135" t="n">
+      <c r="D360" s="136" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="135" t="n">
+      <c r="E360" s="136" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="135" t="n">
+      <c r="F360" s="136" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="135" t="n">
+      <c r="G360" s="136" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="135" t="n">
+      <c r="H360" s="136" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="135" t="n">
+      <c r="I360" s="136" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="135" t="n">
+      <c r="J360" s="136" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="135" t="n">
+      <c r="K360" s="136" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="135" t="n">
+      <c r="L360" s="136" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="135" t="n">
+      <c r="M360" s="136" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="135" t="n">
+      <c r="N360" s="136" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -21938,7 +21942,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="135" t="n">
+      <c r="C364" s="136" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -21982,7 +21986,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="135" t="n">
+      <c r="C365" s="136" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -22026,7 +22030,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="135" t="n">
+      <c r="C366" s="136" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -22070,7 +22074,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="135" t="n">
+      <c r="C367" s="136" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -23833,7 +23837,7 @@
   <dimension ref="A1:G2383"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="K42:P42 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -23847,13 +23851,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="137" t="s">
         <v>813</v>
       </c>
-      <c r="C1" s="136" t="n">
+      <c r="C1" s="137" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="137" t="s">
         <v>814</v>
       </c>
     </row>
@@ -23861,10 +23865,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="137" t="s">
         <v>815</v>
       </c>
-      <c r="C2" s="136" t="n">
+      <c r="C2" s="137" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -23872,10 +23876,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="136" t="n">
+      <c r="C3" s="137" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -23979,7 +23983,7 @@
       <c r="B16" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C16" s="135" t="n">
+      <c r="C16" s="136" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -23987,7 +23991,7 @@
       <c r="B17" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C17" s="135" t="n">
+      <c r="C17" s="136" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -23995,7 +23999,7 @@
       <c r="B18" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C18" s="135" t="n">
+      <c r="C18" s="136" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -24003,7 +24007,7 @@
       <c r="B19" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C19" s="135" t="n">
+      <c r="C19" s="136" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -24491,7 +24495,7 @@
       <c r="B80" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="C80" s="135" t="n">
+      <c r="C80" s="136" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -24539,7 +24543,7 @@
       <c r="B86" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="C86" s="135" t="n">
+      <c r="C86" s="136" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -24571,7 +24575,7 @@
       <c r="B90" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="C90" s="135" t="n">
+      <c r="C90" s="136" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -24659,7 +24663,7 @@
       <c r="B101" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="C101" s="135" t="n">
+      <c r="C101" s="136" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -24835,7 +24839,7 @@
       <c r="B123" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="C123" s="135" t="n">
+      <c r="C123" s="136" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -24899,7 +24903,7 @@
       <c r="B131" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="C131" s="135" t="n">
+      <c r="C131" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24915,7 +24919,7 @@
       <c r="B133" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="C133" s="135" t="n">
+      <c r="C133" s="136" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -25435,7 +25439,7 @@
       <c r="B198" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="C198" s="135" t="n">
+      <c r="C198" s="136" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -25483,7 +25487,7 @@
       <c r="B204" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="C204" s="135" t="n">
+      <c r="C204" s="136" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -25515,7 +25519,7 @@
       <c r="B208" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="C208" s="135" t="n">
+      <c r="C208" s="136" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -25603,7 +25607,7 @@
       <c r="B219" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="C219" s="135" t="n">
+      <c r="C219" s="136" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -25779,7 +25783,7 @@
       <c r="B241" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="C241" s="135" t="n">
+      <c r="C241" s="136" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -25843,7 +25847,7 @@
       <c r="B249" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="C249" s="135" t="n">
+      <c r="C249" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25859,7 +25863,7 @@
       <c r="B251" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="C251" s="135" t="n">
+      <c r="C251" s="136" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -26379,7 +26383,7 @@
       <c r="B316" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C316" s="135" t="n">
+      <c r="C316" s="136" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -26427,7 +26431,7 @@
       <c r="B322" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="C322" s="135" t="n">
+      <c r="C322" s="136" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -26459,7 +26463,7 @@
       <c r="B326" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="C326" s="135" t="n">
+      <c r="C326" s="136" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -26547,7 +26551,7 @@
       <c r="B337" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="C337" s="135" t="n">
+      <c r="C337" s="136" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -26723,7 +26727,7 @@
       <c r="B359" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="C359" s="135" t="n">
+      <c r="C359" s="136" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -26787,7 +26791,7 @@
       <c r="B367" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="C367" s="135" t="n">
+      <c r="C367" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26803,7 +26807,7 @@
       <c r="B369" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="C369" s="135" t="n">
+      <c r="C369" s="136" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -27323,7 +27327,7 @@
       <c r="B434" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="C434" s="135" t="n">
+      <c r="C434" s="136" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -27371,7 +27375,7 @@
       <c r="B440" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="C440" s="135" t="n">
+      <c r="C440" s="136" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -27403,7 +27407,7 @@
       <c r="B444" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="C444" s="135" t="n">
+      <c r="C444" s="136" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -27491,7 +27495,7 @@
       <c r="B455" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="C455" s="135" t="n">
+      <c r="C455" s="136" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -27667,7 +27671,7 @@
       <c r="B477" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="C477" s="135" t="n">
+      <c r="C477" s="136" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -27731,7 +27735,7 @@
       <c r="B485" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="C485" s="135" t="n">
+      <c r="C485" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27747,7 +27751,7 @@
       <c r="B487" s="0" t="s">
         <v>1317</v>
       </c>
-      <c r="C487" s="135" t="n">
+      <c r="C487" s="136" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -27835,7 +27839,7 @@
       <c r="B498" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C498" s="135" t="n">
+      <c r="C498" s="136" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -27843,7 +27847,7 @@
       <c r="B499" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C499" s="135" t="n">
+      <c r="C499" s="136" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -27851,7 +27855,7 @@
       <c r="B500" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C500" s="135" t="n">
+      <c r="C500" s="136" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -27859,7 +27863,7 @@
       <c r="B501" s="0" t="s">
         <v>1331</v>
       </c>
-      <c r="C501" s="135" t="n">
+      <c r="C501" s="136" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -28427,7 +28431,7 @@
       <c r="B572" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="C572" s="135" t="n">
+      <c r="C572" s="136" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -28475,7 +28479,7 @@
       <c r="B578" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="C578" s="135" t="n">
+      <c r="C578" s="136" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -28507,7 +28511,7 @@
       <c r="B582" s="0" t="s">
         <v>1412</v>
       </c>
-      <c r="C582" s="135" t="n">
+      <c r="C582" s="136" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -28595,7 +28599,7 @@
       <c r="B593" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="C593" s="135" t="n">
+      <c r="C593" s="136" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -28771,7 +28775,7 @@
       <c r="B615" s="0" t="s">
         <v>1446</v>
       </c>
-      <c r="C615" s="135" t="n">
+      <c r="C615" s="136" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -28835,7 +28839,7 @@
       <c r="B623" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="C623" s="135" t="n">
+      <c r="C623" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28851,7 +28855,7 @@
       <c r="B625" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="C625" s="135" t="n">
+      <c r="C625" s="136" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -29371,7 +29375,7 @@
       <c r="B690" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="C690" s="135" t="n">
+      <c r="C690" s="136" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -29419,7 +29423,7 @@
       <c r="B696" s="0" t="s">
         <v>1527</v>
       </c>
-      <c r="C696" s="135" t="n">
+      <c r="C696" s="136" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -29451,7 +29455,7 @@
       <c r="B700" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="C700" s="135" t="n">
+      <c r="C700" s="136" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -29539,7 +29543,7 @@
       <c r="B711" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="C711" s="135" t="n">
+      <c r="C711" s="136" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -29715,7 +29719,7 @@
       <c r="B733" s="0" t="s">
         <v>1565</v>
       </c>
-      <c r="C733" s="135" t="n">
+      <c r="C733" s="136" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -29779,7 +29783,7 @@
       <c r="B741" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="C741" s="135" t="n">
+      <c r="C741" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -29795,7 +29799,7 @@
       <c r="B743" s="0" t="s">
         <v>1575</v>
       </c>
-      <c r="C743" s="135" t="n">
+      <c r="C743" s="136" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -30351,7 +30355,7 @@
       <c r="B811" s="0" t="s">
         <v>1651</v>
       </c>
-      <c r="C811" s="135" t="n">
+      <c r="C811" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30867,7 +30871,7 @@
       <c r="B874" s="0" t="s">
         <v>1716</v>
       </c>
-      <c r="C874" s="135" t="n">
+      <c r="C874" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31383,7 +31387,7 @@
       <c r="B937" s="0" t="s">
         <v>1781</v>
       </c>
-      <c r="C937" s="135" t="n">
+      <c r="C937" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31899,7 +31903,7 @@
       <c r="B1000" s="0" t="s">
         <v>1846</v>
       </c>
-      <c r="C1000" s="135" t="n">
+      <c r="C1000" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32415,7 +32419,7 @@
       <c r="B1063" s="0" t="s">
         <v>1911</v>
       </c>
-      <c r="C1063" s="135" t="n">
+      <c r="C1063" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32931,7 +32935,7 @@
       <c r="B1126" s="0" t="s">
         <v>1976</v>
       </c>
-      <c r="C1126" s="135" t="n">
+      <c r="C1126" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33447,7 +33451,7 @@
       <c r="B1189" s="0" t="s">
         <v>2041</v>
       </c>
-      <c r="C1189" s="135" t="n">
+      <c r="C1189" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33963,7 +33967,7 @@
       <c r="B1252" s="0" t="s">
         <v>2106</v>
       </c>
-      <c r="C1252" s="135" t="n">
+      <c r="C1252" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34479,7 +34483,7 @@
       <c r="B1315" s="0" t="s">
         <v>2171</v>
       </c>
-      <c r="C1315" s="135" t="n">
+      <c r="C1315" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34995,7 +34999,7 @@
       <c r="B1378" s="0" t="s">
         <v>2236</v>
       </c>
-      <c r="C1378" s="135" t="n">
+      <c r="C1378" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35511,7 +35515,7 @@
       <c r="B1441" s="0" t="s">
         <v>2301</v>
       </c>
-      <c r="C1441" s="135" t="n">
+      <c r="C1441" s="136" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35959,7 +35963,7 @@
       <c r="B1497" s="0" t="s">
         <v>2360</v>
       </c>
-      <c r="C1497" s="135" t="n">
+      <c r="C1497" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36585,7 +36589,7 @@
       <c r="B1576" s="0" t="s">
         <v>2444</v>
       </c>
-      <c r="C1576" s="135" t="n">
+      <c r="C1576" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36754,7 +36758,7 @@
       <c r="B1596" s="0" t="s">
         <v>2466</v>
       </c>
-      <c r="C1596" s="135" t="n">
+      <c r="C1596" s="136" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36762,7 +36766,7 @@
       <c r="B1597" s="0" t="s">
         <v>2467</v>
       </c>
-      <c r="C1597" s="135" t="n">
+      <c r="C1597" s="136" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -37642,7 +37646,7 @@
       <c r="B1707" s="0" t="s">
         <v>2578</v>
       </c>
-      <c r="C1707" s="135" t="n">
+      <c r="C1707" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37658,7 +37662,7 @@
       <c r="B1709" s="0" t="s">
         <v>2580</v>
       </c>
-      <c r="C1709" s="135" t="n">
+      <c r="C1709" s="136" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -38178,7 +38182,7 @@
       <c r="B1774" s="0" t="s">
         <v>2645</v>
       </c>
-      <c r="C1774" s="135" t="n">
+      <c r="C1774" s="136" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -38258,7 +38262,7 @@
       <c r="B1784" s="0" t="s">
         <v>2655</v>
       </c>
-      <c r="C1784" s="135" t="n">
+      <c r="C1784" s="136" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -38346,7 +38350,7 @@
       <c r="B1795" s="0" t="s">
         <v>2666</v>
       </c>
-      <c r="C1795" s="135" t="n">
+      <c r="C1795" s="136" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -38522,7 +38526,7 @@
       <c r="B1817" s="0" t="s">
         <v>2689</v>
       </c>
-      <c r="C1817" s="135" t="n">
+      <c r="C1817" s="136" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -38586,7 +38590,7 @@
       <c r="B1825" s="0" t="s">
         <v>2697</v>
       </c>
-      <c r="C1825" s="135" t="n">
+      <c r="C1825" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38602,7 +38606,7 @@
       <c r="B1827" s="0" t="s">
         <v>2699</v>
       </c>
-      <c r="C1827" s="135" t="n">
+      <c r="C1827" s="136" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -39205,7 +39209,7 @@
       <c r="B1902" s="0" t="s">
         <v>2776</v>
       </c>
-      <c r="C1902" s="135" t="n">
+      <c r="C1902" s="136" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -39253,7 +39257,7 @@
       <c r="B1908" s="0" t="s">
         <v>2782</v>
       </c>
-      <c r="C1908" s="135" t="n">
+      <c r="C1908" s="136" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -39285,7 +39289,7 @@
       <c r="B1912" s="0" t="s">
         <v>2786</v>
       </c>
-      <c r="C1912" s="135" t="n">
+      <c r="C1912" s="136" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -39373,7 +39377,7 @@
       <c r="B1923" s="0" t="s">
         <v>2797</v>
       </c>
-      <c r="C1923" s="135" t="n">
+      <c r="C1923" s="136" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -39549,7 +39553,7 @@
       <c r="B1945" s="0" t="s">
         <v>2820</v>
       </c>
-      <c r="C1945" s="135" t="n">
+      <c r="C1945" s="136" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -39613,7 +39617,7 @@
       <c r="B1953" s="0" t="s">
         <v>2828</v>
       </c>
-      <c r="C1953" s="135" t="n">
+      <c r="C1953" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39629,7 +39633,7 @@
       <c r="B1955" s="0" t="s">
         <v>2830</v>
       </c>
-      <c r="C1955" s="135" t="n">
+      <c r="C1955" s="136" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -40149,7 +40153,7 @@
       <c r="B2020" s="0" t="s">
         <v>2895</v>
       </c>
-      <c r="C2020" s="135" t="n">
+      <c r="C2020" s="136" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -40197,7 +40201,7 @@
       <c r="B2026" s="0" t="s">
         <v>2901</v>
       </c>
-      <c r="C2026" s="135" t="n">
+      <c r="C2026" s="136" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -40229,7 +40233,7 @@
       <c r="B2030" s="0" t="s">
         <v>2905</v>
       </c>
-      <c r="C2030" s="135" t="n">
+      <c r="C2030" s="136" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -40317,7 +40321,7 @@
       <c r="B2041" s="0" t="s">
         <v>2916</v>
       </c>
-      <c r="C2041" s="135" t="n">
+      <c r="C2041" s="136" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -40493,7 +40497,7 @@
       <c r="B2063" s="0" t="s">
         <v>2939</v>
       </c>
-      <c r="C2063" s="135" t="n">
+      <c r="C2063" s="136" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -40557,7 +40561,7 @@
       <c r="B2071" s="0" t="s">
         <v>2947</v>
       </c>
-      <c r="C2071" s="135" t="n">
+      <c r="C2071" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40573,7 +40577,7 @@
       <c r="B2073" s="0" t="s">
         <v>2949</v>
       </c>
-      <c r="C2073" s="135" t="n">
+      <c r="C2073" s="136" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -41093,7 +41097,7 @@
       <c r="B2138" s="0" t="s">
         <v>3014</v>
       </c>
-      <c r="C2138" s="135" t="n">
+      <c r="C2138" s="136" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -41141,7 +41145,7 @@
       <c r="B2144" s="0" t="s">
         <v>3020</v>
       </c>
-      <c r="C2144" s="135" t="n">
+      <c r="C2144" s="136" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -41173,7 +41177,7 @@
       <c r="B2148" s="0" t="s">
         <v>3024</v>
       </c>
-      <c r="C2148" s="135" t="n">
+      <c r="C2148" s="136" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -41261,7 +41265,7 @@
       <c r="B2159" s="0" t="s">
         <v>3035</v>
       </c>
-      <c r="C2159" s="135" t="n">
+      <c r="C2159" s="136" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -41437,7 +41441,7 @@
       <c r="B2181" s="0" t="s">
         <v>3058</v>
       </c>
-      <c r="C2181" s="135" t="n">
+      <c r="C2181" s="136" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -41501,7 +41505,7 @@
       <c r="B2189" s="0" t="s">
         <v>3066</v>
       </c>
-      <c r="C2189" s="135" t="n">
+      <c r="C2189" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41517,7 +41521,7 @@
       <c r="B2191" s="0" t="s">
         <v>3068</v>
       </c>
-      <c r="C2191" s="135" t="n">
+      <c r="C2191" s="136" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -42093,7 +42097,7 @@
       <c r="B2263" s="0" t="s">
         <v>3143</v>
       </c>
-      <c r="C2263" s="135" t="n">
+      <c r="C2263" s="136" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -42380,7 +42384,7 @@
       <c r="F2297" s="0" t="s">
         <v>3188</v>
       </c>
-      <c r="G2297" s="137" t="n">
+      <c r="G2297" s="138" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -42472,7 +42476,7 @@
       <c r="B2307" s="0" t="s">
         <v>3202</v>
       </c>
-      <c r="C2307" s="135" t="n">
+      <c r="C2307" s="136" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -42558,7 +42562,7 @@
       <c r="B2317" s="0" t="s">
         <v>3218</v>
       </c>
-      <c r="C2317" s="135" t="n">
+      <c r="C2317" s="136" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -42566,7 +42570,7 @@
       <c r="B2318" s="0" t="s">
         <v>3219</v>
       </c>
-      <c r="C2318" s="135" t="n">
+      <c r="C2318" s="136" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -42582,7 +42586,7 @@
       <c r="B2320" s="0" t="s">
         <v>3221</v>
       </c>
-      <c r="C2320" s="135" t="n">
+      <c r="C2320" s="136" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -42630,7 +42634,7 @@
       <c r="C2326" s="0" t="s">
         <v>3229</v>
       </c>
-      <c r="D2326" s="138" t="n">
+      <c r="D2326" s="139" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -42681,7 +42685,7 @@
       <c r="C2332" s="0" t="s">
         <v>3237</v>
       </c>
-      <c r="D2332" s="138" t="n">
+      <c r="D2332" s="139" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -42700,7 +42704,7 @@
       <c r="D2334" s="0" t="s">
         <v>3240</v>
       </c>
-      <c r="E2334" s="138" t="n">
+      <c r="E2334" s="139" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -42758,7 +42762,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="138" t="n">
+      <c r="F2339" s="139" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -43230,7 +43234,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="138" t="n">
+      <c r="F2380" s="139" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="247" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -10700,7 +10700,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10729,6 +10729,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -11020,7 +11026,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="147">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11265,7 +11271,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11273,7 +11295,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11329,7 +11363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11377,7 +11411,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11569,7 +11603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11629,7 +11663,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF2DED5"/>
       <rgbColor rgb="FF3366FF"/>
@@ -11661,11 +11695,11 @@
   <dimension ref="1:66"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="G62" activeCellId="0" sqref="G62"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="T55" activeCellId="0" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11866,7 +11900,7 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S5" s="26"/>
       <c r="T5" s="27"/>
@@ -11911,7 +11945,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="32"/>
       <c r="R6" s="0" t="n">
-        <v>1.1</v>
+        <v>-0.4006</v>
       </c>
       <c r="T6" s="30"/>
       <c r="U6" s="32"/>
@@ -11936,7 +11970,7 @@
       <c r="O7" s="30"/>
       <c r="P7" s="32"/>
       <c r="R7" s="0" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="32"/>
@@ -11994,7 +12028,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="34"/>
       <c r="R9" s="0" t="n">
-        <v>2.0948</v>
+        <v>0.59132</v>
       </c>
       <c r="T9" s="30"/>
       <c r="U9" s="32"/>
@@ -12023,7 +12057,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="34"/>
       <c r="R10" s="0" t="n">
-        <v>2.06708</v>
+        <v>3.10056</v>
       </c>
       <c r="T10" s="30"/>
       <c r="U10" s="32"/>
@@ -12052,7 +12086,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="34"/>
       <c r="R11" s="0" t="n">
-        <v>4.1</v>
+        <v>3.5994</v>
       </c>
       <c r="T11" s="30"/>
       <c r="U11" s="32"/>
@@ -12081,7 +12115,7 @@
       <c r="O12" s="31"/>
       <c r="P12" s="34"/>
       <c r="R12" s="0" t="n">
-        <v>0.50004</v>
+        <v>0.75</v>
       </c>
       <c r="T12" s="30"/>
       <c r="U12" s="32"/>
@@ -12110,7 +12144,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="34"/>
       <c r="R13" s="0" t="n">
-        <v>-1.49904</v>
+        <v>-2.99692</v>
       </c>
       <c r="T13" s="30"/>
       <c r="U13" s="32"/>
@@ -12139,7 +12173,7 @@
       <c r="O14" s="31"/>
       <c r="P14" s="34"/>
       <c r="R14" s="0" t="n">
-        <v>-0.413</v>
+        <v>-1.44644</v>
       </c>
       <c r="T14" s="30"/>
       <c r="U14" s="32"/>
@@ -12168,7 +12202,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="34"/>
       <c r="R15" s="0" t="n">
-        <v>-1.9002</v>
+        <v>-4.40048</v>
       </c>
       <c r="T15" s="30"/>
       <c r="U15" s="32"/>
@@ -12198,7 +12232,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26" t="n">
-        <v>-0.10008</v>
+        <v>-0.34996</v>
       </c>
       <c r="S16" s="26"/>
       <c r="T16" s="27"/>
@@ -14629,41 +14663,41 @@
         <v>181</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>28.6621</v>
+        <v>28.6041</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>250802</v>
+        <v>250227</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-21.286</v>
+        <v>-21.8487</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>-248676</v>
+        <v>-254305</v>
       </c>
       <c r="K54" s="57" t="n">
-        <v>44.014</v>
+        <v>42.895</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>404304</v>
+        <v>393129</v>
       </c>
       <c r="M54" s="57" t="n">
-        <v>43.915</v>
+        <v>43.656</v>
       </c>
       <c r="N54" s="28" t="n">
-        <v>404328</v>
+        <v>400737</v>
       </c>
       <c r="O54" s="57" t="n">
-        <v>18.169</v>
+        <v>16.844</v>
       </c>
       <c r="P54" s="28" t="n">
-        <v>145846</v>
+        <v>132625</v>
       </c>
       <c r="T54" s="58" t="n">
-        <v>52.6071</v>
+        <v>52.1071</v>
       </c>
       <c r="U54" s="28" t="n">
         <v>490232</v>
@@ -14778,40 +14812,40 @@
         <v>188</v>
       </c>
       <c r="E56" s="60" t="n">
-        <v>112.987</v>
+        <v>113.287</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>9209080</v>
-      </c>
-      <c r="G56" s="60" t="n">
+        <v>9224687</v>
+      </c>
+      <c r="G56" s="61" t="n">
         <v>24.4104</v>
       </c>
-      <c r="H56" s="23" t="n">
+      <c r="H56" s="62" t="n">
         <v>4600216</v>
       </c>
       <c r="I56" s="60" t="n">
-        <v>58.859</v>
+        <v>58.3089</v>
       </c>
       <c r="J56" s="23" t="n">
-        <v>6392661</v>
+        <v>6364039</v>
       </c>
       <c r="K56" s="60" t="n">
-        <v>128.679</v>
+        <v>127.735</v>
       </c>
       <c r="L56" s="23" t="n">
-        <v>10025575</v>
+        <v>9976463</v>
       </c>
       <c r="M56" s="60" t="n">
-        <v>128.526</v>
+        <v>127.735</v>
       </c>
       <c r="N56" s="23" t="n">
-        <v>10017600</v>
+        <v>9976463</v>
       </c>
       <c r="O56" s="60" t="n">
-        <v>100.534</v>
+        <v>99.605</v>
       </c>
       <c r="P56" s="23" t="n">
-        <v>8561136</v>
+        <v>8512779</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
@@ -14839,41 +14873,41 @@
       <c r="D57" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E57" s="61" t="n">
-        <v>111.113</v>
+      <c r="E57" s="63" t="n">
+        <v>106.013</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>6666042</v>
-      </c>
-      <c r="G57" s="61" t="n">
+        <v>6400669</v>
+      </c>
+      <c r="G57" s="64" t="n">
         <v>12.81</v>
       </c>
-      <c r="H57" s="32" t="n">
+      <c r="H57" s="65" t="n">
         <v>1551088</v>
       </c>
-      <c r="I57" s="61" t="n">
-        <v>52.229</v>
+      <c r="I57" s="63" t="n">
+        <v>44.4788</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>3602156</v>
-      </c>
-      <c r="K57" s="61" t="n">
-        <v>128.447</v>
+        <v>3198895</v>
+      </c>
+      <c r="K57" s="63" t="n">
+        <v>120.891</v>
       </c>
       <c r="L57" s="32" t="n">
-        <v>7567975</v>
-      </c>
-      <c r="M57" s="61" t="n">
-        <v>128.294</v>
+        <v>7174815</v>
+      </c>
+      <c r="M57" s="63" t="n">
+        <v>120.891</v>
       </c>
       <c r="N57" s="32" t="n">
-        <v>7560000</v>
-      </c>
-      <c r="O57" s="61" t="n">
-        <v>100.302</v>
+        <v>7174815</v>
+      </c>
+      <c r="O57" s="63" t="n">
+        <v>89.3728</v>
       </c>
       <c r="P57" s="32" t="n">
-        <v>6103536</v>
+        <v>5534847</v>
       </c>
       <c r="T57" s="30" t="n">
         <v>138.4</v>
@@ -14893,41 +14927,41 @@
       <c r="D58" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="61" t="n">
-        <v>111.113</v>
+      <c r="E58" s="63" t="n">
+        <v>106.013</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>5469294</v>
-      </c>
-      <c r="G58" s="61" t="n">
+        <v>5203921</v>
+      </c>
+      <c r="G58" s="64" t="n">
         <v>12.81</v>
       </c>
-      <c r="H58" s="32" t="n">
+      <c r="H58" s="65" t="n">
         <v>354340</v>
       </c>
-      <c r="I58" s="61" t="n">
-        <v>52.229</v>
+      <c r="I58" s="63" t="n">
+        <v>44.4788</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>2405408</v>
-      </c>
-      <c r="K58" s="61" t="n">
-        <v>128.447</v>
+        <v>2002147</v>
+      </c>
+      <c r="K58" s="63" t="n">
+        <v>120.891</v>
       </c>
       <c r="L58" s="32" t="n">
-        <v>6371227</v>
-      </c>
-      <c r="M58" s="61" t="n">
-        <v>128.294</v>
+        <v>5978067</v>
+      </c>
+      <c r="M58" s="63" t="n">
+        <v>120.891</v>
       </c>
       <c r="N58" s="32" t="n">
-        <v>6363252</v>
-      </c>
-      <c r="O58" s="61" t="n">
-        <v>100.302</v>
-      </c>
-      <c r="P58" s="62" t="n">
-        <v>4906788</v>
+        <v>5978067</v>
+      </c>
+      <c r="O58" s="63" t="n">
+        <v>89.3728</v>
+      </c>
+      <c r="P58" s="66" t="n">
+        <v>4338099</v>
       </c>
       <c r="T58" s="27" t="n">
         <v>138.4</v>
@@ -14952,43 +14986,43 @@
       <c r="D59" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="61" t="n">
+      <c r="E59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="F59" s="28" t="n">
         <v>-412000</v>
       </c>
-      <c r="G59" s="61" t="n">
+      <c r="G59" s="64" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H59" s="28" t="n">
+      <c r="H59" s="67" t="n">
         <v>-412000</v>
       </c>
-      <c r="I59" s="61" t="n">
+      <c r="I59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="J59" s="28" t="n">
         <v>-412000</v>
       </c>
-      <c r="K59" s="61" t="n">
+      <c r="K59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="L59" s="28" t="n">
         <v>-412000</v>
       </c>
-      <c r="M59" s="61" t="n">
+      <c r="M59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="N59" s="28" t="n">
         <v>-412000</v>
       </c>
-      <c r="O59" s="61" t="n">
+      <c r="O59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="P59" s="28" t="n">
         <v>-412000</v>
       </c>
-      <c r="T59" s="61" t="n">
+      <c r="T59" s="63" t="n">
         <v>-0.6</v>
       </c>
       <c r="U59" s="28" t="n">
@@ -15006,46 +15040,46 @@
       <c r="D60" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="63" t="n">
+      <c r="E60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="F60" s="47" t="n">
         <v>-199443</v>
       </c>
-      <c r="G60" s="63" t="n">
+      <c r="G60" s="69" t="n">
         <v>33.3721</v>
       </c>
-      <c r="H60" s="47" t="n">
+      <c r="H60" s="70" t="n">
         <v>-199443</v>
       </c>
-      <c r="I60" s="63" t="n">
+      <c r="I60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="J60" s="47" t="n">
         <v>-199443</v>
       </c>
-      <c r="K60" s="63" t="n">
+      <c r="K60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="L60" s="47" t="n">
         <v>-199443</v>
       </c>
-      <c r="M60" s="63" t="n">
+      <c r="M60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="N60" s="47" t="n">
         <v>-199443</v>
       </c>
-      <c r="O60" s="63" t="n">
+      <c r="O60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="P60" s="47" t="n">
         <v>-199443</v>
       </c>
-      <c r="Q60" s="64"/>
-      <c r="R60" s="64"/>
-      <c r="S60" s="64"/>
-      <c r="T60" s="63" t="n">
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="68" t="n">
         <v>33.3721</v>
       </c>
       <c r="U60" s="47" t="n">
@@ -15058,52 +15092,52 @@
       <c r="Z60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="67" t="s">
+      <c r="D61" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="69" t="n">
+      <c r="E61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="76" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="30" t="n">
@@ -15114,8 +15148,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="65"/>
-      <c r="B62" s="70" t="s">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -15168,8 +15202,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="65"/>
-      <c r="B63" s="70" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="77" t="s">
         <v>208</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -15222,8 +15256,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="65"/>
-      <c r="B64" s="70" t="s">
+      <c r="A64" s="72"/>
+      <c r="B64" s="77" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -15276,8 +15310,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="65"/>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -15330,53 +15364,53 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="65"/>
-      <c r="B66" s="71" t="s">
+      <c r="A66" s="72"/>
+      <c r="B66" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="63" t="n">
+      <c r="E66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="68" t="n">
         <v>0</v>
       </c>
       <c r="U66" s="47" t="n">
@@ -15431,39 +15465,39 @@
   <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="75" width="3.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="75" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="75" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="82" width="3.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="82" width="13.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="82" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75"/>
+    <row r="1" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="82"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="AMJ1" s="75"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="AMJ1" s="82"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -16484,168 +16518,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="82" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80" t="s">
+    <row r="3" s="89" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="AMJ3" s="78"/>
-    </row>
-    <row r="4" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75"/>
-      <c r="B4" s="79" t="s">
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="AMJ3" s="85"/>
+    </row>
+    <row r="4" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="82"/>
+      <c r="B4" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75" t="n">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="83" t="n">
+      <c r="E4" s="90" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="AMJ4" s="75"/>
-    </row>
-    <row r="5" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75"/>
-      <c r="B5" s="79" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="AMJ4" s="82"/>
+    </row>
+    <row r="5" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="82"/>
+      <c r="B5" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="75" t="n">
+      <c r="D5" s="82" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="AMJ5" s="75"/>
-    </row>
-    <row r="6" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75"/>
-      <c r="B6" s="79" t="s">
+      <c r="E5" s="90"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="AMJ5" s="82"/>
+    </row>
+    <row r="6" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="82"/>
+      <c r="B6" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="75" t="n">
+      <c r="D6" s="82" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="AMJ6" s="75"/>
-    </row>
-    <row r="7" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75"/>
-      <c r="B7" s="79" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="AMJ6" s="82"/>
+    </row>
+    <row r="7" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="82"/>
+      <c r="B7" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="75" t="n">
+      <c r="D7" s="82" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="AMJ7" s="75"/>
-    </row>
-    <row r="8" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75"/>
-      <c r="B8" s="79" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="AMJ7" s="82"/>
+    </row>
+    <row r="8" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="82"/>
+      <c r="B8" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" s="82" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="AMJ8" s="75"/>
-    </row>
-    <row r="9" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75"/>
-      <c r="B9" s="79" t="s">
+      <c r="E8" s="90"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="AMJ8" s="82"/>
+    </row>
+    <row r="9" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="82"/>
+      <c r="B9" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75" t="n">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="AMJ9" s="75"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="AMJ9" s="82"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85" t="n">
+      <c r="C10" s="92"/>
+      <c r="D10" s="92" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -16654,8 +16688,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -16664,82 +16698,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="98" t="s">
         <v>237</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="75" t="n">
+      <c r="C15" s="82" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="92" t="n">
+      <c r="C16" s="99" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="83"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="75" t="n">
+      <c r="C17" s="82" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="83"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="85" t="n">
+      <c r="C18" s="92" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -16766,213 +16800,213 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="87" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="94" t="s">
+      <c r="F22" s="94"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="94"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="98" t="s">
         <v>237</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="98" t="s">
         <v>237</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="95" t="s">
+      <c r="I23" s="102" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="86" t="s">
         <v>246</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="96" t="n">
+      <c r="F24" s="103" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>28.6621</v>
+        <v>28.6041</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="83" t="n">
+      <c r="I24" s="90" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="86" t="s">
         <v>248</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="F25" s="96" t="n">
+      <c r="F25" s="103" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="83" t="n">
+      <c r="I25" s="90" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="86" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="F26" s="96" t="n">
+      <c r="F26" s="103" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-21.286</v>
+        <v>-21.8487</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="83" t="n">
+      <c r="I26" s="90" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="75" t="n">
+      <c r="C27" s="82" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="96" t="n">
+      <c r="F27" s="103" t="n">
         <f aca="false">'Modes A-F'!K54</f>
-        <v>44.014</v>
+        <v>42.895</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="83"/>
+      <c r="I27" s="90"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="75" t="n">
+      <c r="C28" s="82" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="96" t="n">
+      <c r="F28" s="103" t="n">
         <f aca="false">'Modes A-F'!M54</f>
-        <v>43.915</v>
+        <v>43.656</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="83"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="75" t="n">
+      <c r="C29" s="82" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="96" t="n">
+      <c r="F29" s="103" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>18.169</v>
+        <v>16.844</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="83"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="75" t="n">
+      <c r="C30" s="82" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="96" t="n">
+      <c r="F30" s="103" t="n">
         <f aca="false">'Modes A-F'!T54</f>
-        <v>52.6071</v>
+        <v>52.1071</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="83"/>
+      <c r="I30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="91" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="85" t="n">
+      <c r="C31" s="92" t="n">
         <v>55</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17030,14 +17064,14 @@
       <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98" t="s">
+      <c r="F1" s="104"/>
+      <c r="G1" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="98"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
@@ -17063,25 +17097,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="100" t="n">
+      <c r="E3" s="107" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="100" t="n">
+      <c r="F3" s="107" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="101" t="n">
+      <c r="G3" s="108" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="102" t="n">
+      <c r="H3" s="109" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -17144,11 +17178,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="103" t="s">
+      <c r="I6" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -17160,9 +17194,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17204,26 +17238,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="115" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="109"/>
-      <c r="D2" s="110" t="s">
+      <c r="A2" s="116"/>
+      <c r="D2" s="117" t="s">
         <v>266</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -17232,514 +17266,514 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="111"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="119" t="s">
         <v>267</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="113" t="n">
+      <c r="E3" s="120" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="96" t="n">
+      <c r="F3" s="103" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="114" t="n">
+      <c r="G3" s="121" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>18.169</v>
-      </c>
-      <c r="H3" s="115" t="n">
+        <v>16.844</v>
+      </c>
+      <c r="H3" s="122" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.934118981708298</v>
+        <v>-2.2591189817083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="119" t="s">
         <v>269</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="96" t="n">
+      <c r="E4" s="103" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>128.679</v>
-      </c>
-      <c r="F4" s="96" t="n">
+        <v>127.735</v>
+      </c>
+      <c r="F4" s="103" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>99.7679132666878</v>
-      </c>
-      <c r="G4" s="114" t="n">
+        <v>98.8239132666878</v>
+      </c>
+      <c r="G4" s="121" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>100.534</v>
-      </c>
-      <c r="H4" s="115" t="n">
+        <v>99.605</v>
+      </c>
+      <c r="H4" s="122" t="n">
         <f aca="false">G4-F4</f>
-        <v>0.76608673331225</v>
+        <v>0.78108673331225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="117" t="n">
+      <c r="B5" s="124" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="119" t="n">
+      <c r="E5" s="126" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>128.447</v>
-      </c>
-      <c r="F5" s="119" t="n">
+        <v>120.891</v>
+      </c>
+      <c r="F5" s="126" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>96.0709028716503</v>
-      </c>
-      <c r="G5" s="120" t="n">
+        <v>88.5149028716504</v>
+      </c>
+      <c r="G5" s="127" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>100.302</v>
-      </c>
-      <c r="H5" s="115" t="n">
+        <v>89.3728</v>
+      </c>
+      <c r="H5" s="122" t="n">
         <f aca="false">G5-F5</f>
-        <v>4.23109712834967</v>
+        <v>0.857897128349649</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="115" t="n">
+      <c r="H6" s="122" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>1.35435495998454</v>
+        <v>-0.206711706682133</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="122" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="123" t="n">
+      <c r="G8" s="130" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="109"/>
-      <c r="D9" s="110" t="s">
+      <c r="A9" s="116"/>
+      <c r="D9" s="117" t="s">
         <v>266</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="111" t="n">
+      <c r="G9" s="118" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="119" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="115" t="n">
+      <c r="E10" s="122" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>28.6621</v>
-      </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="124" t="n">
+        <v>28.6041</v>
+      </c>
+      <c r="F10" s="122"/>
+      <c r="G10" s="131" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>30.8435000290853</v>
+        <v>30.7855000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="119" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="115" t="n">
+      <c r="E11" s="122" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>111.113</v>
-      </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="124" t="n">
+        <v>106.013</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="131" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>113.421400030779</v>
+        <v>108.321400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="123" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="117" t="n">
+      <c r="B12" s="124" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="125" t="n">
+      <c r="E12" s="132" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>111.113</v>
-      </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126" t="n">
+        <v>106.013</v>
+      </c>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>113.652400033859</v>
+        <v>108.552400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="122" t="s">
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="105" t="n">
+      <c r="G16" s="112" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="123"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="130"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="109"/>
-      <c r="D17" s="110" t="s">
+      <c r="A17" s="116"/>
+      <c r="D17" s="117" t="s">
         <v>266</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="64" t="n">
+      <c r="G17" s="71" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="111" t="n">
+      <c r="I17" s="118" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="119" t="s">
         <v>279</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="117" t="s">
         <v>280</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="128" t="n">
+      <c r="G18" s="135" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="111"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="109"/>
-      <c r="D19" s="110" t="s">
+      <c r="A19" s="116"/>
+      <c r="D19" s="117" t="s">
         <v>281</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="64" t="n">
+      <c r="G19" s="71" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="111"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="109"/>
-      <c r="D20" s="110"/>
-      <c r="G20" s="129" t="s">
+      <c r="A20" s="116"/>
+      <c r="D20" s="117"/>
+      <c r="G20" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="I20" s="111"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="109"/>
-      <c r="F21" s="130" t="s">
+      <c r="A21" s="116"/>
+      <c r="F21" s="137" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="111"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="119" t="s">
         <v>267</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="115" t="n">
+      <c r="E22" s="122" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-39.3042914229833</v>
-      </c>
-      <c r="F22" s="131" t="n">
+        <v>-39.3622914229833</v>
+      </c>
+      <c r="F22" s="138" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-21.286</v>
-      </c>
-      <c r="G22" s="115" t="n">
+        <v>-21.8487</v>
+      </c>
+      <c r="G22" s="122" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-34.35292924884</v>
-      </c>
-      <c r="I22" s="111"/>
+        <v>-34.4109292488399</v>
+      </c>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="119" t="s">
         <v>269</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="115" t="n">
+      <c r="E23" s="122" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>38.3522674801944</v>
-      </c>
-      <c r="F23" s="131" t="n">
+        <v>33.2522674801944</v>
+      </c>
+      <c r="F23" s="138" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>58.859</v>
-      </c>
-      <c r="G23" s="115" t="n">
+        <v>58.3089</v>
+      </c>
+      <c r="G23" s="122" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>43.6528981480704</v>
-      </c>
-      <c r="I23" s="111"/>
+        <v>38.5528981480704</v>
+      </c>
+      <c r="I23" s="118"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="117" t="n">
+      <c r="B24" s="124" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118" t="s">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="125" t="n">
+      <c r="E24" s="132" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>29.6318517843995</v>
-      </c>
-      <c r="F24" s="132" t="n">
+        <v>24.5318517843995</v>
+      </c>
+      <c r="F24" s="139" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>52.229</v>
-      </c>
-      <c r="G24" s="133" t="n">
+        <v>44.4788</v>
+      </c>
+      <c r="G24" s="140" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>35.567766090482</v>
-      </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="134"/>
+        <v>30.467766090482</v>
+      </c>
+      <c r="H24" s="124"/>
+      <c r="I24" s="141"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="122" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="G28" s="105" t="n">
+      <c r="G28" s="112" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="123"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="130"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="109"/>
-      <c r="D29" s="110" t="s">
+      <c r="A29" s="116"/>
+      <c r="D29" s="117" t="s">
         <v>266</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="64" t="n">
+      <c r="G29" s="71" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="127" t="s">
+      <c r="H29" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="I29" s="111" t="n">
+      <c r="I29" s="118" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="119" t="s">
         <v>279</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="117" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="128" t="n">
+      <c r="G30" s="135" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="111"/>
+      <c r="I30" s="118"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="109"/>
-      <c r="D31" s="110" t="s">
+      <c r="A31" s="116"/>
+      <c r="D31" s="117" t="s">
         <v>281</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="64" t="n">
+      <c r="G31" s="71" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="118"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="109"/>
-      <c r="D32" s="110"/>
-      <c r="G32" s="129" t="s">
+      <c r="A32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="G32" s="136" t="s">
         <v>282</v>
       </c>
-      <c r="I32" s="111"/>
+      <c r="I32" s="118"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="109"/>
-      <c r="F33" s="130" t="s">
+      <c r="A33" s="116"/>
+      <c r="F33" s="137" t="s">
         <v>264</v>
       </c>
-      <c r="I33" s="111"/>
+      <c r="I33" s="118"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="112" t="s">
+      <c r="A34" s="119" t="s">
         <v>267</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="115" t="n">
+      <c r="E34" s="122" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-66.3125236638297</v>
-      </c>
-      <c r="F34" s="131" t="n">
+        <v>-66.3705236638297</v>
+      </c>
+      <c r="F34" s="138" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
-      <c r="G34" s="115" t="n">
+      <c r="G34" s="122" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-61.3609007866982</v>
-      </c>
-      <c r="I34" s="111"/>
+        <v>-61.4189007866982</v>
+      </c>
+      <c r="I34" s="118"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="119" t="s">
         <v>269</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="117" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="115" t="n">
+      <c r="E35" s="122" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>9.43887777734649</v>
-      </c>
-      <c r="F35" s="131" t="n">
+        <v>4.3388777773465</v>
+      </c>
+      <c r="F35" s="138" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="115" t="n">
+      <c r="G35" s="122" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>14.7397875381681</v>
-      </c>
-      <c r="I35" s="111"/>
+        <v>9.63978753816814</v>
+      </c>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="123" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="117" t="n">
+      <c r="B36" s="124" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118" t="s">
+      <c r="C36" s="124"/>
+      <c r="D36" s="125" t="s">
         <v>272</v>
       </c>
-      <c r="E36" s="125" t="n">
+      <c r="E36" s="132" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>-2.74682432571097</v>
-      </c>
-      <c r="F36" s="132" t="n">
+        <v>-7.84682432571097</v>
+      </c>
+      <c r="F36" s="139" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="125" t="n">
+      <c r="G36" s="132" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>3.18940252276749</v>
-      </c>
-      <c r="H36" s="117"/>
-      <c r="I36" s="134"/>
+        <v>-1.9105974772325</v>
+      </c>
+      <c r="H36" s="124"/>
+      <c r="I36" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17842,7 +17876,7 @@
       <c r="A9" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="136" t="n">
+      <c r="B9" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17866,7 +17900,7 @@
       <c r="A12" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="136" t="n">
+      <c r="B12" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -17962,7 +17996,7 @@
       <c r="A24" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="136" t="n">
+      <c r="B24" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17986,7 +18020,7 @@
       <c r="A27" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="136" t="n">
+      <c r="B27" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18082,7 +18116,7 @@
       <c r="A39" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B39" s="136" t="n">
+      <c r="B39" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18106,7 +18140,7 @@
       <c r="A42" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="136" t="n">
+      <c r="B42" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18202,7 +18236,7 @@
       <c r="A54" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B54" s="136" t="n">
+      <c r="B54" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18226,7 +18260,7 @@
       <c r="A57" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B57" s="136" t="n">
+      <c r="B57" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18290,7 +18324,7 @@
       <c r="A65" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B65" s="136" t="n">
+      <c r="B65" s="143" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -18298,7 +18332,7 @@
       <c r="A66" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B66" s="136" t="n">
+      <c r="B66" s="143" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -18306,7 +18340,7 @@
       <c r="A67" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B67" s="136" t="n">
+      <c r="B67" s="143" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -18314,7 +18348,7 @@
       <c r="A68" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B68" s="136" t="n">
+      <c r="B68" s="143" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -18634,7 +18668,7 @@
       <c r="A108" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="136" t="n">
+      <c r="B108" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18658,7 +18692,7 @@
       <c r="A111" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="136" t="n">
+      <c r="B111" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18754,7 +18788,7 @@
       <c r="A123" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="136" t="n">
+      <c r="B123" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18778,7 +18812,7 @@
       <c r="A126" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B126" s="136" t="n">
+      <c r="B126" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18874,7 +18908,7 @@
       <c r="A138" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B138" s="136" t="n">
+      <c r="B138" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18898,7 +18932,7 @@
       <c r="A141" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B141" s="136" t="n">
+      <c r="B141" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18994,7 +19028,7 @@
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B153" s="136" t="n">
+      <c r="B153" s="143" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -19018,7 +19052,7 @@
       <c r="A156" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B156" s="136" t="n">
+      <c r="B156" s="143" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -19082,7 +19116,7 @@
       <c r="A164" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B164" s="136" t="n">
+      <c r="B164" s="143" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -19090,7 +19124,7 @@
       <c r="A165" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B165" s="136" t="n">
+      <c r="B165" s="143" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -19098,7 +19132,7 @@
       <c r="A166" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B166" s="136" t="n">
+      <c r="B166" s="143" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -19106,7 +19140,7 @@
       <c r="A167" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B167" s="136" t="n">
+      <c r="B167" s="143" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -19242,7 +19276,7 @@
       <c r="A184" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B184" s="136" t="n">
+      <c r="B184" s="143" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19250,7 +19284,7 @@
       <c r="A185" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B185" s="136" t="n">
+      <c r="B185" s="143" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19282,7 +19316,7 @@
       <c r="A189" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="136" t="n">
+      <c r="B189" s="143" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -19306,7 +19340,7 @@
       <c r="A192" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B192" s="136" t="n">
+      <c r="B192" s="143" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -19314,7 +19348,7 @@
       <c r="A193" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B193" s="136" t="n">
+      <c r="B193" s="143" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -19322,7 +19356,7 @@
       <c r="A194" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B194" s="136" t="n">
+      <c r="B194" s="143" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -19330,7 +19364,7 @@
       <c r="A195" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="136" t="n">
+      <c r="B195" s="143" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -20754,40 +20788,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="136" t="n">
+      <c r="C337" s="143" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="136" t="n">
+      <c r="D337" s="143" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="136" t="n">
+      <c r="E337" s="143" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="136" t="n">
+      <c r="F337" s="143" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="136" t="n">
+      <c r="G337" s="143" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="136" t="n">
+      <c r="H337" s="143" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="136" t="n">
+      <c r="I337" s="143" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="136" t="n">
+      <c r="J337" s="143" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="136" t="n">
+      <c r="K337" s="143" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="136" t="n">
+      <c r="L337" s="143" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="136" t="n">
+      <c r="M337" s="143" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="136" t="n">
+      <c r="N337" s="143" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -20798,40 +20832,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="136" t="n">
+      <c r="C338" s="143" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="136" t="n">
+      <c r="D338" s="143" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="136" t="n">
+      <c r="E338" s="143" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="136" t="n">
+      <c r="F338" s="143" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="136" t="n">
+      <c r="G338" s="143" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="136" t="n">
+      <c r="H338" s="143" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="136" t="n">
+      <c r="I338" s="143" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="136" t="n">
+      <c r="J338" s="143" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="136" t="n">
+      <c r="K338" s="143" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="136" t="n">
+      <c r="L338" s="143" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="136" t="n">
+      <c r="M338" s="143" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="136" t="n">
+      <c r="N338" s="143" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -20842,40 +20876,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="136" t="n">
+      <c r="C339" s="143" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="136" t="n">
+      <c r="D339" s="143" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="136" t="n">
+      <c r="E339" s="143" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="136" t="n">
+      <c r="F339" s="143" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="136" t="n">
+      <c r="G339" s="143" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="136" t="n">
+      <c r="H339" s="143" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="136" t="n">
+      <c r="I339" s="143" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="136" t="n">
+      <c r="J339" s="143" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="136" t="n">
+      <c r="K339" s="143" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="136" t="n">
+      <c r="L339" s="143" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="136" t="n">
+      <c r="M339" s="143" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="136" t="n">
+      <c r="N339" s="143" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -20886,40 +20920,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="136" t="n">
+      <c r="C340" s="143" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="136" t="n">
+      <c r="D340" s="143" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="136" t="n">
+      <c r="E340" s="143" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="136" t="n">
+      <c r="F340" s="143" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="136" t="n">
+      <c r="G340" s="143" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="136" t="n">
+      <c r="H340" s="143" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="136" t="n">
+      <c r="I340" s="143" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="136" t="n">
+      <c r="J340" s="143" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="136" t="n">
+      <c r="K340" s="143" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="136" t="n">
+      <c r="L340" s="143" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="136" t="n">
+      <c r="M340" s="143" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="136" t="n">
+      <c r="N340" s="143" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -21634,40 +21668,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="136" t="n">
+      <c r="C357" s="143" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="136" t="n">
+      <c r="D357" s="143" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="136" t="n">
+      <c r="E357" s="143" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="136" t="n">
+      <c r="F357" s="143" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="136" t="n">
+      <c r="G357" s="143" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="136" t="n">
+      <c r="H357" s="143" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="136" t="n">
+      <c r="I357" s="143" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="136" t="n">
+      <c r="J357" s="143" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="136" t="n">
+      <c r="K357" s="143" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="136" t="n">
+      <c r="L357" s="143" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="136" t="n">
+      <c r="M357" s="143" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="136" t="n">
+      <c r="N357" s="143" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -21678,40 +21712,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="136" t="n">
+      <c r="C358" s="143" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="136" t="n">
+      <c r="D358" s="143" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="136" t="n">
+      <c r="E358" s="143" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="136" t="n">
+      <c r="F358" s="143" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="136" t="n">
+      <c r="G358" s="143" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="136" t="n">
+      <c r="H358" s="143" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="136" t="n">
+      <c r="I358" s="143" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="136" t="n">
+      <c r="J358" s="143" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="136" t="n">
+      <c r="K358" s="143" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="136" t="n">
+      <c r="L358" s="143" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="136" t="n">
+      <c r="M358" s="143" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="136" t="n">
+      <c r="N358" s="143" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -21722,40 +21756,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="136" t="n">
+      <c r="C359" s="143" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="136" t="n">
+      <c r="D359" s="143" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="136" t="n">
+      <c r="E359" s="143" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="136" t="n">
+      <c r="F359" s="143" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="136" t="n">
+      <c r="G359" s="143" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="136" t="n">
+      <c r="H359" s="143" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="136" t="n">
+      <c r="I359" s="143" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="136" t="n">
+      <c r="J359" s="143" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="136" t="n">
+      <c r="K359" s="143" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="136" t="n">
+      <c r="L359" s="143" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="136" t="n">
+      <c r="M359" s="143" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="136" t="n">
+      <c r="N359" s="143" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -21766,40 +21800,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="136" t="n">
+      <c r="C360" s="143" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="136" t="n">
+      <c r="D360" s="143" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="136" t="n">
+      <c r="E360" s="143" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="136" t="n">
+      <c r="F360" s="143" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="136" t="n">
+      <c r="G360" s="143" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="136" t="n">
+      <c r="H360" s="143" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="136" t="n">
+      <c r="I360" s="143" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="136" t="n">
+      <c r="J360" s="143" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="136" t="n">
+      <c r="K360" s="143" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="136" t="n">
+      <c r="L360" s="143" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="136" t="n">
+      <c r="M360" s="143" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="136" t="n">
+      <c r="N360" s="143" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -21942,7 +21976,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="136" t="n">
+      <c r="C364" s="143" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -21986,7 +22020,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="136" t="n">
+      <c r="C365" s="143" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -22030,7 +22064,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="136" t="n">
+      <c r="C366" s="143" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -22074,7 +22108,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="136" t="n">
+      <c r="C367" s="143" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -23851,13 +23885,13 @@
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="144" t="s">
         <v>813</v>
       </c>
-      <c r="C1" s="137" t="n">
+      <c r="C1" s="144" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="144" t="s">
         <v>814</v>
       </c>
     </row>
@@ -23865,10 +23899,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="144" t="s">
         <v>815</v>
       </c>
-      <c r="C2" s="137" t="n">
+      <c r="C2" s="144" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -23876,10 +23910,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="144" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="137" t="n">
+      <c r="C3" s="144" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -23983,7 +24017,7 @@
       <c r="B16" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C16" s="136" t="n">
+      <c r="C16" s="143" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -23991,7 +24025,7 @@
       <c r="B17" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C17" s="136" t="n">
+      <c r="C17" s="143" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -23999,7 +24033,7 @@
       <c r="B18" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C18" s="136" t="n">
+      <c r="C18" s="143" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -24007,7 +24041,7 @@
       <c r="B19" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C19" s="136" t="n">
+      <c r="C19" s="143" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -24495,7 +24529,7 @@
       <c r="B80" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="C80" s="136" t="n">
+      <c r="C80" s="143" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -24543,7 +24577,7 @@
       <c r="B86" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="C86" s="136" t="n">
+      <c r="C86" s="143" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -24575,7 +24609,7 @@
       <c r="B90" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="C90" s="136" t="n">
+      <c r="C90" s="143" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -24663,7 +24697,7 @@
       <c r="B101" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="C101" s="136" t="n">
+      <c r="C101" s="143" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -24839,7 +24873,7 @@
       <c r="B123" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="C123" s="136" t="n">
+      <c r="C123" s="143" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -24903,7 +24937,7 @@
       <c r="B131" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="C131" s="136" t="n">
+      <c r="C131" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -24919,7 +24953,7 @@
       <c r="B133" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="C133" s="136" t="n">
+      <c r="C133" s="143" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -25439,7 +25473,7 @@
       <c r="B198" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="C198" s="136" t="n">
+      <c r="C198" s="143" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -25487,7 +25521,7 @@
       <c r="B204" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="C204" s="136" t="n">
+      <c r="C204" s="143" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -25519,7 +25553,7 @@
       <c r="B208" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="C208" s="136" t="n">
+      <c r="C208" s="143" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -25607,7 +25641,7 @@
       <c r="B219" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="C219" s="136" t="n">
+      <c r="C219" s="143" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -25783,7 +25817,7 @@
       <c r="B241" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="C241" s="136" t="n">
+      <c r="C241" s="143" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -25847,7 +25881,7 @@
       <c r="B249" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="C249" s="136" t="n">
+      <c r="C249" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25863,7 +25897,7 @@
       <c r="B251" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="C251" s="136" t="n">
+      <c r="C251" s="143" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -26383,7 +26417,7 @@
       <c r="B316" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C316" s="136" t="n">
+      <c r="C316" s="143" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -26431,7 +26465,7 @@
       <c r="B322" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="C322" s="136" t="n">
+      <c r="C322" s="143" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -26463,7 +26497,7 @@
       <c r="B326" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="C326" s="136" t="n">
+      <c r="C326" s="143" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -26551,7 +26585,7 @@
       <c r="B337" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="C337" s="136" t="n">
+      <c r="C337" s="143" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -26727,7 +26761,7 @@
       <c r="B359" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="C359" s="136" t="n">
+      <c r="C359" s="143" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -26791,7 +26825,7 @@
       <c r="B367" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="C367" s="136" t="n">
+      <c r="C367" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26807,7 +26841,7 @@
       <c r="B369" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="C369" s="136" t="n">
+      <c r="C369" s="143" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -27327,7 +27361,7 @@
       <c r="B434" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="C434" s="136" t="n">
+      <c r="C434" s="143" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -27375,7 +27409,7 @@
       <c r="B440" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="C440" s="136" t="n">
+      <c r="C440" s="143" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -27407,7 +27441,7 @@
       <c r="B444" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="C444" s="136" t="n">
+      <c r="C444" s="143" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -27495,7 +27529,7 @@
       <c r="B455" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="C455" s="136" t="n">
+      <c r="C455" s="143" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -27671,7 +27705,7 @@
       <c r="B477" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="C477" s="136" t="n">
+      <c r="C477" s="143" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -27735,7 +27769,7 @@
       <c r="B485" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="C485" s="136" t="n">
+      <c r="C485" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27751,7 +27785,7 @@
       <c r="B487" s="0" t="s">
         <v>1317</v>
       </c>
-      <c r="C487" s="136" t="n">
+      <c r="C487" s="143" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -27839,7 +27873,7 @@
       <c r="B498" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C498" s="136" t="n">
+      <c r="C498" s="143" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -27847,7 +27881,7 @@
       <c r="B499" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C499" s="136" t="n">
+      <c r="C499" s="143" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -27855,7 +27889,7 @@
       <c r="B500" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C500" s="136" t="n">
+      <c r="C500" s="143" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -27863,7 +27897,7 @@
       <c r="B501" s="0" t="s">
         <v>1331</v>
       </c>
-      <c r="C501" s="136" t="n">
+      <c r="C501" s="143" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -28431,7 +28465,7 @@
       <c r="B572" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="C572" s="136" t="n">
+      <c r="C572" s="143" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -28479,7 +28513,7 @@
       <c r="B578" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="C578" s="136" t="n">
+      <c r="C578" s="143" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -28511,7 +28545,7 @@
       <c r="B582" s="0" t="s">
         <v>1412</v>
       </c>
-      <c r="C582" s="136" t="n">
+      <c r="C582" s="143" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -28599,7 +28633,7 @@
       <c r="B593" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="C593" s="136" t="n">
+      <c r="C593" s="143" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -28775,7 +28809,7 @@
       <c r="B615" s="0" t="s">
         <v>1446</v>
       </c>
-      <c r="C615" s="136" t="n">
+      <c r="C615" s="143" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -28839,7 +28873,7 @@
       <c r="B623" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="C623" s="136" t="n">
+      <c r="C623" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28855,7 +28889,7 @@
       <c r="B625" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="C625" s="136" t="n">
+      <c r="C625" s="143" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -29375,7 +29409,7 @@
       <c r="B690" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="C690" s="136" t="n">
+      <c r="C690" s="143" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -29423,7 +29457,7 @@
       <c r="B696" s="0" t="s">
         <v>1527</v>
       </c>
-      <c r="C696" s="136" t="n">
+      <c r="C696" s="143" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -29455,7 +29489,7 @@
       <c r="B700" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="C700" s="136" t="n">
+      <c r="C700" s="143" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -29543,7 +29577,7 @@
       <c r="B711" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="C711" s="136" t="n">
+      <c r="C711" s="143" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -29719,7 +29753,7 @@
       <c r="B733" s="0" t="s">
         <v>1565</v>
       </c>
-      <c r="C733" s="136" t="n">
+      <c r="C733" s="143" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -29783,7 +29817,7 @@
       <c r="B741" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="C741" s="136" t="n">
+      <c r="C741" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -29799,7 +29833,7 @@
       <c r="B743" s="0" t="s">
         <v>1575</v>
       </c>
-      <c r="C743" s="136" t="n">
+      <c r="C743" s="143" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -30355,7 +30389,7 @@
       <c r="B811" s="0" t="s">
         <v>1651</v>
       </c>
-      <c r="C811" s="136" t="n">
+      <c r="C811" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30871,7 +30905,7 @@
       <c r="B874" s="0" t="s">
         <v>1716</v>
       </c>
-      <c r="C874" s="136" t="n">
+      <c r="C874" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31387,7 +31421,7 @@
       <c r="B937" s="0" t="s">
         <v>1781</v>
       </c>
-      <c r="C937" s="136" t="n">
+      <c r="C937" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31903,7 +31937,7 @@
       <c r="B1000" s="0" t="s">
         <v>1846</v>
       </c>
-      <c r="C1000" s="136" t="n">
+      <c r="C1000" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32419,7 +32453,7 @@
       <c r="B1063" s="0" t="s">
         <v>1911</v>
       </c>
-      <c r="C1063" s="136" t="n">
+      <c r="C1063" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32935,7 +32969,7 @@
       <c r="B1126" s="0" t="s">
         <v>1976</v>
       </c>
-      <c r="C1126" s="136" t="n">
+      <c r="C1126" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33451,7 +33485,7 @@
       <c r="B1189" s="0" t="s">
         <v>2041</v>
       </c>
-      <c r="C1189" s="136" t="n">
+      <c r="C1189" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33967,7 +34001,7 @@
       <c r="B1252" s="0" t="s">
         <v>2106</v>
       </c>
-      <c r="C1252" s="136" t="n">
+      <c r="C1252" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34483,7 +34517,7 @@
       <c r="B1315" s="0" t="s">
         <v>2171</v>
       </c>
-      <c r="C1315" s="136" t="n">
+      <c r="C1315" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34999,7 +35033,7 @@
       <c r="B1378" s="0" t="s">
         <v>2236</v>
       </c>
-      <c r="C1378" s="136" t="n">
+      <c r="C1378" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35515,7 +35549,7 @@
       <c r="B1441" s="0" t="s">
         <v>2301</v>
       </c>
-      <c r="C1441" s="136" t="n">
+      <c r="C1441" s="143" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35963,7 +35997,7 @@
       <c r="B1497" s="0" t="s">
         <v>2360</v>
       </c>
-      <c r="C1497" s="136" t="n">
+      <c r="C1497" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36589,7 +36623,7 @@
       <c r="B1576" s="0" t="s">
         <v>2444</v>
       </c>
-      <c r="C1576" s="136" t="n">
+      <c r="C1576" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36758,7 +36792,7 @@
       <c r="B1596" s="0" t="s">
         <v>2466</v>
       </c>
-      <c r="C1596" s="136" t="n">
+      <c r="C1596" s="143" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36766,7 +36800,7 @@
       <c r="B1597" s="0" t="s">
         <v>2467</v>
       </c>
-      <c r="C1597" s="136" t="n">
+      <c r="C1597" s="143" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -37646,7 +37680,7 @@
       <c r="B1707" s="0" t="s">
         <v>2578</v>
       </c>
-      <c r="C1707" s="136" t="n">
+      <c r="C1707" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37662,7 +37696,7 @@
       <c r="B1709" s="0" t="s">
         <v>2580</v>
       </c>
-      <c r="C1709" s="136" t="n">
+      <c r="C1709" s="143" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -38182,7 +38216,7 @@
       <c r="B1774" s="0" t="s">
         <v>2645</v>
       </c>
-      <c r="C1774" s="136" t="n">
+      <c r="C1774" s="143" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -38262,7 +38296,7 @@
       <c r="B1784" s="0" t="s">
         <v>2655</v>
       </c>
-      <c r="C1784" s="136" t="n">
+      <c r="C1784" s="143" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -38350,7 +38384,7 @@
       <c r="B1795" s="0" t="s">
         <v>2666</v>
       </c>
-      <c r="C1795" s="136" t="n">
+      <c r="C1795" s="143" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -38526,7 +38560,7 @@
       <c r="B1817" s="0" t="s">
         <v>2689</v>
       </c>
-      <c r="C1817" s="136" t="n">
+      <c r="C1817" s="143" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -38590,7 +38624,7 @@
       <c r="B1825" s="0" t="s">
         <v>2697</v>
       </c>
-      <c r="C1825" s="136" t="n">
+      <c r="C1825" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38606,7 +38640,7 @@
       <c r="B1827" s="0" t="s">
         <v>2699</v>
       </c>
-      <c r="C1827" s="136" t="n">
+      <c r="C1827" s="143" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -39209,7 +39243,7 @@
       <c r="B1902" s="0" t="s">
         <v>2776</v>
       </c>
-      <c r="C1902" s="136" t="n">
+      <c r="C1902" s="143" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -39257,7 +39291,7 @@
       <c r="B1908" s="0" t="s">
         <v>2782</v>
       </c>
-      <c r="C1908" s="136" t="n">
+      <c r="C1908" s="143" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -39289,7 +39323,7 @@
       <c r="B1912" s="0" t="s">
         <v>2786</v>
       </c>
-      <c r="C1912" s="136" t="n">
+      <c r="C1912" s="143" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -39377,7 +39411,7 @@
       <c r="B1923" s="0" t="s">
         <v>2797</v>
       </c>
-      <c r="C1923" s="136" t="n">
+      <c r="C1923" s="143" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -39553,7 +39587,7 @@
       <c r="B1945" s="0" t="s">
         <v>2820</v>
       </c>
-      <c r="C1945" s="136" t="n">
+      <c r="C1945" s="143" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -39617,7 +39651,7 @@
       <c r="B1953" s="0" t="s">
         <v>2828</v>
       </c>
-      <c r="C1953" s="136" t="n">
+      <c r="C1953" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39633,7 +39667,7 @@
       <c r="B1955" s="0" t="s">
         <v>2830</v>
       </c>
-      <c r="C1955" s="136" t="n">
+      <c r="C1955" s="143" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -40153,7 +40187,7 @@
       <c r="B2020" s="0" t="s">
         <v>2895</v>
       </c>
-      <c r="C2020" s="136" t="n">
+      <c r="C2020" s="143" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -40201,7 +40235,7 @@
       <c r="B2026" s="0" t="s">
         <v>2901</v>
       </c>
-      <c r="C2026" s="136" t="n">
+      <c r="C2026" s="143" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -40233,7 +40267,7 @@
       <c r="B2030" s="0" t="s">
         <v>2905</v>
       </c>
-      <c r="C2030" s="136" t="n">
+      <c r="C2030" s="143" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -40321,7 +40355,7 @@
       <c r="B2041" s="0" t="s">
         <v>2916</v>
       </c>
-      <c r="C2041" s="136" t="n">
+      <c r="C2041" s="143" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -40497,7 +40531,7 @@
       <c r="B2063" s="0" t="s">
         <v>2939</v>
       </c>
-      <c r="C2063" s="136" t="n">
+      <c r="C2063" s="143" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -40561,7 +40595,7 @@
       <c r="B2071" s="0" t="s">
         <v>2947</v>
       </c>
-      <c r="C2071" s="136" t="n">
+      <c r="C2071" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40577,7 +40611,7 @@
       <c r="B2073" s="0" t="s">
         <v>2949</v>
       </c>
-      <c r="C2073" s="136" t="n">
+      <c r="C2073" s="143" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -41097,7 +41131,7 @@
       <c r="B2138" s="0" t="s">
         <v>3014</v>
       </c>
-      <c r="C2138" s="136" t="n">
+      <c r="C2138" s="143" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -41145,7 +41179,7 @@
       <c r="B2144" s="0" t="s">
         <v>3020</v>
       </c>
-      <c r="C2144" s="136" t="n">
+      <c r="C2144" s="143" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -41177,7 +41211,7 @@
       <c r="B2148" s="0" t="s">
         <v>3024</v>
       </c>
-      <c r="C2148" s="136" t="n">
+      <c r="C2148" s="143" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -41265,7 +41299,7 @@
       <c r="B2159" s="0" t="s">
         <v>3035</v>
       </c>
-      <c r="C2159" s="136" t="n">
+      <c r="C2159" s="143" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -41441,7 +41475,7 @@
       <c r="B2181" s="0" t="s">
         <v>3058</v>
       </c>
-      <c r="C2181" s="136" t="n">
+      <c r="C2181" s="143" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -41505,7 +41539,7 @@
       <c r="B2189" s="0" t="s">
         <v>3066</v>
       </c>
-      <c r="C2189" s="136" t="n">
+      <c r="C2189" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41521,7 +41555,7 @@
       <c r="B2191" s="0" t="s">
         <v>3068</v>
       </c>
-      <c r="C2191" s="136" t="n">
+      <c r="C2191" s="143" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -42097,7 +42131,7 @@
       <c r="B2263" s="0" t="s">
         <v>3143</v>
       </c>
-      <c r="C2263" s="136" t="n">
+      <c r="C2263" s="143" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -42384,7 +42418,7 @@
       <c r="F2297" s="0" t="s">
         <v>3188</v>
       </c>
-      <c r="G2297" s="138" t="n">
+      <c r="G2297" s="145" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -42476,7 +42510,7 @@
       <c r="B2307" s="0" t="s">
         <v>3202</v>
       </c>
-      <c r="C2307" s="136" t="n">
+      <c r="C2307" s="143" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -42562,7 +42596,7 @@
       <c r="B2317" s="0" t="s">
         <v>3218</v>
       </c>
-      <c r="C2317" s="136" t="n">
+      <c r="C2317" s="143" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -42570,7 +42604,7 @@
       <c r="B2318" s="0" t="s">
         <v>3219</v>
       </c>
-      <c r="C2318" s="136" t="n">
+      <c r="C2318" s="143" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -42586,7 +42620,7 @@
       <c r="B2320" s="0" t="s">
         <v>3221</v>
       </c>
-      <c r="C2320" s="136" t="n">
+      <c r="C2320" s="143" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -42634,7 +42668,7 @@
       <c r="C2326" s="0" t="s">
         <v>3229</v>
       </c>
-      <c r="D2326" s="139" t="n">
+      <c r="D2326" s="146" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -42685,7 +42719,7 @@
       <c r="C2332" s="0" t="s">
         <v>3237</v>
       </c>
-      <c r="D2332" s="139" t="n">
+      <c r="D2332" s="146" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -42704,7 +42738,7 @@
       <c r="D2334" s="0" t="s">
         <v>3240</v>
       </c>
-      <c r="E2334" s="139" t="n">
+      <c r="E2334" s="146" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -42762,7 +42796,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="139" t="n">
+      <c r="F2339" s="146" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -43234,7 +43268,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="139" t="n">
+      <c r="F2380" s="146" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="247" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="247" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modes A-F" sheetId="1" state="visible" r:id="rId2"/>
@@ -11694,7 +11694,7 @@
   </sheetPr>
   <dimension ref="1:66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="N32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
@@ -15464,8 +15464,8 @@
   </sheetPr>
   <dimension ref="1:31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -16915,7 +16915,7 @@
         <v>251</v>
       </c>
       <c r="I26" s="90" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -10643,14 +10643,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
-    <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="170" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="0.00E+000"/>
+    <numFmt numFmtId="170" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="171" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -10781,7 +10782,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10803,7 +10804,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -10814,7 +10815,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
+        <fgColor rgb="FFFFFFD7"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
@@ -11107,7 +11114,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11348,15 +11355,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11364,11 +11375,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11376,7 +11387,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11384,11 +11395,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11444,7 +11455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11492,7 +11503,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11604,7 +11615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11680,19 +11691,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11708,7 +11719,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFCCFF"/>
+      <rgbColor rgb="FFFFFFD7"/>
       <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000CC"/>
@@ -11726,7 +11737,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FF330066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -11744,7 +11755,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF2DED5"/>
       <rgbColor rgb="FF3366FF"/>
@@ -11776,14 +11787,14 @@
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="U54" activeCellId="0" sqref="U54"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="F58" activeCellId="0" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
@@ -11799,10 +11810,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="13.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14744,35 +14753,35 @@
         <v>181</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>29.305</v>
+        <v>30.904</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>257236</v>
+        <v>270207</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-22.453</v>
+        <v>-22.857</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>-260370</v>
-      </c>
-      <c r="K54" s="57" t="n">
-        <v>42.826</v>
+        <v>-264424</v>
+      </c>
+      <c r="K54" s="60" t="n">
+        <v>43.326</v>
       </c>
       <c r="L54" s="28" t="n">
         <v>393955</v>
       </c>
       <c r="M54" s="57" t="n">
-        <v>43.157</v>
+        <v>43.654</v>
       </c>
       <c r="N54" s="28" t="n">
-        <v>395728</v>
+        <v>400720</v>
       </c>
       <c r="O54" s="57" t="n">
-        <v>16.941</v>
+        <v>17.5398</v>
       </c>
       <c r="P54" s="28" t="n">
         <v>133595</v>
@@ -14815,40 +14824,40 @@
         <v>184</v>
       </c>
       <c r="E55" s="37" t="n">
-        <v>-3.3653</v>
+        <v>5.5112</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G55" s="38" t="n">
-        <v>-3.3653</v>
-      </c>
-      <c r="H55" s="45" t="n">
-        <v>-3</v>
+        <v>88762</v>
+      </c>
+      <c r="G55" s="37" t="n">
+        <v>5.5112</v>
+      </c>
+      <c r="H55" s="35" t="n">
+        <v>88762</v>
       </c>
       <c r="I55" s="37" t="n">
-        <v>-3.3653</v>
+        <v>5.5112</v>
       </c>
       <c r="J55" s="35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K55" s="38" t="n">
-        <v>-3.3635</v>
-      </c>
-      <c r="L55" s="45" t="n">
-        <v>15</v>
+        <v>88762</v>
+      </c>
+      <c r="K55" s="37" t="n">
+        <v>5.5112</v>
+      </c>
+      <c r="L55" s="35" t="n">
+        <v>88762</v>
       </c>
       <c r="M55" s="37" t="n">
-        <v>-3.3635</v>
+        <v>5.5112</v>
       </c>
       <c r="N55" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="O55" s="38" t="n">
-        <v>-3.3648</v>
-      </c>
-      <c r="P55" s="45" t="n">
-        <v>2</v>
+        <v>88762</v>
+      </c>
+      <c r="O55" s="37" t="n">
+        <v>5.5112</v>
+      </c>
+      <c r="P55" s="35" t="n">
+        <v>88762</v>
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
@@ -14892,41 +14901,41 @@
       <c r="D56" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E56" s="60" t="n">
-        <v>113.122</v>
+      <c r="E56" s="61" t="n">
+        <v>117.737</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>9216103</v>
-      </c>
-      <c r="G56" s="61" t="n">
+        <v>9456218</v>
+      </c>
+      <c r="G56" s="62" t="n">
         <v>24.4104</v>
       </c>
-      <c r="H56" s="62" t="n">
+      <c r="H56" s="63" t="n">
         <v>4600216</v>
       </c>
-      <c r="I56" s="60" t="n">
-        <v>56.616</v>
+      <c r="I56" s="61" t="n">
+        <v>59.419</v>
       </c>
       <c r="J56" s="23" t="n">
-        <v>6275942</v>
-      </c>
-      <c r="K56" s="60" t="n">
-        <v>126.022</v>
+        <v>6421815</v>
+      </c>
+      <c r="K56" s="61" t="n">
+        <v>127.717</v>
       </c>
       <c r="L56" s="23" t="n">
-        <v>9887325</v>
-      </c>
-      <c r="M56" s="60" t="n">
-        <v>126.022</v>
+        <v>9975528</v>
+      </c>
+      <c r="M56" s="61" t="n">
+        <v>129.275</v>
       </c>
       <c r="N56" s="23" t="n">
-        <v>9887325</v>
-      </c>
-      <c r="O56" s="60" t="n">
-        <v>98.461</v>
+        <v>10056598</v>
+      </c>
+      <c r="O56" s="61" t="n">
+        <v>101.258</v>
       </c>
       <c r="P56" s="23" t="n">
-        <v>8453249</v>
+        <v>8598781</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
@@ -14954,41 +14963,41 @@
       <c r="D57" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E57" s="63" t="n">
-        <v>110.088</v>
+      <c r="E57" s="64" t="n">
+        <v>117.793</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>6612707</v>
-      </c>
-      <c r="G57" s="64" t="n">
+        <v>7013607</v>
+      </c>
+      <c r="G57" s="65" t="n">
         <v>12.81</v>
       </c>
-      <c r="H57" s="65" t="n">
+      <c r="H57" s="66" t="n">
         <v>1551088</v>
       </c>
-      <c r="I57" s="63" t="n">
-        <v>46.772</v>
+      <c r="I57" s="64" t="n">
+        <v>51.275</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>3318211</v>
-      </c>
-      <c r="K57" s="63" t="n">
-        <v>123.378</v>
+        <v>3552538</v>
+      </c>
+      <c r="K57" s="64" t="n">
+        <v>127.673</v>
       </c>
       <c r="L57" s="32" t="n">
-        <v>7304221</v>
-      </c>
-      <c r="M57" s="63" t="n">
-        <v>123.378</v>
+        <v>7527711</v>
+      </c>
+      <c r="M57" s="64" t="n">
+        <v>130.031</v>
       </c>
       <c r="N57" s="32" t="n">
-        <v>7304221</v>
-      </c>
-      <c r="O57" s="63" t="n">
-        <v>92.517</v>
+        <v>7650409</v>
+      </c>
+      <c r="O57" s="64" t="n">
+        <v>98.114</v>
       </c>
       <c r="P57" s="32" t="n">
-        <v>5698439</v>
+        <v>5989663</v>
       </c>
       <c r="T57" s="30" t="n">
         <v>138.4</v>
@@ -15008,41 +15017,41 @@
       <c r="D58" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E58" s="63" t="n">
-        <v>110.088</v>
+      <c r="E58" s="64" t="n">
+        <v>117.793</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>5415959</v>
-      </c>
-      <c r="G58" s="64" t="n">
+        <v>5816859</v>
+      </c>
+      <c r="G58" s="65" t="n">
         <v>12.81</v>
       </c>
-      <c r="H58" s="65" t="n">
+      <c r="H58" s="66" t="n">
         <v>354340</v>
       </c>
-      <c r="I58" s="63" t="n">
-        <v>46.772</v>
+      <c r="I58" s="64" t="n">
+        <v>51.275</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>2121463</v>
-      </c>
-      <c r="K58" s="63" t="n">
-        <v>123.378</v>
+        <v>2355790</v>
+      </c>
+      <c r="K58" s="64" t="n">
+        <v>127.673</v>
       </c>
       <c r="L58" s="32" t="n">
-        <v>6107473</v>
-      </c>
-      <c r="M58" s="63" t="n">
-        <v>123.378</v>
+        <v>6330963</v>
+      </c>
+      <c r="M58" s="64" t="n">
+        <v>130.031</v>
       </c>
       <c r="N58" s="32" t="n">
-        <v>6107473</v>
-      </c>
-      <c r="O58" s="63" t="n">
-        <v>92.517</v>
-      </c>
-      <c r="P58" s="66" t="n">
-        <v>4501691</v>
+        <v>6453661</v>
+      </c>
+      <c r="O58" s="64" t="n">
+        <v>98.114</v>
+      </c>
+      <c r="P58" s="67" t="n">
+        <v>4792915</v>
       </c>
       <c r="T58" s="27" t="n">
         <v>138.4</v>
@@ -15067,43 +15076,43 @@
       <c r="D59" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="63" t="n">
-        <v>-0.6</v>
+      <c r="E59" s="64" t="n">
+        <v>-11.0621</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="G59" s="64" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="H59" s="67" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="I59" s="63" t="n">
-        <v>-0.6</v>
+        <v>-202758</v>
+      </c>
+      <c r="G59" s="65" t="n">
+        <v>-11.0621</v>
+      </c>
+      <c r="H59" s="68" t="n">
+        <v>-202758</v>
+      </c>
+      <c r="I59" s="64" t="n">
+        <v>-11.0621</v>
       </c>
       <c r="J59" s="28" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="K59" s="63" t="n">
-        <v>-0.6</v>
+        <v>-202758</v>
+      </c>
+      <c r="K59" s="64" t="n">
+        <v>-11.0621</v>
       </c>
       <c r="L59" s="28" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="M59" s="63" t="n">
-        <v>-0.6</v>
+        <v>-202758</v>
+      </c>
+      <c r="M59" s="64" t="n">
+        <v>-11.0621</v>
       </c>
       <c r="N59" s="28" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="O59" s="63" t="n">
-        <v>-0.6</v>
+        <v>-202758</v>
+      </c>
+      <c r="O59" s="64" t="n">
+        <v>-11.0621</v>
       </c>
       <c r="P59" s="28" t="n">
-        <v>-412000</v>
-      </c>
-      <c r="T59" s="63" t="n">
+        <v>-202758</v>
+      </c>
+      <c r="T59" s="64" t="n">
         <v>-0.6</v>
       </c>
       <c r="U59" s="28" t="n">
@@ -15121,46 +15130,46 @@
       <c r="D60" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="68" t="n">
-        <v>33.3721</v>
+      <c r="E60" s="69" t="n">
+        <v>16.38985</v>
       </c>
       <c r="F60" s="47" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="G60" s="69" t="n">
-        <v>33.3721</v>
-      </c>
-      <c r="H60" s="70" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="I60" s="68" t="n">
-        <v>33.3721</v>
+        <v>140203</v>
+      </c>
+      <c r="G60" s="70" t="n">
+        <v>16.38985</v>
+      </c>
+      <c r="H60" s="71" t="n">
+        <v>140203</v>
+      </c>
+      <c r="I60" s="69" t="n">
+        <v>16.38985</v>
       </c>
       <c r="J60" s="47" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="K60" s="68" t="n">
-        <v>33.3721</v>
+        <v>140203</v>
+      </c>
+      <c r="K60" s="69" t="n">
+        <v>16.38985</v>
       </c>
       <c r="L60" s="47" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="M60" s="68" t="n">
-        <v>33.3721</v>
+        <v>140203</v>
+      </c>
+      <c r="M60" s="69" t="n">
+        <v>16.38985</v>
       </c>
       <c r="N60" s="47" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="O60" s="68" t="n">
-        <v>33.3721</v>
+        <v>140203</v>
+      </c>
+      <c r="O60" s="69" t="n">
+        <v>16.38985</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>-199443</v>
-      </c>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="68" t="n">
+        <v>140203</v>
+      </c>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="69" t="n">
         <v>33.3721</v>
       </c>
       <c r="U60" s="47" t="n">
@@ -15173,52 +15182,52 @@
       <c r="Z60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="76" t="n">
+      <c r="E61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="77" t="n">
         <v>0</v>
       </c>
       <c r="T61" s="30" t="n">
@@ -15229,8 +15238,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="72"/>
-      <c r="B62" s="77" t="s">
+      <c r="A62" s="73"/>
+      <c r="B62" s="78" t="s">
         <v>205</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -15283,8 +15292,8 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="72"/>
-      <c r="B63" s="77" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="78" t="s">
         <v>208</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -15337,8 +15346,8 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="72"/>
-      <c r="B64" s="77" t="s">
+      <c r="A64" s="73"/>
+      <c r="B64" s="78" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -15391,8 +15400,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="72"/>
-      <c r="B65" s="77" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="78" t="s">
         <v>214</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -15445,53 +15454,53 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="72"/>
-      <c r="B66" s="78" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="E66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="68" t="n">
+      <c r="E66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="69" t="n">
         <v>0</v>
       </c>
       <c r="U66" s="47" t="n">
@@ -15545,40 +15554,40 @@
   </sheetPr>
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="82" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="82" width="13.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="82" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="83" width="3.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="83" width="13.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="83" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82"/>
+    <row r="1" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="83"/>
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
       <c r="E1" s="0"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="AMJ1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="AMJ1" s="83"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
@@ -16599,168 +16608,168 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="89" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87" t="s">
+    <row r="3" s="90" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="AMJ3" s="85"/>
-    </row>
-    <row r="4" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82"/>
-      <c r="B4" s="86" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="AMJ3" s="86"/>
+    </row>
+    <row r="4" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="83"/>
+      <c r="B4" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82" t="n">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83" t="n">
         <v>55</v>
       </c>
-      <c r="E4" s="90" t="n">
+      <c r="E4" s="91" t="n">
         <v>55</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="AMJ4" s="82"/>
-    </row>
-    <row r="5" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82"/>
-      <c r="B5" s="86" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="AMJ4" s="83"/>
+    </row>
+    <row r="5" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="83"/>
+      <c r="B5" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="82" t="n">
+      <c r="D5" s="83" t="n">
         <v>-46.5</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="AMJ5" s="82"/>
-    </row>
-    <row r="6" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82"/>
-      <c r="B6" s="86" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="AMJ5" s="83"/>
+    </row>
+    <row r="6" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="83"/>
+      <c r="B6" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="82" t="n">
+      <c r="D6" s="83" t="n">
         <v>-20.5</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="AMJ6" s="82"/>
-    </row>
-    <row r="7" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82"/>
-      <c r="B7" s="86" t="s">
+      <c r="E6" s="91"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="AMJ6" s="83"/>
+    </row>
+    <row r="7" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="83"/>
+      <c r="B7" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="82" t="n">
+      <c r="D7" s="83" t="n">
         <v>5.5</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="AMJ7" s="82"/>
-    </row>
-    <row r="8" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82"/>
-      <c r="B8" s="86" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="AMJ7" s="83"/>
+    </row>
+    <row r="8" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="83"/>
+      <c r="B8" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="82" t="n">
+      <c r="D8" s="83" t="n">
         <v>31</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="AMJ8" s="82"/>
-    </row>
-    <row r="9" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82"/>
-      <c r="B9" s="86" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="AMJ8" s="83"/>
+    </row>
+    <row r="9" s="84" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="83"/>
+      <c r="B9" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82" t="n">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83" t="n">
         <v>-52.6</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="AMJ9" s="82"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="AMJ9" s="83"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92" t="n">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93" t="n">
         <v>-52</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -16769,8 +16778,8 @@
       <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -16779,82 +16788,82 @@
       <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="99" t="s">
         <v>237</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="90"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="82" t="n">
+      <c r="C15" s="83" t="n">
         <v>67</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="90"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="99" t="n">
+      <c r="C16" s="100" t="n">
         <v>-1.5</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="90"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="82" t="n">
+      <c r="C17" s="83" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="90"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="92" t="n">
+      <c r="C18" s="93" t="n">
         <v>53</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -16881,213 +16890,213 @@
       <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="94" t="s">
+      <c r="C22" s="101"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="101" t="s">
+      <c r="F22" s="95"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="99" t="s">
         <v>237</v>
       </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="99" t="s">
         <v>237</v>
       </c>
       <c r="G23" s="0"/>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="103" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="87" t="s">
         <v>246</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="103" t="n">
+      <c r="F24" s="104" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>29.305</v>
+        <v>30.904</v>
       </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="90" t="n">
+      <c r="I24" s="91" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="87" t="s">
         <v>248</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>-66.743</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="F25" s="103" t="n">
+      <c r="F25" s="104" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="82" t="s">
+      <c r="H25" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="90" t="n">
+      <c r="I25" s="91" t="n">
         <v>-17.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="87" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-48.1824</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="F26" s="103" t="n">
+      <c r="F26" s="104" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.453</v>
+        <v>-22.857</v>
       </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="82" t="s">
+      <c r="H26" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="I26" s="90" t="n">
+      <c r="I26" s="91" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="82" t="n">
+      <c r="C27" s="83" t="n">
         <v>27.1</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="F27" s="103" t="n">
+      <c r="F27" s="104" t="n">
         <f aca="false">'Modes A-F'!K54</f>
-        <v>42.826</v>
+        <v>43.326</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="90"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="82" t="n">
+      <c r="C28" s="83" t="n">
         <v>27.1</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="103" t="n">
+      <c r="F28" s="104" t="n">
         <f aca="false">'Modes A-F'!M54</f>
-        <v>43.157</v>
+        <v>43.654</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="90"/>
+      <c r="I28" s="91"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="82" t="n">
+      <c r="C29" s="83" t="n">
         <v>2.8</v>
       </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="103" t="n">
+      <c r="F29" s="104" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>16.941</v>
+        <v>17.5398</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="90"/>
+      <c r="I29" s="91"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C30" s="82" t="n">
+      <c r="C30" s="83" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="103" t="n">
+      <c r="F30" s="104" t="n">
         <f aca="false">'Modes A-F'!T54</f>
         <v>53.33</v>
       </c>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="90"/>
+      <c r="I30" s="91"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="92" t="n">
+      <c r="C31" s="93" t="n">
         <v>55</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17123,16 +17132,14 @@
       <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17145,14 +17152,14 @@
       <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="105"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="44" t="s">
@@ -17178,25 +17185,25 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="107" t="n">
+      <c r="E3" s="108" t="n">
         <v>8.77968</v>
       </c>
-      <c r="F3" s="107" t="n">
+      <c r="F3" s="108" t="n">
         <v>-2703</v>
       </c>
-      <c r="G3" s="108" t="n">
+      <c r="G3" s="109" t="n">
         <v>7.16226</v>
       </c>
-      <c r="H3" s="109" t="n">
+      <c r="H3" s="110" t="n">
         <v>-6620</v>
       </c>
     </row>
@@ -17259,11 +17266,11 @@
       <c r="G6" s="1" t="n">
         <v>15.99439325</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
@@ -17275,9 +17282,9 @@
       <c r="G7" s="1" t="n">
         <v>1.63763854</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17307,38 +17314,36 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="116" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="116"/>
-      <c r="D2" s="117" t="s">
+      <c r="A2" s="117"/>
+      <c r="D2" s="118" t="s">
         <v>266</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -17347,514 +17352,514 @@
       <c r="F2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="120" t="s">
         <v>267</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="120" t="n">
+      <c r="E3" s="121" t="n">
         <v>46.1092</v>
       </c>
-      <c r="F3" s="103" t="n">
+      <c r="F3" s="104" t="n">
         <f aca="false">E3-B3*TAN(2*(F2-E2)/1000)</f>
         <v>19.1031189817083</v>
       </c>
-      <c r="G3" s="121" t="n">
+      <c r="G3" s="122" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>16.941</v>
-      </c>
-      <c r="H3" s="122" t="n">
+        <v>17.5398</v>
+      </c>
+      <c r="H3" s="123" t="n">
         <f aca="false">G3-F3</f>
-        <v>-2.1621189817083</v>
+        <v>-1.5633189817083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>269</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B3+635</f>
         <v>9637</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="103" t="n">
+      <c r="E4" s="104" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>126.022</v>
-      </c>
-      <c r="F4" s="103" t="n">
+        <v>127.717</v>
+      </c>
+      <c r="F4" s="104" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>97.1109132666878</v>
-      </c>
-      <c r="G4" s="121" t="n">
+        <v>98.8059132666877</v>
+      </c>
+      <c r="G4" s="122" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>98.461</v>
-      </c>
-      <c r="H4" s="122" t="n">
+        <v>101.258</v>
+      </c>
+      <c r="H4" s="123" t="n">
         <f aca="false">G4-F4</f>
-        <v>1.35008673331224</v>
+        <v>2.45208673331224</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="124" t="n">
+      <c r="B5" s="125" t="n">
         <f aca="false">B3+1790</f>
         <v>10792</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125" t="s">
+      <c r="C5" s="125"/>
+      <c r="D5" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="126" t="n">
+      <c r="E5" s="127" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>123.378</v>
-      </c>
-      <c r="F5" s="126" t="n">
+        <v>127.673</v>
+      </c>
+      <c r="F5" s="127" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>91.0019028716503</v>
-      </c>
-      <c r="G5" s="127" t="n">
+        <v>95.2969028716503</v>
+      </c>
+      <c r="G5" s="128" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>92.517</v>
-      </c>
-      <c r="H5" s="122" t="n">
+        <v>98.114</v>
+      </c>
+      <c r="H5" s="123" t="n">
         <f aca="false">G5-F5</f>
-        <v>1.51509712834965</v>
+        <v>2.81709712834967</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="122" t="n">
+      <c r="H6" s="123" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>0.23435495998453</v>
+        <v>1.23528829331787</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="129" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="130" t="n">
+      <c r="G8" s="131" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="116"/>
-      <c r="D9" s="117" t="s">
+      <c r="A9" s="117"/>
+      <c r="D9" s="118" t="s">
         <v>266</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="G9" s="118" t="n">
+      <c r="G9" s="119" t="n">
         <f aca="false">E9+G8</f>
         <v>3.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="120" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>10907</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="122" t="n">
+      <c r="E10" s="123" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>29.305</v>
-      </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="131" t="n">
+        <v>30.904</v>
+      </c>
+      <c r="F10" s="123"/>
+      <c r="G10" s="132" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>31.4864000290853</v>
+        <v>33.0854000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="120" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B10+635</f>
         <v>11542</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="122" t="n">
+      <c r="E11" s="123" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>110.088</v>
-      </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="131" t="n">
+        <v>117.793</v>
+      </c>
+      <c r="F11" s="123"/>
+      <c r="G11" s="132" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>112.396400030779</v>
+        <v>120.101400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="124" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="124" t="n">
+      <c r="B12" s="125" t="n">
         <f aca="false">B10+1790</f>
         <v>12697</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="132" t="n">
+      <c r="E12" s="133" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>110.088</v>
-      </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="n">
+        <v>117.793</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>112.627400033859</v>
+        <v>120.332400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="129" t="s">
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="112" t="n">
+      <c r="G16" s="113" t="n">
         <v>0.275</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="130"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="116"/>
-      <c r="D17" s="117" t="s">
+      <c r="A17" s="117"/>
+      <c r="D17" s="118" t="s">
         <v>266</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G17" s="71" t="n">
+      <c r="G17" s="72" t="n">
         <f aca="false">E17+G16</f>
         <v>3.5</v>
       </c>
-      <c r="H17" s="134" t="s">
+      <c r="H17" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="118" t="n">
+      <c r="I17" s="119" t="n">
         <f aca="false">B18*TAN(2*(E9-G17)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="120" t="s">
         <v>279</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="118" t="s">
         <v>280</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>-7.25</v>
       </c>
-      <c r="G18" s="135" t="n">
+      <c r="G18" s="136" t="n">
         <f aca="false">E18+B18*TAN(2*(G17-E17)/1000)</f>
         <v>-6.20059989418549</v>
       </c>
-      <c r="I18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="116"/>
-      <c r="D19" s="117" t="s">
+      <c r="A19" s="117"/>
+      <c r="D19" s="118" t="s">
         <v>281</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="false">3.5 + (3.5-E17)</f>
         <v>3.775</v>
       </c>
-      <c r="G19" s="71" t="n">
+      <c r="G19" s="72" t="n">
         <f aca="false">E19-G16</f>
         <v>3.5</v>
       </c>
-      <c r="I19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="G20" s="136" t="s">
+      <c r="A20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="G20" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="I20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="116"/>
-      <c r="F21" s="137" t="s">
+      <c r="A21" s="117"/>
+      <c r="F21" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="I21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="120" t="s">
         <v>267</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="122" t="n">
+      <c r="E22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-38.6613914229833</v>
-      </c>
-      <c r="F22" s="138" t="n">
+        <v>-37.0623914229833</v>
+      </c>
+      <c r="F22" s="139" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.453</v>
-      </c>
-      <c r="G22" s="122" t="n">
+        <v>-22.857</v>
+      </c>
+      <c r="G22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-33.7100292488399</v>
-      </c>
-      <c r="I22" s="118"/>
+        <v>-32.11102924884</v>
+      </c>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="120" t="s">
         <v>269</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">B22+635</f>
         <v>9637</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="122" t="n">
+      <c r="E23" s="123" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>37.3272674801944</v>
-      </c>
-      <c r="F23" s="138" t="n">
+        <v>45.0322674801944</v>
+      </c>
+      <c r="F23" s="139" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>56.616</v>
-      </c>
-      <c r="G23" s="122" t="n">
+        <v>59.419</v>
+      </c>
+      <c r="G23" s="123" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>42.6278981480704</v>
-      </c>
-      <c r="I23" s="118"/>
+        <v>50.3328981480704</v>
+      </c>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="124" t="n">
+      <c r="B24" s="125" t="n">
         <f aca="false">B22+1790</f>
         <v>10792</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125" t="s">
+      <c r="C24" s="125"/>
+      <c r="D24" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="E24" s="132" t="n">
+      <c r="E24" s="133" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>28.6068517843995</v>
-      </c>
-      <c r="F24" s="139" t="n">
+        <v>36.3118517843995</v>
+      </c>
+      <c r="F24" s="140" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>46.772</v>
-      </c>
-      <c r="G24" s="140" t="n">
+        <v>51.275</v>
+      </c>
+      <c r="G24" s="141" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>34.542766090482</v>
-      </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="141"/>
+        <v>42.247766090482</v>
+      </c>
+      <c r="H24" s="125"/>
+      <c r="I24" s="142"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="129" t="s">
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="G28" s="112" t="n">
+      <c r="G28" s="113" t="n">
         <v>0.275</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="130"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="116"/>
-      <c r="D29" s="117" t="s">
+      <c r="A29" s="117"/>
+      <c r="D29" s="118" t="s">
         <v>266</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>3.225</v>
       </c>
-      <c r="G29" s="71" t="n">
+      <c r="G29" s="72" t="n">
         <f aca="false">E29+G28</f>
         <v>3.5</v>
       </c>
-      <c r="H29" s="134" t="s">
+      <c r="H29" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="I29" s="118" t="n">
+      <c r="I29" s="119" t="n">
         <f aca="false">B30*TAN(2*(E9-G29)/1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="120" t="s">
         <v>279</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1908</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="118" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>-6.583</v>
       </c>
-      <c r="G30" s="135" t="n">
+      <c r="G30" s="136" t="n">
         <f aca="false">E30+B30*TAN(2*(G29-E29)/1000)</f>
         <v>-5.53359989418549</v>
       </c>
-      <c r="I30" s="118"/>
+      <c r="I30" s="119"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="116"/>
-      <c r="D31" s="117" t="s">
+      <c r="A31" s="117"/>
+      <c r="D31" s="118" t="s">
         <v>281</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">5+(3.5-E29)</f>
         <v>5.275</v>
       </c>
-      <c r="G31" s="71" t="n">
+      <c r="G31" s="72" t="n">
         <f aca="false">E31-G28</f>
         <v>5</v>
       </c>
-      <c r="I31" s="118"/>
+      <c r="I31" s="119"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="G32" s="136" t="s">
+      <c r="A32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="G32" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="I32" s="118"/>
+      <c r="I32" s="119"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="116"/>
-      <c r="F33" s="137" t="s">
+      <c r="A33" s="117"/>
+      <c r="F33" s="138" t="s">
         <v>264</v>
       </c>
-      <c r="I33" s="118"/>
+      <c r="I33" s="119"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="120" t="s">
         <v>267</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9002</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="122" t="n">
+      <c r="E34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-65.6696236638297</v>
-      </c>
-      <c r="F34" s="138" t="n">
+        <v>-64.0706236638297</v>
+      </c>
+      <c r="F34" s="139" t="n">
         <f aca="false">'Modes A-F'!G54</f>
         <v>-55.188</v>
       </c>
-      <c r="G34" s="122" t="n">
+      <c r="G34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-60.7180007866982</v>
-      </c>
-      <c r="I34" s="118"/>
+        <v>-59.1190007866982</v>
+      </c>
+      <c r="I34" s="119"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="120" t="s">
         <v>269</v>
       </c>
       <c r="B35" s="0" t="n">
         <f aca="false">B34+635</f>
         <v>9637</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="118" t="s">
         <v>270</v>
       </c>
-      <c r="E35" s="122" t="n">
+      <c r="E35" s="123" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>8.41387777734649</v>
-      </c>
-      <c r="F35" s="138" t="n">
+        <v>16.1188777773465</v>
+      </c>
+      <c r="F35" s="139" t="n">
         <f aca="false">'Modes A-F'!G56</f>
         <v>24.4104</v>
       </c>
-      <c r="G35" s="122" t="n">
+      <c r="G35" s="123" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>13.7147875381681</v>
-      </c>
-      <c r="I35" s="118"/>
+        <v>21.4197875381681</v>
+      </c>
+      <c r="I35" s="119"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="124" t="n">
+      <c r="B36" s="125" t="n">
         <f aca="false">B34+1790</f>
         <v>10792</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125" t="s">
+      <c r="C36" s="125"/>
+      <c r="D36" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="E36" s="132" t="n">
+      <c r="E36" s="133" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>-3.77182432571098</v>
-      </c>
-      <c r="F36" s="139" t="n">
+        <v>3.93317567428903</v>
+      </c>
+      <c r="F36" s="140" t="n">
         <f aca="false">'Modes A-F'!G57</f>
         <v>12.81</v>
       </c>
-      <c r="G36" s="132" t="n">
+      <c r="G36" s="133" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>2.16440252276749</v>
-      </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="141"/>
+        <v>9.8694025227675</v>
+      </c>
+      <c r="H36" s="125"/>
+      <c r="I36" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17883,10 +17888,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17957,7 +17961,7 @@
       <c r="A9" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="143" t="n">
+      <c r="B9" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -17981,7 +17985,7 @@
       <c r="A12" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="143" t="n">
+      <c r="B12" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18077,7 +18081,7 @@
       <c r="A24" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="143" t="n">
+      <c r="B24" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18101,7 +18105,7 @@
       <c r="A27" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="143" t="n">
+      <c r="B27" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18197,7 +18201,7 @@
       <c r="A39" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B39" s="143" t="n">
+      <c r="B39" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18221,7 +18225,7 @@
       <c r="A42" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="143" t="n">
+      <c r="B42" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18317,7 +18321,7 @@
       <c r="A54" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B54" s="143" t="n">
+      <c r="B54" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18341,7 +18345,7 @@
       <c r="A57" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B57" s="143" t="n">
+      <c r="B57" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18405,7 +18409,7 @@
       <c r="A65" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B65" s="143" t="n">
+      <c r="B65" s="144" t="n">
         <v>8.1921E-011</v>
       </c>
     </row>
@@ -18413,7 +18417,7 @@
       <c r="A66" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B66" s="143" t="n">
+      <c r="B66" s="144" t="n">
         <v>6.1817E-009</v>
       </c>
     </row>
@@ -18421,7 +18425,7 @@
       <c r="A67" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B67" s="143" t="n">
+      <c r="B67" s="144" t="n">
         <v>-8.139E-009</v>
       </c>
     </row>
@@ -18429,7 +18433,7 @@
       <c r="A68" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B68" s="143" t="n">
+      <c r="B68" s="144" t="n">
         <v>4.2612E-009</v>
       </c>
     </row>
@@ -18749,7 +18753,7 @@
       <c r="A108" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="143" t="n">
+      <c r="B108" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18773,7 +18777,7 @@
       <c r="A111" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="143" t="n">
+      <c r="B111" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18869,7 +18873,7 @@
       <c r="A123" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="143" t="n">
+      <c r="B123" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -18893,7 +18897,7 @@
       <c r="A126" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B126" s="143" t="n">
+      <c r="B126" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -18989,7 +18993,7 @@
       <c r="A138" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B138" s="143" t="n">
+      <c r="B138" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -19013,7 +19017,7 @@
       <c r="A141" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B141" s="143" t="n">
+      <c r="B141" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -19109,7 +19113,7 @@
       <c r="A153" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B153" s="143" t="n">
+      <c r="B153" s="144" t="n">
         <v>1E-006</v>
       </c>
     </row>
@@ -19133,7 +19137,7 @@
       <c r="A156" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B156" s="143" t="n">
+      <c r="B156" s="144" t="n">
         <v>1E-005</v>
       </c>
     </row>
@@ -19197,7 +19201,7 @@
       <c r="A164" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B164" s="143" t="n">
+      <c r="B164" s="144" t="n">
         <v>1.9024E-008</v>
       </c>
     </row>
@@ -19205,7 +19209,7 @@
       <c r="A165" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B165" s="143" t="n">
+      <c r="B165" s="144" t="n">
         <v>-9.5679E-009</v>
       </c>
     </row>
@@ -19213,7 +19217,7 @@
       <c r="A166" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B166" s="143" t="n">
+      <c r="B166" s="144" t="n">
         <v>-1.1631E-009</v>
       </c>
     </row>
@@ -19221,7 +19225,7 @@
       <c r="A167" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B167" s="143" t="n">
+      <c r="B167" s="144" t="n">
         <v>1.027E-008</v>
       </c>
     </row>
@@ -19357,7 +19361,7 @@
       <c r="A184" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B184" s="143" t="n">
+      <c r="B184" s="144" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19365,7 +19369,7 @@
       <c r="A185" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B185" s="143" t="n">
+      <c r="B185" s="144" t="n">
         <v>2.8833E-008</v>
       </c>
     </row>
@@ -19397,7 +19401,7 @@
       <c r="A189" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B189" s="143" t="n">
+      <c r="B189" s="144" t="n">
         <v>4761600</v>
       </c>
     </row>
@@ -19421,7 +19425,7 @@
       <c r="A192" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B192" s="143" t="n">
+      <c r="B192" s="144" t="n">
         <v>2.8343E-008</v>
       </c>
     </row>
@@ -19429,7 +19433,7 @@
       <c r="A193" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B193" s="143" t="n">
+      <c r="B193" s="144" t="n">
         <v>-7.401E-010</v>
       </c>
     </row>
@@ -19437,7 +19441,7 @@
       <c r="A194" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B194" s="143" t="n">
+      <c r="B194" s="144" t="n">
         <v>-1.4084E-009</v>
       </c>
     </row>
@@ -19445,7 +19449,7 @@
       <c r="A195" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="B195" s="143" t="n">
+      <c r="B195" s="144" t="n">
         <v>2.0325E-008</v>
       </c>
     </row>
@@ -20869,40 +20873,40 @@
       <c r="B337" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C337" s="143" t="n">
+      <c r="C337" s="144" t="n">
         <v>8.3006E-011</v>
       </c>
-      <c r="D337" s="143" t="n">
+      <c r="D337" s="144" t="n">
         <v>8.2839E-011</v>
       </c>
-      <c r="E337" s="143" t="n">
+      <c r="E337" s="144" t="n">
         <v>8.2777E-011</v>
       </c>
-      <c r="F337" s="143" t="n">
+      <c r="F337" s="144" t="n">
         <v>8.1528E-011</v>
       </c>
-      <c r="G337" s="143" t="n">
+      <c r="G337" s="144" t="n">
         <v>8.2662E-011</v>
       </c>
-      <c r="H337" s="143" t="n">
+      <c r="H337" s="144" t="n">
         <v>8.3572E-011</v>
       </c>
-      <c r="I337" s="143" t="n">
+      <c r="I337" s="144" t="n">
         <v>8.489E-011</v>
       </c>
-      <c r="J337" s="143" t="n">
+      <c r="J337" s="144" t="n">
         <v>8.3896E-011</v>
       </c>
-      <c r="K337" s="143" t="n">
+      <c r="K337" s="144" t="n">
         <v>8.2012E-011</v>
       </c>
-      <c r="L337" s="143" t="n">
+      <c r="L337" s="144" t="n">
         <v>8.0897E-011</v>
       </c>
-      <c r="M337" s="143" t="n">
+      <c r="M337" s="144" t="n">
         <v>8.29E-011</v>
       </c>
-      <c r="N337" s="143" t="n">
+      <c r="N337" s="144" t="n">
         <v>8.0797E-011</v>
       </c>
     </row>
@@ -20913,40 +20917,40 @@
       <c r="B338" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C338" s="143" t="n">
+      <c r="C338" s="144" t="n">
         <v>6.3068E-009</v>
       </c>
-      <c r="D338" s="143" t="n">
+      <c r="D338" s="144" t="n">
         <v>6.0737E-009</v>
       </c>
-      <c r="E338" s="143" t="n">
+      <c r="E338" s="144" t="n">
         <v>6.6921E-009</v>
       </c>
-      <c r="F338" s="143" t="n">
+      <c r="F338" s="144" t="n">
         <v>5.7007E-009</v>
       </c>
-      <c r="G338" s="143" t="n">
+      <c r="G338" s="144" t="n">
         <v>5.6393E-009</v>
       </c>
-      <c r="H338" s="143" t="n">
+      <c r="H338" s="144" t="n">
         <v>6.6627E-009</v>
       </c>
-      <c r="I338" s="143" t="n">
+      <c r="I338" s="144" t="n">
         <v>6.6038E-009</v>
       </c>
-      <c r="J338" s="143" t="n">
+      <c r="J338" s="144" t="n">
         <v>5.87E-009</v>
       </c>
-      <c r="K338" s="143" t="n">
+      <c r="K338" s="144" t="n">
         <v>6.1792E-009</v>
       </c>
-      <c r="L338" s="143" t="n">
+      <c r="L338" s="144" t="n">
         <v>5.3276E-009</v>
       </c>
-      <c r="M338" s="143" t="n">
+      <c r="M338" s="144" t="n">
         <v>6.513E-009</v>
       </c>
-      <c r="N338" s="143" t="n">
+      <c r="N338" s="144" t="n">
         <v>5.9829E-009</v>
       </c>
     </row>
@@ -20957,40 +20961,40 @@
       <c r="B339" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C339" s="143" t="n">
+      <c r="C339" s="144" t="n">
         <v>-7.2948E-009</v>
       </c>
-      <c r="D339" s="143" t="n">
+      <c r="D339" s="144" t="n">
         <v>-7.6015E-009</v>
       </c>
-      <c r="E339" s="143" t="n">
+      <c r="E339" s="144" t="n">
         <v>-7.4862E-009</v>
       </c>
-      <c r="F339" s="143" t="n">
+      <c r="F339" s="144" t="n">
         <v>-8.5513E-009</v>
       </c>
-      <c r="G339" s="143" t="n">
+      <c r="G339" s="144" t="n">
         <v>-8.3206E-009</v>
       </c>
-      <c r="H339" s="143" t="n">
+      <c r="H339" s="144" t="n">
         <v>-7.5942E-009</v>
       </c>
-      <c r="I339" s="143" t="n">
+      <c r="I339" s="144" t="n">
         <v>-7.5377E-009</v>
       </c>
-      <c r="J339" s="143" t="n">
+      <c r="J339" s="144" t="n">
         <v>-8.5415E-009</v>
       </c>
-      <c r="K339" s="143" t="n">
+      <c r="K339" s="144" t="n">
         <v>-7.7635E-009</v>
       </c>
-      <c r="L339" s="143" t="n">
+      <c r="L339" s="144" t="n">
         <v>-8.0482E-009</v>
       </c>
-      <c r="M339" s="143" t="n">
+      <c r="M339" s="144" t="n">
         <v>-8.2175E-009</v>
       </c>
-      <c r="N339" s="143" t="n">
+      <c r="N339" s="144" t="n">
         <v>-7.9966E-009</v>
       </c>
     </row>
@@ -21001,40 +21005,40 @@
       <c r="B340" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C340" s="143" t="n">
+      <c r="C340" s="144" t="n">
         <v>4.8625E-009</v>
       </c>
-      <c r="D340" s="143" t="n">
+      <c r="D340" s="144" t="n">
         <v>4.433E-009</v>
       </c>
-      <c r="E340" s="143" t="n">
+      <c r="E340" s="144" t="n">
         <v>3.4611E-009</v>
       </c>
-      <c r="F340" s="143" t="n">
+      <c r="F340" s="144" t="n">
         <v>3.9372E-009</v>
       </c>
-      <c r="G340" s="143" t="n">
+      <c r="G340" s="144" t="n">
         <v>4.8526E-009</v>
       </c>
-      <c r="H340" s="143" t="n">
+      <c r="H340" s="144" t="n">
         <v>4.5041E-009</v>
       </c>
-      <c r="I340" s="143" t="n">
+      <c r="I340" s="144" t="n">
         <v>4.5311E-009</v>
       </c>
-      <c r="J340" s="143" t="n">
+      <c r="J340" s="144" t="n">
         <v>4.2882E-009</v>
       </c>
-      <c r="K340" s="143" t="n">
+      <c r="K340" s="144" t="n">
         <v>4.4551E-009</v>
       </c>
-      <c r="L340" s="143" t="n">
+      <c r="L340" s="144" t="n">
         <v>4.136E-009</v>
       </c>
-      <c r="M340" s="143" t="n">
+      <c r="M340" s="144" t="n">
         <v>3.9078E-009</v>
       </c>
-      <c r="N340" s="143" t="n">
+      <c r="N340" s="144" t="n">
         <v>3.9593E-009</v>
       </c>
     </row>
@@ -21749,40 +21753,40 @@
       <c r="B357" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C357" s="143" t="n">
+      <c r="C357" s="144" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="D357" s="143" t="n">
+      <c r="D357" s="144" t="n">
         <v>1.9514E-008</v>
       </c>
-      <c r="E357" s="143" t="n">
+      <c r="E357" s="144" t="n">
         <v>1.8533E-008</v>
       </c>
-      <c r="F357" s="143" t="n">
+      <c r="F357" s="144" t="n">
         <v>2.1231E-008</v>
       </c>
-      <c r="G357" s="143" t="n">
+      <c r="G357" s="144" t="n">
         <v>2.4174E-008</v>
       </c>
-      <c r="H357" s="143" t="n">
+      <c r="H357" s="144" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="I357" s="143" t="n">
+      <c r="I357" s="144" t="n">
         <v>2.8588E-008</v>
       </c>
-      <c r="J357" s="143" t="n">
+      <c r="J357" s="144" t="n">
         <v>1.9024E-008</v>
       </c>
-      <c r="K357" s="143" t="n">
+      <c r="K357" s="144" t="n">
         <v>3.2757E-008</v>
       </c>
-      <c r="L357" s="143" t="n">
+      <c r="L357" s="144" t="n">
         <v>3.5455E-008</v>
       </c>
-      <c r="M357" s="143" t="n">
+      <c r="M357" s="144" t="n">
         <v>2.025E-008</v>
       </c>
-      <c r="N357" s="143" t="n">
+      <c r="N357" s="144" t="n">
         <v>2.1231E-008</v>
       </c>
     </row>
@@ -21793,40 +21797,40 @@
       <c r="B358" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C358" s="143" t="n">
+      <c r="C358" s="144" t="n">
         <v>-1.766E-008</v>
       </c>
-      <c r="D358" s="143" t="n">
+      <c r="D358" s="144" t="n">
         <v>-4.4184E-009</v>
       </c>
-      <c r="E358" s="143" t="n">
+      <c r="E358" s="144" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="F358" s="143" t="n">
+      <c r="F358" s="144" t="n">
         <v>-1.1039E-008</v>
       </c>
-      <c r="G358" s="143" t="n">
+      <c r="G358" s="144" t="n">
         <v>-9.5679E-009</v>
       </c>
-      <c r="H358" s="143" t="n">
+      <c r="H358" s="144" t="n">
         <v>-1.1284E-008</v>
       </c>
-      <c r="I358" s="143" t="n">
+      <c r="I358" s="144" t="n">
         <v>-2.2114E-009</v>
       </c>
-      <c r="J358" s="143" t="n">
+      <c r="J358" s="144" t="n">
         <v>-5.3992E-009</v>
       </c>
-      <c r="K358" s="143" t="n">
+      <c r="K358" s="144" t="n">
         <v>9.7642E-010</v>
       </c>
-      <c r="L358" s="143" t="n">
+      <c r="L358" s="144" t="n">
         <v>6.3712E-009</v>
       </c>
-      <c r="M358" s="143" t="n">
+      <c r="M358" s="144" t="n">
         <v>-1.153E-008</v>
       </c>
-      <c r="N358" s="143" t="n">
+      <c r="N358" s="144" t="n">
         <v>-9.8131E-009</v>
       </c>
     </row>
@@ -21837,40 +21841,40 @@
       <c r="B359" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C359" s="143" t="n">
+      <c r="C359" s="144" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="D359" s="143" t="n">
+      <c r="D359" s="144" t="n">
         <v>-4.3514E-009</v>
       </c>
-      <c r="E359" s="143" t="n">
+      <c r="E359" s="144" t="n">
         <v>-6.0682E-009</v>
       </c>
-      <c r="F359" s="143" t="n">
+      <c r="F359" s="144" t="n">
         <v>-9.0112E-009</v>
       </c>
-      <c r="G359" s="143" t="n">
+      <c r="G359" s="144" t="n">
         <v>-4.5967E-009</v>
       </c>
-      <c r="H359" s="143" t="n">
+      <c r="H359" s="144" t="n">
         <v>-1.0483E-008</v>
       </c>
-      <c r="I359" s="143" t="n">
+      <c r="I359" s="144" t="n">
         <v>7.6659E-009</v>
       </c>
-      <c r="J359" s="143" t="n">
+      <c r="J359" s="144" t="n">
         <v>-3.3704E-009</v>
       </c>
-      <c r="K359" s="143" t="n">
+      <c r="K359" s="144" t="n">
         <v>6.6849E-009</v>
       </c>
-      <c r="L359" s="143" t="n">
+      <c r="L359" s="144" t="n">
         <v>5.2134E-009</v>
       </c>
-      <c r="M359" s="143" t="n">
+      <c r="M359" s="144" t="n">
         <v>-1.6536E-009</v>
       </c>
-      <c r="N359" s="143" t="n">
+      <c r="N359" s="144" t="n">
         <v>-5.5777E-009</v>
       </c>
     </row>
@@ -21881,40 +21885,40 @@
       <c r="B360" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C360" s="143" t="n">
+      <c r="C360" s="144" t="n">
         <v>7.8174E-009</v>
       </c>
-      <c r="D360" s="143" t="n">
+      <c r="D360" s="144" t="n">
         <v>2.3513E-008</v>
       </c>
-      <c r="E360" s="143" t="n">
+      <c r="E360" s="144" t="n">
         <v>1.7382E-008</v>
       </c>
-      <c r="F360" s="143" t="n">
+      <c r="F360" s="144" t="n">
         <v>1.1006E-008</v>
       </c>
-      <c r="G360" s="143" t="n">
+      <c r="G360" s="144" t="n">
         <v>1.5665E-008</v>
       </c>
-      <c r="H360" s="143" t="n">
+      <c r="H360" s="144" t="n">
         <v>1.2477E-008</v>
       </c>
-      <c r="I360" s="143" t="n">
+      <c r="I360" s="144" t="n">
         <v>2.057E-008</v>
       </c>
-      <c r="J360" s="143" t="n">
+      <c r="J360" s="144" t="n">
         <v>1.9835E-008</v>
       </c>
-      <c r="K360" s="143" t="n">
+      <c r="K360" s="144" t="n">
         <v>2.5721E-008</v>
       </c>
-      <c r="L360" s="143" t="n">
+      <c r="L360" s="144" t="n">
         <v>2.5475E-008</v>
       </c>
-      <c r="M360" s="143" t="n">
+      <c r="M360" s="144" t="n">
         <v>1.076E-008</v>
       </c>
-      <c r="N360" s="143" t="n">
+      <c r="N360" s="144" t="n">
         <v>1.3213E-008</v>
       </c>
     </row>
@@ -22057,7 +22061,7 @@
       <c r="B364" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C364" s="143" t="n">
+      <c r="C364" s="144" t="n">
         <v>2.8343E-008</v>
       </c>
       <c r="D364" s="0" t="n">
@@ -22101,7 +22105,7 @@
       <c r="B365" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C365" s="143" t="n">
+      <c r="C365" s="144" t="n">
         <v>-7.401E-010</v>
       </c>
       <c r="D365" s="0" t="n">
@@ -22145,7 +22149,7 @@
       <c r="B366" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C366" s="143" t="n">
+      <c r="C366" s="144" t="n">
         <v>-1.4084E-009</v>
       </c>
       <c r="D366" s="0" t="n">
@@ -22189,7 +22193,7 @@
       <c r="B367" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C367" s="143" t="n">
+      <c r="C367" s="144" t="n">
         <v>2.0325E-008</v>
       </c>
       <c r="D367" s="0" t="n">
@@ -23951,28 +23955,27 @@
   </sheetPr>
   <dimension ref="A1:G2383"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="145" t="s">
         <v>813</v>
       </c>
-      <c r="C1" s="144" t="n">
+      <c r="C1" s="145" t="n">
         <v>350</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="145" t="s">
         <v>814</v>
       </c>
     </row>
@@ -23980,10 +23983,10 @@
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="145" t="s">
         <v>815</v>
       </c>
-      <c r="C2" s="144" t="n">
+      <c r="C2" s="145" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -23991,10 +23994,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="145" t="s">
         <v>816</v>
       </c>
-      <c r="C3" s="144" t="n">
+      <c r="C3" s="145" t="n">
         <v>0.0004</v>
       </c>
     </row>
@@ -24098,7 +24101,7 @@
       <c r="B16" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="C16" s="143" t="n">
+      <c r="C16" s="144" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -24106,7 +24109,7 @@
       <c r="B17" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="C17" s="143" t="n">
+      <c r="C17" s="144" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -24114,7 +24117,7 @@
       <c r="B18" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="C18" s="143" t="n">
+      <c r="C18" s="144" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -24122,7 +24125,7 @@
       <c r="B19" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="C19" s="143" t="n">
+      <c r="C19" s="144" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -24610,7 +24613,7 @@
       <c r="B80" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="C80" s="143" t="n">
+      <c r="C80" s="144" t="n">
         <v>1.58855E-007</v>
       </c>
     </row>
@@ -24658,7 +24661,7 @@
       <c r="B86" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="C86" s="143" t="n">
+      <c r="C86" s="144" t="n">
         <v>1.58316E-007</v>
       </c>
     </row>
@@ -24690,7 +24693,7 @@
       <c r="B90" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="C90" s="143" t="n">
+      <c r="C90" s="144" t="n">
         <v>1.57838E-007</v>
       </c>
     </row>
@@ -24778,7 +24781,7 @@
       <c r="B101" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="C101" s="143" t="n">
+      <c r="C101" s="144" t="n">
         <v>2.397E-009</v>
       </c>
     </row>
@@ -24954,7 +24957,7 @@
       <c r="B123" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="C123" s="143" t="n">
+      <c r="C123" s="144" t="n">
         <v>2.37898E-010</v>
       </c>
     </row>
@@ -25018,7 +25021,7 @@
       <c r="B131" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="C131" s="143" t="n">
+      <c r="C131" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25034,7 +25037,7 @@
       <c r="B133" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="C133" s="143" t="n">
+      <c r="C133" s="144" t="n">
         <v>1.97895E-005</v>
       </c>
     </row>
@@ -25554,7 +25557,7 @@
       <c r="B198" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="C198" s="143" t="n">
+      <c r="C198" s="144" t="n">
         <v>2.78422E-007</v>
       </c>
     </row>
@@ -25602,7 +25605,7 @@
       <c r="B204" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="C204" s="143" t="n">
+      <c r="C204" s="144" t="n">
         <v>2.77565E-007</v>
       </c>
     </row>
@@ -25634,7 +25637,7 @@
       <c r="B208" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="C208" s="143" t="n">
+      <c r="C208" s="144" t="n">
         <v>2.76716E-007</v>
       </c>
     </row>
@@ -25722,7 +25725,7 @@
       <c r="B219" s="0" t="s">
         <v>1046</v>
       </c>
-      <c r="C219" s="143" t="n">
+      <c r="C219" s="144" t="n">
         <v>5.98328E-009</v>
       </c>
     </row>
@@ -25898,7 +25901,7 @@
       <c r="B241" s="0" t="s">
         <v>1069</v>
       </c>
-      <c r="C241" s="143" t="n">
+      <c r="C241" s="144" t="n">
         <v>4.11728E-010</v>
       </c>
     </row>
@@ -25962,7 +25965,7 @@
       <c r="B249" s="0" t="s">
         <v>1077</v>
       </c>
-      <c r="C249" s="143" t="n">
+      <c r="C249" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -25978,7 +25981,7 @@
       <c r="B251" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="C251" s="143" t="n">
+      <c r="C251" s="144" t="n">
         <v>3.46956E-005</v>
       </c>
     </row>
@@ -26498,7 +26501,7 @@
       <c r="B316" s="0" t="s">
         <v>1144</v>
       </c>
-      <c r="C316" s="143" t="n">
+      <c r="C316" s="144" t="n">
         <v>5.45673E-012</v>
       </c>
     </row>
@@ -26546,7 +26549,7 @@
       <c r="B322" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="C322" s="143" t="n">
+      <c r="C322" s="144" t="n">
         <v>7.71713E-013</v>
       </c>
     </row>
@@ -26578,7 +26581,7 @@
       <c r="B326" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="C326" s="143" t="n">
+      <c r="C326" s="144" t="n">
         <v>-7.72781E-012</v>
       </c>
     </row>
@@ -26666,7 +26669,7 @@
       <c r="B337" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="C337" s="143" t="n">
+      <c r="C337" s="144" t="n">
         <v>5.61762E-010</v>
       </c>
     </row>
@@ -26842,7 +26845,7 @@
       <c r="B359" s="0" t="s">
         <v>1188</v>
       </c>
-      <c r="C359" s="143" t="n">
+      <c r="C359" s="144" t="n">
         <v>2.605E-012</v>
       </c>
     </row>
@@ -26906,7 +26909,7 @@
       <c r="B367" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="C367" s="143" t="n">
+      <c r="C367" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -26922,7 +26925,7 @@
       <c r="B369" s="0" t="s">
         <v>1198</v>
       </c>
-      <c r="C369" s="143" t="n">
+      <c r="C369" s="144" t="n">
         <v>9.64642E-011</v>
       </c>
     </row>
@@ -27442,7 +27445,7 @@
       <c r="B434" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="C434" s="143" t="n">
+      <c r="C434" s="144" t="n">
         <v>5.42202E-012</v>
       </c>
     </row>
@@ -27490,7 +27493,7 @@
       <c r="B440" s="0" t="s">
         <v>1269</v>
       </c>
-      <c r="C440" s="143" t="n">
+      <c r="C440" s="144" t="n">
         <v>5.83458E-013</v>
       </c>
     </row>
@@ -27522,7 +27525,7 @@
       <c r="B444" s="0" t="s">
         <v>1273</v>
       </c>
-      <c r="C444" s="143" t="n">
+      <c r="C444" s="144" t="n">
         <v>-5.09224E-012</v>
       </c>
     </row>
@@ -27610,7 +27613,7 @@
       <c r="B455" s="0" t="s">
         <v>1284</v>
       </c>
-      <c r="C455" s="143" t="n">
+      <c r="C455" s="144" t="n">
         <v>2.08783E-010</v>
       </c>
     </row>
@@ -27786,7 +27789,7 @@
       <c r="B477" s="0" t="s">
         <v>1307</v>
       </c>
-      <c r="C477" s="143" t="n">
+      <c r="C477" s="144" t="n">
         <v>2.32565E-012</v>
       </c>
     </row>
@@ -27850,7 +27853,7 @@
       <c r="B485" s="0" t="s">
         <v>1315</v>
       </c>
-      <c r="C485" s="143" t="n">
+      <c r="C485" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -27866,7 +27869,7 @@
       <c r="B487" s="0" t="s">
         <v>1317</v>
       </c>
-      <c r="C487" s="143" t="n">
+      <c r="C487" s="144" t="n">
         <v>7.29322E-011</v>
       </c>
     </row>
@@ -27954,7 +27957,7 @@
       <c r="B498" s="0" t="s">
         <v>1328</v>
       </c>
-      <c r="C498" s="143" t="n">
+      <c r="C498" s="144" t="n">
         <v>3.71179E-009</v>
       </c>
     </row>
@@ -27962,7 +27965,7 @@
       <c r="B499" s="0" t="s">
         <v>1329</v>
       </c>
-      <c r="C499" s="143" t="n">
+      <c r="C499" s="144" t="n">
         <v>3.71272E-009</v>
       </c>
     </row>
@@ -27970,7 +27973,7 @@
       <c r="B500" s="0" t="s">
         <v>1330</v>
       </c>
-      <c r="C500" s="143" t="n">
+      <c r="C500" s="144" t="n">
         <v>3.71425E-009</v>
       </c>
     </row>
@@ -27978,7 +27981,7 @@
       <c r="B501" s="0" t="s">
         <v>1331</v>
       </c>
-      <c r="C501" s="143" t="n">
+      <c r="C501" s="144" t="n">
         <v>3.71562E-009</v>
       </c>
     </row>
@@ -28546,7 +28549,7 @@
       <c r="B572" s="0" t="s">
         <v>1402</v>
       </c>
-      <c r="C572" s="143" t="n">
+      <c r="C572" s="144" t="n">
         <v>1.19678E-007</v>
       </c>
     </row>
@@ -28594,7 +28597,7 @@
       <c r="B578" s="0" t="s">
         <v>1408</v>
       </c>
-      <c r="C578" s="143" t="n">
+      <c r="C578" s="144" t="n">
         <v>1.19249E-007</v>
       </c>
     </row>
@@ -28626,7 +28629,7 @@
       <c r="B582" s="0" t="s">
         <v>1412</v>
       </c>
-      <c r="C582" s="143" t="n">
+      <c r="C582" s="144" t="n">
         <v>1.18808E-007</v>
       </c>
     </row>
@@ -28714,7 +28717,7 @@
       <c r="B593" s="0" t="s">
         <v>1423</v>
       </c>
-      <c r="C593" s="143" t="n">
+      <c r="C593" s="144" t="n">
         <v>3.58628E-009</v>
       </c>
     </row>
@@ -28890,7 +28893,7 @@
       <c r="B615" s="0" t="s">
         <v>1446</v>
       </c>
-      <c r="C615" s="143" t="n">
+      <c r="C615" s="144" t="n">
         <v>1.9029E-010</v>
       </c>
     </row>
@@ -28954,7 +28957,7 @@
       <c r="B623" s="0" t="s">
         <v>1454</v>
       </c>
-      <c r="C623" s="143" t="n">
+      <c r="C623" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -28970,7 +28973,7 @@
       <c r="B625" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="C625" s="143" t="n">
+      <c r="C625" s="144" t="n">
         <v>1.49062E-005</v>
       </c>
     </row>
@@ -29490,7 +29493,7 @@
       <c r="B690" s="0" t="s">
         <v>1521</v>
       </c>
-      <c r="C690" s="143" t="n">
+      <c r="C690" s="144" t="n">
         <v>5.80654E-012</v>
       </c>
     </row>
@@ -29538,7 +29541,7 @@
       <c r="B696" s="0" t="s">
         <v>1527</v>
       </c>
-      <c r="C696" s="143" t="n">
+      <c r="C696" s="144" t="n">
         <v>-1.88255E-013</v>
       </c>
     </row>
@@ -29570,7 +29573,7 @@
       <c r="B700" s="0" t="s">
         <v>1531</v>
       </c>
-      <c r="C700" s="143" t="n">
+      <c r="C700" s="144" t="n">
         <v>-6.71043E-012</v>
       </c>
     </row>
@@ -29658,7 +29661,7 @@
       <c r="B711" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="C711" s="143" t="n">
+      <c r="C711" s="144" t="n">
         <v>-3.52979E-010</v>
       </c>
     </row>
@@ -29834,7 +29837,7 @@
       <c r="B733" s="0" t="s">
         <v>1565</v>
       </c>
-      <c r="C733" s="143" t="n">
+      <c r="C733" s="144" t="n">
         <v>2.64443E-012</v>
       </c>
     </row>
@@ -29898,7 +29901,7 @@
       <c r="B741" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="C741" s="143" t="n">
+      <c r="C741" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -29914,7 +29917,7 @@
       <c r="B743" s="0" t="s">
         <v>1575</v>
       </c>
-      <c r="C743" s="143" t="n">
+      <c r="C743" s="144" t="n">
         <v>-2.35319E-011</v>
       </c>
     </row>
@@ -30470,7 +30473,7 @@
       <c r="B811" s="0" t="s">
         <v>1651</v>
       </c>
-      <c r="C811" s="143" t="n">
+      <c r="C811" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -30986,7 +30989,7 @@
       <c r="B874" s="0" t="s">
         <v>1716</v>
       </c>
-      <c r="C874" s="143" t="n">
+      <c r="C874" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -31502,7 +31505,7 @@
       <c r="B937" s="0" t="s">
         <v>1781</v>
       </c>
-      <c r="C937" s="143" t="n">
+      <c r="C937" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32018,7 +32021,7 @@
       <c r="B1000" s="0" t="s">
         <v>1846</v>
       </c>
-      <c r="C1000" s="143" t="n">
+      <c r="C1000" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -32534,7 +32537,7 @@
       <c r="B1063" s="0" t="s">
         <v>1911</v>
       </c>
-      <c r="C1063" s="143" t="n">
+      <c r="C1063" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33050,7 +33053,7 @@
       <c r="B1126" s="0" t="s">
         <v>1976</v>
       </c>
-      <c r="C1126" s="143" t="n">
+      <c r="C1126" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -33566,7 +33569,7 @@
       <c r="B1189" s="0" t="s">
         <v>2041</v>
       </c>
-      <c r="C1189" s="143" t="n">
+      <c r="C1189" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34082,7 +34085,7 @@
       <c r="B1252" s="0" t="s">
         <v>2106</v>
       </c>
-      <c r="C1252" s="143" t="n">
+      <c r="C1252" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -34598,7 +34601,7 @@
       <c r="B1315" s="0" t="s">
         <v>2171</v>
       </c>
-      <c r="C1315" s="143" t="n">
+      <c r="C1315" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35114,7 +35117,7 @@
       <c r="B1378" s="0" t="s">
         <v>2236</v>
       </c>
-      <c r="C1378" s="143" t="n">
+      <c r="C1378" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -35630,7 +35633,7 @@
       <c r="B1441" s="0" t="s">
         <v>2301</v>
       </c>
-      <c r="C1441" s="143" t="n">
+      <c r="C1441" s="144" t="n">
         <v>877877000</v>
       </c>
     </row>
@@ -36078,7 +36081,7 @@
       <c r="B1497" s="0" t="s">
         <v>2360</v>
       </c>
-      <c r="C1497" s="143" t="n">
+      <c r="C1497" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36704,7 +36707,7 @@
       <c r="B1576" s="0" t="s">
         <v>2444</v>
       </c>
-      <c r="C1576" s="143" t="n">
+      <c r="C1576" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -36873,7 +36876,7 @@
       <c r="B1596" s="0" t="s">
         <v>2466</v>
       </c>
-      <c r="C1596" s="143" t="n">
+      <c r="C1596" s="144" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -36881,7 +36884,7 @@
       <c r="B1597" s="0" t="s">
         <v>2467</v>
       </c>
-      <c r="C1597" s="143" t="n">
+      <c r="C1597" s="144" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -37761,7 +37764,7 @@
       <c r="B1707" s="0" t="s">
         <v>2578</v>
       </c>
-      <c r="C1707" s="143" t="n">
+      <c r="C1707" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -37777,7 +37780,7 @@
       <c r="B1709" s="0" t="s">
         <v>2580</v>
       </c>
-      <c r="C1709" s="143" t="n">
+      <c r="C1709" s="144" t="n">
         <v>34197800</v>
       </c>
     </row>
@@ -38297,7 +38300,7 @@
       <c r="B1774" s="0" t="s">
         <v>2645</v>
       </c>
-      <c r="C1774" s="143" t="n">
+      <c r="C1774" s="144" t="n">
         <v>12147700</v>
       </c>
     </row>
@@ -38377,7 +38380,7 @@
       <c r="B1784" s="0" t="s">
         <v>2655</v>
       </c>
-      <c r="C1784" s="143" t="n">
+      <c r="C1784" s="144" t="n">
         <v>-7098040</v>
       </c>
     </row>
@@ -38465,7 +38468,7 @@
       <c r="B1795" s="0" t="s">
         <v>2666</v>
       </c>
-      <c r="C1795" s="143" t="n">
+      <c r="C1795" s="144" t="n">
         <v>4465690</v>
       </c>
     </row>
@@ -38641,7 +38644,7 @@
       <c r="B1817" s="0" t="s">
         <v>2689</v>
       </c>
-      <c r="C1817" s="143" t="n">
+      <c r="C1817" s="144" t="n">
         <v>1999640</v>
       </c>
     </row>
@@ -38705,7 +38708,7 @@
       <c r="B1825" s="0" t="s">
         <v>2697</v>
       </c>
-      <c r="C1825" s="143" t="n">
+      <c r="C1825" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -38721,7 +38724,7 @@
       <c r="B1827" s="0" t="s">
         <v>2699</v>
       </c>
-      <c r="C1827" s="143" t="n">
+      <c r="C1827" s="144" t="n">
         <v>-13532400</v>
       </c>
     </row>
@@ -39324,7 +39327,7 @@
       <c r="B1902" s="0" t="s">
         <v>2776</v>
       </c>
-      <c r="C1902" s="143" t="n">
+      <c r="C1902" s="144" t="n">
         <v>4.37265E-007</v>
       </c>
     </row>
@@ -39372,7 +39375,7 @@
       <c r="B1908" s="0" t="s">
         <v>2782</v>
       </c>
-      <c r="C1908" s="143" t="n">
+      <c r="C1908" s="144" t="n">
         <v>4.35882E-007</v>
       </c>
     </row>
@@ -39404,7 +39407,7 @@
       <c r="B1912" s="0" t="s">
         <v>2786</v>
       </c>
-      <c r="C1912" s="143" t="n">
+      <c r="C1912" s="144" t="n">
         <v>4.34577E-007</v>
       </c>
     </row>
@@ -39492,7 +39495,7 @@
       <c r="B1923" s="0" t="s">
         <v>2797</v>
       </c>
-      <c r="C1923" s="143" t="n">
+      <c r="C1923" s="144" t="n">
         <v>9.15083E-009</v>
       </c>
     </row>
@@ -39668,7 +39671,7 @@
       <c r="B1945" s="0" t="s">
         <v>2820</v>
       </c>
-      <c r="C1945" s="143" t="n">
+      <c r="C1945" s="144" t="n">
         <v>6.45121E-010</v>
       </c>
     </row>
@@ -39732,7 +39735,7 @@
       <c r="B1953" s="0" t="s">
         <v>2828</v>
       </c>
-      <c r="C1953" s="143" t="n">
+      <c r="C1953" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -39748,7 +39751,7 @@
       <c r="B1955" s="0" t="s">
         <v>2830</v>
       </c>
-      <c r="C1955" s="143" t="n">
+      <c r="C1955" s="144" t="n">
         <v>5.44853E-005</v>
       </c>
     </row>
@@ -40268,7 +40271,7 @@
       <c r="B2020" s="0" t="s">
         <v>2895</v>
       </c>
-      <c r="C2020" s="143" t="n">
+      <c r="C2020" s="144" t="n">
         <v>4.37266E-007</v>
       </c>
     </row>
@@ -40316,7 +40319,7 @@
       <c r="B2026" s="0" t="s">
         <v>2901</v>
       </c>
-      <c r="C2026" s="143" t="n">
+      <c r="C2026" s="144" t="n">
         <v>4.35881E-007</v>
       </c>
     </row>
@@ -40348,7 +40351,7 @@
       <c r="B2030" s="0" t="s">
         <v>2905</v>
       </c>
-      <c r="C2030" s="143" t="n">
+      <c r="C2030" s="144" t="n">
         <v>4.34576E-007</v>
       </c>
     </row>
@@ -40436,7 +40439,7 @@
       <c r="B2041" s="0" t="s">
         <v>2916</v>
       </c>
-      <c r="C2041" s="143" t="n">
+      <c r="C2041" s="144" t="n">
         <v>8.38028E-009</v>
       </c>
     </row>
@@ -40612,7 +40615,7 @@
       <c r="B2063" s="0" t="s">
         <v>2939</v>
       </c>
-      <c r="C2063" s="143" t="n">
+      <c r="C2063" s="144" t="n">
         <v>6.44996E-010</v>
       </c>
     </row>
@@ -40676,7 +40679,7 @@
       <c r="B2071" s="0" t="s">
         <v>2947</v>
       </c>
-      <c r="C2071" s="143" t="n">
+      <c r="C2071" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -40692,7 +40695,7 @@
       <c r="B2073" s="0" t="s">
         <v>2949</v>
       </c>
-      <c r="C2073" s="143" t="n">
+      <c r="C2073" s="144" t="n">
         <v>5.44851E-005</v>
       </c>
     </row>
@@ -41212,7 +41215,7 @@
       <c r="B2138" s="0" t="s">
         <v>3014</v>
       </c>
-      <c r="C2138" s="143" t="n">
+      <c r="C2138" s="144" t="n">
         <v>1.0545E-011</v>
       </c>
     </row>
@@ -41260,7 +41263,7 @@
       <c r="B2144" s="0" t="s">
         <v>3020</v>
       </c>
-      <c r="C2144" s="143" t="n">
+      <c r="C2144" s="144" t="n">
         <v>1.35517E-012</v>
       </c>
     </row>
@@ -41292,7 +41295,7 @@
       <c r="B2148" s="0" t="s">
         <v>3024</v>
       </c>
-      <c r="C2148" s="143" t="n">
+      <c r="C2148" s="144" t="n">
         <v>-1.06504E-011</v>
       </c>
     </row>
@@ -41380,7 +41383,7 @@
       <c r="B2159" s="0" t="s">
         <v>3035</v>
       </c>
-      <c r="C2159" s="143" t="n">
+      <c r="C2159" s="144" t="n">
         <v>7.70545E-010</v>
       </c>
     </row>
@@ -41556,7 +41559,7 @@
       <c r="B2181" s="0" t="s">
         <v>3058</v>
       </c>
-      <c r="C2181" s="143" t="n">
+      <c r="C2181" s="144" t="n">
         <v>4.1709E-012</v>
       </c>
     </row>
@@ -41620,7 +41623,7 @@
       <c r="B2189" s="0" t="s">
         <v>3066</v>
       </c>
-      <c r="C2189" s="143" t="n">
+      <c r="C2189" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -41636,7 +41639,7 @@
       <c r="B2191" s="0" t="s">
         <v>3068</v>
       </c>
-      <c r="C2191" s="143" t="n">
+      <c r="C2191" s="144" t="n">
         <v>1.69396E-010</v>
       </c>
     </row>
@@ -42212,7 +42215,7 @@
       <c r="B2263" s="0" t="s">
         <v>3143</v>
       </c>
-      <c r="C2263" s="143" t="n">
+      <c r="C2263" s="144" t="n">
         <v>877987000</v>
       </c>
     </row>
@@ -42499,7 +42502,7 @@
       <c r="F2297" s="0" t="s">
         <v>3188</v>
       </c>
-      <c r="G2297" s="145" t="n">
+      <c r="G2297" s="146" t="n">
         <v>41244</v>
       </c>
     </row>
@@ -42591,7 +42594,7 @@
       <c r="B2307" s="0" t="s">
         <v>3202</v>
       </c>
-      <c r="C2307" s="143" t="n">
+      <c r="C2307" s="144" t="n">
         <v>878236000</v>
       </c>
     </row>
@@ -42677,7 +42680,7 @@
       <c r="B2317" s="0" t="s">
         <v>3218</v>
       </c>
-      <c r="C2317" s="143" t="n">
+      <c r="C2317" s="144" t="n">
         <v>32640100000</v>
       </c>
     </row>
@@ -42685,7 +42688,7 @@
       <c r="B2318" s="0" t="s">
         <v>3219</v>
       </c>
-      <c r="C2318" s="143" t="n">
+      <c r="C2318" s="144" t="n">
         <v>33683000000</v>
       </c>
     </row>
@@ -42701,7 +42704,7 @@
       <c r="B2320" s="0" t="s">
         <v>3221</v>
       </c>
-      <c r="C2320" s="143" t="n">
+      <c r="C2320" s="144" t="n">
         <v>30883800</v>
       </c>
     </row>
@@ -42749,7 +42752,7 @@
       <c r="C2326" s="0" t="s">
         <v>3229</v>
       </c>
-      <c r="D2326" s="146" t="n">
+      <c r="D2326" s="147" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>
@@ -42800,7 +42803,7 @@
       <c r="C2332" s="0" t="s">
         <v>3237</v>
       </c>
-      <c r="D2332" s="146" t="n">
+      <c r="D2332" s="147" t="n">
         <v>0.600474537037037</v>
       </c>
     </row>
@@ -42819,7 +42822,7 @@
       <c r="D2334" s="0" t="s">
         <v>3240</v>
       </c>
-      <c r="E2334" s="146" t="n">
+      <c r="E2334" s="147" t="n">
         <v>0.157314814814815</v>
       </c>
     </row>
@@ -42877,7 +42880,7 @@
       <c r="E2339" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F2339" s="146" t="n">
+      <c r="F2339" s="147" t="n">
         <v>0.596990740740741</v>
       </c>
     </row>
@@ -43349,7 +43352,7 @@
       <c r="E2380" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F2380" s="146" t="n">
+      <c r="F2380" s="147" t="n">
         <v>0.443159722222222</v>
       </c>
     </row>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -10650,8 +10650,8 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="General"/>
     <numFmt numFmtId="169" formatCode="0.00E+000"/>
-    <numFmt numFmtId="170" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="171" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="171" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -11780,21 +11780,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="F58" activeCellId="0" sqref="F58"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="I58" activeCellId="0" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
@@ -14753,38 +14753,38 @@
         <v>181</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>30.904</v>
+        <v>30.857</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>270207</v>
+        <v>272755</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-22.857</v>
+        <v>-22.758</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>-264424</v>
+        <v>-263394</v>
       </c>
       <c r="K54" s="60" t="n">
         <v>43.326</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>393955</v>
-      </c>
-      <c r="M54" s="57" t="n">
-        <v>43.654</v>
+        <v>397443</v>
+      </c>
+      <c r="M54" s="60" t="n">
+        <v>43.326</v>
       </c>
       <c r="N54" s="28" t="n">
-        <v>400720</v>
+        <v>397443</v>
       </c>
       <c r="O54" s="57" t="n">
-        <v>17.5398</v>
+        <v>17.437</v>
       </c>
       <c r="P54" s="28" t="n">
-        <v>133595</v>
+        <v>138533</v>
       </c>
       <c r="T54" s="58" t="n">
         <v>53.33</v>
@@ -14902,10 +14902,10 @@
         <v>188</v>
       </c>
       <c r="E56" s="61" t="n">
-        <v>117.737</v>
+        <v>113.811</v>
       </c>
       <c r="F56" s="25" t="n">
-        <v>9456218</v>
+        <v>9251952</v>
       </c>
       <c r="G56" s="62" t="n">
         <v>24.4104</v>
@@ -14914,28 +14914,28 @@
         <v>4600216</v>
       </c>
       <c r="I56" s="61" t="n">
-        <v>59.419</v>
+        <v>54.22</v>
       </c>
       <c r="J56" s="23" t="n">
-        <v>6421815</v>
+        <v>6151303</v>
       </c>
       <c r="K56" s="61" t="n">
-        <v>127.717</v>
+        <v>126.254</v>
       </c>
       <c r="L56" s="23" t="n">
-        <v>9975528</v>
+        <v>9901395</v>
       </c>
       <c r="M56" s="61" t="n">
-        <v>129.275</v>
+        <v>126.254</v>
       </c>
       <c r="N56" s="23" t="n">
-        <v>10056598</v>
+        <v>9901395</v>
       </c>
       <c r="O56" s="61" t="n">
-        <v>101.258</v>
+        <v>97.298</v>
       </c>
       <c r="P56" s="23" t="n">
-        <v>8598781</v>
+        <v>8392750</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
@@ -14964,10 +14964,10 @@
         <v>191</v>
       </c>
       <c r="E57" s="64" t="n">
-        <v>117.793</v>
+        <v>116.993</v>
       </c>
       <c r="F57" s="32" t="n">
-        <v>7013607</v>
+        <v>6972005</v>
       </c>
       <c r="G57" s="65" t="n">
         <v>12.81</v>
@@ -14976,28 +14976,28 @@
         <v>1551088</v>
       </c>
       <c r="I57" s="64" t="n">
-        <v>51.275</v>
+        <v>47.419</v>
       </c>
       <c r="J57" s="32" t="n">
-        <v>3552538</v>
+        <v>3351899</v>
       </c>
       <c r="K57" s="64" t="n">
-        <v>127.673</v>
+        <v>129.699</v>
       </c>
       <c r="L57" s="32" t="n">
-        <v>7527711</v>
+        <v>7552437</v>
       </c>
       <c r="M57" s="64" t="n">
-        <v>130.031</v>
+        <v>129.699</v>
       </c>
       <c r="N57" s="32" t="n">
-        <v>7650409</v>
+        <v>7552437</v>
       </c>
       <c r="O57" s="64" t="n">
-        <v>98.114</v>
+        <v>95.993</v>
       </c>
       <c r="P57" s="32" t="n">
-        <v>5989663</v>
+        <v>5879304</v>
       </c>
       <c r="T57" s="30" t="n">
         <v>138.4</v>
@@ -15018,10 +15018,10 @@
         <v>194</v>
       </c>
       <c r="E58" s="64" t="n">
-        <v>117.793</v>
+        <v>116.993</v>
       </c>
       <c r="F58" s="28" t="n">
-        <v>5816859</v>
+        <v>5572330</v>
       </c>
       <c r="G58" s="65" t="n">
         <v>12.81</v>
@@ -15030,28 +15030,28 @@
         <v>354340</v>
       </c>
       <c r="I58" s="64" t="n">
-        <v>51.275</v>
+        <v>47.419</v>
       </c>
       <c r="J58" s="32" t="n">
-        <v>2355790</v>
+        <v>1952224</v>
       </c>
       <c r="K58" s="64" t="n">
-        <v>127.673</v>
+        <v>129.699</v>
       </c>
       <c r="L58" s="32" t="n">
-        <v>6330963</v>
+        <v>6355689</v>
       </c>
       <c r="M58" s="64" t="n">
-        <v>130.031</v>
+        <v>129.699</v>
       </c>
       <c r="N58" s="32" t="n">
-        <v>6453661</v>
+        <v>6355689</v>
       </c>
       <c r="O58" s="64" t="n">
-        <v>98.114</v>
+        <v>95.993</v>
       </c>
       <c r="P58" s="67" t="n">
-        <v>4792915</v>
+        <v>4479629</v>
       </c>
       <c r="T58" s="27" t="n">
         <v>138.4</v>
@@ -15077,40 +15077,40 @@
         <v>197</v>
       </c>
       <c r="E59" s="64" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="F59" s="28" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="G59" s="65" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="H59" s="68" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="I59" s="64" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="J59" s="28" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="K59" s="64" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="L59" s="28" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="M59" s="64" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="N59" s="28" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="O59" s="64" t="n">
-        <v>-11.0621</v>
+        <v>-9.0621</v>
       </c>
       <c r="P59" s="28" t="n">
-        <v>-202758</v>
+        <v>-242758</v>
       </c>
       <c r="T59" s="64" t="n">
         <v>-0.6</v>
@@ -15131,40 +15131,40 @@
         <v>200</v>
       </c>
       <c r="E60" s="69" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="F60" s="47" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="G60" s="70" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="H60" s="71" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="I60" s="69" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="J60" s="47" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="K60" s="69" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="L60" s="47" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="M60" s="69" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="N60" s="47" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="O60" s="69" t="n">
-        <v>16.38985</v>
+        <v>15.3898</v>
       </c>
       <c r="P60" s="47" t="n">
-        <v>140203</v>
+        <v>160203</v>
       </c>
       <c r="Q60" s="72"/>
       <c r="R60" s="72"/>
@@ -15548,7 +15548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="F24" s="104" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>30.904</v>
+        <v>30.857</v>
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="83" t="s">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="F26" s="104" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.857</v>
+        <v>-22.758</v>
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="83" t="s">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="F28" s="104" t="n">
         <f aca="false">'Modes A-F'!M54</f>
-        <v>43.654</v>
+        <v>43.326</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="F29" s="104" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>17.5398</v>
+        <v>17.437</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
@@ -17118,7 +17118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17132,14 +17132,14 @@
       <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17304,7 +17304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17314,7 +17314,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.36"/>
@@ -17373,11 +17373,11 @@
       </c>
       <c r="G3" s="122" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>17.5398</v>
+        <v>17.437</v>
       </c>
       <c r="H3" s="123" t="n">
         <f aca="false">G3-F3</f>
-        <v>-1.5633189817083</v>
+        <v>-1.6661189817083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17393,19 +17393,19 @@
       </c>
       <c r="E4" s="104" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>127.717</v>
+        <v>126.254</v>
       </c>
       <c r="F4" s="104" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>98.8059132666877</v>
+        <v>97.3429132666878</v>
       </c>
       <c r="G4" s="122" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>101.258</v>
+        <v>97.298</v>
       </c>
       <c r="H4" s="123" t="n">
         <f aca="false">G4-F4</f>
-        <v>2.45208673331224</v>
+        <v>-0.0449132666877574</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17422,25 +17422,25 @@
       </c>
       <c r="E5" s="127" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>127.673</v>
+        <v>129.699</v>
       </c>
       <c r="F5" s="127" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>95.2969028716503</v>
+        <v>97.3229028716503</v>
       </c>
       <c r="G5" s="128" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>98.114</v>
+        <v>95.993</v>
       </c>
       <c r="H5" s="123" t="n">
         <f aca="false">G5-F5</f>
-        <v>2.81709712834967</v>
+        <v>-1.32990287165035</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="123" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>1.23528829331787</v>
+        <v>-1.01364504001547</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>273</v>
@@ -17486,12 +17486,12 @@
       </c>
       <c r="E10" s="123" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>30.904</v>
+        <v>30.857</v>
       </c>
       <c r="F10" s="123"/>
       <c r="G10" s="132" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>33.0854000290853</v>
+        <v>33.0384000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17507,12 +17507,12 @@
       </c>
       <c r="E11" s="123" t="n">
         <f aca="false">'Modes A-F'!E57</f>
-        <v>117.793</v>
+        <v>116.993</v>
       </c>
       <c r="F11" s="123"/>
       <c r="G11" s="132" t="n">
         <f aca="false">E11-B11*TAN(2*(G9-E9)/1000)</f>
-        <v>120.101400030779</v>
+        <v>119.301400030779</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17529,12 +17529,12 @@
       </c>
       <c r="E12" s="133" t="n">
         <f aca="false">'Modes A-F'!E58</f>
-        <v>117.793</v>
+        <v>116.993</v>
       </c>
       <c r="F12" s="133"/>
       <c r="G12" s="134" t="n">
         <f aca="false">E12-B12*TAN(2*(G9-E9)/1000)</f>
-        <v>120.332400033859</v>
+        <v>119.532400033859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17635,15 +17635,15 @@
       </c>
       <c r="E22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-37.0623914229833</v>
+        <v>-37.1093914229833</v>
       </c>
       <c r="F22" s="139" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.857</v>
+        <v>-22.758</v>
       </c>
       <c r="G22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-32.11102924884</v>
+        <v>-32.15802924884</v>
       </c>
       <c r="I22" s="119"/>
     </row>
@@ -17660,15 +17660,15 @@
       </c>
       <c r="E23" s="123" t="n">
         <f aca="false">E11-B23*TAN(2*(E19)/1000)+I17</f>
-        <v>45.0322674801944</v>
+        <v>44.2322674801944</v>
       </c>
       <c r="F23" s="139" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>59.419</v>
+        <v>54.22</v>
       </c>
       <c r="G23" s="123" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
-        <v>50.3328981480704</v>
+        <v>49.5328981480704</v>
       </c>
       <c r="I23" s="119"/>
     </row>
@@ -17686,15 +17686,15 @@
       </c>
       <c r="E24" s="133" t="n">
         <f aca="false">E12-B24*TAN(2*(E19)/1000)+I17</f>
-        <v>36.3118517843995</v>
+        <v>35.5118517843995</v>
       </c>
       <c r="F24" s="140" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>51.275</v>
+        <v>47.419</v>
       </c>
       <c r="G24" s="141" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
-        <v>42.247766090482</v>
+        <v>41.447766090482</v>
       </c>
       <c r="H24" s="125"/>
       <c r="I24" s="142"/>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="E34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-64.0706236638297</v>
+        <v>-64.1176236638297</v>
       </c>
       <c r="F34" s="139" t="n">
         <f aca="false">'Modes A-F'!G54</f>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="G34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-59.1190007866982</v>
+        <v>-59.1660007866982</v>
       </c>
       <c r="I34" s="119"/>
     </row>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="E35" s="123" t="n">
         <f aca="false">E11-B35*TAN(2*(E31)/1000)</f>
-        <v>16.1188777773465</v>
+        <v>15.3188777773465</v>
       </c>
       <c r="F35" s="139" t="n">
         <f aca="false">'Modes A-F'!G56</f>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="G35" s="123" t="n">
         <f aca="false">E11-B35*TAN(2*(G31)/1000)+I29</f>
-        <v>21.4197875381681</v>
+        <v>20.6197875381681</v>
       </c>
       <c r="I35" s="119"/>
     </row>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="E36" s="133" t="n">
         <f aca="false">E12-B36*TAN(2*(E31)/1000)</f>
-        <v>3.93317567428903</v>
+        <v>3.13317567428902</v>
       </c>
       <c r="F36" s="140" t="n">
         <f aca="false">'Modes A-F'!G57</f>
@@ -17856,7 +17856,7 @@
       </c>
       <c r="G36" s="133" t="n">
         <f aca="false">E12-B36*TAN(2*(G31)/1000)+I29</f>
-        <v>9.8694025227675</v>
+        <v>9.06940252276749</v>
       </c>
       <c r="H36" s="125"/>
       <c r="I36" s="142"/>
@@ -17878,7 +17878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -17888,7 +17888,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.26"/>
   </cols>
@@ -23949,7 +23949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -23959,7 +23959,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.14"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11787,14 +11787,14 @@
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="I58" activeCellId="0" sqref="I58"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="I55" activeCellId="0" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
@@ -14763,7 +14763,7 @@
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-22.758</v>
+        <v>-22.97</v>
       </c>
       <c r="J54" s="28" t="n">
         <v>-263394</v>
@@ -16998,7 +16998,7 @@
       </c>
       <c r="F26" s="104" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.758</v>
+        <v>-22.97</v>
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="83" t="s">
@@ -17132,7 +17132,7 @@
       <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
@@ -17314,7 +17314,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.36"/>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="F22" s="139" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.758</v>
+        <v>-22.97</v>
       </c>
       <c r="G22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
@@ -17888,7 +17888,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.26"/>
   </cols>
@@ -23959,7 +23959,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.14"/>

--- a/Modes.xlsx
+++ b/Modes.xlsx
@@ -11787,14 +11787,14 @@
   <dimension ref="A1:AMJ66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="I55" activeCellId="0" sqref="I55"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.04"/>
@@ -13835,46 +13835,46 @@
         <v>135</v>
       </c>
       <c r="E40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>-13926</v>
+        <v>2679</v>
       </c>
       <c r="G40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>-13926</v>
+        <v>2679</v>
       </c>
       <c r="I40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>-13926</v>
+        <v>2679</v>
       </c>
       <c r="K40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>-13926</v>
+        <v>2679</v>
       </c>
       <c r="M40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>-13926</v>
+        <v>2679</v>
       </c>
       <c r="O40" s="33" t="n">
-        <v>-0.1735</v>
+        <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>-13926</v>
-      </c>
-      <c r="T40" s="30" t="n">
-        <v>-0.16105</v>
-      </c>
-      <c r="U40" s="32" t="n">
-        <v>-13803</v>
+        <v>2679</v>
+      </c>
+      <c r="T40" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>2679</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13889,46 +13889,46 @@
         <v>138</v>
       </c>
       <c r="E41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>-25564</v>
+        <v>-10199</v>
       </c>
       <c r="G41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>-25564</v>
+        <v>-10199</v>
       </c>
       <c r="I41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>-25564</v>
+        <v>-10199</v>
       </c>
       <c r="K41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>-25564</v>
+        <v>-10199</v>
       </c>
       <c r="M41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>-25564</v>
+        <v>-10199</v>
       </c>
       <c r="O41" s="33" t="n">
-        <v>0.1936</v>
+        <v>0</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>-25564</v>
-      </c>
-      <c r="T41" s="30" t="n">
-        <v>0.16105</v>
-      </c>
-      <c r="U41" s="32" t="n">
-        <v>-25895</v>
+        <v>-10199</v>
+      </c>
+      <c r="T41" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>-10199</v>
       </c>
     </row>
     <row r="42" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14753,38 +14753,38 @@
         <v>181</v>
       </c>
       <c r="E54" s="57" t="n">
-        <v>30.857</v>
+        <v>31.259</v>
       </c>
       <c r="F54" s="26" t="n">
-        <v>272755</v>
+        <v>276763</v>
       </c>
       <c r="G54" s="58" t="n">
         <v>-55.188</v>
       </c>
       <c r="H54" s="59"/>
       <c r="I54" s="57" t="n">
-        <v>-22.97</v>
+        <v>-22.744</v>
       </c>
       <c r="J54" s="28" t="n">
-        <v>-263394</v>
+        <v>-263256</v>
       </c>
       <c r="K54" s="60" t="n">
-        <v>43.326</v>
+        <v>43.506</v>
       </c>
       <c r="L54" s="28" t="n">
-        <v>397443</v>
+        <v>399229</v>
       </c>
       <c r="M54" s="60" t="n">
-        <v>43.326</v>
+        <v>43.749</v>
       </c>
       <c r="N54" s="28" t="n">
-        <v>397443</v>
+        <v>401650</v>
       </c>
       <c r="O54" s="57" t="n">
-        <v>17.437</v>
+        <v>17.735</v>
       </c>
       <c r="P54" s="28" t="n">
-        <v>138533</v>
+        <v>141529</v>
       </c>
       <c r="T54" s="58" t="n">
         <v>53.33</v>
@@ -14914,25 +14914,25 @@
         <v>4600216</v>
       </c>
       <c r="I56" s="61" t="n">
-        <v>54.22</v>
+        <v>54.559</v>
       </c>
       <c r="J56" s="23" t="n">
         <v>6151303</v>
       </c>
       <c r="K56" s="61" t="n">
-        <v>126.254</v>
+        <v>125.596</v>
       </c>
       <c r="L56" s="23" t="n">
         <v>9901395</v>
       </c>
       <c r="M56" s="61" t="n">
-        <v>126.254</v>
+        <v>126.051</v>
       </c>
       <c r="N56" s="23" t="n">
         <v>9901395</v>
       </c>
       <c r="O56" s="61" t="n">
-        <v>97.298</v>
+        <v>97.709</v>
       </c>
       <c r="P56" s="23" t="n">
         <v>8392750</v>
@@ -14976,25 +14976,25 @@
         <v>1551088</v>
       </c>
       <c r="I57" s="64" t="n">
-        <v>47.419</v>
+        <v>47.758</v>
       </c>
       <c r="J57" s="32" t="n">
         <v>3351899</v>
       </c>
       <c r="K57" s="64" t="n">
-        <v>129.699</v>
+        <v>129.041</v>
       </c>
       <c r="L57" s="32" t="n">
         <v>7552437</v>
       </c>
       <c r="M57" s="64" t="n">
-        <v>129.699</v>
+        <v>129.496</v>
       </c>
       <c r="N57" s="32" t="n">
         <v>7552437</v>
       </c>
       <c r="O57" s="64" t="n">
-        <v>95.993</v>
+        <v>96.404</v>
       </c>
       <c r="P57" s="32" t="n">
         <v>5879304</v>
@@ -15030,25 +15030,25 @@
         <v>354340</v>
       </c>
       <c r="I58" s="64" t="n">
-        <v>47.419</v>
+        <v>47.758</v>
       </c>
       <c r="J58" s="32" t="n">
         <v>1952224</v>
       </c>
       <c r="K58" s="64" t="n">
-        <v>129.699</v>
+        <v>129.041</v>
       </c>
       <c r="L58" s="32" t="n">
         <v>6355689</v>
       </c>
       <c r="M58" s="64" t="n">
-        <v>129.699</v>
+        <v>129.496</v>
       </c>
       <c r="N58" s="32" t="n">
         <v>6355689</v>
       </c>
       <c r="O58" s="64" t="n">
-        <v>95.993</v>
+        <v>96.404</v>
       </c>
       <c r="P58" s="67" t="n">
         <v>4479629</v>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="F24" s="104" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>30.857</v>
+        <v>31.259</v>
       </c>
       <c r="G24" s="0"/>
       <c r="H24" s="83" t="s">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="F26" s="104" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.97</v>
+        <v>-22.744</v>
       </c>
       <c r="G26" s="0"/>
       <c r="H26" s="83" t="s">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="F27" s="104" t="n">
         <f aca="false">'Modes A-F'!K54</f>
-        <v>43.326</v>
+        <v>43.506</v>
       </c>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="F28" s="104" t="n">
         <f aca="false">'Modes A-F'!M54</f>
-        <v>43.326</v>
+        <v>43.749</v>
       </c>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="F29" s="104" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>17.437</v>
+        <v>17.735</v>
       </c>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
@@ -17132,7 +17132,7 @@
       <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33"/>
@@ -17314,7 +17314,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.36"/>
@@ -17373,11 +17373,11 @@
       </c>
       <c r="G3" s="122" t="n">
         <f aca="false">'Modes A-F'!O54</f>
-        <v>17.437</v>
+        <v>17.735</v>
       </c>
       <c r="H3" s="123" t="n">
         <f aca="false">G3-F3</f>
-        <v>-1.6661189817083</v>
+        <v>-1.3681189817083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17393,19 +17393,19 @@
       </c>
       <c r="E4" s="104" t="n">
         <f aca="false">'Modes A-F'!K56</f>
-        <v>126.254</v>
+        <v>125.596</v>
       </c>
       <c r="F4" s="104" t="n">
         <f aca="false">E4-B4*TAN(2*(F2-E2)/1000)</f>
-        <v>97.3429132666878</v>
+        <v>96.6849132666878</v>
       </c>
       <c r="G4" s="122" t="n">
         <f aca="false">'Modes A-F'!O56</f>
-        <v>97.298</v>
+        <v>97.709</v>
       </c>
       <c r="H4" s="123" t="n">
         <f aca="false">G4-F4</f>
-        <v>-0.0449132666877574</v>
+        <v>1.02408673331225</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17422,25 +17422,25 @@
       </c>
       <c r="E5" s="127" t="n">
         <f aca="false">'Modes A-F'!K57</f>
-        <v>129.699</v>
+        <v>129.041</v>
       </c>
       <c r="F5" s="127" t="n">
         <f aca="false">E5-B5*TAN(2*(F2-E2)/1000)</f>
-        <v>97.3229028716503</v>
+        <v>96.6649028716503</v>
       </c>
       <c r="G5" s="128" t="n">
         <f aca="false">'Modes A-F'!O57</f>
-        <v>95.993</v>
+        <v>96.404</v>
       </c>
       <c r="H5" s="123" t="n">
         <f aca="false">G5-F5</f>
-        <v>-1.32990287165035</v>
+        <v>-0.26090287165033</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="123" t="n">
         <f aca="false">AVERAGE(H3,H4,H5)</f>
-        <v>-1.01364504001547</v>
+        <v>-0.201645040015462</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>273</v>
@@ -17486,12 +17486,12 @@
       </c>
       <c r="E10" s="123" t="n">
         <f aca="false">'Modes A-F'!E54</f>
-        <v>30.857</v>
+        <v>31.259</v>
       </c>
       <c r="F10" s="123"/>
       <c r="G10" s="132" t="n">
         <f aca="false">E10-B10*TAN(2*(G9-E9)/1000)</f>
-        <v>33.0384000290853</v>
+        <v>33.4404000290853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17635,15 +17635,15 @@
       </c>
       <c r="E22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(E19)/1000)+I17</f>
-        <v>-37.1093914229833</v>
+        <v>-36.7073914229833</v>
       </c>
       <c r="F22" s="139" t="n">
         <f aca="false">'Modes A-F'!I54</f>
-        <v>-22.97</v>
+        <v>-22.744</v>
       </c>
       <c r="G22" s="123" t="n">
         <f aca="false">E10-B22*TAN(2*(G19)/1000)+I17</f>
-        <v>-32.15802924884</v>
+        <v>-31.75602924884</v>
       </c>
       <c r="I22" s="119"/>
     </row>
@@ -17664,7 +17664,7 @@
       </c>
       <c r="F23" s="139" t="n">
         <f aca="false">'Modes A-F'!I56</f>
-        <v>54.22</v>
+        <v>54.559</v>
       </c>
       <c r="G23" s="123" t="n">
         <f aca="false">E11-B23*TAN(2*(G19)/1000)+I17</f>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="F24" s="140" t="n">
         <f aca="false">'Modes A-F'!I57</f>
-        <v>47.419</v>
+        <v>47.758</v>
       </c>
       <c r="G24" s="141" t="n">
         <f aca="false">E12-B24*TAN(2*(G19)/1000)+I17</f>
@@ -17797,7 +17797,7 @@
       </c>
       <c r="E34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(E31)/1000)</f>
-        <v>-64.1176236638297</v>
+        <v>-63.7156236638297</v>
       </c>
       <c r="F34" s="139" t="n">
         <f aca="false">'Modes A-F'!G54</f>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="G34" s="123" t="n">
         <f aca="false">E10-B34*TAN(2*(G31)/1000)+I29</f>
-        <v>-59.1660007866982</v>
+        <v>-58.7640007866982</v>
       </c>
       <c r="I34" s="119"/>
     </row>
@@ -17888,7 +17888,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.26"/>
   </cols>
@@ -23959,7 +23959,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.14"/>
